--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid434587"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid645525"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,54 +26,123 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>10/06/2024</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>06/06/2024</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>05/06/2024</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>04/06/2024</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>03/06/2024</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>30/05/2024</t>
+  </si>
+  <si>
+    <t>0.983</t>
+  </si>
+  <si>
+    <t>29/05/2024</t>
+  </si>
+  <si>
+    <t>28/05/2024</t>
+  </si>
+  <si>
+    <t>0.989</t>
+  </si>
+  <si>
+    <t>27/05/2024</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>23/05/2024</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>21/05/2024</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>16/05/2024</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
     <t>14/05/2024</t>
   </si>
   <si>
-    <t>0.990</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>13/05/2024</t>
   </si>
   <si>
-    <t>0.991</t>
-  </si>
-  <si>
     <t>10/05/2024</t>
   </si>
   <si>
-    <t>0.992</t>
-  </si>
-  <si>
     <t>09/05/2024</t>
   </si>
   <si>
-    <t>0.988</t>
-  </si>
-  <si>
     <t>08/05/2024</t>
   </si>
   <si>
     <t>07/05/2024</t>
   </si>
   <si>
-    <t>0.989</t>
-  </si>
-  <si>
     <t>06/05/2024</t>
   </si>
   <si>
-    <t>0.987</t>
-  </si>
-  <si>
     <t>03/05/2024</t>
   </si>
   <si>
-    <t>0.983</t>
-  </si>
-  <si>
     <t>02/05/2024</t>
   </si>
   <si>
@@ -83,9 +152,6 @@
     <t>30/04/2024</t>
   </si>
   <si>
-    <t>0.981</t>
-  </si>
-  <si>
     <t>29/04/2024</t>
   </si>
   <si>
@@ -143,9 +209,6 @@
     <t>15/04/2024</t>
   </si>
   <si>
-    <t>0.993</t>
-  </si>
-  <si>
     <t>12/04/2024</t>
   </si>
   <si>
@@ -272,18 +335,12 @@
     <t>01/03/2024</t>
   </si>
   <si>
-    <t>0.998</t>
-  </si>
-  <si>
     <t>29/02/2024</t>
   </si>
   <si>
     <t>28/02/2024</t>
   </si>
   <si>
-    <t>0.994</t>
-  </si>
-  <si>
     <t>27/02/2024</t>
   </si>
   <si>
@@ -297,9 +354,6 @@
   </si>
   <si>
     <t>21/02/2024</t>
-  </si>
-  <si>
-    <t>0.985</t>
   </si>
   <si>
     <t>20/02/2024</t>
@@ -1453,7 +1507,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1461,10 +1515,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1497,7 +1551,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1505,10 +1559,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1516,10 +1570,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1527,10 +1581,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1538,10 +1592,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1549,10 +1603,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1560,10 +1614,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1571,10 +1625,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1582,10 +1636,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1593,10 +1647,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1604,10 +1658,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1615,10 +1669,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1626,10 +1680,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1637,10 +1691,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1648,10 +1702,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1659,10 +1713,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1670,10 +1724,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1681,10 +1735,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1692,10 +1746,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1703,10 +1757,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1714,10 +1768,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1725,10 +1779,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1736,10 +1790,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1747,10 +1801,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1758,10 +1812,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1769,10 +1823,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1780,10 +1834,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1791,10 +1845,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1802,10 +1856,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1813,10 +1867,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1824,10 +1878,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1835,10 +1889,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1846,10 +1900,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1857,10 +1911,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1868,10 +1922,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1879,10 +1933,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1890,10 +1944,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1901,10 +1955,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1912,10 +1966,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1923,10 +1977,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1934,10 +1988,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1945,10 +1999,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -1956,10 +2010,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -1967,10 +2021,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -1978,10 +2032,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -1989,10 +2043,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2000,10 +2054,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2011,10 +2065,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2022,10 +2076,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2033,10 +2087,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2044,10 +2098,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B60" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2055,10 +2109,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2066,10 +2120,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2077,10 +2131,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2088,10 +2142,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2099,10 +2153,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2110,10 +2164,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2121,10 +2175,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2132,10 +2186,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2143,10 +2197,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B69" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2154,10 +2208,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2165,10 +2219,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B71" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2176,10 +2230,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2187,10 +2241,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2198,10 +2252,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2209,10 +2263,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B75" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2220,10 +2274,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2231,10 +2285,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B77" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2242,10 +2296,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2253,10 +2307,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2264,10 +2318,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2275,10 +2329,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2286,10 +2340,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B82" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2297,10 +2351,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2308,10 +2362,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B84" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2319,10 +2373,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2330,10 +2384,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2341,10 +2395,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2352,10 +2406,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>129</v>
+        <v>21</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2363,10 +2417,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2374,10 +2428,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2385,10 +2439,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2396,10 +2450,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2407,10 +2461,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2418,10 +2472,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>132</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2429,10 +2483,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2440,10 +2494,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2451,10 +2505,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2462,10 +2516,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2473,10 +2527,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B99" t="s">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2484,10 +2538,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B100" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2495,10 +2549,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2506,10 +2560,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2517,10 +2571,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B103" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2528,10 +2582,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2539,10 +2593,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2550,10 +2604,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" t="s">
         <v>147</v>
-      </c>
-      <c r="B106" t="s">
-        <v>148</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2561,10 +2615,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2572,10 +2626,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B108" t="s">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2583,10 +2637,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2594,10 +2648,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B110" t="s">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2605,10 +2659,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B111" t="s">
-        <v>157</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2616,10 +2670,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B112" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2627,10 +2681,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B113" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2638,10 +2692,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B114" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2649,10 +2703,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B115" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2660,10 +2714,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B116" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2671,10 +2725,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B117" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2682,10 +2736,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B118" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2693,10 +2747,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B119" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2704,10 +2758,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>21</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2715,10 +2769,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B121" t="s">
-        <v>172</v>
+        <v>114</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2726,10 +2780,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B122" t="s">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2737,10 +2791,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B123" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2748,10 +2802,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B124" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2759,10 +2813,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B125" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2770,10 +2824,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B126" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2781,10 +2835,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B127" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2792,10 +2846,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B128" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2803,10 +2857,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B129" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2814,10 +2868,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B130" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2825,10 +2879,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B131" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2836,10 +2890,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B132" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2847,10 +2901,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B133" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2858,10 +2912,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B134" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2869,10 +2923,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B135" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2880,10 +2934,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B136" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2891,10 +2945,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B137" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2902,10 +2956,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B138" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2913,10 +2967,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B139" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2924,10 +2978,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B140" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2935,10 +2989,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B141" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2946,10 +3000,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B142" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2957,10 +3011,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="B143" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2968,10 +3022,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B144" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2979,10 +3033,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="B145" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2990,10 +3044,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B146" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3001,10 +3055,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B147" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3012,10 +3066,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="B148" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3023,10 +3077,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3034,10 +3088,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3045,10 +3099,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B151" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3056,10 +3110,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B152" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3067,10 +3121,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B153" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3078,10 +3132,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B154" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3089,10 +3143,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B155" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3100,10 +3154,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="B156" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3111,10 +3165,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B157" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3122,10 +3176,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B158" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3133,10 +3187,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B159" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3144,10 +3198,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B160" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3155,10 +3209,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B161" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3166,10 +3220,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B162" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3177,10 +3231,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B163" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3188,10 +3242,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B164" t="s">
-        <v>161</v>
+        <v>234</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3199,10 +3253,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B165" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3210,10 +3264,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B166" t="s">
-        <v>155</v>
+        <v>238</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3221,10 +3275,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B167" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3232,10 +3286,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B168" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3243,10 +3297,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B169" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3254,10 +3308,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B170" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3265,10 +3319,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B171" t="s">
-        <v>148</v>
+        <v>244</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3276,10 +3330,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B172" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3287,10 +3341,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B173" t="s">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3298,10 +3352,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B174" t="s">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3309,10 +3363,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B175" t="s">
-        <v>121</v>
+        <v>238</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3320,10 +3374,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B176" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3331,10 +3385,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B177" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3342,10 +3396,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B178" t="s">
-        <v>121</v>
+        <v>234</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3353,10 +3407,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B179" t="s">
-        <v>155</v>
+        <v>256</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3364,10 +3418,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B180" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3375,10 +3429,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B181" t="s">
-        <v>264</v>
+        <v>194</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3386,10 +3440,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B182" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3397,10 +3451,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B183" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3408,10 +3462,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B184" t="s">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3419,10 +3473,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B185" t="s">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3430,10 +3484,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B186" t="s">
-        <v>165</v>
+        <v>264</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3441,10 +3495,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B187" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3452,10 +3506,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B188" t="s">
-        <v>37</v>
+        <v>264</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3463,10 +3517,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B189" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3474,10 +3528,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B190" t="s">
-        <v>20</v>
+        <v>270</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3485,10 +3539,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B191" t="s">
-        <v>20</v>
+        <v>169</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3496,10 +3550,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B192" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3507,10 +3561,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B193" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3518,10 +3572,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B194" t="s">
-        <v>30</v>
+        <v>275</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3529,10 +3583,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B195" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3540,10 +3594,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B196" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3551,10 +3605,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B197" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3562,10 +3616,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B198" t="s">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3573,10 +3627,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B199" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3584,10 +3638,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B200" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3595,10 +3649,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
+        <v>284</v>
+      </c>
+      <c r="B201" t="s">
         <v>285</v>
-      </c>
-      <c r="B201" t="s">
-        <v>46</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3609,7 +3663,7 @@
         <v>286</v>
       </c>
       <c r="B202" t="s">
-        <v>4</v>
+        <v>282</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3620,7 +3674,7 @@
         <v>287</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3631,7 +3685,7 @@
         <v>288</v>
       </c>
       <c r="B204" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3642,7 +3696,7 @@
         <v>289</v>
       </c>
       <c r="B205" t="s">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3653,7 +3707,7 @@
         <v>290</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3664,7 +3718,7 @@
         <v>291</v>
       </c>
       <c r="B207" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3675,7 +3729,7 @@
         <v>292</v>
       </c>
       <c r="B208" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3686,7 +3740,7 @@
         <v>293</v>
       </c>
       <c r="B209" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3697,7 +3751,7 @@
         <v>294</v>
       </c>
       <c r="B210" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3708,7 +3762,7 @@
         <v>295</v>
       </c>
       <c r="B211" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3719,7 +3773,7 @@
         <v>296</v>
       </c>
       <c r="B212" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3730,7 +3784,7 @@
         <v>297</v>
       </c>
       <c r="B213" t="s">
-        <v>26</v>
+        <v>147</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3741,7 +3795,7 @@
         <v>298</v>
       </c>
       <c r="B214" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3752,7 +3806,7 @@
         <v>299</v>
       </c>
       <c r="B215" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3763,7 +3817,7 @@
         <v>300</v>
       </c>
       <c r="B216" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3774,7 +3828,7 @@
         <v>301</v>
       </c>
       <c r="B217" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3785,7 +3839,7 @@
         <v>302</v>
       </c>
       <c r="B218" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3796,7 +3850,7 @@
         <v>303</v>
       </c>
       <c r="B219" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3807,7 +3861,7 @@
         <v>304</v>
       </c>
       <c r="B220" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3818,7 +3872,7 @@
         <v>305</v>
       </c>
       <c r="B221" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3829,7 +3883,7 @@
         <v>306</v>
       </c>
       <c r="B222" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3840,7 +3894,7 @@
         <v>307</v>
       </c>
       <c r="B223" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3851,7 +3905,7 @@
         <v>308</v>
       </c>
       <c r="B224" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3862,7 +3916,7 @@
         <v>309</v>
       </c>
       <c r="B225" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -3873,7 +3927,7 @@
         <v>310</v>
       </c>
       <c r="B226" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -3884,7 +3938,7 @@
         <v>311</v>
       </c>
       <c r="B227" t="s">
-        <v>257</v>
+        <v>33</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -3895,7 +3949,7 @@
         <v>312</v>
       </c>
       <c r="B228" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -3906,7 +3960,7 @@
         <v>313</v>
       </c>
       <c r="B229" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -3917,7 +3971,7 @@
         <v>314</v>
       </c>
       <c r="B230" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -3928,7 +3982,7 @@
         <v>315</v>
       </c>
       <c r="B231" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -3939,7 +3993,7 @@
         <v>316</v>
       </c>
       <c r="B232" t="s">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -3950,7 +4004,7 @@
         <v>317</v>
       </c>
       <c r="B233" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -3961,7 +4015,7 @@
         <v>318</v>
       </c>
       <c r="B234" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -3972,7 +4026,7 @@
         <v>319</v>
       </c>
       <c r="B235" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -3983,7 +4037,7 @@
         <v>320</v>
       </c>
       <c r="B236" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -3994,7 +4048,7 @@
         <v>321</v>
       </c>
       <c r="B237" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4005,7 +4059,7 @@
         <v>322</v>
       </c>
       <c r="B238" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4016,7 +4070,7 @@
         <v>323</v>
       </c>
       <c r="B239" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4027,7 +4081,7 @@
         <v>324</v>
       </c>
       <c r="B240" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4038,7 +4092,7 @@
         <v>325</v>
       </c>
       <c r="B241" t="s">
-        <v>267</v>
+        <v>57</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4049,7 +4103,7 @@
         <v>326</v>
       </c>
       <c r="B242" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4060,7 +4114,7 @@
         <v>327</v>
       </c>
       <c r="B243" t="s">
-        <v>167</v>
+        <v>59</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4071,7 +4125,7 @@
         <v>328</v>
       </c>
       <c r="B244" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4082,7 +4136,7 @@
         <v>329</v>
       </c>
       <c r="B245" t="s">
-        <v>174</v>
+        <v>275</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4093,7 +4147,7 @@
         <v>330</v>
       </c>
       <c r="B246" t="s">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4104,7 +4158,7 @@
         <v>331</v>
       </c>
       <c r="B247" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4115,7 +4169,7 @@
         <v>332</v>
       </c>
       <c r="B248" t="s">
-        <v>264</v>
+        <v>46</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4126,7 +4180,7 @@
         <v>333</v>
       </c>
       <c r="B249" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4137,7 +4191,7 @@
         <v>334</v>
       </c>
       <c r="B250" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4148,7 +4202,7 @@
         <v>335</v>
       </c>
       <c r="B251" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4159,7 +4213,7 @@
         <v>336</v>
       </c>
       <c r="B252" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4170,7 +4224,7 @@
         <v>337</v>
       </c>
       <c r="B253" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4181,7 +4235,7 @@
         <v>338</v>
       </c>
       <c r="B254" t="s">
-        <v>339</v>
+        <v>43</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4189,10 +4243,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B255" t="s">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4200,10 +4254,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B256" t="s">
-        <v>179</v>
+        <v>57</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4211,10 +4265,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B257" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4222,10 +4276,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B258" t="s">
-        <v>344</v>
+        <v>261</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4233,10 +4287,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B259" t="s">
-        <v>174</v>
+        <v>285</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4244,10 +4298,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B260" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4255,10 +4309,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B261" t="s">
-        <v>348</v>
+        <v>185</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4266,12 +4320,210 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
+        <v>346</v>
+      </c>
+      <c r="B262" t="s">
+        <v>190</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>347</v>
+      </c>
+      <c r="B263" t="s">
+        <v>192</v>
+      </c>
+      <c r="C263" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>348</v>
+      </c>
+      <c r="B264" t="s">
+        <v>261</v>
+      </c>
+      <c r="C264" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
         <v>349</v>
       </c>
-      <c r="B262" t="s">
-        <v>172</v>
-      </c>
-      <c r="C262" t="s">
+      <c r="B265" t="s">
+        <v>261</v>
+      </c>
+      <c r="C265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>350</v>
+      </c>
+      <c r="B266" t="s">
+        <v>282</v>
+      </c>
+      <c r="C266" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>351</v>
+      </c>
+      <c r="B267" t="s">
+        <v>194</v>
+      </c>
+      <c r="C267" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>352</v>
+      </c>
+      <c r="B268" t="s">
+        <v>194</v>
+      </c>
+      <c r="C268" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>353</v>
+      </c>
+      <c r="B269" t="s">
+        <v>197</v>
+      </c>
+      <c r="C269" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>354</v>
+      </c>
+      <c r="B270" t="s">
+        <v>197</v>
+      </c>
+      <c r="C270" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>355</v>
+      </c>
+      <c r="B271" t="s">
+        <v>261</v>
+      </c>
+      <c r="C271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>356</v>
+      </c>
+      <c r="B272" t="s">
+        <v>357</v>
+      </c>
+      <c r="C272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>358</v>
+      </c>
+      <c r="B273" t="s">
+        <v>261</v>
+      </c>
+      <c r="C273" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>359</v>
+      </c>
+      <c r="B274" t="s">
+        <v>197</v>
+      </c>
+      <c r="C274" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>360</v>
+      </c>
+      <c r="B275" t="s">
+        <v>197</v>
+      </c>
+      <c r="C275" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>361</v>
+      </c>
+      <c r="B276" t="s">
+        <v>362</v>
+      </c>
+      <c r="C276" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>363</v>
+      </c>
+      <c r="B277" t="s">
+        <v>192</v>
+      </c>
+      <c r="C277" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>364</v>
+      </c>
+      <c r="B278" t="s">
+        <v>192</v>
+      </c>
+      <c r="C278" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>365</v>
+      </c>
+      <c r="B279" t="s">
+        <v>366</v>
+      </c>
+      <c r="C279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>367</v>
+      </c>
+      <c r="B280" t="s">
+        <v>190</v>
+      </c>
+      <c r="C280" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid645525"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid604659"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,81 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/07/2024</t>
+  </si>
+  <si>
+    <t>0.995</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>0.997</t>
+  </si>
+  <si>
+    <t>27/06/2024</t>
+  </si>
+  <si>
+    <t>26/06/2024</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>25/06/2024</t>
+  </si>
+  <si>
+    <t>24/06/2024</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>20/06/2024</t>
+  </si>
+  <si>
+    <t>19/06/2024</t>
+  </si>
+  <si>
+    <t>1.001</t>
+  </si>
+  <si>
+    <t>18/06/2024</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>13/06/2024</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>12/06/2024</t>
+  </si>
+  <si>
+    <t>11/06/2024</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
     <t>10/06/2024</t>
   </si>
   <si>
     <t>0.991</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>07/06/2024</t>
   </si>
   <si>
@@ -44,9 +110,6 @@
     <t>06/06/2024</t>
   </si>
   <si>
-    <t>0.993</t>
-  </si>
-  <si>
     <t>05/06/2024</t>
   </si>
   <si>
@@ -95,9 +158,6 @@
     <t>23/05/2024</t>
   </si>
   <si>
-    <t>0.990</t>
-  </si>
-  <si>
     <t>21/05/2024</t>
   </si>
   <si>
@@ -116,9 +176,6 @@
     <t>15/05/2024</t>
   </si>
   <si>
-    <t>0.994</t>
-  </si>
-  <si>
     <t>14/05/2024</t>
   </si>
   <si>
@@ -212,15 +269,9 @@
     <t>12/04/2024</t>
   </si>
   <si>
-    <t>0.995</t>
-  </si>
-  <si>
     <t>11/04/2024</t>
   </si>
   <si>
-    <t>0.996</t>
-  </si>
-  <si>
     <t>09/04/2024</t>
   </si>
   <si>
@@ -230,15 +281,9 @@
     <t>08/04/2024</t>
   </si>
   <si>
-    <t>1.001</t>
-  </si>
-  <si>
     <t>05/04/2024</t>
   </si>
   <si>
-    <t>0.999</t>
-  </si>
-  <si>
     <t>04/04/2024</t>
   </si>
   <si>
@@ -282,9 +327,6 @@
   </si>
   <si>
     <t>20/03/2024</t>
-  </si>
-  <si>
-    <t>0.997</t>
   </si>
   <si>
     <t>19/03/2024</t>
@@ -1485,7 +1527,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1493,10 +1535,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1504,10 +1546,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1515,7 +1557,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -1526,10 +1568,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1537,10 +1579,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1548,10 +1590,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1559,10 +1601,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1570,10 +1612,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1581,10 +1623,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1592,10 +1634,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1603,10 +1645,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1614,10 +1656,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1625,10 +1667,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
         <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1639,7 +1681,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1647,10 +1689,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1658,10 +1700,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1672,7 +1714,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1683,7 +1725,7 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1691,10 +1733,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1702,10 +1744,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1713,10 +1755,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1724,10 +1766,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1735,10 +1777,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1746,10 +1788,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1757,10 +1799,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1768,10 +1810,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1779,10 +1821,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1790,10 +1832,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1801,10 +1843,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1815,7 +1857,7 @@
         <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1826,7 +1868,7 @@
         <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1834,10 +1876,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1845,10 +1887,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1856,10 +1898,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1867,10 +1909,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1878,10 +1920,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1889,10 +1931,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1900,10 +1942,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1911,10 +1953,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1922,10 +1964,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1933,10 +1975,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1944,10 +1986,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1955,10 +1997,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -1966,10 +2008,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -1977,10 +2019,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -1988,10 +2030,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1999,10 +2041,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2010,10 +2052,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2021,10 +2063,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2032,10 +2074,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2043,10 +2085,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2054,10 +2096,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2065,10 +2107,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2076,10 +2118,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2087,10 +2129,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2098,10 +2140,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2109,10 +2151,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2120,10 +2162,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2131,10 +2173,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2142,10 +2184,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2153,10 +2195,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2164,10 +2206,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2175,10 +2217,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2186,10 +2228,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2197,10 +2239,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2208,10 +2250,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2219,10 +2261,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2230,10 +2272,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2241,10 +2283,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2252,10 +2294,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2263,10 +2305,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2274,10 +2316,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2285,10 +2327,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2296,10 +2338,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2307,10 +2349,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2318,10 +2360,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2329,10 +2371,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2340,10 +2382,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B82" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2351,10 +2393,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B83" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2362,10 +2404,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2373,10 +2415,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2384,10 +2426,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2395,10 +2437,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2406,10 +2448,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2417,10 +2459,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2428,10 +2470,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2439,10 +2481,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
+        <v>127</v>
+      </c>
+      <c r="B91" t="s">
         <v>128</v>
-      </c>
-      <c r="B91" t="s">
-        <v>4</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2453,7 +2495,7 @@
         <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2464,7 +2506,7 @@
         <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2475,7 +2517,7 @@
         <v>131</v>
       </c>
       <c r="B94" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2483,10 +2525,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2494,10 +2536,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2505,10 +2547,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>132</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2516,10 +2558,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2527,10 +2569,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2538,10 +2580,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B100" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2549,10 +2591,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B101" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2560,10 +2602,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B102" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2571,10 +2613,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2582,10 +2624,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2593,10 +2635,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2604,10 +2646,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B106" t="s">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2615,10 +2657,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2626,10 +2668,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B108" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2637,10 +2679,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B109" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2648,10 +2690,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2659,10 +2701,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2670,10 +2712,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2681,10 +2723,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2692,10 +2734,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B114" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2703,10 +2745,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2714,10 +2756,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2725,10 +2767,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2736,10 +2778,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2747,10 +2789,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B119" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2758,10 +2800,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>160</v>
+      </c>
+      <c r="B120" t="s">
         <v>161</v>
-      </c>
-      <c r="B120" t="s">
-        <v>21</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2772,7 +2814,7 @@
         <v>162</v>
       </c>
       <c r="B121" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2783,7 +2825,7 @@
         <v>163</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2794,7 +2836,7 @@
         <v>164</v>
       </c>
       <c r="B123" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2805,7 +2847,7 @@
         <v>165</v>
       </c>
       <c r="B124" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2813,10 +2855,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B125" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2824,10 +2866,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B126" t="s">
-        <v>169</v>
+        <v>29</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2835,10 +2877,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B127" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2846,10 +2888,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B128" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2857,10 +2899,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B129" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2868,10 +2910,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B130" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2879,10 +2921,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B131" t="s">
-        <v>179</v>
+        <v>34</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2890,10 +2932,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B132" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2901,10 +2943,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B133" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2912,10 +2954,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B134" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2923,10 +2965,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B135" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2934,10 +2976,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B136" t="s">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2945,10 +2987,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B137" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2956,10 +2998,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B138" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2967,10 +3009,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B139" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2978,10 +3020,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B140" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2989,10 +3031,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B141" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3000,10 +3042,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B142" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3011,10 +3053,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B143" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3022,10 +3064,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B144" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3033,10 +3075,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3044,10 +3086,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B146" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3055,10 +3097,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B147" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3066,10 +3108,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B148" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3077,10 +3119,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B149" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3088,10 +3130,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B150" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3099,10 +3141,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B151" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3110,10 +3152,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B152" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3121,10 +3163,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B153" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3132,10 +3174,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B154" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3143,10 +3185,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B155" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3154,10 +3196,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B156" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3165,10 +3207,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B157" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3176,10 +3218,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B158" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3187,10 +3229,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B159" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3198,10 +3240,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B160" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3209,10 +3251,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B161" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3220,10 +3262,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B162" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3231,10 +3273,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B163" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3242,10 +3284,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B164" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3253,10 +3295,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B165" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3264,10 +3306,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B166" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3275,10 +3317,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B167" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3286,10 +3328,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="B168" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3297,10 +3339,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B169" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3308,10 +3350,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B170" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3319,10 +3361,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B171" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3330,10 +3372,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="B172" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3341,10 +3383,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B173" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3352,10 +3394,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B174" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3363,10 +3405,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B175" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3374,10 +3416,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B176" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3385,10 +3427,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B177" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3396,10 +3438,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B178" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3407,10 +3449,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B179" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3418,10 +3460,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B180" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3429,10 +3471,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B181" t="s">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3440,10 +3482,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B182" t="s">
-        <v>179</v>
+        <v>248</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3451,10 +3493,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B183" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3462,10 +3504,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B184" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3473,10 +3515,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B185" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3484,10 +3526,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B186" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3495,10 +3537,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B187" t="s">
-        <v>55</v>
+        <v>262</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3506,10 +3548,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B188" t="s">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3517,10 +3559,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B189" t="s">
-        <v>166</v>
+        <v>252</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3528,10 +3570,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B190" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3539,10 +3581,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B191" t="s">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3550,10 +3592,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B192" t="s">
-        <v>50</v>
+        <v>248</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3561,10 +3603,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B193" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3572,10 +3614,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B194" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3583,10 +3625,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B195" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3594,10 +3636,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B196" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3605,10 +3647,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B197" t="s">
-        <v>173</v>
+        <v>275</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3616,10 +3658,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B198" t="s">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3627,10 +3669,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B199" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3638,10 +3680,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B200" t="s">
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3649,10 +3691,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B201" t="s">
-        <v>285</v>
+        <v>74</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3660,10 +3702,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B202" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3671,10 +3713,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B203" t="s">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3682,10 +3724,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B204" t="s">
-        <v>183</v>
+        <v>284</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3693,10 +3735,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B205" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3704,10 +3746,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B206" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3715,10 +3757,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B207" t="s">
-        <v>43</v>
+        <v>153</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3726,10 +3768,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B208" t="s">
-        <v>43</v>
+        <v>289</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3737,10 +3779,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B209" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3748,10 +3790,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B210" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3759,10 +3801,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B211" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3770,10 +3812,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B212" t="s">
-        <v>52</v>
+        <v>294</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3781,10 +3823,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B213" t="s">
-        <v>147</v>
+        <v>296</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3792,10 +3834,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B214" t="s">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3803,10 +3845,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
+        <v>298</v>
+      </c>
+      <c r="B215" t="s">
         <v>299</v>
-      </c>
-      <c r="B215" t="s">
-        <v>114</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3817,7 +3859,7 @@
         <v>300</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>296</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3828,7 +3870,7 @@
         <v>301</v>
       </c>
       <c r="B217" t="s">
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3839,7 +3881,7 @@
         <v>302</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>197</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3850,7 +3892,7 @@
         <v>303</v>
       </c>
       <c r="B219" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3861,7 +3903,7 @@
         <v>304</v>
       </c>
       <c r="B220" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3872,7 +3914,7 @@
         <v>305</v>
       </c>
       <c r="B221" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3883,7 +3925,7 @@
         <v>306</v>
       </c>
       <c r="B222" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3894,7 +3936,7 @@
         <v>307</v>
       </c>
       <c r="B223" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3905,7 +3947,7 @@
         <v>308</v>
       </c>
       <c r="B224" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3916,7 +3958,7 @@
         <v>309</v>
       </c>
       <c r="B225" t="s">
-        <v>67</v>
+        <v>289</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -3927,7 +3969,7 @@
         <v>310</v>
       </c>
       <c r="B226" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -3938,7 +3980,7 @@
         <v>311</v>
       </c>
       <c r="B227" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -3949,7 +3991,7 @@
         <v>312</v>
       </c>
       <c r="B228" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -3960,7 +4002,7 @@
         <v>313</v>
       </c>
       <c r="B229" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -3971,7 +4013,7 @@
         <v>314</v>
       </c>
       <c r="B230" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -3982,7 +4024,7 @@
         <v>315</v>
       </c>
       <c r="B231" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -3993,7 +4035,7 @@
         <v>316</v>
       </c>
       <c r="B232" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4004,7 +4046,7 @@
         <v>317</v>
       </c>
       <c r="B233" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4015,7 +4057,7 @@
         <v>318</v>
       </c>
       <c r="B234" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4026,7 +4068,7 @@
         <v>319</v>
       </c>
       <c r="B235" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4037,7 +4079,7 @@
         <v>320</v>
       </c>
       <c r="B236" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4048,7 +4090,7 @@
         <v>321</v>
       </c>
       <c r="B237" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4059,7 +4101,7 @@
         <v>322</v>
       </c>
       <c r="B238" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4070,7 +4112,7 @@
         <v>323</v>
       </c>
       <c r="B239" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4081,7 +4123,7 @@
         <v>324</v>
       </c>
       <c r="B240" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4092,7 +4134,7 @@
         <v>325</v>
       </c>
       <c r="B241" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4103,7 +4145,7 @@
         <v>326</v>
       </c>
       <c r="B242" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4114,7 +4156,7 @@
         <v>327</v>
       </c>
       <c r="B243" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4125,7 +4167,7 @@
         <v>328</v>
       </c>
       <c r="B244" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4136,7 +4178,7 @@
         <v>329</v>
       </c>
       <c r="B245" t="s">
-        <v>275</v>
+        <v>67</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4147,7 +4189,7 @@
         <v>330</v>
       </c>
       <c r="B246" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4158,7 +4200,7 @@
         <v>331</v>
       </c>
       <c r="B247" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4169,7 +4211,7 @@
         <v>332</v>
       </c>
       <c r="B248" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4180,7 +4222,7 @@
         <v>333</v>
       </c>
       <c r="B249" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4191,7 +4233,7 @@
         <v>334</v>
       </c>
       <c r="B250" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4202,7 +4244,7 @@
         <v>335</v>
       </c>
       <c r="B251" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4213,7 +4255,7 @@
         <v>336</v>
       </c>
       <c r="B252" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4224,7 +4266,7 @@
         <v>337</v>
       </c>
       <c r="B253" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4235,7 +4277,7 @@
         <v>338</v>
       </c>
       <c r="B254" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4246,7 +4288,7 @@
         <v>339</v>
       </c>
       <c r="B255" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4257,7 +4299,7 @@
         <v>340</v>
       </c>
       <c r="B256" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4268,7 +4310,7 @@
         <v>341</v>
       </c>
       <c r="B257" t="s">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4279,7 +4321,7 @@
         <v>342</v>
       </c>
       <c r="B258" t="s">
-        <v>261</v>
+        <v>62</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4290,7 +4332,7 @@
         <v>343</v>
       </c>
       <c r="B259" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4301,7 +4343,7 @@
         <v>344</v>
       </c>
       <c r="B260" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4312,7 +4354,7 @@
         <v>345</v>
       </c>
       <c r="B261" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4323,7 +4365,7 @@
         <v>346</v>
       </c>
       <c r="B262" t="s">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4334,7 +4376,7 @@
         <v>347</v>
       </c>
       <c r="B263" t="s">
-        <v>192</v>
+        <v>65</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4345,7 +4387,7 @@
         <v>348</v>
       </c>
       <c r="B264" t="s">
-        <v>261</v>
+        <v>161</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4356,7 +4398,7 @@
         <v>349</v>
       </c>
       <c r="B265" t="s">
-        <v>261</v>
+        <v>62</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4367,7 +4409,7 @@
         <v>350</v>
       </c>
       <c r="B266" t="s">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4378,7 +4420,7 @@
         <v>351</v>
       </c>
       <c r="B267" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4389,7 +4431,7 @@
         <v>352</v>
       </c>
       <c r="B268" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4400,7 +4442,7 @@
         <v>353</v>
       </c>
       <c r="B269" t="s">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4411,7 +4453,7 @@
         <v>354</v>
       </c>
       <c r="B270" t="s">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4422,7 +4464,7 @@
         <v>355</v>
       </c>
       <c r="B271" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4433,7 +4475,7 @@
         <v>356</v>
       </c>
       <c r="B272" t="s">
-        <v>357</v>
+        <v>275</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4441,10 +4483,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B273" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4452,10 +4494,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B274" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4463,10 +4505,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B275" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4474,10 +4516,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B276" t="s">
-        <v>362</v>
+        <v>204</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4485,10 +4527,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B277" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4496,10 +4538,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B278" t="s">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4507,10 +4549,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B279" t="s">
-        <v>366</v>
+        <v>275</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4518,12 +4560,166 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
+        <v>364</v>
+      </c>
+      <c r="B280" t="s">
+        <v>296</v>
+      </c>
+      <c r="C280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>365</v>
+      </c>
+      <c r="B281" t="s">
+        <v>208</v>
+      </c>
+      <c r="C281" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>366</v>
+      </c>
+      <c r="B282" t="s">
+        <v>208</v>
+      </c>
+      <c r="C282" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
         <v>367</v>
       </c>
-      <c r="B280" t="s">
-        <v>190</v>
-      </c>
-      <c r="C280" t="s">
+      <c r="B283" t="s">
+        <v>211</v>
+      </c>
+      <c r="C283" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>368</v>
+      </c>
+      <c r="B284" t="s">
+        <v>211</v>
+      </c>
+      <c r="C284" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>369</v>
+      </c>
+      <c r="B285" t="s">
+        <v>275</v>
+      </c>
+      <c r="C285" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>370</v>
+      </c>
+      <c r="B286" t="s">
+        <v>371</v>
+      </c>
+      <c r="C286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>372</v>
+      </c>
+      <c r="B287" t="s">
+        <v>275</v>
+      </c>
+      <c r="C287" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>373</v>
+      </c>
+      <c r="B288" t="s">
+        <v>211</v>
+      </c>
+      <c r="C288" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>374</v>
+      </c>
+      <c r="B289" t="s">
+        <v>211</v>
+      </c>
+      <c r="C289" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>375</v>
+      </c>
+      <c r="B290" t="s">
+        <v>376</v>
+      </c>
+      <c r="C290" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>377</v>
+      </c>
+      <c r="B291" t="s">
+        <v>206</v>
+      </c>
+      <c r="C291" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>378</v>
+      </c>
+      <c r="B292" t="s">
+        <v>206</v>
+      </c>
+      <c r="C292" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>379</v>
+      </c>
+      <c r="B293" t="s">
+        <v>380</v>
+      </c>
+      <c r="C293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>381</v>
+      </c>
+      <c r="B294" t="s">
+        <v>204</v>
+      </c>
+      <c r="C294" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid604659"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid577195"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,129 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/08/2024</t>
+  </si>
+  <si>
+    <t>0.995</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>31/07/2024</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>30/07/2024</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>29/07/2024</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>25/07/2024</t>
+  </si>
+  <si>
+    <t>0.983</t>
+  </si>
+  <si>
+    <t>24/07/2024</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>23/07/2024</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>22/07/2024</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>18/07/2024</t>
+  </si>
+  <si>
+    <t>1.001</t>
+  </si>
+  <si>
+    <t>17/07/2024</t>
+  </si>
+  <si>
+    <t>1.004</t>
+  </si>
+  <si>
+    <t>16/07/2024</t>
+  </si>
+  <si>
+    <t>1.014</t>
+  </si>
+  <si>
+    <t>15/07/2024</t>
+  </si>
+  <si>
+    <t>1.012</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>1.010</t>
+  </si>
+  <si>
+    <t>11/07/2024</t>
+  </si>
+  <si>
+    <t>10/07/2024</t>
+  </si>
+  <si>
+    <t>1.007</t>
+  </si>
+  <si>
+    <t>09/07/2024</t>
+  </si>
+  <si>
+    <t>08/07/2024</t>
+  </si>
+  <si>
+    <t>1.006</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>1.002</t>
+  </si>
+  <si>
+    <t>04/07/2024</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>03/07/2024</t>
+  </si>
+  <si>
+    <t>02/07/2024</t>
+  </si>
+  <si>
     <t>01/07/2024</t>
   </si>
   <si>
-    <t>0.995</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>28/06/2024</t>
   </si>
   <si>
@@ -71,9 +185,6 @@
     <t>19/06/2024</t>
   </si>
   <si>
-    <t>1.001</t>
-  </si>
-  <si>
     <t>18/06/2024</t>
   </si>
   <si>
@@ -92,15 +203,9 @@
     <t>11/06/2024</t>
   </si>
   <si>
-    <t>0.990</t>
-  </si>
-  <si>
     <t>10/06/2024</t>
   </si>
   <si>
-    <t>0.991</t>
-  </si>
-  <si>
     <t>07/06/2024</t>
   </si>
   <si>
@@ -113,15 +218,9 @@
     <t>05/06/2024</t>
   </si>
   <si>
-    <t>0.988</t>
-  </si>
-  <si>
     <t>04/06/2024</t>
   </si>
   <si>
-    <t>0.985</t>
-  </si>
-  <si>
     <t>03/06/2024</t>
   </si>
   <si>
@@ -134,9 +233,6 @@
     <t>30/05/2024</t>
   </si>
   <si>
-    <t>0.983</t>
-  </si>
-  <si>
     <t>29/05/2024</t>
   </si>
   <si>
@@ -170,9 +266,6 @@
     <t>16/05/2024</t>
   </si>
   <si>
-    <t>0.998</t>
-  </si>
-  <si>
     <t>15/05/2024</t>
   </si>
   <si>
@@ -275,9 +368,6 @@
     <t>09/04/2024</t>
   </si>
   <si>
-    <t>1.002</t>
-  </si>
-  <si>
     <t>08/04/2024</t>
   </si>
   <si>
@@ -287,9 +377,6 @@
     <t>04/04/2024</t>
   </si>
   <si>
-    <t>1.004</t>
-  </si>
-  <si>
     <t>03/04/2024</t>
   </si>
   <si>
@@ -299,9 +386,6 @@
     <t>01/04/2024</t>
   </si>
   <si>
-    <t>1.007</t>
-  </si>
-  <si>
     <t>28/03/2024</t>
   </si>
   <si>
@@ -323,9 +407,6 @@
     <t>21/03/2024</t>
   </si>
   <si>
-    <t>1.006</t>
-  </si>
-  <si>
     <t>20/03/2024</t>
   </si>
   <si>
@@ -333,9 +414,6 @@
   </si>
   <si>
     <t>18/03/2024</t>
-  </si>
-  <si>
-    <t>1.000</t>
   </si>
   <si>
     <t>15/03/2024</t>
@@ -1527,7 +1605,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1535,10 +1613,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1549,7 +1627,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1557,10 +1635,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1568,10 +1646,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1579,10 +1657,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1590,10 +1668,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1601,10 +1679,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1612,10 +1690,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1623,10 +1701,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1634,10 +1712,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1645,10 +1723,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1656,10 +1734,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1667,10 +1745,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1678,10 +1756,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1689,10 +1767,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1700,10 +1778,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1711,10 +1789,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1722,10 +1800,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1733,10 +1811,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1744,10 +1822,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1755,10 +1833,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1766,10 +1844,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1777,10 +1855,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1788,10 +1866,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1799,10 +1877,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1810,10 +1888,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1821,10 +1899,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1832,10 +1910,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1843,10 +1921,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1854,10 +1932,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1865,10 +1943,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1876,10 +1954,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1887,10 +1965,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1898,10 +1976,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1909,10 +1987,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1920,10 +1998,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1931,10 +2009,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1942,10 +2020,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -1953,10 +2031,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1964,10 +2042,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -1975,10 +2053,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -1986,10 +2064,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -1997,10 +2075,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2008,10 +2086,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2019,10 +2097,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2030,7 +2108,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
         <v>76</v>
@@ -2041,10 +2119,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2055,7 +2133,7 @@
         <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2063,10 +2141,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2074,10 +2152,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2085,10 +2163,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2096,10 +2174,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2107,10 +2185,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2118,10 +2196,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2129,10 +2207,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2140,10 +2218,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2151,10 +2229,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2162,10 +2240,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2173,10 +2251,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2184,10 +2262,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2195,10 +2273,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2206,10 +2284,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2217,10 +2295,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2228,10 +2306,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2239,10 +2317,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2250,10 +2328,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2261,10 +2339,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2272,10 +2350,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" t="s">
         <v>105</v>
-      </c>
-      <c r="B72" t="s">
-        <v>106</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2283,10 +2361,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>106</v>
+      </c>
+      <c r="B73" t="s">
         <v>107</v>
-      </c>
-      <c r="B73" t="s">
-        <v>22</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2297,7 +2375,7 @@
         <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2305,10 +2383,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2316,10 +2394,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2327,10 +2405,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B77" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2338,10 +2416,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2349,10 +2427,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2363,7 +2441,7 @@
         <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2374,7 +2452,7 @@
         <v>117</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2385,7 +2463,7 @@
         <v>118</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2396,7 +2474,7 @@
         <v>119</v>
       </c>
       <c r="B83" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2407,7 +2485,7 @@
         <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2418,7 +2496,7 @@
         <v>121</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2429,7 +2507,7 @@
         <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2440,7 +2518,7 @@
         <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2451,7 +2529,7 @@
         <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2462,7 +2540,7 @@
         <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2470,10 +2548,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2481,10 +2559,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2495,7 +2573,7 @@
         <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2506,7 +2584,7 @@
         <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2517,7 +2595,7 @@
         <v>131</v>
       </c>
       <c r="B94" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2528,7 +2606,7 @@
         <v>132</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2539,7 +2617,7 @@
         <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2550,7 +2628,7 @@
         <v>134</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2561,7 +2639,7 @@
         <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2572,7 +2650,7 @@
         <v>136</v>
       </c>
       <c r="B99" t="s">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2583,7 +2661,7 @@
         <v>137</v>
       </c>
       <c r="B100" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2594,7 +2672,7 @@
         <v>138</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2602,10 +2680,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B102" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2613,10 +2691,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B103" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2624,10 +2702,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B104" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2635,10 +2713,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B105" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2646,10 +2724,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2657,10 +2735,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B107" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2668,10 +2746,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B108" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2679,10 +2757,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B109" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2690,10 +2768,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2701,10 +2779,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B111" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2712,10 +2790,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B112" t="s">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2726,7 +2804,7 @@
         <v>152</v>
       </c>
       <c r="B113" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2734,10 +2812,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>153</v>
+      </c>
+      <c r="B114" t="s">
         <v>154</v>
-      </c>
-      <c r="B114" t="s">
-        <v>78</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2748,7 +2826,7 @@
         <v>155</v>
       </c>
       <c r="B115" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2759,7 +2837,7 @@
         <v>156</v>
       </c>
       <c r="B116" t="s">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2770,7 +2848,7 @@
         <v>157</v>
       </c>
       <c r="B117" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2781,7 +2859,7 @@
         <v>158</v>
       </c>
       <c r="B118" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2792,7 +2870,7 @@
         <v>159</v>
       </c>
       <c r="B119" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2803,7 +2881,7 @@
         <v>160</v>
       </c>
       <c r="B120" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2811,10 +2889,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B121" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2822,10 +2900,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B122" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2833,10 +2911,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B123" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2844,10 +2922,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B124" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2855,10 +2933,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B125" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2866,10 +2944,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2877,10 +2955,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2888,10 +2966,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2899,10 +2977,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B129" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2910,10 +2988,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B130" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2921,10 +2999,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>171</v>
+      </c>
+      <c r="B131" t="s">
         <v>172</v>
-      </c>
-      <c r="B131" t="s">
-        <v>34</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2935,7 +3013,7 @@
         <v>173</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2946,7 +3024,7 @@
         <v>174</v>
       </c>
       <c r="B133" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2957,7 +3035,7 @@
         <v>175</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>172</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2968,7 +3046,7 @@
         <v>176</v>
       </c>
       <c r="B135" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2976,10 +3054,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B136" t="s">
-        <v>128</v>
+        <v>179</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2987,10 +3065,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B137" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2998,10 +3076,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B138" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3009,10 +3087,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B139" t="s">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3020,10 +3098,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B140" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3034,7 +3112,7 @@
         <v>184</v>
       </c>
       <c r="B141" t="s">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3042,10 +3120,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B142" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3053,10 +3131,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B143" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3064,10 +3142,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B144" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3075,10 +3153,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B145" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3086,10 +3164,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B146" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3097,10 +3175,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B147" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3108,10 +3186,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B148" t="s">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3119,10 +3197,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B149" t="s">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3130,10 +3208,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B150" t="s">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3141,10 +3219,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B151" t="s">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3152,10 +3230,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B152" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3163,10 +3241,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B153" t="s">
-        <v>204</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3174,10 +3252,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B154" t="s">
-        <v>206</v>
+        <v>12</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3185,10 +3263,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B155" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3196,10 +3274,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B156" t="s">
-        <v>199</v>
+        <v>154</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3207,10 +3285,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B157" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3218,10 +3296,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B158" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3229,10 +3307,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B159" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3240,10 +3318,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B160" t="s">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3251,10 +3329,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B161" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3262,10 +3340,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B162" t="s">
-        <v>219</v>
+        <v>105</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3273,10 +3351,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B163" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3284,10 +3362,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B164" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3295,10 +3373,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B165" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3306,10 +3384,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B166" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3317,10 +3395,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B167" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3328,10 +3406,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B168" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3339,10 +3417,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B169" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3350,10 +3428,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B170" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3361,10 +3439,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B171" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3372,10 +3450,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B172" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3383,10 +3461,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B173" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3394,10 +3472,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="B174" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3405,10 +3483,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B175" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3416,10 +3494,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B176" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3427,10 +3505,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="B177" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3438,10 +3516,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B178" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3449,10 +3527,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B179" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3460,10 +3538,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="B180" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3471,10 +3549,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="B181" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3482,10 +3560,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="B182" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3493,10 +3571,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B183" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3504,10 +3582,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B184" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3515,10 +3593,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B185" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3526,10 +3604,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B186" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3537,10 +3615,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B187" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3548,10 +3626,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="B188" t="s">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3559,7 +3637,7 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B189" t="s">
         <v>252</v>
@@ -3570,10 +3648,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B190" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3581,10 +3659,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B191" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3592,10 +3670,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B192" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3603,10 +3681,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B193" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3614,10 +3692,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B194" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3625,10 +3703,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B195" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3636,10 +3714,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B196" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3647,10 +3725,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B197" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3658,10 +3736,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B198" t="s">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3669,10 +3747,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="B199" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3680,10 +3758,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B200" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3691,10 +3769,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B201" t="s">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3702,10 +3780,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3713,10 +3791,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B203" t="s">
-        <v>180</v>
+        <v>278</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3724,10 +3802,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B204" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3735,10 +3813,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B205" t="s">
-        <v>183</v>
+        <v>274</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3746,10 +3824,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B206" t="s">
-        <v>69</v>
+        <v>269</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3757,10 +3835,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B207" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3768,10 +3846,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B208" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3779,10 +3857,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B209" t="s">
-        <v>151</v>
+        <v>286</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3790,10 +3868,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B210" t="s">
-        <v>153</v>
+        <v>288</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3801,10 +3879,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B211" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3812,10 +3890,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B212" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3823,10 +3901,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B213" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3834,10 +3912,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B214" t="s">
-        <v>187</v>
+        <v>245</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3845,10 +3923,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B215" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3856,7 +3934,7 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B216" t="s">
         <v>296</v>
@@ -3867,10 +3945,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B217" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3878,10 +3956,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B218" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3889,10 +3967,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B219" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3900,10 +3978,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B220" t="s">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3911,10 +3989,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B221" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -3922,10 +4000,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B222" t="s">
-        <v>62</v>
+        <v>304</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -3933,10 +4011,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B223" t="s">
-        <v>62</v>
+        <v>304</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -3944,10 +4022,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B224" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -3955,10 +4033,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B225" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -3966,10 +4044,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B226" t="s">
-        <v>71</v>
+        <v>206</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -3977,10 +4055,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B227" t="s">
-        <v>161</v>
+        <v>310</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -3988,10 +4066,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B228" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -3999,10 +4077,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B229" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4010,10 +4088,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4021,10 +4099,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
+        <v>314</v>
+      </c>
+      <c r="B231" t="s">
         <v>315</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4035,7 +4113,7 @@
         <v>316</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4046,7 +4124,7 @@
         <v>317</v>
       </c>
       <c r="B233" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4057,7 +4135,7 @@
         <v>318</v>
       </c>
       <c r="B234" t="s">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4068,7 +4146,7 @@
         <v>319</v>
       </c>
       <c r="B235" t="s">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4076,10 +4154,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B236" t="s">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4087,10 +4165,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B237" t="s">
-        <v>44</v>
+        <v>213</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4098,10 +4176,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B238" t="s">
-        <v>27</v>
+        <v>325</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4109,10 +4187,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>322</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4120,10 +4198,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>301</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4131,10 +4209,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B241" t="s">
-        <v>10</v>
+        <v>223</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4142,10 +4220,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>215</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4153,10 +4231,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B243" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4164,10 +4242,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B244" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4175,10 +4253,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B245" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4186,10 +4264,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B246" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4197,10 +4275,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B247" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4208,10 +4286,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B248" t="s">
-        <v>153</v>
+        <v>315</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4219,10 +4297,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B249" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4230,10 +4308,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B250" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4241,10 +4319,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B251" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4252,10 +4330,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B252" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4263,10 +4341,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B253" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4274,10 +4352,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B254" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4285,10 +4363,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B255" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4296,10 +4374,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B256" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4307,10 +4385,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B257" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4318,10 +4396,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B258" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4329,10 +4407,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B259" t="s">
-        <v>289</v>
+        <v>76</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4340,10 +4418,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B260" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4351,10 +4429,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B261" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4362,10 +4440,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B262" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4373,10 +4451,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B263" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4384,10 +4462,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B264" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4395,10 +4473,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B265" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4406,10 +4484,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B266" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4417,10 +4495,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B267" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4428,10 +4506,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B268" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4439,10 +4517,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B269" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4450,10 +4528,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B270" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4461,10 +4539,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B271" t="s">
-        <v>275</v>
+        <v>179</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4472,10 +4550,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B272" t="s">
-        <v>275</v>
+        <v>70</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4483,10 +4561,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B273" t="s">
-        <v>299</v>
+        <v>96</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4494,10 +4572,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B274" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4505,10 +4583,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B275" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4516,10 +4594,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B276" t="s">
-        <v>204</v>
+        <v>100</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4527,10 +4605,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B277" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4538,10 +4616,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B278" t="s">
-        <v>275</v>
+        <v>107</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4549,10 +4627,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B279" t="s">
-        <v>275</v>
+        <v>109</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4560,10 +4638,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B280" t="s">
-        <v>296</v>
+        <v>109</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4571,10 +4649,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B281" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4582,10 +4660,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B282" t="s">
-        <v>208</v>
+        <v>315</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4593,10 +4671,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B283" t="s">
-        <v>211</v>
+        <v>70</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4604,10 +4682,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B284" t="s">
-        <v>211</v>
+        <v>9</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4615,10 +4693,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B285" t="s">
-        <v>275</v>
+        <v>96</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4626,10 +4704,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B286" t="s">
-        <v>371</v>
+        <v>96</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4637,10 +4715,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B287" t="s">
-        <v>275</v>
+        <v>187</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4648,10 +4726,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B288" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -4659,10 +4737,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B289" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4670,10 +4748,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B290" t="s">
-        <v>376</v>
+        <v>105</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4681,10 +4759,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B291" t="s">
-        <v>206</v>
+        <v>93</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -4692,10 +4770,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B292" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4703,10 +4781,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B293" t="s">
-        <v>380</v>
+        <v>107</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4717,9 +4795,262 @@
         <v>381</v>
       </c>
       <c r="B294" t="s">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="C294" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>382</v>
+      </c>
+      <c r="B295" t="s">
+        <v>301</v>
+      </c>
+      <c r="C295" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>383</v>
+      </c>
+      <c r="B296" t="s">
+        <v>325</v>
+      </c>
+      <c r="C296" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>384</v>
+      </c>
+      <c r="B297" t="s">
+        <v>225</v>
+      </c>
+      <c r="C297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>385</v>
+      </c>
+      <c r="B298" t="s">
+        <v>225</v>
+      </c>
+      <c r="C298" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>386</v>
+      </c>
+      <c r="B299" t="s">
+        <v>230</v>
+      </c>
+      <c r="C299" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>387</v>
+      </c>
+      <c r="B300" t="s">
+        <v>232</v>
+      </c>
+      <c r="C300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>388</v>
+      </c>
+      <c r="B301" t="s">
+        <v>301</v>
+      </c>
+      <c r="C301" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>389</v>
+      </c>
+      <c r="B302" t="s">
+        <v>301</v>
+      </c>
+      <c r="C302" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>390</v>
+      </c>
+      <c r="B303" t="s">
+        <v>322</v>
+      </c>
+      <c r="C303" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>391</v>
+      </c>
+      <c r="B304" t="s">
+        <v>234</v>
+      </c>
+      <c r="C304" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>392</v>
+      </c>
+      <c r="B305" t="s">
+        <v>234</v>
+      </c>
+      <c r="C305" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>393</v>
+      </c>
+      <c r="B306" t="s">
+        <v>237</v>
+      </c>
+      <c r="C306" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>394</v>
+      </c>
+      <c r="B307" t="s">
+        <v>237</v>
+      </c>
+      <c r="C307" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>395</v>
+      </c>
+      <c r="B308" t="s">
+        <v>301</v>
+      </c>
+      <c r="C308" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>396</v>
+      </c>
+      <c r="B309" t="s">
+        <v>397</v>
+      </c>
+      <c r="C309" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>398</v>
+      </c>
+      <c r="B310" t="s">
+        <v>301</v>
+      </c>
+      <c r="C310" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>399</v>
+      </c>
+      <c r="B311" t="s">
+        <v>237</v>
+      </c>
+      <c r="C311" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>400</v>
+      </c>
+      <c r="B312" t="s">
+        <v>237</v>
+      </c>
+      <c r="C312" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>401</v>
+      </c>
+      <c r="B313" t="s">
+        <v>402</v>
+      </c>
+      <c r="C313" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>403</v>
+      </c>
+      <c r="B314" t="s">
+        <v>232</v>
+      </c>
+      <c r="C314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>404</v>
+      </c>
+      <c r="B315" t="s">
+        <v>232</v>
+      </c>
+      <c r="C315" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>405</v>
+      </c>
+      <c r="B316" t="s">
+        <v>406</v>
+      </c>
+      <c r="C316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>407</v>
+      </c>
+      <c r="B317" t="s">
+        <v>230</v>
+      </c>
+      <c r="C317" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid577195"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid310471"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="430">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,123 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>03/09/2024</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>02/09/2024</t>
+  </si>
+  <si>
+    <t>0.995</t>
+  </si>
+  <si>
+    <t>30/08/2024</t>
+  </si>
+  <si>
+    <t>29/08/2024</t>
+  </si>
+  <si>
+    <t>28/08/2024</t>
+  </si>
+  <si>
+    <t>27/08/2024</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>26/08/2024</t>
+  </si>
+  <si>
+    <t>0.997</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
+  </si>
+  <si>
+    <t>22/08/2024</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>21/08/2024</t>
+  </si>
+  <si>
+    <t>20/08/2024</t>
+  </si>
+  <si>
+    <t>19/08/2024</t>
+  </si>
+  <si>
+    <t>0.989</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>15/08/2024</t>
+  </si>
+  <si>
+    <t>0.983</t>
+  </si>
+  <si>
+    <t>14/08/2024</t>
+  </si>
+  <si>
+    <t>13/08/2024</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>12/08/2024</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>08/08/2024</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>07/08/2024</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>06/08/2024</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>05/08/2024</t>
+  </si>
+  <si>
+    <t>0.959</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
     <t>01/08/2024</t>
   </si>
   <si>
-    <t>0.995</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>31/07/2024</t>
   </si>
   <si>
@@ -59,9 +167,6 @@
     <t>25/07/2024</t>
   </si>
   <si>
-    <t>0.983</t>
-  </si>
-  <si>
     <t>24/07/2024</t>
   </si>
   <si>
@@ -152,33 +257,21 @@
     <t>28/06/2024</t>
   </si>
   <si>
-    <t>0.997</t>
-  </si>
-  <si>
     <t>27/06/2024</t>
   </si>
   <si>
     <t>26/06/2024</t>
   </si>
   <si>
-    <t>0.994</t>
-  </si>
-  <si>
     <t>25/06/2024</t>
   </si>
   <si>
     <t>24/06/2024</t>
   </si>
   <si>
-    <t>0.996</t>
-  </si>
-  <si>
     <t>21/06/2024</t>
   </si>
   <si>
-    <t>0.993</t>
-  </si>
-  <si>
     <t>20/06/2024</t>
   </si>
   <si>
@@ -209,9 +302,6 @@
     <t>07/06/2024</t>
   </si>
   <si>
-    <t>0.992</t>
-  </si>
-  <si>
     <t>06/06/2024</t>
   </si>
   <si>
@@ -239,9 +329,6 @@
     <t>28/05/2024</t>
   </si>
   <si>
-    <t>0.989</t>
-  </si>
-  <si>
     <t>27/05/2024</t>
   </si>
   <si>
@@ -323,9 +410,6 @@
     <t>24/04/2024</t>
   </si>
   <si>
-    <t>0.979</t>
-  </si>
-  <si>
     <t>23/04/2024</t>
   </si>
   <si>
@@ -350,9 +434,6 @@
     <t>17/04/2024</t>
   </si>
   <si>
-    <t>0.975</t>
-  </si>
-  <si>
     <t>16/04/2024</t>
   </si>
   <si>
@@ -554,9 +635,6 @@
     <t>18/01/2024</t>
   </si>
   <si>
-    <t>0.973</t>
-  </si>
-  <si>
     <t>17/01/2024</t>
   </si>
   <si>
@@ -635,18 +713,12 @@
     <t>12/12/2023</t>
   </si>
   <si>
-    <t>0.968</t>
-  </si>
-  <si>
     <t>11/12/2023</t>
   </si>
   <si>
     <t>08/12/2023</t>
   </si>
   <si>
-    <t>0.965</t>
-  </si>
-  <si>
     <t>07/12/2023</t>
   </si>
   <si>
@@ -962,9 +1034,6 @@
     <t>04/09/2023</t>
   </si>
   <si>
-    <t>0.977</t>
-  </si>
-  <si>
     <t>31/08/2023</t>
   </si>
   <si>
@@ -990,9 +1059,6 @@
   </si>
   <si>
     <t>23/08/2023</t>
-  </si>
-  <si>
-    <t>0.959</t>
   </si>
   <si>
     <t>22/08/2023</t>
@@ -1605,7 +1671,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1613,10 +1679,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1624,10 +1690,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1635,10 +1701,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1646,10 +1712,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1657,10 +1723,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1668,10 +1734,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1679,10 +1745,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1690,10 +1756,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1701,10 +1767,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1712,10 +1778,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1723,10 +1789,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1734,10 +1800,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1745,7 +1811,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -1756,10 +1822,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1767,10 +1833,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1778,10 +1844,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1789,10 +1855,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1800,10 +1866,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1811,7 +1877,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
         <v>40</v>
@@ -1822,10 +1888,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1833,10 +1899,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
         <v>43</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1858,7 +1924,7 @@
         <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1880,7 +1946,7 @@
         <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1913,7 +1979,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1924,7 +1990,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1935,7 +2001,7 @@
         <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -1943,10 +2009,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -1954,10 +2020,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1965,10 +2031,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1976,10 +2042,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1987,10 +2053,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1998,10 +2064,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2009,10 +2075,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2020,10 +2086,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2031,10 +2097,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2042,10 +2108,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2053,10 +2119,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2064,10 +2130,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2075,10 +2141,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2086,10 +2152,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2097,10 +2163,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2108,10 +2174,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2119,10 +2185,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2130,10 +2196,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2141,10 +2207,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2152,10 +2218,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2163,10 +2229,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2174,10 +2240,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2185,10 +2251,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2196,10 +2262,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2207,10 +2273,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2218,10 +2284,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2229,10 +2295,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2240,10 +2306,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2251,10 +2317,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2262,10 +2328,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2273,10 +2339,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2284,10 +2350,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2295,10 +2361,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2306,10 +2372,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2317,10 +2383,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2328,10 +2394,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2339,10 +2405,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2350,7 +2416,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B72" t="s">
         <v>105</v>
@@ -2361,10 +2427,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2375,7 +2441,7 @@
         <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2383,10 +2449,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2394,10 +2460,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2405,7 +2471,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s">
         <v>53</v>
@@ -2416,10 +2482,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2427,10 +2493,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B79" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2438,10 +2504,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B80" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2449,10 +2515,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2460,10 +2526,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2471,10 +2537,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2482,10 +2548,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2493,10 +2559,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2504,10 +2570,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2515,10 +2581,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2526,10 +2592,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2537,10 +2603,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" t="s">
         <v>125</v>
-      </c>
-      <c r="B89" t="s">
-        <v>126</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2548,10 +2614,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" t="s">
         <v>127</v>
-      </c>
-      <c r="B90" t="s">
-        <v>24</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2562,7 +2628,7 @@
         <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2570,10 +2636,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2581,10 +2647,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B93" t="s">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2592,10 +2658,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B94" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2603,10 +2669,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B95" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2614,10 +2680,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B96" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2625,10 +2691,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B97" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2636,10 +2702,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2647,10 +2713,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B99" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2658,10 +2724,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B100" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2669,10 +2735,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2680,10 +2746,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B102" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2691,10 +2757,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2702,10 +2768,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2713,10 +2779,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B105" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2724,10 +2790,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B106" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2735,10 +2801,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B107" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2746,10 +2812,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B108" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2757,10 +2823,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2768,10 +2834,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2779,10 +2845,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2790,10 +2856,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2801,10 +2867,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2812,10 +2878,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B114" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2823,10 +2889,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2834,10 +2900,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B116" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2845,10 +2911,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B117" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2856,10 +2922,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B118" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2867,10 +2933,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B119" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2878,10 +2944,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B120" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2889,10 +2955,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B121" t="s">
-        <v>4</v>
+        <v>153</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2900,10 +2966,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B122" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2911,10 +2977,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B123" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2922,10 +2988,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B124" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2933,10 +2999,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B125" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2944,10 +3010,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2955,10 +3021,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2966,10 +3032,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B128" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2977,10 +3043,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B129" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2988,10 +3054,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B130" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2999,10 +3065,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B131" t="s">
-        <v>172</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3010,10 +3076,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3021,10 +3087,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3032,10 +3098,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B134" t="s">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3043,10 +3109,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B135" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3054,10 +3120,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B136" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3065,10 +3131,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B137" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3076,10 +3142,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B138" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3087,10 +3153,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B139" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3098,10 +3164,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B140" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3109,10 +3175,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3120,10 +3186,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B142" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3131,10 +3197,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B143" t="s">
-        <v>187</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3142,10 +3208,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B144" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3153,10 +3219,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B145" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3164,10 +3230,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B146" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3175,10 +3241,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B147" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3186,10 +3252,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3197,10 +3263,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B149" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3208,10 +3274,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B150" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3219,10 +3285,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3230,10 +3296,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>181</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3241,10 +3307,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>199</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3252,10 +3318,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3263,10 +3329,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B155" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3274,10 +3340,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B156" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3285,10 +3351,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B157" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3296,10 +3362,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B158" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3307,10 +3373,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B159" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3318,10 +3384,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B160" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3329,10 +3395,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B161" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3340,10 +3406,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B162" t="s">
-        <v>105</v>
+        <v>181</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3351,10 +3417,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B163" t="s">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3362,10 +3428,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B164" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3387,7 +3453,7 @@
         <v>214</v>
       </c>
       <c r="B166" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3395,10 +3461,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B167" t="s">
-        <v>217</v>
+        <v>122</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3406,10 +3472,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B168" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3417,10 +3483,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B169" t="s">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3428,10 +3494,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B170" t="s">
-        <v>215</v>
+        <v>48</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3439,10 +3505,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B171" t="s">
-        <v>223</v>
+        <v>23</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3450,10 +3516,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B172" t="s">
-        <v>225</v>
+        <v>23</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3461,10 +3527,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B173" t="s">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3472,10 +3538,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B174" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3483,10 +3549,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B175" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3494,10 +3560,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B176" t="s">
-        <v>230</v>
+        <v>48</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3505,10 +3571,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B177" t="s">
-        <v>232</v>
+        <v>105</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3516,10 +3582,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B178" t="s">
-        <v>234</v>
+        <v>181</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3527,10 +3593,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B179" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3538,10 +3604,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B180" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3549,10 +3615,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B181" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3560,10 +3626,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B182" t="s">
-        <v>240</v>
+        <v>137</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3571,10 +3637,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B183" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3582,10 +3648,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B184" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3593,10 +3659,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B185" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3604,10 +3670,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B186" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3615,10 +3681,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B187" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3626,10 +3692,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B188" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3637,10 +3703,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B189" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3648,10 +3714,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B190" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3659,10 +3725,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B191" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3670,10 +3736,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B192" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3681,10 +3747,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B193" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3692,10 +3758,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B194" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3703,10 +3769,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B195" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3714,10 +3780,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B196" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3725,10 +3791,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B197" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3736,10 +3802,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="B198" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3747,10 +3813,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B199" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3758,10 +3824,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B200" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3769,10 +3835,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B201" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3780,10 +3846,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B202" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3791,10 +3857,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B203" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3802,10 +3868,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B204" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3813,10 +3879,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B205" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3824,10 +3890,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B206" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3835,7 +3901,7 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B207" t="s">
         <v>269</v>
@@ -3846,10 +3912,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="B208" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3857,10 +3923,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="B209" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3868,10 +3934,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B210" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3879,10 +3945,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B211" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3890,10 +3956,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B212" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3901,10 +3967,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="B213" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3912,10 +3978,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="B214" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3923,10 +3989,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="B215" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -3934,10 +4000,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B216" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -3945,10 +4011,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B217" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -3956,10 +4022,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B218" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -3967,10 +4033,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -3978,10 +4044,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B220" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -3989,10 +4055,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B221" t="s">
-        <v>213</v>
+        <v>295</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4000,10 +4066,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B222" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4011,10 +4077,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B223" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4022,10 +4088,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B224" t="s">
-        <v>105</v>
+        <v>300</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4033,10 +4099,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B225" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4044,10 +4110,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B226" t="s">
-        <v>206</v>
+        <v>302</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4055,10 +4121,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B227" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4066,10 +4132,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B228" t="s">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4077,10 +4143,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B229" t="s">
-        <v>100</v>
+        <v>293</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4088,10 +4154,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B230" t="s">
-        <v>179</v>
+        <v>308</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4099,10 +4165,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B231" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4110,10 +4176,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B232" t="s">
-        <v>177</v>
+        <v>312</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4121,10 +4187,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B233" t="s">
-        <v>179</v>
+        <v>269</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4132,10 +4198,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B234" t="s">
-        <v>213</v>
+        <v>302</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4143,10 +4209,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B235" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4154,10 +4220,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B236" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4165,10 +4231,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B237" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4176,10 +4242,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B238" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4187,10 +4253,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B239" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4198,10 +4264,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B240" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4209,10 +4275,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B241" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4220,10 +4286,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B242" t="s">
-        <v>215</v>
+        <v>325</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4231,10 +4297,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B243" t="s">
-        <v>109</v>
+        <v>237</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4242,10 +4308,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B244" t="s">
-        <v>93</v>
+        <v>328</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4253,10 +4319,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B245" t="s">
-        <v>93</v>
+        <v>328</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4264,10 +4330,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B246" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4275,10 +4341,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4286,10 +4352,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B248" t="s">
-        <v>315</v>
+        <v>32</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4297,10 +4363,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B249" t="s">
-        <v>102</v>
+        <v>334</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4308,10 +4374,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B250" t="s">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4319,10 +4385,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B251" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4330,10 +4396,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B252" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4341,10 +4407,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B253" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4352,10 +4418,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B254" t="s">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4363,10 +4429,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B255" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4374,10 +4440,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B256" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4385,10 +4451,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>343</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4396,10 +4462,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
+        <v>344</v>
+      </c>
+      <c r="B258" t="s">
         <v>345</v>
-      </c>
-      <c r="B258" t="s">
-        <v>74</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4410,7 +4476,7 @@
         <v>346</v>
       </c>
       <c r="B259" t="s">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4421,7 +4487,7 @@
         <v>347</v>
       </c>
       <c r="B260" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4432,7 +4498,7 @@
         <v>348</v>
       </c>
       <c r="B261" t="s">
-        <v>16</v>
+        <v>345</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4443,7 +4509,7 @@
         <v>349</v>
       </c>
       <c r="B262" t="s">
-        <v>51</v>
+        <v>325</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4454,7 +4520,7 @@
         <v>350</v>
       </c>
       <c r="B263" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4465,7 +4531,7 @@
         <v>351</v>
       </c>
       <c r="B264" t="s">
-        <v>48</v>
+        <v>239</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4476,7 +4542,7 @@
         <v>352</v>
       </c>
       <c r="B265" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4487,7 +4553,7 @@
         <v>353</v>
       </c>
       <c r="B266" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4498,7 +4564,7 @@
         <v>354</v>
       </c>
       <c r="B267" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4509,7 +4575,7 @@
         <v>355</v>
       </c>
       <c r="B268" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4520,7 +4586,7 @@
         <v>356</v>
       </c>
       <c r="B269" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4531,7 +4597,7 @@
         <v>357</v>
       </c>
       <c r="B270" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4542,7 +4608,7 @@
         <v>358</v>
       </c>
       <c r="B271" t="s">
-        <v>179</v>
+        <v>28</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4553,7 +4619,7 @@
         <v>359</v>
       </c>
       <c r="B272" t="s">
-        <v>70</v>
+        <v>213</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4564,7 +4630,7 @@
         <v>360</v>
       </c>
       <c r="B273" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4575,7 +4641,7 @@
         <v>361</v>
       </c>
       <c r="B274" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4586,7 +4652,7 @@
         <v>362</v>
       </c>
       <c r="B275" t="s">
-        <v>187</v>
+        <v>4</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4597,7 +4663,7 @@
         <v>363</v>
       </c>
       <c r="B276" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4608,7 +4674,7 @@
         <v>364</v>
       </c>
       <c r="B277" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4619,7 +4685,7 @@
         <v>365</v>
       </c>
       <c r="B278" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4630,7 +4696,7 @@
         <v>366</v>
       </c>
       <c r="B279" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4641,7 +4707,7 @@
         <v>367</v>
       </c>
       <c r="B280" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4652,7 +4718,7 @@
         <v>368</v>
       </c>
       <c r="B281" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4663,7 +4729,7 @@
         <v>369</v>
       </c>
       <c r="B282" t="s">
-        <v>315</v>
+        <v>105</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4674,7 +4740,7 @@
         <v>370</v>
       </c>
       <c r="B283" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4685,7 +4751,7 @@
         <v>371</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4696,7 +4762,7 @@
         <v>372</v>
       </c>
       <c r="B285" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4707,7 +4773,7 @@
         <v>373</v>
       </c>
       <c r="B286" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4718,7 +4784,7 @@
         <v>374</v>
       </c>
       <c r="B287" t="s">
-        <v>187</v>
+        <v>14</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4729,7 +4795,7 @@
         <v>375</v>
       </c>
       <c r="B288" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -4740,7 +4806,7 @@
         <v>376</v>
       </c>
       <c r="B289" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4751,7 +4817,7 @@
         <v>377</v>
       </c>
       <c r="B290" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4762,7 +4828,7 @@
         <v>378</v>
       </c>
       <c r="B291" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -4773,7 +4839,7 @@
         <v>379</v>
       </c>
       <c r="B292" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4784,7 +4850,7 @@
         <v>380</v>
       </c>
       <c r="B293" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4795,7 +4861,7 @@
         <v>381</v>
       </c>
       <c r="B294" t="s">
-        <v>301</v>
+        <v>100</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -4806,7 +4872,7 @@
         <v>382</v>
       </c>
       <c r="B295" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -4817,7 +4883,7 @@
         <v>383</v>
       </c>
       <c r="B296" t="s">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -4828,7 +4894,7 @@
         <v>384</v>
       </c>
       <c r="B297" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -4839,7 +4905,7 @@
         <v>385</v>
       </c>
       <c r="B298" t="s">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -4850,7 +4916,7 @@
         <v>386</v>
       </c>
       <c r="B299" t="s">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -4861,7 +4927,7 @@
         <v>387</v>
       </c>
       <c r="B300" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -4872,7 +4938,7 @@
         <v>388</v>
       </c>
       <c r="B301" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -4883,7 +4949,7 @@
         <v>389</v>
       </c>
       <c r="B302" t="s">
-        <v>301</v>
+        <v>137</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -4894,7 +4960,7 @@
         <v>390</v>
       </c>
       <c r="B303" t="s">
-        <v>322</v>
+        <v>122</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -4905,7 +4971,7 @@
         <v>391</v>
       </c>
       <c r="B304" t="s">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -4916,7 +4982,7 @@
         <v>392</v>
       </c>
       <c r="B305" t="s">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -4927,7 +4993,7 @@
         <v>393</v>
       </c>
       <c r="B306" t="s">
-        <v>237</v>
+        <v>45</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -4938,7 +5004,7 @@
         <v>394</v>
       </c>
       <c r="B307" t="s">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -4949,7 +5015,7 @@
         <v>395</v>
       </c>
       <c r="B308" t="s">
-        <v>301</v>
+        <v>125</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -4960,7 +5026,7 @@
         <v>396</v>
       </c>
       <c r="B309" t="s">
-        <v>397</v>
+        <v>213</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -4968,10 +5034,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B310" t="s">
-        <v>301</v>
+        <v>122</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -4979,10 +5045,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B311" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -4990,10 +5056,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B312" t="s">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5001,10 +5067,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B313" t="s">
-        <v>402</v>
+        <v>122</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5012,10 +5078,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B314" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5023,10 +5089,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B315" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5034,10 +5100,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B316" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5045,12 +5111,254 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
+        <v>404</v>
+      </c>
+      <c r="B317" t="s">
+        <v>325</v>
+      </c>
+      <c r="C317" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>405</v>
+      </c>
+      <c r="B318" t="s">
+        <v>38</v>
+      </c>
+      <c r="C318" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>406</v>
+      </c>
+      <c r="B319" t="s">
+        <v>249</v>
+      </c>
+      <c r="C319" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
         <v>407</v>
       </c>
-      <c r="B317" t="s">
-        <v>230</v>
-      </c>
-      <c r="C317" t="s">
+      <c r="B320" t="s">
+        <v>249</v>
+      </c>
+      <c r="C320" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>408</v>
+      </c>
+      <c r="B321" t="s">
+        <v>254</v>
+      </c>
+      <c r="C321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>409</v>
+      </c>
+      <c r="B322" t="s">
+        <v>256</v>
+      </c>
+      <c r="C322" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>410</v>
+      </c>
+      <c r="B323" t="s">
+        <v>325</v>
+      </c>
+      <c r="C323" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>411</v>
+      </c>
+      <c r="B324" t="s">
+        <v>325</v>
+      </c>
+      <c r="C324" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>412</v>
+      </c>
+      <c r="B325" t="s">
+        <v>345</v>
+      </c>
+      <c r="C325" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>413</v>
+      </c>
+      <c r="B326" t="s">
+        <v>258</v>
+      </c>
+      <c r="C326" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>414</v>
+      </c>
+      <c r="B327" t="s">
+        <v>258</v>
+      </c>
+      <c r="C327" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>415</v>
+      </c>
+      <c r="B328" t="s">
+        <v>261</v>
+      </c>
+      <c r="C328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>416</v>
+      </c>
+      <c r="B329" t="s">
+        <v>261</v>
+      </c>
+      <c r="C329" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>417</v>
+      </c>
+      <c r="B330" t="s">
+        <v>325</v>
+      </c>
+      <c r="C330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>418</v>
+      </c>
+      <c r="B331" t="s">
+        <v>419</v>
+      </c>
+      <c r="C331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>420</v>
+      </c>
+      <c r="B332" t="s">
+        <v>325</v>
+      </c>
+      <c r="C332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>421</v>
+      </c>
+      <c r="B333" t="s">
+        <v>261</v>
+      </c>
+      <c r="C333" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>422</v>
+      </c>
+      <c r="B334" t="s">
+        <v>261</v>
+      </c>
+      <c r="C334" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>423</v>
+      </c>
+      <c r="B335" t="s">
+        <v>424</v>
+      </c>
+      <c r="C335" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>425</v>
+      </c>
+      <c r="B336" t="s">
+        <v>256</v>
+      </c>
+      <c r="C336" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>426</v>
+      </c>
+      <c r="B337" t="s">
+        <v>256</v>
+      </c>
+      <c r="C337" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>427</v>
+      </c>
+      <c r="B338" t="s">
+        <v>428</v>
+      </c>
+      <c r="C338" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>429</v>
+      </c>
+      <c r="B339" t="s">
+        <v>254</v>
+      </c>
+      <c r="C339" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid310471"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid742839"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="452">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,117 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>03/10/2024</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>02/10/2024</t>
+  </si>
+  <si>
+    <t>01/10/2024</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>30/09/2024</t>
+  </si>
+  <si>
+    <t>1.002</t>
+  </si>
+  <si>
+    <t>27/09/2024</t>
+  </si>
+  <si>
+    <t>26/09/2024</t>
+  </si>
+  <si>
+    <t>25/09/2024</t>
+  </si>
+  <si>
+    <t>24/09/2024</t>
+  </si>
+  <si>
+    <t>23/09/2024</t>
+  </si>
+  <si>
+    <t>20/09/2024</t>
+  </si>
+  <si>
+    <t>19/09/2024</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>18/09/2024</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>17/09/2024</t>
+  </si>
+  <si>
+    <t>1.001</t>
+  </si>
+  <si>
+    <t>16/09/2024</t>
+  </si>
+  <si>
+    <t>13/09/2024</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>12/09/2024</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>11/09/2024</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>10/09/2024</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>09/09/2024</t>
+  </si>
+  <si>
+    <t>0.983</t>
+  </si>
+  <si>
+    <t>06/09/2024</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>05/09/2024</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>04/09/2024</t>
+  </si>
+  <si>
     <t>03/09/2024</t>
   </si>
   <si>
-    <t>0.993</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>02/09/2024</t>
   </si>
   <si>
@@ -68,9 +170,6 @@
     <t>22/08/2024</t>
   </si>
   <si>
-    <t>0.996</t>
-  </si>
-  <si>
     <t>21/08/2024</t>
   </si>
   <si>
@@ -92,9 +191,6 @@
     <t>15/08/2024</t>
   </si>
   <si>
-    <t>0.983</t>
-  </si>
-  <si>
     <t>14/08/2024</t>
   </si>
   <si>
@@ -146,9 +242,6 @@
     <t>31/07/2024</t>
   </si>
   <si>
-    <t>0.990</t>
-  </si>
-  <si>
     <t>30/07/2024</t>
   </si>
   <si>
@@ -161,9 +254,6 @@
     <t>26/07/2024</t>
   </si>
   <si>
-    <t>0.985</t>
-  </si>
-  <si>
     <t>25/07/2024</t>
   </si>
   <si>
@@ -176,9 +266,6 @@
     <t>23/07/2024</t>
   </si>
   <si>
-    <t>0.998</t>
-  </si>
-  <si>
     <t>22/07/2024</t>
   </si>
   <si>
@@ -188,9 +275,6 @@
     <t>18/07/2024</t>
   </si>
   <si>
-    <t>1.001</t>
-  </si>
-  <si>
     <t>17/07/2024</t>
   </si>
   <si>
@@ -236,15 +320,9 @@
     <t>05/07/2024</t>
   </si>
   <si>
-    <t>1.002</t>
-  </si>
-  <si>
     <t>04/07/2024</t>
   </si>
   <si>
-    <t>1.000</t>
-  </si>
-  <si>
     <t>03/07/2024</t>
   </si>
   <si>
@@ -287,9 +365,6 @@
     <t>13/06/2024</t>
   </si>
   <si>
-    <t>0.999</t>
-  </si>
-  <si>
     <t>12/06/2024</t>
   </si>
   <si>
@@ -332,9 +407,6 @@
     <t>27/05/2024</t>
   </si>
   <si>
-    <t>0.987</t>
-  </si>
-  <si>
     <t>24/05/2024</t>
   </si>
   <si>
@@ -560,9 +632,6 @@
     <t>20/02/2024</t>
   </si>
   <si>
-    <t>0.986</t>
-  </si>
-  <si>
     <t>19/02/2024</t>
   </si>
   <si>
@@ -612,9 +681,6 @@
   </si>
   <si>
     <t>25/01/2024</t>
-  </si>
-  <si>
-    <t>0.984</t>
   </si>
   <si>
     <t>24/01/2024</t>
@@ -1660,7 +1726,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1668,10 +1734,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1682,7 +1748,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1690,10 +1756,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1701,10 +1767,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1715,7 +1781,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1723,10 +1789,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1734,10 +1800,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1745,10 +1811,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1756,10 +1822,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1767,10 +1833,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1778,10 +1844,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1789,10 +1855,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1800,7 +1866,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1811,10 +1877,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1822,10 +1888,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1833,10 +1899,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1844,10 +1910,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1855,10 +1921,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
         <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1866,10 +1932,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1877,10 +1943,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1888,10 +1954,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1899,10 +1965,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1910,10 +1976,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1921,10 +1987,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1932,10 +1998,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -1943,10 +2009,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -1954,10 +2020,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -1965,10 +2031,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -1976,10 +2042,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -1987,10 +2053,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -1998,10 +2064,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2009,10 +2075,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2020,10 +2086,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2031,10 +2097,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2042,10 +2108,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2053,10 +2119,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2064,10 +2130,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2075,10 +2141,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2086,10 +2152,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2097,10 +2163,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2108,10 +2174,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2119,10 +2185,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2130,10 +2196,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2141,10 +2207,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2152,10 +2218,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2163,10 +2229,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2174,10 +2240,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2185,10 +2251,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2196,10 +2262,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2207,7 +2273,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
         <v>4</v>
@@ -2218,10 +2284,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2229,10 +2295,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2240,10 +2306,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2251,10 +2317,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2262,10 +2328,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" t="s">
         <v>89</v>
-      </c>
-      <c r="B58" t="s">
-        <v>90</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2273,10 +2339,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
+        <v>90</v>
+      </c>
+      <c r="B59" t="s">
         <v>91</v>
-      </c>
-      <c r="B59" t="s">
-        <v>90</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2287,7 +2353,7 @@
         <v>92</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2295,10 +2361,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2306,10 +2372,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2317,10 +2383,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B63" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2328,10 +2394,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2339,10 +2405,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2350,10 +2416,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2361,10 +2427,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2372,10 +2438,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2383,10 +2449,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2394,10 +2460,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2405,10 +2471,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2416,10 +2482,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2427,10 +2493,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2438,10 +2504,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2449,10 +2515,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2460,10 +2526,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2471,10 +2537,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2482,10 +2548,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2493,10 +2559,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B79" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2504,10 +2570,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B80" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2515,10 +2581,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2526,10 +2592,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2537,10 +2603,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2548,10 +2614,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2559,10 +2625,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2570,10 +2636,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2581,10 +2647,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2595,7 +2661,7 @@
         <v>123</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2617,7 +2683,7 @@
         <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2625,10 +2691,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2636,10 +2702,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2647,10 +2713,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2658,10 +2724,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>133</v>
+        <v>37</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2669,10 +2735,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B95" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2680,10 +2746,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2691,10 +2757,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B97" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2702,10 +2768,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2713,7 +2779,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B99" t="s">
         <v>4</v>
@@ -2724,10 +2790,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2735,10 +2801,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B101" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2746,10 +2812,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B102" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2757,10 +2823,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2768,10 +2834,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B104" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2779,10 +2845,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B105" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2790,10 +2856,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B106" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2801,10 +2867,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B107" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2812,10 +2878,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B108" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2823,10 +2889,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B109" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2834,10 +2900,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B110" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2845,10 +2911,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B111" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2856,10 +2922,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2867,10 +2933,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>153</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2878,10 +2944,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B114" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2889,10 +2955,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2900,10 +2966,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B116" t="s">
-        <v>4</v>
+        <v>157</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2911,10 +2977,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>158</v>
+      </c>
+      <c r="B117" t="s">
         <v>159</v>
-      </c>
-      <c r="B117" t="s">
-        <v>75</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2925,7 +2991,7 @@
         <v>160</v>
       </c>
       <c r="B118" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2933,10 +2999,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B119" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2944,10 +3010,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B120" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2955,10 +3021,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B121" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2966,10 +3032,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B122" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2977,10 +3043,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B123" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2991,7 +3057,7 @@
         <v>167</v>
       </c>
       <c r="B124" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2999,10 +3065,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B125" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3010,10 +3076,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B126" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3021,10 +3087,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B127" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3032,10 +3098,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B128" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3043,10 +3109,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3054,10 +3120,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3065,10 +3131,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3076,10 +3142,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3087,10 +3153,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>176</v>
+      </c>
+      <c r="B133" t="s">
         <v>177</v>
-      </c>
-      <c r="B133" t="s">
-        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3101,7 +3167,7 @@
         <v>178</v>
       </c>
       <c r="B134" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3112,7 +3178,7 @@
         <v>179</v>
       </c>
       <c r="B135" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3123,7 +3189,7 @@
         <v>180</v>
       </c>
       <c r="B136" t="s">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3131,10 +3197,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B137" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3142,10 +3208,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3153,10 +3219,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B139" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3164,10 +3230,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B140" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3175,10 +3241,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B141" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3186,10 +3252,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3197,10 +3263,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3208,10 +3274,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3219,10 +3285,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>189</v>
+      </c>
+      <c r="B145" t="s">
         <v>190</v>
-      </c>
-      <c r="B145" t="s">
-        <v>21</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3233,7 +3299,7 @@
         <v>191</v>
       </c>
       <c r="B146" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3241,10 +3307,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B147" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3252,10 +3318,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B148" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3263,10 +3329,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B149" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3274,10 +3340,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B150" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3285,10 +3351,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B151" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3296,10 +3362,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B152" t="s">
-        <v>181</v>
+        <v>46</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3307,10 +3373,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B153" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3321,7 +3387,7 @@
         <v>200</v>
       </c>
       <c r="B154" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3332,7 +3398,7 @@
         <v>201</v>
       </c>
       <c r="B155" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3343,7 +3409,7 @@
         <v>202</v>
       </c>
       <c r="B156" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3354,7 +3420,7 @@
         <v>203</v>
       </c>
       <c r="B157" t="s">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3362,10 +3428,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B158" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3373,10 +3439,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B159" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3384,10 +3450,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B160" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3395,10 +3461,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B161" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3406,10 +3472,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B162" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3417,10 +3483,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B163" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3428,10 +3494,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B164" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3439,10 +3505,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B165" t="s">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3450,10 +3516,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B166" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3461,10 +3527,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B167" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3472,10 +3538,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B168" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3483,10 +3549,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B169" t="s">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3494,10 +3560,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B170" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3505,10 +3571,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B171" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3516,10 +3582,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B172" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3527,10 +3593,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B173" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3538,10 +3604,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B174" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3549,10 +3615,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B175" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3560,10 +3626,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B176" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3571,10 +3637,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B177" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3582,10 +3648,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B178" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3593,10 +3659,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B179" t="s">
-        <v>21</v>
+        <v>226</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3604,10 +3670,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>66</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3615,10 +3681,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B181" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3626,10 +3692,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B182" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3637,10 +3703,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B183" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3648,10 +3714,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B184" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3659,10 +3725,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B185" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3670,10 +3736,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B186" t="s">
-        <v>235</v>
+        <v>149</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3681,10 +3747,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B187" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3692,10 +3758,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B188" t="s">
-        <v>239</v>
+        <v>62</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3703,10 +3769,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B189" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3714,10 +3780,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B190" t="s">
-        <v>243</v>
+        <v>62</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3725,10 +3791,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B191" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3736,10 +3802,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B192" t="s">
-        <v>239</v>
+        <v>31</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3747,10 +3813,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B193" t="s">
-        <v>247</v>
+        <v>56</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3758,10 +3824,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B194" t="s">
-        <v>249</v>
+        <v>56</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3769,10 +3835,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B195" t="s">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3780,10 +3846,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B196" t="s">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3791,10 +3857,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B197" t="s">
-        <v>249</v>
+        <v>76</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3802,10 +3868,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B198" t="s">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3813,10 +3879,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B199" t="s">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3824,10 +3890,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="B200" t="s">
-        <v>258</v>
+        <v>35</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3835,10 +3901,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B201" t="s">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3846,10 +3912,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B202" t="s">
-        <v>261</v>
+        <v>35</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3857,10 +3923,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B203" t="s">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3868,10 +3934,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B204" t="s">
-        <v>264</v>
+        <v>161</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3879,10 +3945,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="B205" t="s">
-        <v>266</v>
+        <v>64</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3890,10 +3956,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="B206" t="s">
-        <v>266</v>
+        <v>157</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3901,10 +3967,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B207" t="s">
-        <v>269</v>
+        <v>68</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3912,10 +3978,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B208" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3923,10 +3989,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="B209" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -3934,10 +4000,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B210" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -3945,10 +4011,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B211" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -3956,10 +4022,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B212" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -3967,10 +4033,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B213" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -3978,10 +4044,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B214" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -3989,10 +4055,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B215" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4000,10 +4066,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B216" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4011,10 +4077,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="B217" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4022,10 +4088,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="B218" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4033,10 +4099,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B219" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4044,10 +4110,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B220" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4055,10 +4121,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="B221" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4066,10 +4132,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="B222" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4077,10 +4143,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="B223" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4088,10 +4154,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B224" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4099,10 +4165,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="B225" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4110,10 +4176,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="B226" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4121,10 +4187,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="B227" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4132,10 +4198,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B228" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4143,10 +4209,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B229" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4154,10 +4220,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B230" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4165,10 +4231,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="B231" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4176,10 +4242,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B232" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4187,10 +4253,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B233" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4198,10 +4264,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="B234" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4209,10 +4275,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="B235" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4220,10 +4286,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B236" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4231,10 +4297,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B237" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4242,10 +4308,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="B238" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4253,10 +4319,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B239" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4264,10 +4330,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="B240" t="s">
-        <v>258</v>
+        <v>311</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4275,10 +4341,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B241" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4286,10 +4352,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B242" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4297,10 +4363,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="B243" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4308,10 +4374,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B244" t="s">
-        <v>328</v>
+        <v>293</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4319,10 +4385,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B245" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4330,10 +4396,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B246" t="s">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4341,10 +4407,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B247" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4352,10 +4418,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B248" t="s">
-        <v>32</v>
+        <v>324</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4363,10 +4429,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B249" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4374,10 +4440,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B250" t="s">
-        <v>36</v>
+        <v>315</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4385,10 +4451,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B251" t="s">
-        <v>129</v>
+        <v>315</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4396,10 +4462,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B252" t="s">
-        <v>34</v>
+        <v>330</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4407,10 +4473,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B253" t="s">
-        <v>40</v>
+        <v>332</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4418,10 +4484,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B254" t="s">
-        <v>204</v>
+        <v>334</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4429,10 +4495,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B255" t="s">
-        <v>34</v>
+        <v>291</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4440,10 +4506,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B256" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4451,10 +4517,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B257" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4462,10 +4528,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B258" t="s">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4473,10 +4539,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B259" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4484,10 +4550,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B260" t="s">
-        <v>38</v>
+        <v>342</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4495,10 +4561,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B261" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4506,10 +4572,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B262" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4517,10 +4583,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B263" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4528,10 +4594,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B264" t="s">
-        <v>239</v>
+        <v>347</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4539,10 +4605,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B265" t="s">
-        <v>137</v>
+        <v>259</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4550,10 +4616,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B266" t="s">
-        <v>122</v>
+        <v>350</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4561,10 +4627,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B267" t="s">
-        <v>122</v>
+        <v>350</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4572,10 +4638,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B268" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4583,10 +4649,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B269" t="s">
-        <v>25</v>
+        <v>350</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4594,10 +4660,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B270" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4605,10 +4671,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B271" t="s">
-        <v>28</v>
+        <v>356</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4616,10 +4682,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B272" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4627,10 +4693,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B273" t="s">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4638,10 +4704,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B274" t="s">
-        <v>181</v>
+        <v>66</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4649,10 +4715,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B275" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4660,10 +4726,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B276" t="s">
-        <v>7</v>
+        <v>226</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4671,10 +4737,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B277" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4682,10 +4748,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B278" t="s">
-        <v>17</v>
+        <v>259</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4693,10 +4759,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B279" t="s">
-        <v>43</v>
+        <v>365</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4704,10 +4770,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
+        <v>366</v>
+      </c>
+      <c r="B280" t="s">
         <v>367</v>
-      </c>
-      <c r="B280" t="s">
-        <v>21</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4718,7 +4784,7 @@
         <v>368</v>
       </c>
       <c r="B281" t="s">
-        <v>105</v>
+        <v>259</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4729,7 +4795,7 @@
         <v>369</v>
       </c>
       <c r="B282" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4740,7 +4806,7 @@
         <v>370</v>
       </c>
       <c r="B283" t="s">
-        <v>51</v>
+        <v>367</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4751,7 +4817,7 @@
         <v>371</v>
       </c>
       <c r="B284" t="s">
-        <v>17</v>
+        <v>347</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4762,7 +4828,7 @@
         <v>372</v>
       </c>
       <c r="B285" t="s">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4773,7 +4839,7 @@
         <v>373</v>
       </c>
       <c r="B286" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4784,7 +4850,7 @@
         <v>374</v>
       </c>
       <c r="B287" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4795,7 +4861,7 @@
         <v>375</v>
       </c>
       <c r="B288" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -4806,7 +4872,7 @@
         <v>376</v>
       </c>
       <c r="B289" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4817,7 +4883,7 @@
         <v>377</v>
       </c>
       <c r="B290" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4828,7 +4894,7 @@
         <v>378</v>
       </c>
       <c r="B291" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -4839,7 +4905,7 @@
         <v>379</v>
       </c>
       <c r="B292" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4850,7 +4916,7 @@
         <v>380</v>
       </c>
       <c r="B293" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4861,7 +4927,7 @@
         <v>381</v>
       </c>
       <c r="B294" t="s">
-        <v>100</v>
+        <v>235</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -4872,7 +4938,7 @@
         <v>382</v>
       </c>
       <c r="B295" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -4883,7 +4949,7 @@
         <v>383</v>
       </c>
       <c r="B296" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -4894,7 +4960,7 @@
         <v>384</v>
       </c>
       <c r="B297" t="s">
-        <v>213</v>
+        <v>20</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -4905,7 +4971,7 @@
         <v>385</v>
       </c>
       <c r="B298" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -4916,7 +4982,7 @@
         <v>386</v>
       </c>
       <c r="B299" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -4927,7 +4993,7 @@
         <v>387</v>
       </c>
       <c r="B300" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -4938,7 +5004,7 @@
         <v>388</v>
       </c>
       <c r="B301" t="s">
-        <v>137</v>
+        <v>27</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -4949,7 +5015,7 @@
         <v>389</v>
       </c>
       <c r="B302" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -4960,7 +5026,7 @@
         <v>390</v>
       </c>
       <c r="B303" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -4971,7 +5037,7 @@
         <v>391</v>
       </c>
       <c r="B304" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -4982,7 +5048,7 @@
         <v>392</v>
       </c>
       <c r="B305" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -4993,7 +5059,7 @@
         <v>393</v>
       </c>
       <c r="B306" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5004,7 +5070,7 @@
         <v>394</v>
       </c>
       <c r="B307" t="s">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5015,7 +5081,7 @@
         <v>395</v>
       </c>
       <c r="B308" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5026,7 +5092,7 @@
         <v>396</v>
       </c>
       <c r="B309" t="s">
-        <v>213</v>
+        <v>48</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5037,7 +5103,7 @@
         <v>397</v>
       </c>
       <c r="B310" t="s">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5048,7 +5114,7 @@
         <v>398</v>
       </c>
       <c r="B311" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5059,7 +5125,7 @@
         <v>399</v>
       </c>
       <c r="B312" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5070,7 +5136,7 @@
         <v>400</v>
       </c>
       <c r="B313" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5081,7 +5147,7 @@
         <v>401</v>
       </c>
       <c r="B314" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5092,7 +5158,7 @@
         <v>402</v>
       </c>
       <c r="B315" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5103,7 +5169,7 @@
         <v>403</v>
       </c>
       <c r="B316" t="s">
-        <v>325</v>
+        <v>125</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5114,7 +5180,7 @@
         <v>404</v>
       </c>
       <c r="B317" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5125,7 +5191,7 @@
         <v>405</v>
       </c>
       <c r="B318" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5136,7 +5202,7 @@
         <v>406</v>
       </c>
       <c r="B319" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5147,7 +5213,7 @@
         <v>407</v>
       </c>
       <c r="B320" t="s">
-        <v>249</v>
+        <v>153</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5158,7 +5224,7 @@
         <v>408</v>
       </c>
       <c r="B321" t="s">
-        <v>254</v>
+        <v>157</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5169,7 +5235,7 @@
         <v>409</v>
       </c>
       <c r="B322" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5180,7 +5246,7 @@
         <v>410</v>
       </c>
       <c r="B323" t="s">
-        <v>325</v>
+        <v>161</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5191,7 +5257,7 @@
         <v>411</v>
       </c>
       <c r="B324" t="s">
-        <v>325</v>
+        <v>161</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5202,7 +5268,7 @@
         <v>412</v>
       </c>
       <c r="B325" t="s">
-        <v>345</v>
+        <v>146</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5213,7 +5279,7 @@
         <v>413</v>
       </c>
       <c r="B326" t="s">
-        <v>258</v>
+        <v>72</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5224,7 +5290,7 @@
         <v>414</v>
       </c>
       <c r="B327" t="s">
-        <v>258</v>
+        <v>125</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5235,7 +5301,7 @@
         <v>415</v>
       </c>
       <c r="B328" t="s">
-        <v>261</v>
+        <v>76</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5246,7 +5312,7 @@
         <v>416</v>
       </c>
       <c r="B329" t="s">
-        <v>261</v>
+        <v>149</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5257,7 +5323,7 @@
         <v>417</v>
       </c>
       <c r="B330" t="s">
-        <v>325</v>
+        <v>149</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5268,7 +5334,7 @@
         <v>418</v>
       </c>
       <c r="B331" t="s">
-        <v>419</v>
+        <v>235</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5276,10 +5342,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B332" t="s">
-        <v>325</v>
+        <v>146</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5287,10 +5353,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B333" t="s">
-        <v>261</v>
+        <v>146</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5298,10 +5364,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B334" t="s">
-        <v>261</v>
+        <v>157</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5309,10 +5375,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B335" t="s">
-        <v>424</v>
+        <v>146</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5320,10 +5386,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B336" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5331,10 +5397,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B337" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5342,10 +5408,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B338" t="s">
-        <v>428</v>
+        <v>347</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5353,12 +5419,254 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
+        <v>426</v>
+      </c>
+      <c r="B339" t="s">
+        <v>347</v>
+      </c>
+      <c r="C339" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>427</v>
+      </c>
+      <c r="B340" t="s">
+        <v>70</v>
+      </c>
+      <c r="C340" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>428</v>
+      </c>
+      <c r="B341" t="s">
+        <v>271</v>
+      </c>
+      <c r="C341" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
         <v>429</v>
       </c>
-      <c r="B339" t="s">
-        <v>254</v>
-      </c>
-      <c r="C339" t="s">
+      <c r="B342" t="s">
+        <v>271</v>
+      </c>
+      <c r="C342" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>430</v>
+      </c>
+      <c r="B343" t="s">
+        <v>276</v>
+      </c>
+      <c r="C343" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>431</v>
+      </c>
+      <c r="B344" t="s">
+        <v>278</v>
+      </c>
+      <c r="C344" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>432</v>
+      </c>
+      <c r="B345" t="s">
+        <v>347</v>
+      </c>
+      <c r="C345" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>433</v>
+      </c>
+      <c r="B346" t="s">
+        <v>347</v>
+      </c>
+      <c r="C346" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>434</v>
+      </c>
+      <c r="B347" t="s">
+        <v>367</v>
+      </c>
+      <c r="C347" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>435</v>
+      </c>
+      <c r="B348" t="s">
+        <v>280</v>
+      </c>
+      <c r="C348" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>436</v>
+      </c>
+      <c r="B349" t="s">
+        <v>280</v>
+      </c>
+      <c r="C349" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>437</v>
+      </c>
+      <c r="B350" t="s">
+        <v>283</v>
+      </c>
+      <c r="C350" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>438</v>
+      </c>
+      <c r="B351" t="s">
+        <v>283</v>
+      </c>
+      <c r="C351" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>439</v>
+      </c>
+      <c r="B352" t="s">
+        <v>347</v>
+      </c>
+      <c r="C352" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>440</v>
+      </c>
+      <c r="B353" t="s">
+        <v>441</v>
+      </c>
+      <c r="C353" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>442</v>
+      </c>
+      <c r="B354" t="s">
+        <v>347</v>
+      </c>
+      <c r="C354" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>443</v>
+      </c>
+      <c r="B355" t="s">
+        <v>283</v>
+      </c>
+      <c r="C355" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>444</v>
+      </c>
+      <c r="B356" t="s">
+        <v>283</v>
+      </c>
+      <c r="C356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>445</v>
+      </c>
+      <c r="B357" t="s">
+        <v>446</v>
+      </c>
+      <c r="C357" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>447</v>
+      </c>
+      <c r="B358" t="s">
+        <v>278</v>
+      </c>
+      <c r="C358" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>448</v>
+      </c>
+      <c r="B359" t="s">
+        <v>278</v>
+      </c>
+      <c r="C359" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>449</v>
+      </c>
+      <c r="B360" t="s">
+        <v>450</v>
+      </c>
+      <c r="C360" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>451</v>
+      </c>
+      <c r="B361" t="s">
+        <v>276</v>
+      </c>
+      <c r="C361" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid742839"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid792225"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="471">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,30 +26,102 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>30/10/2024</t>
+  </si>
+  <si>
+    <t>1.002</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>29/10/2024</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>28/10/2024</t>
+  </si>
+  <si>
+    <t>1.001</t>
+  </si>
+  <si>
+    <t>25/10/2024</t>
+  </si>
+  <si>
+    <t>24/10/2024</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>23/10/2024</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>22/10/2024</t>
+  </si>
+  <si>
+    <t>21/10/2024</t>
+  </si>
+  <si>
+    <t>1.004</t>
+  </si>
+  <si>
+    <t>18/10/2024</t>
+  </si>
+  <si>
+    <t>17/10/2024</t>
+  </si>
+  <si>
+    <t>16/10/2024</t>
+  </si>
+  <si>
+    <t>15/10/2024</t>
+  </si>
+  <si>
+    <t>1.010</t>
+  </si>
+  <si>
+    <t>14/10/2024</t>
+  </si>
+  <si>
+    <t>1.003</t>
+  </si>
+  <si>
+    <t>11/10/2024</t>
+  </si>
+  <si>
+    <t>10/10/2024</t>
+  </si>
+  <si>
+    <t>09/10/2024</t>
+  </si>
+  <si>
+    <t>08/10/2024</t>
+  </si>
+  <si>
+    <t>07/10/2024</t>
+  </si>
+  <si>
+    <t>04/10/2024</t>
+  </si>
+  <si>
     <t>03/10/2024</t>
   </si>
   <si>
-    <t>0.998</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>02/10/2024</t>
   </si>
   <si>
     <t>01/10/2024</t>
   </si>
   <si>
-    <t>1.000</t>
-  </si>
-  <si>
     <t>30/09/2024</t>
   </si>
   <si>
-    <t>1.002</t>
-  </si>
-  <si>
     <t>27/09/2024</t>
   </si>
   <si>
@@ -71,9 +143,6 @@
     <t>19/09/2024</t>
   </si>
   <si>
-    <t>0.999</t>
-  </si>
-  <si>
     <t>18/09/2024</t>
   </si>
   <si>
@@ -83,9 +152,6 @@
     <t>17/09/2024</t>
   </si>
   <si>
-    <t>1.001</t>
-  </si>
-  <si>
     <t>16/09/2024</t>
   </si>
   <si>
@@ -278,9 +344,6 @@
     <t>17/07/2024</t>
   </si>
   <si>
-    <t>1.004</t>
-  </si>
-  <si>
     <t>16/07/2024</t>
   </si>
   <si>
@@ -296,9 +359,6 @@
     <t>12/07/2024</t>
   </si>
   <si>
-    <t>1.010</t>
-  </si>
-  <si>
     <t>11/07/2024</t>
   </si>
   <si>
@@ -591,9 +651,6 @@
   </si>
   <si>
     <t>07/03/2024</t>
-  </si>
-  <si>
-    <t>1.003</t>
   </si>
   <si>
     <t>06/03/2024</t>
@@ -1726,7 +1783,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -1734,10 +1791,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1745,10 +1802,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1759,7 +1816,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1767,10 +1824,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1778,10 +1835,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1789,10 +1846,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1800,10 +1857,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1811,10 +1868,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1822,10 +1879,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1833,10 +1890,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1844,10 +1901,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1855,10 +1912,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1866,10 +1923,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1877,10 +1934,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1891,7 +1948,7 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1899,10 +1956,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1910,10 +1967,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1921,10 +1978,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1932,10 +1989,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -1943,10 +2000,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -1954,10 +2011,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -1965,10 +2022,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -1976,10 +2033,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -1987,10 +2044,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -1998,10 +2055,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2009,10 +2066,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2020,10 +2077,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2031,10 +2088,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2042,10 +2099,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2053,10 +2110,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2064,10 +2121,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2075,10 +2132,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2086,10 +2143,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2097,10 +2154,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2108,10 +2165,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2119,10 +2176,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2130,10 +2187,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2141,10 +2198,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2152,10 +2209,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2163,10 +2220,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2174,10 +2231,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2185,10 +2242,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2196,10 +2253,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2207,10 +2264,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2218,10 +2275,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2229,10 +2286,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2240,10 +2297,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2251,10 +2308,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2262,10 +2319,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2273,10 +2330,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2284,10 +2341,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2295,10 +2352,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2306,10 +2363,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2317,10 +2374,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2328,10 +2385,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2339,10 +2396,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2350,10 +2407,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2361,10 +2418,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2372,10 +2429,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2383,10 +2440,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2394,10 +2451,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2405,10 +2462,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2416,10 +2473,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2427,10 +2484,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2438,10 +2495,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B68" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2449,10 +2506,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2460,10 +2517,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2471,10 +2528,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2482,10 +2539,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B72" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2493,10 +2550,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2504,10 +2561,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2515,10 +2572,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2526,10 +2583,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2537,10 +2594,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2548,10 +2605,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2559,10 +2616,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2570,10 +2627,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2581,10 +2638,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" t="s">
         <v>116</v>
-      </c>
-      <c r="B81" t="s">
-        <v>18</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2595,7 +2652,7 @@
         <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2606,7 +2663,7 @@
         <v>118</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2614,10 +2671,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2625,10 +2682,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B85" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2636,10 +2693,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2647,10 +2704,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2658,10 +2715,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2669,10 +2726,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2683,7 +2740,7 @@
         <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2694,7 +2751,7 @@
         <v>127</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2705,7 +2762,7 @@
         <v>128</v>
       </c>
       <c r="B92" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2716,7 +2773,7 @@
         <v>129</v>
       </c>
       <c r="B93" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2727,7 +2784,7 @@
         <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2738,7 +2795,7 @@
         <v>131</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2749,7 +2806,7 @@
         <v>132</v>
       </c>
       <c r="B96" t="s">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2760,7 +2817,7 @@
         <v>133</v>
       </c>
       <c r="B97" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2771,7 +2828,7 @@
         <v>134</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2782,7 +2839,7 @@
         <v>135</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2793,7 +2850,7 @@
         <v>136</v>
       </c>
       <c r="B100" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2804,7 +2861,7 @@
         <v>137</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2815,7 +2872,7 @@
         <v>138</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2826,7 +2883,7 @@
         <v>139</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2837,7 +2894,7 @@
         <v>140</v>
       </c>
       <c r="B104" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2848,7 +2905,7 @@
         <v>141</v>
       </c>
       <c r="B105" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2859,7 +2916,7 @@
         <v>142</v>
       </c>
       <c r="B106" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2870,7 +2927,7 @@
         <v>143</v>
       </c>
       <c r="B107" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2881,7 +2938,7 @@
         <v>144</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2889,10 +2946,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B109" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2903,7 +2960,7 @@
         <v>147</v>
       </c>
       <c r="B110" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2914,7 +2971,7 @@
         <v>148</v>
       </c>
       <c r="B111" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2922,10 +2979,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B112" t="s">
-        <v>151</v>
+        <v>59</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2933,10 +2990,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B113" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -2944,10 +3001,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B114" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -2955,10 +3012,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B115" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -2966,10 +3023,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B116" t="s">
-        <v>157</v>
+        <v>103</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -2977,10 +3034,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B117" t="s">
-        <v>159</v>
+        <v>103</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2988,10 +3045,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B118" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2999,10 +3056,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B119" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3010,10 +3067,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B120" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3021,10 +3078,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B121" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3032,10 +3089,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B122" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3043,10 +3100,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B123" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3054,10 +3111,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3065,10 +3122,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3076,10 +3133,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B126" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3087,10 +3144,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B127" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3098,10 +3155,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3109,10 +3166,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3120,10 +3177,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B130" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3131,10 +3188,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B131" t="s">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3142,10 +3199,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B132" t="s">
-        <v>87</v>
+        <v>173</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3153,10 +3210,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B133" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3164,10 +3221,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B134" t="s">
-        <v>87</v>
+        <v>166</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3175,10 +3232,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B135" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3186,10 +3243,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B136" t="s">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3197,10 +3254,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
+        <v>180</v>
+      </c>
+      <c r="B137" t="s">
         <v>181</v>
-      </c>
-      <c r="B137" t="s">
-        <v>48</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3211,7 +3268,7 @@
         <v>182</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3222,7 +3279,7 @@
         <v>183</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3233,7 +3290,7 @@
         <v>184</v>
       </c>
       <c r="B140" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3244,7 +3301,7 @@
         <v>185</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3255,7 +3312,7 @@
         <v>186</v>
       </c>
       <c r="B142" t="s">
-        <v>177</v>
+        <v>47</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3266,7 +3323,7 @@
         <v>187</v>
       </c>
       <c r="B143" t="s">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3277,7 +3334,7 @@
         <v>188</v>
       </c>
       <c r="B144" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3288,7 +3345,7 @@
         <v>189</v>
       </c>
       <c r="B145" t="s">
-        <v>190</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3296,10 +3353,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B146" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3307,10 +3364,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3318,10 +3375,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3329,10 +3386,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3340,10 +3397,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B150" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3351,10 +3408,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B151" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3362,10 +3419,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B152" t="s">
-        <v>46</v>
+        <v>197</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3373,10 +3430,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B153" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3384,10 +3441,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B154" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3395,10 +3452,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B155" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3406,10 +3463,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B156" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3417,10 +3474,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B157" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3428,10 +3485,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B158" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3439,10 +3496,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B159" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3450,10 +3507,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B160" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3461,10 +3518,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B161" t="s">
-        <v>4</v>
+        <v>197</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3472,10 +3529,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B162" t="s">
-        <v>20</v>
+        <v>197</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3483,10 +3540,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B163" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3494,10 +3551,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
+        <v>209</v>
+      </c>
+      <c r="B164" t="s">
         <v>210</v>
-      </c>
-      <c r="B164" t="s">
-        <v>48</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3508,7 +3565,7 @@
         <v>211</v>
       </c>
       <c r="B165" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3519,7 +3576,7 @@
         <v>212</v>
       </c>
       <c r="B166" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3530,7 +3587,7 @@
         <v>213</v>
       </c>
       <c r="B167" t="s">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3541,7 +3598,7 @@
         <v>214</v>
       </c>
       <c r="B168" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3552,7 +3609,7 @@
         <v>215</v>
       </c>
       <c r="B169" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3563,7 +3620,7 @@
         <v>216</v>
       </c>
       <c r="B170" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3574,7 +3631,7 @@
         <v>217</v>
       </c>
       <c r="B171" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3585,7 +3642,7 @@
         <v>218</v>
       </c>
       <c r="B172" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3596,7 +3653,7 @@
         <v>219</v>
       </c>
       <c r="B173" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3607,7 +3664,7 @@
         <v>220</v>
       </c>
       <c r="B174" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3618,7 +3675,7 @@
         <v>221</v>
       </c>
       <c r="B175" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3629,7 +3686,7 @@
         <v>222</v>
       </c>
       <c r="B176" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3640,7 +3697,7 @@
         <v>223</v>
       </c>
       <c r="B177" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3651,7 +3708,7 @@
         <v>224</v>
       </c>
       <c r="B178" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3662,7 +3719,7 @@
         <v>225</v>
       </c>
       <c r="B179" t="s">
-        <v>226</v>
+        <v>47</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3670,10 +3727,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B180" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3681,10 +3738,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B181" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3692,10 +3749,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B182" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3703,10 +3760,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B183" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3714,10 +3771,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B184" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3725,10 +3782,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B185" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3736,10 +3793,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B186" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3747,10 +3804,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B187" t="s">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3758,10 +3815,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B188" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3769,10 +3826,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B189" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3780,10 +3837,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B190" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3791,10 +3848,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B191" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3802,10 +3859,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B192" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3813,10 +3870,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B193" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3824,10 +3881,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B194" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3835,10 +3892,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B195" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3846,10 +3903,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B196" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3857,10 +3914,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B197" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3868,10 +3925,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B198" t="s">
-        <v>31</v>
+        <v>245</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3879,10 +3936,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B199" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3890,10 +3947,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B200" t="s">
-        <v>35</v>
+        <v>181</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3901,10 +3958,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B201" t="s">
-        <v>54</v>
+        <v>169</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3912,10 +3969,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B202" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3923,10 +3980,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B203" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3934,10 +3991,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B204" t="s">
-        <v>161</v>
+        <v>53</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -3945,10 +4002,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B205" t="s">
-        <v>64</v>
+        <v>169</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -3956,10 +4013,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
+        <v>253</v>
+      </c>
+      <c r="B206" t="s">
         <v>254</v>
-      </c>
-      <c r="B206" t="s">
-        <v>157</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -3970,7 +4027,7 @@
         <v>255</v>
       </c>
       <c r="B207" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -3981,7 +4038,7 @@
         <v>256</v>
       </c>
       <c r="B208" t="s">
-        <v>257</v>
+        <v>166</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -3989,10 +4046,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B209" t="s">
-        <v>259</v>
+        <v>84</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4000,10 +4057,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B210" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4011,10 +4068,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B211" t="s">
-        <v>263</v>
+        <v>53</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4022,10 +4079,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B212" t="s">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4033,10 +4090,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B213" t="s">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4044,10 +4101,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B214" t="s">
-        <v>261</v>
+        <v>49</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4055,10 +4112,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B215" t="s">
-        <v>269</v>
+        <v>98</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4066,10 +4123,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B216" t="s">
-        <v>271</v>
+        <v>98</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4077,10 +4134,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B217" t="s">
-        <v>271</v>
+        <v>53</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4088,10 +4145,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B218" t="s">
-        <v>271</v>
+        <v>59</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4099,10 +4156,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B219" t="s">
-        <v>271</v>
+        <v>57</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4110,10 +4167,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B220" t="s">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4121,10 +4178,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B221" t="s">
-        <v>278</v>
+        <v>57</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4132,10 +4189,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B222" t="s">
-        <v>280</v>
+        <v>57</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4143,10 +4200,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B223" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4154,10 +4211,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B224" t="s">
-        <v>283</v>
+        <v>86</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4165,10 +4222,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B225" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4176,10 +4233,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B226" t="s">
-        <v>286</v>
+        <v>90</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4187,10 +4244,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B227" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4198,10 +4255,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B228" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4209,10 +4266,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B229" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4220,10 +4277,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B230" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4231,10 +4288,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B231" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4242,10 +4299,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B232" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4253,10 +4310,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B233" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4264,10 +4321,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="B234" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4275,10 +4332,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B235" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4286,10 +4343,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B236" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4297,10 +4354,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B237" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4308,10 +4365,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="B238" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4319,10 +4376,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B239" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4330,10 +4387,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B240" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4341,10 +4398,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B241" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4352,10 +4409,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B242" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4363,10 +4420,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B243" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4374,10 +4431,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="B244" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4385,10 +4442,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B245" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4396,10 +4453,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="B246" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4407,10 +4464,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="B247" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4418,10 +4475,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B248" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4429,10 +4486,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B249" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4440,10 +4497,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B250" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4451,7 +4508,7 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B251" t="s">
         <v>315</v>
@@ -4462,10 +4519,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B252" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4473,10 +4530,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B253" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4484,10 +4541,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B254" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4495,10 +4552,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B255" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4506,7 +4563,7 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B256" t="s">
         <v>324</v>
@@ -4517,10 +4574,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B257" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4528,10 +4585,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B258" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4539,10 +4596,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B259" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4550,10 +4607,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B260" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4561,10 +4618,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B261" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4572,10 +4629,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B262" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4583,10 +4640,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B263" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4594,10 +4651,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B264" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4605,10 +4662,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B265" t="s">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4616,10 +4673,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B266" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4627,10 +4684,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B267" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4638,10 +4695,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B268" t="s">
-        <v>157</v>
+        <v>339</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4649,10 +4706,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B269" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4660,10 +4717,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B270" t="s">
-        <v>64</v>
+        <v>334</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4671,10 +4728,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B271" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4682,10 +4739,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B272" t="s">
-        <v>68</v>
+        <v>351</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4693,10 +4750,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B273" t="s">
-        <v>153</v>
+        <v>353</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4704,10 +4761,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B274" t="s">
-        <v>66</v>
+        <v>310</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4715,10 +4772,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B275" t="s">
-        <v>72</v>
+        <v>343</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4726,10 +4783,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B276" t="s">
-        <v>226</v>
+        <v>357</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4737,10 +4794,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B277" t="s">
-        <v>66</v>
+        <v>310</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4748,10 +4805,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B278" t="s">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4759,10 +4816,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B279" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4770,10 +4827,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B280" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4781,10 +4838,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B281" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4792,10 +4849,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B282" t="s">
-        <v>70</v>
+        <v>284</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4803,10 +4860,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B283" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4814,10 +4871,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B284" t="s">
-        <v>347</v>
+        <v>278</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4825,10 +4882,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B285" t="s">
-        <v>269</v>
+        <v>369</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4836,10 +4893,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B286" t="s">
-        <v>261</v>
+        <v>369</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4847,10 +4904,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B287" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4858,10 +4915,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B288" t="s">
-        <v>146</v>
+        <v>369</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -4869,10 +4926,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B289" t="s">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4880,10 +4937,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B290" t="s">
-        <v>146</v>
+        <v>375</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4891,10 +4948,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B291" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -4902,10 +4959,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B292" t="s">
-        <v>72</v>
+        <v>173</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4913,10 +4970,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B293" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4924,10 +4981,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B294" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -4935,10 +4992,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B295" t="s">
-        <v>60</v>
+        <v>245</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -4946,10 +5003,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B296" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -4957,10 +5014,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B297" t="s">
-        <v>20</v>
+        <v>278</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -4968,10 +5025,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B298" t="s">
-        <v>41</v>
+        <v>384</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -4979,10 +5036,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
+        <v>385</v>
+      </c>
+      <c r="B299" t="s">
         <v>386</v>
-      </c>
-      <c r="B299" t="s">
-        <v>20</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -4993,7 +5050,7 @@
         <v>387</v>
       </c>
       <c r="B300" t="s">
-        <v>25</v>
+        <v>278</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5004,7 +5061,7 @@
         <v>388</v>
       </c>
       <c r="B301" t="s">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5015,7 +5072,7 @@
         <v>389</v>
       </c>
       <c r="B302" t="s">
-        <v>54</v>
+        <v>386</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5026,7 +5083,7 @@
         <v>390</v>
       </c>
       <c r="B303" t="s">
-        <v>37</v>
+        <v>366</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5037,7 +5094,7 @@
         <v>391</v>
       </c>
       <c r="B304" t="s">
-        <v>37</v>
+        <v>288</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5048,7 +5105,7 @@
         <v>392</v>
       </c>
       <c r="B305" t="s">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5059,7 +5116,7 @@
         <v>393</v>
       </c>
       <c r="B306" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5070,7 +5127,7 @@
         <v>394</v>
       </c>
       <c r="B307" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5081,7 +5138,7 @@
         <v>395</v>
       </c>
       <c r="B308" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5092,7 +5149,7 @@
         <v>396</v>
       </c>
       <c r="B309" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5103,7 +5160,7 @@
         <v>397</v>
       </c>
       <c r="B310" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5114,7 +5171,7 @@
         <v>398</v>
       </c>
       <c r="B311" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5125,7 +5182,7 @@
         <v>399</v>
       </c>
       <c r="B312" t="s">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5136,7 +5193,7 @@
         <v>400</v>
       </c>
       <c r="B313" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5147,7 +5204,7 @@
         <v>401</v>
       </c>
       <c r="B314" t="s">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5158,7 +5215,7 @@
         <v>402</v>
       </c>
       <c r="B315" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5169,7 +5226,7 @@
         <v>403</v>
       </c>
       <c r="B316" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5180,7 +5237,7 @@
         <v>404</v>
       </c>
       <c r="B317" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5191,7 +5248,7 @@
         <v>405</v>
       </c>
       <c r="B318" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5202,7 +5259,7 @@
         <v>406</v>
       </c>
       <c r="B319" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5213,7 +5270,7 @@
         <v>407</v>
       </c>
       <c r="B320" t="s">
-        <v>153</v>
+        <v>49</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5224,7 +5281,7 @@
         <v>408</v>
       </c>
       <c r="B321" t="s">
-        <v>157</v>
+        <v>76</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5235,7 +5292,7 @@
         <v>409</v>
       </c>
       <c r="B322" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5246,7 +5303,7 @@
         <v>410</v>
       </c>
       <c r="B323" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5257,7 +5314,7 @@
         <v>411</v>
       </c>
       <c r="B324" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5268,7 +5325,7 @@
         <v>412</v>
       </c>
       <c r="B325" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5279,7 +5336,7 @@
         <v>413</v>
       </c>
       <c r="B326" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5290,7 +5347,7 @@
         <v>414</v>
       </c>
       <c r="B327" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5301,7 +5358,7 @@
         <v>415</v>
       </c>
       <c r="B328" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5312,7 +5369,7 @@
         <v>416</v>
       </c>
       <c r="B329" t="s">
-        <v>149</v>
+        <v>43</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5323,7 +5380,7 @@
         <v>417</v>
       </c>
       <c r="B330" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5334,7 +5391,7 @@
         <v>418</v>
       </c>
       <c r="B331" t="s">
-        <v>235</v>
+        <v>171</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5345,7 +5402,7 @@
         <v>419</v>
       </c>
       <c r="B332" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5356,7 +5413,7 @@
         <v>420</v>
       </c>
       <c r="B333" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5367,7 +5424,7 @@
         <v>421</v>
       </c>
       <c r="B334" t="s">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5378,7 +5435,7 @@
         <v>422</v>
       </c>
       <c r="B335" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5389,7 +5446,7 @@
         <v>423</v>
       </c>
       <c r="B336" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5400,7 +5457,7 @@
         <v>424</v>
       </c>
       <c r="B337" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5411,7 +5468,7 @@
         <v>425</v>
       </c>
       <c r="B338" t="s">
-        <v>347</v>
+        <v>254</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5422,7 +5479,7 @@
         <v>426</v>
       </c>
       <c r="B339" t="s">
-        <v>347</v>
+        <v>173</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5433,7 +5490,7 @@
         <v>427</v>
       </c>
       <c r="B340" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5444,7 +5501,7 @@
         <v>428</v>
       </c>
       <c r="B341" t="s">
-        <v>271</v>
+        <v>179</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5455,7 +5512,7 @@
         <v>429</v>
       </c>
       <c r="B342" t="s">
-        <v>271</v>
+        <v>181</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5466,7 +5523,7 @@
         <v>430</v>
       </c>
       <c r="B343" t="s">
-        <v>276</v>
+        <v>181</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5477,7 +5534,7 @@
         <v>431</v>
       </c>
       <c r="B344" t="s">
-        <v>278</v>
+        <v>166</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5488,7 +5545,7 @@
         <v>432</v>
       </c>
       <c r="B345" t="s">
-        <v>347</v>
+        <v>94</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5499,7 +5556,7 @@
         <v>433</v>
       </c>
       <c r="B346" t="s">
-        <v>347</v>
+        <v>145</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5510,7 +5567,7 @@
         <v>434</v>
       </c>
       <c r="B347" t="s">
-        <v>367</v>
+        <v>98</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5521,7 +5578,7 @@
         <v>435</v>
       </c>
       <c r="B348" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5532,7 +5589,7 @@
         <v>436</v>
       </c>
       <c r="B349" t="s">
-        <v>280</v>
+        <v>169</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5543,7 +5600,7 @@
         <v>437</v>
       </c>
       <c r="B350" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -5554,7 +5611,7 @@
         <v>438</v>
       </c>
       <c r="B351" t="s">
-        <v>283</v>
+        <v>166</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5565,7 +5622,7 @@
         <v>439</v>
       </c>
       <c r="B352" t="s">
-        <v>347</v>
+        <v>166</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5576,7 +5633,7 @@
         <v>440</v>
       </c>
       <c r="B353" t="s">
-        <v>441</v>
+        <v>177</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -5584,10 +5641,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B354" t="s">
-        <v>347</v>
+        <v>166</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -5595,10 +5652,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B355" t="s">
-        <v>283</v>
+        <v>179</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5606,10 +5663,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B356" t="s">
-        <v>283</v>
+        <v>179</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5617,10 +5674,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B357" t="s">
-        <v>446</v>
+        <v>366</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5628,10 +5685,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B358" t="s">
-        <v>278</v>
+        <v>366</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -5639,10 +5696,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B359" t="s">
-        <v>278</v>
+        <v>92</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -5650,10 +5707,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B360" t="s">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -5661,12 +5718,221 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
+        <v>448</v>
+      </c>
+      <c r="B361" t="s">
+        <v>290</v>
+      </c>
+      <c r="C361" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>449</v>
+      </c>
+      <c r="B362" t="s">
+        <v>295</v>
+      </c>
+      <c r="C362" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>450</v>
+      </c>
+      <c r="B363" t="s">
+        <v>297</v>
+      </c>
+      <c r="C363" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
         <v>451</v>
       </c>
-      <c r="B361" t="s">
-        <v>276</v>
-      </c>
-      <c r="C361" t="s">
+      <c r="B364" t="s">
+        <v>366</v>
+      </c>
+      <c r="C364" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>452</v>
+      </c>
+      <c r="B365" t="s">
+        <v>366</v>
+      </c>
+      <c r="C365" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>453</v>
+      </c>
+      <c r="B366" t="s">
+        <v>386</v>
+      </c>
+      <c r="C366" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>454</v>
+      </c>
+      <c r="B367" t="s">
+        <v>299</v>
+      </c>
+      <c r="C367" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>455</v>
+      </c>
+      <c r="B368" t="s">
+        <v>299</v>
+      </c>
+      <c r="C368" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>456</v>
+      </c>
+      <c r="B369" t="s">
+        <v>302</v>
+      </c>
+      <c r="C369" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>457</v>
+      </c>
+      <c r="B370" t="s">
+        <v>302</v>
+      </c>
+      <c r="C370" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>458</v>
+      </c>
+      <c r="B371" t="s">
+        <v>366</v>
+      </c>
+      <c r="C371" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>459</v>
+      </c>
+      <c r="B372" t="s">
+        <v>460</v>
+      </c>
+      <c r="C372" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>461</v>
+      </c>
+      <c r="B373" t="s">
+        <v>366</v>
+      </c>
+      <c r="C373" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>462</v>
+      </c>
+      <c r="B374" t="s">
+        <v>302</v>
+      </c>
+      <c r="C374" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>463</v>
+      </c>
+      <c r="B375" t="s">
+        <v>302</v>
+      </c>
+      <c r="C375" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>464</v>
+      </c>
+      <c r="B376" t="s">
+        <v>465</v>
+      </c>
+      <c r="C376" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>466</v>
+      </c>
+      <c r="B377" t="s">
+        <v>297</v>
+      </c>
+      <c r="C377" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>467</v>
+      </c>
+      <c r="B378" t="s">
+        <v>297</v>
+      </c>
+      <c r="C378" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>468</v>
+      </c>
+      <c r="B379" t="s">
+        <v>469</v>
+      </c>
+      <c r="C379" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>470</v>
+      </c>
+      <c r="B380" t="s">
+        <v>295</v>
+      </c>
+      <c r="C380" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid792225"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid320300"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,135 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>05/12/2024</t>
+  </si>
+  <si>
+    <t>1.022</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>04/12/2024</t>
+  </si>
+  <si>
+    <t>1.019</t>
+  </si>
+  <si>
+    <t>03/12/2024</t>
+  </si>
+  <si>
+    <t>1.017</t>
+  </si>
+  <si>
+    <t>02/12/2024</t>
+  </si>
+  <si>
+    <t>1.016</t>
+  </si>
+  <si>
+    <t>29/11/2024</t>
+  </si>
+  <si>
+    <t>1.015</t>
+  </si>
+  <si>
+    <t>28/11/2024</t>
+  </si>
+  <si>
+    <t>1.014</t>
+  </si>
+  <si>
+    <t>27/11/2024</t>
+  </si>
+  <si>
+    <t>26/11/2024</t>
+  </si>
+  <si>
+    <t>25/11/2024</t>
+  </si>
+  <si>
+    <t>1.013</t>
+  </si>
+  <si>
+    <t>22/11/2024</t>
+  </si>
+  <si>
+    <t>1.009</t>
+  </si>
+  <si>
+    <t>21/11/2024</t>
+  </si>
+  <si>
+    <t>1.006</t>
+  </si>
+  <si>
+    <t>20/11/2024</t>
+  </si>
+  <si>
+    <t>1.003</t>
+  </si>
+  <si>
+    <t>19/11/2024</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>18/11/2024</t>
+  </si>
+  <si>
+    <t>1.004</t>
+  </si>
+  <si>
+    <t>15/11/2024</t>
+  </si>
+  <si>
+    <t>1.007</t>
+  </si>
+  <si>
+    <t>14/11/2024</t>
+  </si>
+  <si>
+    <t>13/11/2024</t>
+  </si>
+  <si>
+    <t>12/11/2024</t>
+  </si>
+  <si>
+    <t>11/11/2024</t>
+  </si>
+  <si>
+    <t>08/11/2024</t>
+  </si>
+  <si>
+    <t>07/11/2024</t>
+  </si>
+  <si>
+    <t>06/11/2024</t>
+  </si>
+  <si>
+    <t>1.002</t>
+  </si>
+  <si>
+    <t>05/11/2024</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>04/11/2024</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>01/11/2024</t>
+  </si>
+  <si>
     <t>30/10/2024</t>
   </si>
   <si>
-    <t>1.002</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>29/10/2024</t>
   </si>
   <si>
@@ -59,18 +179,12 @@
     <t>23/10/2024</t>
   </si>
   <si>
-    <t>1.000</t>
-  </si>
-  <si>
     <t>22/10/2024</t>
   </si>
   <si>
     <t>21/10/2024</t>
   </si>
   <si>
-    <t>1.004</t>
-  </si>
-  <si>
     <t>18/10/2024</t>
   </si>
   <si>
@@ -89,9 +203,6 @@
     <t>14/10/2024</t>
   </si>
   <si>
-    <t>1.003</t>
-  </si>
-  <si>
     <t>11/10/2024</t>
   </si>
   <si>
@@ -221,9 +332,6 @@
     <t>27/08/2024</t>
   </si>
   <si>
-    <t>0.994</t>
-  </si>
-  <si>
     <t>26/08/2024</t>
   </si>
   <si>
@@ -251,9 +359,6 @@
     <t>16/08/2024</t>
   </si>
   <si>
-    <t>0.992</t>
-  </si>
-  <si>
     <t>15/08/2024</t>
   </si>
   <si>
@@ -347,9 +452,6 @@
     <t>16/07/2024</t>
   </si>
   <si>
-    <t>1.014</t>
-  </si>
-  <si>
     <t>15/07/2024</t>
   </si>
   <si>
@@ -365,16 +467,10 @@
     <t>10/07/2024</t>
   </si>
   <si>
-    <t>1.007</t>
-  </si>
-  <si>
     <t>09/07/2024</t>
   </si>
   <si>
     <t>08/07/2024</t>
-  </si>
-  <si>
-    <t>1.006</t>
   </si>
   <si>
     <t>05/07/2024</t>
@@ -1805,7 +1901,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1813,10 +1909,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -1824,10 +1920,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -1835,10 +1931,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1846,10 +1942,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1860,7 +1956,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1868,10 +1964,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1879,10 +1975,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1890,10 +1986,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1901,10 +1997,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1912,10 +2008,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -1923,10 +2019,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -1934,10 +2030,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -1945,10 +2041,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -1956,10 +2052,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -1967,10 +2063,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -1978,10 +2074,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -1989,10 +2085,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2000,10 +2096,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2011,10 +2107,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2022,10 +2118,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2033,10 +2129,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2044,10 +2140,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2055,10 +2151,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2066,10 +2162,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2077,10 +2173,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2088,10 +2184,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2099,10 +2195,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2110,10 +2206,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2121,10 +2217,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2132,10 +2228,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2143,10 +2239,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2154,10 +2250,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2165,10 +2261,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2176,10 +2272,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2187,10 +2283,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2198,10 +2294,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2209,10 +2305,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2220,10 +2316,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2231,10 +2327,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2242,10 +2338,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2253,10 +2349,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2264,10 +2360,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2275,10 +2371,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2286,10 +2382,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2297,10 +2393,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2308,10 +2404,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2319,10 +2415,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2330,10 +2426,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2341,10 +2437,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2355,7 +2451,7 @@
         <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2363,10 +2459,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2374,10 +2470,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" t="s">
         <v>80</v>
-      </c>
-      <c r="B57" t="s">
-        <v>55</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2388,7 +2484,7 @@
         <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2396,10 +2492,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2407,10 +2503,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2418,10 +2514,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2429,10 +2525,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2440,10 +2536,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2451,10 +2547,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2462,10 +2558,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2473,10 +2569,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" t="s">
         <v>96</v>
-      </c>
-      <c r="B66" t="s">
-        <v>49</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2487,7 +2583,7 @@
         <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2495,10 +2591,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2506,10 +2602,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>99</v>
+      </c>
+      <c r="B69" t="s">
         <v>100</v>
-      </c>
-      <c r="B69" t="s">
-        <v>53</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2520,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2531,7 +2627,7 @@
         <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2539,10 +2635,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2550,10 +2646,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2561,10 +2657,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" t="s">
         <v>106</v>
-      </c>
-      <c r="B74" t="s">
-        <v>63</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2575,7 +2671,7 @@
         <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2586,7 +2682,7 @@
         <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2597,7 +2693,7 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2605,10 +2701,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2616,10 +2712,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2627,10 +2723,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2638,10 +2734,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2649,10 +2745,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2660,10 +2756,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2671,10 +2767,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2682,10 +2778,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" t="s">
         <v>121</v>
-      </c>
-      <c r="B85" t="s">
-        <v>14</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2696,7 +2792,7 @@
         <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2704,10 +2800,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2715,10 +2811,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2726,10 +2822,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2737,10 +2833,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B90" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2748,10 +2844,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B91" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2759,10 +2855,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B92" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2770,10 +2866,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B93" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2781,10 +2877,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B94" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2792,10 +2888,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2803,10 +2899,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>138</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2814,10 +2910,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2825,10 +2921,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B98" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2836,10 +2932,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2847,10 +2943,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2858,10 +2954,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2869,10 +2965,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -2880,10 +2976,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B103" t="s">
-        <v>78</v>
+        <v>146</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2891,10 +2987,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2902,10 +2998,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B105" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -2913,10 +3009,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -2924,10 +3020,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B107" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -2935,10 +3031,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B108" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -2946,10 +3042,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -2957,10 +3053,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B110" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -2968,10 +3064,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B111" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -2979,10 +3075,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B112" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -2990,10 +3086,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B113" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3001,10 +3097,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B114" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3012,10 +3108,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B115" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3023,10 +3119,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B116" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3034,10 +3130,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B117" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3045,10 +3141,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3056,10 +3152,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B119" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3067,10 +3163,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B120" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3078,10 +3174,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B121" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3089,10 +3185,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B122" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3100,10 +3196,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B123" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3111,10 +3207,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B124" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3122,10 +3218,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B125" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3133,10 +3229,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B126" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3144,10 +3240,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B127" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3155,10 +3251,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B128" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3166,10 +3262,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3177,10 +3273,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B130" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3188,10 +3284,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B131" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3199,10 +3295,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B132" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3210,10 +3306,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B133" t="s">
-        <v>82</v>
+        <v>177</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3221,10 +3317,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B134" t="s">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3232,10 +3328,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B135" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3243,10 +3339,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B136" t="s">
-        <v>179</v>
+        <v>112</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3254,10 +3350,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B137" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3268,7 +3364,7 @@
         <v>182</v>
       </c>
       <c r="B138" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3279,7 +3375,7 @@
         <v>183</v>
       </c>
       <c r="B139" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3301,7 +3397,7 @@
         <v>185</v>
       </c>
       <c r="B141" t="s">
-        <v>63</v>
+        <v>138</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3312,7 +3408,7 @@
         <v>186</v>
       </c>
       <c r="B142" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3323,7 +3419,7 @@
         <v>187</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3334,7 +3430,7 @@
         <v>188</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3345,7 +3441,7 @@
         <v>189</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3356,7 +3452,7 @@
         <v>190</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3367,7 +3463,7 @@
         <v>191</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3378,7 +3474,7 @@
         <v>192</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3389,7 +3485,7 @@
         <v>193</v>
       </c>
       <c r="B149" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3400,7 +3496,7 @@
         <v>194</v>
       </c>
       <c r="B150" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3411,7 +3507,7 @@
         <v>195</v>
       </c>
       <c r="B151" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3422,7 +3518,7 @@
         <v>196</v>
       </c>
       <c r="B152" t="s">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3430,10 +3526,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>197</v>
+      </c>
+      <c r="B153" t="s">
         <v>198</v>
-      </c>
-      <c r="B153" t="s">
-        <v>17</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3444,7 +3540,7 @@
         <v>199</v>
       </c>
       <c r="B154" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3455,7 +3551,7 @@
         <v>200</v>
       </c>
       <c r="B155" t="s">
-        <v>119</v>
+        <v>201</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3463,10 +3559,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B156" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3474,10 +3570,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B157" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3485,10 +3581,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3496,10 +3592,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3507,10 +3603,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B160" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3518,10 +3614,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B161" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3529,10 +3625,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B162" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3540,10 +3636,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3551,10 +3647,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B164" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3562,10 +3658,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B165" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3573,10 +3669,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3584,10 +3680,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3595,10 +3691,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B168" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3606,10 +3702,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3617,10 +3713,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B170" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3628,10 +3724,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B171" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3639,10 +3735,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B172" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3650,10 +3746,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B173" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3661,10 +3757,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B174" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3672,10 +3768,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B175" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3683,10 +3779,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B176" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3694,10 +3790,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B177" t="s">
-        <v>57</v>
+        <v>229</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3705,10 +3801,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B178" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3716,10 +3812,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B179" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3727,10 +3823,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B180" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3738,10 +3834,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B181" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3749,10 +3845,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B182" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3760,10 +3856,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B183" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3771,10 +3867,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B184" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3782,10 +3878,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B185" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3793,10 +3889,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B186" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3804,10 +3900,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B187" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3815,10 +3911,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B188" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3826,10 +3922,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B189" t="s">
-        <v>53</v>
+        <v>242</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3837,10 +3933,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="B190" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3848,10 +3944,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B191" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3859,10 +3955,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="B192" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3870,10 +3966,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B193" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3881,10 +3977,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="B194" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3892,10 +3988,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B195" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3903,10 +3999,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="B196" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -3914,10 +4010,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B197" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -3925,10 +4021,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="B198" t="s">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -3936,10 +4032,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B199" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -3947,10 +4043,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B200" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -3958,10 +4054,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B201" t="s">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -3969,10 +4065,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B202" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -3980,10 +4076,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B203" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -3991,10 +4087,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B204" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4002,10 +4098,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B205" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4013,10 +4109,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B206" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4024,10 +4120,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B207" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4035,10 +4131,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B208" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4046,10 +4142,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B209" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4057,10 +4153,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B210" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4068,10 +4164,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B211" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4079,10 +4175,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B212" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4090,10 +4186,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B213" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4101,10 +4197,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B214" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4112,10 +4208,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B215" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4123,10 +4219,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B216" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4134,10 +4230,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B217" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4145,10 +4241,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B218" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4156,10 +4252,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B219" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4167,10 +4263,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B220" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4178,10 +4274,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B221" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4189,10 +4285,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B222" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4200,10 +4296,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B223" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4211,10 +4307,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B224" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4222,10 +4318,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B225" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4233,10 +4329,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B226" t="s">
-        <v>90</v>
+        <v>201</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4244,10 +4340,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B227" t="s">
-        <v>276</v>
+        <v>94</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4255,10 +4351,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B228" t="s">
-        <v>278</v>
+        <v>94</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4266,10 +4362,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B229" t="s">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4277,10 +4373,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B230" t="s">
-        <v>282</v>
+        <v>201</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4288,10 +4384,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B231" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4299,10 +4395,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B232" t="s">
-        <v>284</v>
+        <v>119</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4310,10 +4406,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B233" t="s">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4321,10 +4417,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B234" t="s">
-        <v>288</v>
+        <v>119</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4332,10 +4428,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B235" t="s">
-        <v>290</v>
+        <v>203</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4346,7 +4442,7 @@
         <v>291</v>
       </c>
       <c r="B236" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4357,7 +4453,7 @@
         <v>292</v>
       </c>
       <c r="B237" t="s">
-        <v>290</v>
+        <v>43</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4368,7 +4464,7 @@
         <v>293</v>
       </c>
       <c r="B238" t="s">
-        <v>290</v>
+        <v>43</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4379,7 +4475,7 @@
         <v>294</v>
       </c>
       <c r="B239" t="s">
-        <v>295</v>
+        <v>86</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4387,10 +4483,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B240" t="s">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4398,10 +4494,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B241" t="s">
-        <v>299</v>
+        <v>133</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4409,10 +4505,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B242" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4420,10 +4516,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B243" t="s">
-        <v>302</v>
+        <v>96</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4431,10 +4527,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B244" t="s">
-        <v>295</v>
+        <v>94</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4442,10 +4538,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B245" t="s">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4453,10 +4549,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B246" t="s">
-        <v>307</v>
+        <v>94</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4464,10 +4560,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B247" t="s">
-        <v>307</v>
+        <v>94</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4475,10 +4571,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B248" t="s">
-        <v>310</v>
+        <v>213</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4486,10 +4582,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B249" t="s">
-        <v>312</v>
+        <v>121</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4497,10 +4593,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B250" t="s">
-        <v>305</v>
+        <v>209</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4508,10 +4604,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B251" t="s">
-        <v>315</v>
+        <v>125</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4519,10 +4615,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B252" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4530,10 +4626,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B253" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4541,10 +4637,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B254" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4552,10 +4648,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B255" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4563,10 +4659,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B256" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4574,10 +4670,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B257" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4585,10 +4681,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B258" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4596,10 +4692,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B259" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4607,10 +4703,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B260" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4618,10 +4714,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B261" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4629,10 +4725,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B262" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4640,10 +4736,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B263" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4651,10 +4747,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B264" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4662,10 +4758,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B265" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4673,10 +4769,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B266" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4684,10 +4780,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B267" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4695,10 +4791,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B268" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4706,10 +4802,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B269" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4717,10 +4813,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B270" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4728,10 +4824,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B271" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4739,10 +4835,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B272" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4750,10 +4846,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B273" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4761,10 +4857,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B274" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4772,10 +4868,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B275" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4783,10 +4879,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B276" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4794,10 +4890,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B277" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4805,10 +4901,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B278" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4816,10 +4912,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B279" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4827,10 +4923,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B280" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4838,10 +4934,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B281" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4849,10 +4945,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B282" t="s">
-        <v>284</v>
+        <v>358</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4860,10 +4956,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B283" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4871,10 +4967,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B284" t="s">
-        <v>278</v>
+        <v>362</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4882,10 +4978,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B285" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4893,10 +4989,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B286" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -4904,10 +5000,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B287" t="s">
-        <v>177</v>
+        <v>368</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -4915,10 +5011,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B288" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -4926,10 +5022,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B289" t="s">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -4937,10 +5033,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B290" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -4948,10 +5044,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B291" t="s">
-        <v>90</v>
+        <v>375</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -4959,10 +5055,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B292" t="s">
-        <v>173</v>
+        <v>375</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -4970,10 +5066,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B293" t="s">
-        <v>88</v>
+        <v>371</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -4981,10 +5077,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B294" t="s">
-        <v>94</v>
+        <v>366</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -4992,10 +5088,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B295" t="s">
-        <v>245</v>
+        <v>366</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5003,10 +5099,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
+        <v>380</v>
+      </c>
+      <c r="B296" t="s">
         <v>381</v>
-      </c>
-      <c r="B296" t="s">
-        <v>88</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5017,7 +5113,7 @@
         <v>382</v>
       </c>
       <c r="B297" t="s">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5025,10 +5121,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B298" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5036,10 +5132,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B299" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5050,7 +5146,7 @@
         <v>387</v>
       </c>
       <c r="B300" t="s">
-        <v>278</v>
+        <v>375</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5061,7 +5157,7 @@
         <v>388</v>
       </c>
       <c r="B301" t="s">
-        <v>92</v>
+        <v>389</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5069,10 +5165,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B302" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5080,10 +5176,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B303" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5091,10 +5187,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B304" t="s">
-        <v>288</v>
+        <v>393</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5102,10 +5198,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B305" t="s">
-        <v>280</v>
+        <v>375</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5113,10 +5209,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B306" t="s">
-        <v>181</v>
+        <v>331</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5124,10 +5220,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B307" t="s">
-        <v>166</v>
+        <v>316</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5135,10 +5231,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B308" t="s">
-        <v>166</v>
+        <v>398</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5146,10 +5242,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B309" t="s">
-        <v>166</v>
+        <v>310</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5157,10 +5253,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B310" t="s">
-        <v>55</v>
+        <v>401</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5168,10 +5264,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B311" t="s">
-        <v>94</v>
+        <v>401</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5179,10 +5275,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B312" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5190,10 +5286,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B313" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5201,10 +5297,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B314" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5212,10 +5308,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B315" t="s">
-        <v>57</v>
+        <v>407</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5223,10 +5319,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="B316" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5234,10 +5330,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B317" t="s">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5245,10 +5341,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="B318" t="s">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5256,10 +5352,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="B319" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5267,10 +5363,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B320" t="s">
-        <v>49</v>
+        <v>277</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5278,10 +5374,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="B321" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5289,10 +5385,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B322" t="s">
-        <v>59</v>
+        <v>310</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5300,10 +5396,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B323" t="s">
-        <v>59</v>
+        <v>416</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5311,10 +5407,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B324" t="s">
-        <v>103</v>
+        <v>418</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5322,10 +5418,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B325" t="s">
-        <v>47</v>
+        <v>310</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5333,10 +5429,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B326" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5344,10 +5440,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B327" t="s">
-        <v>68</v>
+        <v>418</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5355,10 +5451,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B328" t="s">
-        <v>70</v>
+        <v>398</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5366,10 +5462,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B329" t="s">
-        <v>43</v>
+        <v>320</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5377,10 +5473,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B330" t="s">
-        <v>59</v>
+        <v>312</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5388,10 +5484,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B331" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5399,10 +5495,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B332" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5410,10 +5506,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B333" t="s">
-        <v>166</v>
+        <v>198</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5421,10 +5517,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="B334" t="s">
-        <v>88</v>
+        <v>198</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5432,10 +5528,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B335" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5443,10 +5539,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B336" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5454,10 +5550,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B337" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5465,10 +5561,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B338" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5476,10 +5572,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B339" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5487,10 +5583,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B340" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5498,10 +5594,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B341" t="s">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5509,10 +5605,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B342" t="s">
-        <v>181</v>
+        <v>100</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5520,10 +5616,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B343" t="s">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5531,10 +5627,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B344" t="s">
-        <v>166</v>
+        <v>84</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5542,10 +5638,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B345" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5553,10 +5649,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B346" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5564,10 +5660,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B347" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5575,10 +5671,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B348" t="s">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5586,10 +5682,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B349" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5597,10 +5693,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B350" t="s">
-        <v>254</v>
+        <v>84</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -5608,10 +5704,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B351" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5619,10 +5715,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B352" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5630,10 +5726,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B353" t="s">
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -5641,10 +5737,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B354" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -5652,10 +5748,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B355" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5663,10 +5759,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B356" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5674,10 +5770,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B357" t="s">
-        <v>366</v>
+        <v>198</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5685,10 +5781,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B358" t="s">
-        <v>366</v>
+        <v>198</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -5696,10 +5792,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B359" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -5707,10 +5803,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B360" t="s">
-        <v>290</v>
+        <v>177</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -5718,10 +5814,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B361" t="s">
-        <v>290</v>
+        <v>201</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -5729,10 +5825,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B362" t="s">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -5740,10 +5836,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B363" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -5751,10 +5847,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B364" t="s">
-        <v>366</v>
+        <v>205</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -5762,10 +5858,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B365" t="s">
-        <v>366</v>
+        <v>209</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -5773,10 +5869,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B366" t="s">
-        <v>386</v>
+        <v>211</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -5784,10 +5880,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B367" t="s">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -5795,10 +5891,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B368" t="s">
-        <v>299</v>
+        <v>213</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -5806,10 +5902,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B369" t="s">
-        <v>302</v>
+        <v>198</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -5817,10 +5913,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B370" t="s">
-        <v>302</v>
+        <v>129</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -5828,10 +5924,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B371" t="s">
-        <v>366</v>
+        <v>177</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -5839,10 +5935,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B372" t="s">
-        <v>460</v>
+        <v>133</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -5850,10 +5946,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B373" t="s">
-        <v>366</v>
+        <v>201</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -5861,10 +5957,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B374" t="s">
-        <v>302</v>
+        <v>201</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -5872,10 +5968,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B375" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -5883,10 +5979,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B376" t="s">
-        <v>465</v>
+        <v>198</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -5894,10 +5990,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B377" t="s">
-        <v>297</v>
+        <v>198</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -5905,10 +6001,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B378" t="s">
-        <v>297</v>
+        <v>209</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -5916,10 +6012,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B379" t="s">
-        <v>469</v>
+        <v>198</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -5927,12 +6023,287 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B380" t="s">
-        <v>295</v>
+        <v>211</v>
       </c>
       <c r="C380" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>475</v>
+      </c>
+      <c r="B381" t="s">
+        <v>211</v>
+      </c>
+      <c r="C381" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>476</v>
+      </c>
+      <c r="B382" t="s">
+        <v>398</v>
+      </c>
+      <c r="C382" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>477</v>
+      </c>
+      <c r="B383" t="s">
+        <v>398</v>
+      </c>
+      <c r="C383" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>478</v>
+      </c>
+      <c r="B384" t="s">
+        <v>127</v>
+      </c>
+      <c r="C384" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>479</v>
+      </c>
+      <c r="B385" t="s">
+        <v>322</v>
+      </c>
+      <c r="C385" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>480</v>
+      </c>
+      <c r="B386" t="s">
+        <v>322</v>
+      </c>
+      <c r="C386" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>481</v>
+      </c>
+      <c r="B387" t="s">
+        <v>327</v>
+      </c>
+      <c r="C387" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>482</v>
+      </c>
+      <c r="B388" t="s">
+        <v>329</v>
+      </c>
+      <c r="C388" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>483</v>
+      </c>
+      <c r="B389" t="s">
+        <v>398</v>
+      </c>
+      <c r="C389" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>484</v>
+      </c>
+      <c r="B390" t="s">
+        <v>398</v>
+      </c>
+      <c r="C390" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>485</v>
+      </c>
+      <c r="B391" t="s">
+        <v>418</v>
+      </c>
+      <c r="C391" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>486</v>
+      </c>
+      <c r="B392" t="s">
+        <v>331</v>
+      </c>
+      <c r="C392" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>487</v>
+      </c>
+      <c r="B393" t="s">
+        <v>331</v>
+      </c>
+      <c r="C393" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>488</v>
+      </c>
+      <c r="B394" t="s">
+        <v>334</v>
+      </c>
+      <c r="C394" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>489</v>
+      </c>
+      <c r="B395" t="s">
+        <v>334</v>
+      </c>
+      <c r="C395" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>490</v>
+      </c>
+      <c r="B396" t="s">
+        <v>398</v>
+      </c>
+      <c r="C396" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>491</v>
+      </c>
+      <c r="B397" t="s">
+        <v>492</v>
+      </c>
+      <c r="C397" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>493</v>
+      </c>
+      <c r="B398" t="s">
+        <v>398</v>
+      </c>
+      <c r="C398" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>494</v>
+      </c>
+      <c r="B399" t="s">
+        <v>334</v>
+      </c>
+      <c r="C399" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>495</v>
+      </c>
+      <c r="B400" t="s">
+        <v>334</v>
+      </c>
+      <c r="C400" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>496</v>
+      </c>
+      <c r="B401" t="s">
+        <v>497</v>
+      </c>
+      <c r="C401" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>498</v>
+      </c>
+      <c r="B402" t="s">
+        <v>329</v>
+      </c>
+      <c r="C402" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>499</v>
+      </c>
+      <c r="B403" t="s">
+        <v>329</v>
+      </c>
+      <c r="C403" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>500</v>
+      </c>
+      <c r="B404" t="s">
+        <v>501</v>
+      </c>
+      <c r="C404" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>502</v>
+      </c>
+      <c r="B405" t="s">
+        <v>327</v>
+      </c>
+      <c r="C405" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid320300"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid214797"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,150 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>16/01/2025</t>
+  </si>
+  <si>
+    <t>1.002</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>15/01/2025</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>14/01/2025</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>13/01/2025</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>10/01/2025</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>09/01/2025</t>
+  </si>
+  <si>
+    <t>0.997</t>
+  </si>
+  <si>
+    <t>08/01/2025</t>
+  </si>
+  <si>
+    <t>07/01/2025</t>
+  </si>
+  <si>
+    <t>1.005</t>
+  </si>
+  <si>
+    <t>06/01/2025</t>
+  </si>
+  <si>
+    <t>1.006</t>
+  </si>
+  <si>
+    <t>03/01/2025</t>
+  </si>
+  <si>
+    <t>02/01/2025</t>
+  </si>
+  <si>
+    <t>31/12/2024</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>30/12/2024</t>
+  </si>
+  <si>
+    <t>27/12/2024</t>
+  </si>
+  <si>
+    <t>26/12/2024</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>24/12/2024</t>
+  </si>
+  <si>
+    <t>23/12/2024</t>
+  </si>
+  <si>
+    <t>20/12/2024</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>19/12/2024</t>
+  </si>
+  <si>
+    <t>18/12/2024</t>
+  </si>
+  <si>
+    <t>1.012</t>
+  </si>
+  <si>
+    <t>17/12/2024</t>
+  </si>
+  <si>
+    <t>1.018</t>
+  </si>
+  <si>
+    <t>16/12/2024</t>
+  </si>
+  <si>
+    <t>1.020</t>
+  </si>
+  <si>
+    <t>13/12/2024</t>
+  </si>
+  <si>
+    <t>12/12/2024</t>
+  </si>
+  <si>
+    <t>1.022</t>
+  </si>
+  <si>
+    <t>11/12/2024</t>
+  </si>
+  <si>
+    <t>1.021</t>
+  </si>
+  <si>
+    <t>10/12/2024</t>
+  </si>
+  <si>
+    <t>09/12/2024</t>
+  </si>
+  <si>
+    <t>1.024</t>
+  </si>
+  <si>
+    <t>06/12/2024</t>
+  </si>
+  <si>
+    <t>1.023</t>
+  </si>
+  <si>
     <t>05/12/2024</t>
   </si>
   <si>
-    <t>1.022</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>04/12/2024</t>
   </si>
   <si>
@@ -86,9 +221,6 @@
     <t>21/11/2024</t>
   </si>
   <si>
-    <t>1.006</t>
-  </si>
-  <si>
     <t>20/11/2024</t>
   </si>
   <si>
@@ -98,9 +230,6 @@
     <t>19/11/2024</t>
   </si>
   <si>
-    <t>1.000</t>
-  </si>
-  <si>
     <t>18/11/2024</t>
   </si>
   <si>
@@ -134,9 +263,6 @@
     <t>06/11/2024</t>
   </si>
   <si>
-    <t>1.002</t>
-  </si>
-  <si>
     <t>05/11/2024</t>
   </si>
   <si>
@@ -146,9 +272,6 @@
     <t>04/11/2024</t>
   </si>
   <si>
-    <t>0.992</t>
-  </si>
-  <si>
     <t>01/11/2024</t>
   </si>
   <si>
@@ -173,9 +296,6 @@
     <t>24/10/2024</t>
   </si>
   <si>
-    <t>0.998</t>
-  </si>
-  <si>
     <t>23/10/2024</t>
   </si>
   <si>
@@ -257,9 +377,6 @@
     <t>18/09/2024</t>
   </si>
   <si>
-    <t>0.993</t>
-  </si>
-  <si>
     <t>17/09/2024</t>
   </si>
   <si>
@@ -269,9 +386,6 @@
     <t>13/09/2024</t>
   </si>
   <si>
-    <t>0.996</t>
-  </si>
-  <si>
     <t>12/09/2024</t>
   </si>
   <si>
@@ -335,9 +449,6 @@
     <t>26/08/2024</t>
   </si>
   <si>
-    <t>0.997</t>
-  </si>
-  <si>
     <t>23/08/2024</t>
   </si>
   <si>
@@ -416,9 +527,6 @@
     <t>30/07/2024</t>
   </si>
   <si>
-    <t>0.988</t>
-  </si>
-  <si>
     <t>29/07/2024</t>
   </si>
   <si>
@@ -431,9 +539,6 @@
     <t>24/07/2024</t>
   </si>
   <si>
-    <t>0.991</t>
-  </si>
-  <si>
     <t>23/07/2024</t>
   </si>
   <si>
@@ -455,9 +560,6 @@
     <t>15/07/2024</t>
   </si>
   <si>
-    <t>1.012</t>
-  </si>
-  <si>
     <t>12/07/2024</t>
   </si>
   <si>
@@ -702,9 +804,6 @@
   </si>
   <si>
     <t>26/03/2024</t>
-  </si>
-  <si>
-    <t>1.005</t>
   </si>
   <si>
     <t>25/03/2024</t>
@@ -1945,7 +2044,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1953,10 +2052,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1964,10 +2063,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1978,7 +2077,7 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1986,10 +2085,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -1997,10 +2096,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2008,10 +2107,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2019,10 +2118,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2030,10 +2129,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2041,10 +2140,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2052,10 +2151,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2063,10 +2162,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2074,10 +2173,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2085,10 +2184,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
         <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2110,7 +2209,7 @@
         <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2118,10 +2217,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
         <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>43</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2129,10 +2228,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
         <v>44</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2176,7 +2275,7 @@
         <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2198,7 +2297,7 @@
         <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2206,10 +2305,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2217,10 +2316,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2228,10 +2327,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2239,10 +2338,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2250,10 +2349,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2261,10 +2360,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2272,10 +2371,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2283,10 +2382,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2294,10 +2393,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2305,10 +2404,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2316,10 +2415,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2327,10 +2426,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2338,10 +2437,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2349,10 +2448,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2360,10 +2459,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2371,10 +2470,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2382,10 +2481,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2393,10 +2492,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2404,10 +2503,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2415,10 +2514,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2426,10 +2525,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2437,10 +2536,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2448,10 +2547,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2459,10 +2558,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B56" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2470,10 +2569,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2481,10 +2580,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2492,10 +2591,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2503,10 +2602,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2514,10 +2613,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2525,10 +2624,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2536,10 +2635,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2547,10 +2646,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2558,10 +2657,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2569,10 +2668,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2580,10 +2679,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2591,10 +2690,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2602,10 +2701,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2613,10 +2712,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2624,10 +2723,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2635,10 +2734,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2646,10 +2745,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B73" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2657,10 +2756,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2668,10 +2767,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2679,10 +2778,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B76" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2690,10 +2789,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B77" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2701,10 +2800,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B78" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2712,10 +2811,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2723,10 +2822,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B80" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2734,10 +2833,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B81" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2745,10 +2844,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2756,10 +2855,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2770,7 +2869,7 @@
         <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2778,10 +2877,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2789,10 +2888,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2800,10 +2899,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B87" t="s">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2811,10 +2910,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2822,10 +2921,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2833,10 +2932,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2844,10 +2943,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2855,10 +2954,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2866,10 +2965,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B93" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2877,10 +2976,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2888,10 +2987,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B95" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2899,10 +2998,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B96" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -2910,10 +3009,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -2921,10 +3020,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -2932,10 +3031,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -2943,10 +3042,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -2954,10 +3053,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B101" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -2965,7 +3064,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B102" t="s">
         <v>15</v>
@@ -2976,10 +3075,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -2987,10 +3086,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B104" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -2998,10 +3097,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3009,10 +3108,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B106" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3020,10 +3119,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B107" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3031,10 +3130,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3042,10 +3141,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B109" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3053,10 +3152,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3064,10 +3163,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>153</v>
+      </c>
+      <c r="B111" t="s">
         <v>154</v>
-      </c>
-      <c r="B111" t="s">
-        <v>27</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3078,7 +3177,7 @@
         <v>155</v>
       </c>
       <c r="B112" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3086,10 +3185,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B113" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3097,10 +3196,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3108,10 +3207,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B115" t="s">
-        <v>100</v>
+        <v>162</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3119,10 +3218,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B116" t="s">
-        <v>41</v>
+        <v>164</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3130,10 +3229,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3141,10 +3240,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3152,10 +3251,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B119" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3163,10 +3262,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B120" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3174,10 +3273,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B121" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3185,10 +3284,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B122" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3196,10 +3295,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B123" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3207,10 +3306,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B124" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3218,10 +3317,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B125" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3229,10 +3328,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B126" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3240,7 +3339,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B127" t="s">
         <v>138</v>
@@ -3251,10 +3350,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B128" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3262,10 +3361,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B129" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3273,10 +3372,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B130" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3284,10 +3383,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B131" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3295,10 +3394,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B132" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3306,10 +3405,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B133" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3317,10 +3416,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B134" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3328,10 +3427,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B135" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3339,10 +3438,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B136" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3350,10 +3449,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B137" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3361,10 +3460,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B138" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3372,10 +3471,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B139" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3383,10 +3482,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B140" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3394,7 +3493,7 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B141" t="s">
         <v>138</v>
@@ -3405,10 +3504,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B142" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3416,10 +3515,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B143" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3427,10 +3526,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B144" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3438,10 +3537,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B145" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3449,10 +3548,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B146" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3460,10 +3559,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B147" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3471,10 +3570,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B148" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3482,10 +3581,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B149" t="s">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3493,10 +3592,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B150" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3504,10 +3603,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B151" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3515,10 +3614,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B152" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3526,10 +3625,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B153" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3537,10 +3636,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B154" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3548,10 +3647,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B155" t="s">
-        <v>201</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3559,10 +3658,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B156" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3570,10 +3669,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B157" t="s">
-        <v>205</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3581,10 +3680,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B158" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3592,10 +3691,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B159" t="s">
-        <v>198</v>
+        <v>128</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3603,10 +3702,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B160" t="s">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3628,7 +3727,7 @@
         <v>212</v>
       </c>
       <c r="B162" t="s">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3636,10 +3735,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B163" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3647,10 +3746,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B164" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3658,10 +3757,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B165" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3669,10 +3768,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B166" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3680,10 +3779,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B167" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3691,10 +3790,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B168" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3702,10 +3801,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B169" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3713,10 +3812,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B170" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3724,10 +3823,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B171" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3735,10 +3834,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B172" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3746,10 +3845,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B173" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3757,10 +3856,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B174" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3768,10 +3867,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B175" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3779,10 +3878,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B176" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3790,10 +3889,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B177" t="s">
-        <v>229</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3801,10 +3900,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B178" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3812,10 +3911,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B179" t="s">
-        <v>29</v>
+        <v>134</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3823,10 +3922,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B180" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3834,10 +3933,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B181" t="s">
-        <v>106</v>
+        <v>232</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3845,10 +3944,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B182" t="s">
-        <v>80</v>
+        <v>211</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3856,10 +3955,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>234</v>
+      </c>
+      <c r="B183" t="s">
         <v>235</v>
-      </c>
-      <c r="B183" t="s">
-        <v>27</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3870,7 +3969,7 @@
         <v>236</v>
       </c>
       <c r="B184" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3878,10 +3977,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B185" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3889,10 +3988,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B186" t="s">
-        <v>229</v>
+        <v>154</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3900,10 +3999,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B187" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -3911,10 +4010,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B188" t="s">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -3922,10 +4021,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B189" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -3933,10 +4032,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B190" t="s">
-        <v>25</v>
+        <v>247</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -3944,10 +4043,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B191" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -3955,10 +4054,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B192" t="s">
-        <v>27</v>
+        <v>211</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -3966,10 +4065,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B193" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -3977,10 +4076,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B194" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -3988,10 +4087,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B195" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -3999,10 +4098,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B196" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4010,10 +4109,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B197" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4021,10 +4120,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B198" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4032,10 +4131,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B199" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4043,10 +4142,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B200" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4054,10 +4153,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B201" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4065,10 +4164,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B202" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4076,10 +4175,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B203" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4087,10 +4186,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B204" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4098,10 +4197,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B205" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4109,10 +4208,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B206" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4120,10 +4219,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B207" t="s">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4131,10 +4230,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B208" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4142,10 +4241,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B209" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4153,10 +4252,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B210" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4164,10 +4263,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B211" t="s">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4175,10 +4274,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B212" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4186,10 +4285,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B213" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4197,10 +4296,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B214" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4208,10 +4307,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B215" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4219,10 +4318,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B216" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4230,10 +4329,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B217" t="s">
-        <v>96</v>
+        <v>275</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4241,10 +4340,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B218" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4252,10 +4351,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B219" t="s">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4263,10 +4362,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B220" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4274,10 +4373,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B221" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4285,10 +4384,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B222" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4296,10 +4395,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B223" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4307,10 +4406,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B224" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4318,10 +4417,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B225" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4329,10 +4428,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B226" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4340,10 +4439,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B227" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4351,10 +4450,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B228" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4362,10 +4461,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B229" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4373,10 +4472,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B230" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4384,10 +4483,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B231" t="s">
-        <v>286</v>
+        <v>124</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4395,10 +4494,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B232" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4406,10 +4505,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B233" t="s">
-        <v>198</v>
+        <v>28</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4417,10 +4516,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B234" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4428,10 +4527,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B235" t="s">
-        <v>203</v>
+        <v>9</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4439,10 +4538,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B236" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4450,10 +4549,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B237" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4461,10 +4560,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B238" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4472,10 +4571,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B239" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4483,10 +4582,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B240" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4494,10 +4593,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B241" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4505,10 +4604,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B242" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4516,10 +4615,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B243" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4527,10 +4626,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B244" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4538,10 +4637,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B245" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4549,10 +4648,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B246" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4560,10 +4659,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B247" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4571,10 +4670,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B248" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4582,10 +4681,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B249" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4593,10 +4692,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B250" t="s">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4604,10 +4703,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B251" t="s">
-        <v>125</v>
+        <v>310</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4615,10 +4714,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B252" t="s">
-        <v>308</v>
+        <v>160</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4626,10 +4725,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B253" t="s">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4637,10 +4736,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B254" t="s">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4648,10 +4747,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B255" t="s">
-        <v>314</v>
+        <v>132</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4662,7 +4761,7 @@
         <v>315</v>
       </c>
       <c r="B256" t="s">
-        <v>316</v>
+        <v>132</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4670,10 +4769,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B257" t="s">
-        <v>316</v>
+        <v>128</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4681,10 +4780,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B258" t="s">
-        <v>312</v>
+        <v>235</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4692,10 +4791,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
+        <v>318</v>
+      </c>
+      <c r="B259" t="s">
         <v>319</v>
-      </c>
-      <c r="B259" t="s">
-        <v>320</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4703,10 +4802,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B260" t="s">
-        <v>322</v>
+        <v>156</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4714,10 +4813,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B261" t="s">
-        <v>322</v>
+        <v>232</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4725,10 +4824,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B262" t="s">
-        <v>322</v>
+        <v>156</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4736,10 +4835,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B263" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4747,10 +4846,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B264" t="s">
-        <v>327</v>
+        <v>128</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4758,10 +4857,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B265" t="s">
-        <v>329</v>
+        <v>32</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4769,10 +4868,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B266" t="s">
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4780,10 +4879,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B267" t="s">
-        <v>322</v>
+        <v>124</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4791,10 +4890,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B268" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4802,10 +4901,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B269" t="s">
-        <v>327</v>
+        <v>11</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4813,10 +4912,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B270" t="s">
-        <v>337</v>
+        <v>128</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4824,10 +4923,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B271" t="s">
-        <v>339</v>
+        <v>134</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4835,10 +4934,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B272" t="s">
-        <v>339</v>
+        <v>132</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4846,10 +4945,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B273" t="s">
-        <v>342</v>
+        <v>149</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4857,10 +4956,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B274" t="s">
-        <v>344</v>
+        <v>132</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4868,10 +4967,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B275" t="s">
-        <v>337</v>
+        <v>132</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4879,10 +4978,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B276" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4890,10 +4989,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B277" t="s">
-        <v>349</v>
+        <v>158</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -4901,10 +5000,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B278" t="s">
-        <v>349</v>
+        <v>243</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -4912,10 +5011,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B279" t="s">
-        <v>352</v>
+        <v>162</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -4923,10 +5022,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B280" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -4934,10 +5033,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="B281" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -4945,10 +5044,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B282" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -4956,10 +5055,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="B283" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -4967,10 +5066,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B284" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -4978,10 +5077,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B285" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -4989,10 +5088,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B286" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5000,10 +5099,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B287" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5011,10 +5110,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B288" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5022,10 +5121,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B289" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5033,10 +5132,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="B290" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5044,10 +5143,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="B291" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5055,10 +5154,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B292" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5066,10 +5165,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="B293" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5077,10 +5176,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B294" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5088,10 +5187,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B295" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5099,10 +5198,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B296" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5110,10 +5209,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B297" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5121,10 +5220,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B298" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5132,10 +5231,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B299" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5143,10 +5242,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B300" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5154,10 +5253,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B301" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5165,10 +5264,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B302" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5176,10 +5275,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="B303" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5187,10 +5286,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="B304" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5198,10 +5297,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B305" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5209,10 +5308,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B306" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5220,10 +5319,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="B307" t="s">
-        <v>316</v>
+        <v>385</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5231,10 +5330,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B308" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5242,10 +5341,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B309" t="s">
-        <v>310</v>
+        <v>389</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5253,10 +5352,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B310" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5264,10 +5363,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B311" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5275,10 +5374,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B312" t="s">
-        <v>209</v>
+        <v>395</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5286,10 +5385,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B313" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5297,10 +5396,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B314" t="s">
-        <v>121</v>
+        <v>399</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5308,10 +5407,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B315" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5319,10 +5418,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B316" t="s">
-        <v>125</v>
+        <v>377</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5330,10 +5429,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B317" t="s">
-        <v>205</v>
+        <v>404</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5341,10 +5440,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B318" t="s">
-        <v>123</v>
+        <v>406</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5352,10 +5451,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B319" t="s">
-        <v>129</v>
+        <v>408</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5363,10 +5462,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B320" t="s">
-        <v>277</v>
+        <v>408</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5374,10 +5473,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B321" t="s">
-        <v>123</v>
+        <v>404</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5385,10 +5484,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B322" t="s">
-        <v>310</v>
+        <v>399</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5396,10 +5495,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B323" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5407,10 +5506,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B324" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5418,10 +5517,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B325" t="s">
-        <v>310</v>
+        <v>416</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5429,10 +5528,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B326" t="s">
-        <v>127</v>
+        <v>418</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5440,10 +5539,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B327" t="s">
-        <v>418</v>
+        <v>375</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5451,10 +5550,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B328" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5462,10 +5561,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B329" t="s">
-        <v>320</v>
+        <v>422</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5473,10 +5572,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B330" t="s">
-        <v>312</v>
+        <v>375</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5484,10 +5583,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B331" t="s">
-        <v>213</v>
+        <v>404</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5495,10 +5594,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
+        <v>425</v>
+      </c>
+      <c r="B332" t="s">
         <v>426</v>
-      </c>
-      <c r="B332" t="s">
-        <v>198</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5509,7 +5608,7 @@
         <v>427</v>
       </c>
       <c r="B333" t="s">
-        <v>198</v>
+        <v>408</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5520,7 +5619,7 @@
         <v>428</v>
       </c>
       <c r="B334" t="s">
-        <v>198</v>
+        <v>364</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5531,7 +5630,7 @@
         <v>429</v>
       </c>
       <c r="B335" t="s">
-        <v>92</v>
+        <v>349</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5542,7 +5641,7 @@
         <v>430</v>
       </c>
       <c r="B336" t="s">
-        <v>129</v>
+        <v>431</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5550,10 +5649,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B337" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5561,10 +5660,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B338" t="s">
-        <v>286</v>
+        <v>434</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5572,10 +5671,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B339" t="s">
-        <v>117</v>
+        <v>434</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5583,10 +5682,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B340" t="s">
-        <v>94</v>
+        <v>243</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5594,10 +5693,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B341" t="s">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5605,10 +5704,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B342" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5616,10 +5715,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B343" t="s">
-        <v>80</v>
+        <v>440</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5627,10 +5726,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B344" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5638,10 +5737,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B345" t="s">
-        <v>86</v>
+        <v>239</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5649,10 +5748,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B346" t="s">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5660,10 +5759,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B347" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5671,10 +5770,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B348" t="s">
-        <v>96</v>
+        <v>310</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5682,10 +5781,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B349" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5693,10 +5792,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B350" t="s">
-        <v>84</v>
+        <v>343</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -5704,10 +5803,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B351" t="s">
-        <v>106</v>
+        <v>449</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5715,10 +5814,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B352" t="s">
-        <v>41</v>
+        <v>451</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5726,10 +5825,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B353" t="s">
-        <v>106</v>
+        <v>343</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -5737,10 +5836,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B354" t="s">
-        <v>80</v>
+        <v>164</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -5748,10 +5847,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="B355" t="s">
-        <v>96</v>
+        <v>451</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5759,10 +5858,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B356" t="s">
-        <v>203</v>
+        <v>431</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5770,10 +5869,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B357" t="s">
-        <v>198</v>
+        <v>353</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5781,10 +5880,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B358" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -5792,10 +5891,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="B359" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -5803,10 +5902,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B360" t="s">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -5814,10 +5913,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B361" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -5825,10 +5924,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B362" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -5836,10 +5935,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B363" t="s">
-        <v>286</v>
+        <v>130</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -5847,10 +5946,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B364" t="s">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -5858,10 +5957,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B365" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -5869,10 +5968,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B366" t="s">
-        <v>211</v>
+        <v>319</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -5880,10 +5979,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B367" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -5891,10 +5990,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B368" t="s">
-        <v>213</v>
+        <v>132</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -5902,10 +6001,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B369" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -5913,10 +6012,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B370" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -5924,10 +6023,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B371" t="s">
-        <v>177</v>
+        <v>13</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -5935,10 +6034,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B372" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -5946,10 +6045,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="B373" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -5957,10 +6056,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B374" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -5968,10 +6067,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B375" t="s">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -5979,10 +6078,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="B376" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -5990,10 +6089,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="B377" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6001,10 +6100,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B378" t="s">
-        <v>209</v>
+        <v>24</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6012,10 +6111,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B379" t="s">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6023,10 +6122,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B380" t="s">
-        <v>211</v>
+        <v>83</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6034,10 +6133,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B381" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6045,10 +6144,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="B382" t="s">
-        <v>398</v>
+        <v>13</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6056,10 +6155,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="B383" t="s">
-        <v>398</v>
+        <v>134</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6067,10 +6166,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B384" t="s">
-        <v>127</v>
+        <v>237</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6078,10 +6177,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="B385" t="s">
-        <v>322</v>
+        <v>232</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6089,10 +6188,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="B386" t="s">
-        <v>322</v>
+        <v>232</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6100,10 +6199,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B387" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6111,10 +6210,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B388" t="s">
-        <v>329</v>
+        <v>211</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6122,10 +6221,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B389" t="s">
-        <v>398</v>
+        <v>235</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6133,10 +6232,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B390" t="s">
-        <v>398</v>
+        <v>235</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6144,10 +6243,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="B391" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6155,10 +6254,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="B392" t="s">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6166,10 +6265,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B393" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6177,10 +6276,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B394" t="s">
-        <v>334</v>
+        <v>245</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6188,10 +6287,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B395" t="s">
-        <v>334</v>
+        <v>247</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6199,10 +6298,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B396" t="s">
-        <v>398</v>
+        <v>247</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6210,10 +6309,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B397" t="s">
-        <v>492</v>
+        <v>232</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6221,10 +6320,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B398" t="s">
-        <v>398</v>
+        <v>166</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6232,10 +6331,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B399" t="s">
-        <v>334</v>
+        <v>211</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6243,10 +6342,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B400" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6254,10 +6353,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B401" t="s">
-        <v>497</v>
+        <v>235</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6265,10 +6364,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B402" t="s">
-        <v>329</v>
+        <v>235</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6276,10 +6375,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B403" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6287,10 +6386,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B404" t="s">
-        <v>501</v>
+        <v>232</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6298,12 +6397,320 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B405" t="s">
-        <v>327</v>
+        <v>232</v>
       </c>
       <c r="C405" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>505</v>
+      </c>
+      <c r="B406" t="s">
+        <v>243</v>
+      </c>
+      <c r="C406" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>506</v>
+      </c>
+      <c r="B407" t="s">
+        <v>232</v>
+      </c>
+      <c r="C407" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>507</v>
+      </c>
+      <c r="B408" t="s">
+        <v>245</v>
+      </c>
+      <c r="C408" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>508</v>
+      </c>
+      <c r="B409" t="s">
+        <v>245</v>
+      </c>
+      <c r="C409" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>509</v>
+      </c>
+      <c r="B410" t="s">
+        <v>431</v>
+      </c>
+      <c r="C410" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>510</v>
+      </c>
+      <c r="B411" t="s">
+        <v>431</v>
+      </c>
+      <c r="C411" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>511</v>
+      </c>
+      <c r="B412" t="s">
+        <v>164</v>
+      </c>
+      <c r="C412" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>512</v>
+      </c>
+      <c r="B413" t="s">
+        <v>355</v>
+      </c>
+      <c r="C413" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>513</v>
+      </c>
+      <c r="B414" t="s">
+        <v>355</v>
+      </c>
+      <c r="C414" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>514</v>
+      </c>
+      <c r="B415" t="s">
+        <v>360</v>
+      </c>
+      <c r="C415" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>515</v>
+      </c>
+      <c r="B416" t="s">
+        <v>362</v>
+      </c>
+      <c r="C416" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>516</v>
+      </c>
+      <c r="B417" t="s">
+        <v>431</v>
+      </c>
+      <c r="C417" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>517</v>
+      </c>
+      <c r="B418" t="s">
+        <v>431</v>
+      </c>
+      <c r="C418" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>518</v>
+      </c>
+      <c r="B419" t="s">
+        <v>451</v>
+      </c>
+      <c r="C419" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>519</v>
+      </c>
+      <c r="B420" t="s">
+        <v>364</v>
+      </c>
+      <c r="C420" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>520</v>
+      </c>
+      <c r="B421" t="s">
+        <v>364</v>
+      </c>
+      <c r="C421" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>521</v>
+      </c>
+      <c r="B422" t="s">
+        <v>367</v>
+      </c>
+      <c r="C422" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>522</v>
+      </c>
+      <c r="B423" t="s">
+        <v>367</v>
+      </c>
+      <c r="C423" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>523</v>
+      </c>
+      <c r="B424" t="s">
+        <v>431</v>
+      </c>
+      <c r="C424" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>524</v>
+      </c>
+      <c r="B425" t="s">
+        <v>525</v>
+      </c>
+      <c r="C425" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>526</v>
+      </c>
+      <c r="B426" t="s">
+        <v>431</v>
+      </c>
+      <c r="C426" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>527</v>
+      </c>
+      <c r="B427" t="s">
+        <v>367</v>
+      </c>
+      <c r="C427" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>528</v>
+      </c>
+      <c r="B428" t="s">
+        <v>367</v>
+      </c>
+      <c r="C428" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>529</v>
+      </c>
+      <c r="B429" t="s">
+        <v>530</v>
+      </c>
+      <c r="C429" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>531</v>
+      </c>
+      <c r="B430" t="s">
+        <v>362</v>
+      </c>
+      <c r="C430" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>532</v>
+      </c>
+      <c r="B431" t="s">
+        <v>362</v>
+      </c>
+      <c r="C431" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>533</v>
+      </c>
+      <c r="B432" t="s">
+        <v>534</v>
+      </c>
+      <c r="C432" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>535</v>
+      </c>
+      <c r="B433" t="s">
+        <v>360</v>
+      </c>
+      <c r="C433" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid214797"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid635714"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="562">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,132 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>24/02/2025</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>21/02/2025</t>
+  </si>
+  <si>
+    <t>1.006</t>
+  </si>
+  <si>
+    <t>20/02/2025</t>
+  </si>
+  <si>
+    <t>1.007</t>
+  </si>
+  <si>
+    <t>19/02/2025</t>
+  </si>
+  <si>
+    <t>1.010</t>
+  </si>
+  <si>
+    <t>18/02/2025</t>
+  </si>
+  <si>
+    <t>1.017</t>
+  </si>
+  <si>
+    <t>17/02/2025</t>
+  </si>
+  <si>
+    <t>1.016</t>
+  </si>
+  <si>
+    <t>14/02/2025</t>
+  </si>
+  <si>
+    <t>13/02/2025</t>
+  </si>
+  <si>
+    <t>1.012</t>
+  </si>
+  <si>
+    <t>12/02/2025</t>
+  </si>
+  <si>
+    <t>1.008</t>
+  </si>
+  <si>
+    <t>11/02/2025</t>
+  </si>
+  <si>
+    <t>1.011</t>
+  </si>
+  <si>
+    <t>10/02/2025</t>
+  </si>
+  <si>
+    <t>07/02/2025</t>
+  </si>
+  <si>
+    <t>1.015</t>
+  </si>
+  <si>
+    <t>06/02/2025</t>
+  </si>
+  <si>
+    <t>1.013</t>
+  </si>
+  <si>
+    <t>05/02/2025</t>
+  </si>
+  <si>
+    <t>1.009</t>
+  </si>
+  <si>
+    <t>04/02/2025</t>
+  </si>
+  <si>
+    <t>03/02/2025</t>
+  </si>
+  <si>
+    <t>1.002</t>
+  </si>
+  <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t>1.014</t>
+  </si>
+  <si>
+    <t>28/01/2025</t>
+  </si>
+  <si>
+    <t>27/01/2025</t>
+  </si>
+  <si>
+    <t>1.005</t>
+  </si>
+  <si>
+    <t>24/01/2025</t>
+  </si>
+  <si>
+    <t>23/01/2025</t>
+  </si>
+  <si>
+    <t>22/01/2025</t>
+  </si>
+  <si>
+    <t>21/01/2025</t>
+  </si>
+  <si>
+    <t>20/01/2025</t>
+  </si>
+  <si>
+    <t>17/01/2025</t>
+  </si>
+  <si>
     <t>16/01/2025</t>
   </si>
   <si>
-    <t>1.002</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>15/01/2025</t>
   </si>
   <si>
@@ -71,15 +188,9 @@
     <t>07/01/2025</t>
   </si>
   <si>
-    <t>1.005</t>
-  </si>
-  <si>
     <t>06/01/2025</t>
   </si>
   <si>
-    <t>1.006</t>
-  </si>
-  <si>
     <t>03/01/2025</t>
   </si>
   <si>
@@ -89,9 +200,6 @@
     <t>31/12/2024</t>
   </si>
   <si>
-    <t>0.996</t>
-  </si>
-  <si>
     <t>30/12/2024</t>
   </si>
   <si>
@@ -122,9 +230,6 @@
     <t>18/12/2024</t>
   </si>
   <si>
-    <t>1.012</t>
-  </si>
-  <si>
     <t>17/12/2024</t>
   </si>
   <si>
@@ -179,27 +284,15 @@
     <t>03/12/2024</t>
   </si>
   <si>
-    <t>1.017</t>
-  </si>
-  <si>
     <t>02/12/2024</t>
   </si>
   <si>
-    <t>1.016</t>
-  </si>
-  <si>
     <t>29/11/2024</t>
   </si>
   <si>
-    <t>1.015</t>
-  </si>
-  <si>
     <t>28/11/2024</t>
   </si>
   <si>
-    <t>1.014</t>
-  </si>
-  <si>
     <t>27/11/2024</t>
   </si>
   <si>
@@ -209,15 +302,9 @@
     <t>25/11/2024</t>
   </si>
   <si>
-    <t>1.013</t>
-  </si>
-  <si>
     <t>22/11/2024</t>
   </si>
   <si>
-    <t>1.009</t>
-  </si>
-  <si>
     <t>21/11/2024</t>
   </si>
   <si>
@@ -239,9 +326,6 @@
     <t>15/11/2024</t>
   </si>
   <si>
-    <t>1.007</t>
-  </si>
-  <si>
     <t>14/11/2024</t>
   </si>
   <si>
@@ -317,9 +401,6 @@
     <t>15/10/2024</t>
   </si>
   <si>
-    <t>1.010</t>
-  </si>
-  <si>
     <t>14/10/2024</t>
   </si>
   <si>
@@ -840,9 +921,6 @@
   </si>
   <si>
     <t>08/03/2024</t>
-  </si>
-  <si>
-    <t>1.008</t>
   </si>
   <si>
     <t>07/03/2024</t>
@@ -2066,7 +2144,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2074,10 +2152,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2085,10 +2163,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2096,10 +2174,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2107,10 +2185,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2118,10 +2196,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2129,10 +2207,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2140,10 +2218,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2151,10 +2229,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2162,10 +2240,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2173,10 +2251,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>35</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2184,10 +2262,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2195,10 +2273,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2206,10 +2284,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2217,10 +2295,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2231,7 +2309,7 @@
         <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2239,10 +2317,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2250,10 +2328,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s">
         <v>46</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2261,10 +2339,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
         <v>48</v>
-      </c>
-      <c r="B29" t="s">
-        <v>49</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2272,10 +2350,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
         <v>50</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2308,7 +2386,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2316,10 +2394,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2327,10 +2405,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2338,10 +2416,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2349,10 +2427,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2360,10 +2438,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2371,10 +2449,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2382,10 +2460,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2393,10 +2471,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2404,10 +2482,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2415,10 +2493,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2426,10 +2504,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2437,10 +2515,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2448,10 +2526,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2459,10 +2537,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2470,10 +2548,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2481,10 +2559,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2492,10 +2570,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2503,10 +2581,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2514,10 +2592,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2525,10 +2603,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2536,10 +2614,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2547,10 +2625,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2558,10 +2636,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" t="s">
         <v>87</v>
-      </c>
-      <c r="B56" t="s">
-        <v>88</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2569,10 +2647,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2580,10 +2658,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2591,10 +2669,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2602,10 +2680,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2613,10 +2691,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2624,10 +2702,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2635,10 +2713,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2646,10 +2724,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2657,7 +2735,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -2668,10 +2746,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2679,10 +2757,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2690,10 +2768,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2701,10 +2779,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2712,10 +2790,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2723,10 +2801,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2734,10 +2812,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2745,10 +2823,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B73" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2756,10 +2834,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2767,10 +2845,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2778,10 +2856,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2789,10 +2867,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" t="s">
         <v>111</v>
-      </c>
-      <c r="B77" t="s">
-        <v>4</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2803,7 +2881,7 @@
         <v>112</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2814,7 +2892,7 @@
         <v>113</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2825,7 +2903,7 @@
         <v>114</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2836,7 +2914,7 @@
         <v>115</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2844,10 +2922,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2855,10 +2933,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2866,10 +2944,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2877,10 +2955,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2888,10 +2966,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2899,10 +2977,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2910,10 +2988,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2921,10 +2999,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -2932,10 +3010,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -2946,7 +3024,7 @@
         <v>127</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -2954,10 +3032,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B92" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -2965,10 +3043,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B93" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -2976,10 +3054,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -2987,10 +3065,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B95" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -2998,10 +3076,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3009,10 +3087,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B97" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3020,10 +3098,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3031,10 +3109,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B99" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3042,10 +3120,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B100" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3053,10 +3131,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3064,10 +3142,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3075,10 +3153,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B103" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3086,10 +3164,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3097,10 +3175,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B105" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3108,10 +3186,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B106" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3119,10 +3197,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B107" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3130,10 +3208,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3141,10 +3219,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3152,10 +3230,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B110" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3163,10 +3241,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B111" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3174,10 +3252,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B112" t="s">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3185,10 +3263,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B113" t="s">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3196,10 +3274,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B114" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3207,10 +3285,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B115" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3218,10 +3296,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B116" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3229,10 +3307,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B117" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3240,10 +3318,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B118" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3251,10 +3329,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B119" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3262,10 +3340,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3273,10 +3351,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3284,10 +3362,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B122" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3295,10 +3373,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B123" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3306,10 +3384,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>165</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3317,10 +3395,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B125" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3328,10 +3406,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B126" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3339,10 +3417,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B127" t="s">
-        <v>138</v>
+        <v>54</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3350,10 +3428,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B128" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3361,10 +3439,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B129" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3372,10 +3450,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B130" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3383,10 +3461,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3394,10 +3472,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B132" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3405,10 +3483,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B133" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3416,10 +3494,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B134" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3427,10 +3505,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B135" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3438,10 +3516,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B136" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3449,10 +3527,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B137" t="s">
-        <v>4</v>
+        <v>183</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3460,10 +3538,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>185</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3471,10 +3549,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>187</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3482,10 +3560,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>188</v>
+      </c>
+      <c r="B140" t="s">
         <v>189</v>
-      </c>
-      <c r="B140" t="s">
-        <v>138</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3496,7 +3574,7 @@
         <v>190</v>
       </c>
       <c r="B141" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3504,10 +3582,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3515,10 +3593,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B143" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3526,10 +3604,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B144" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3537,10 +3615,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B145" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3548,10 +3626,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B146" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3559,10 +3637,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3570,10 +3648,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3581,10 +3659,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B149" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3592,10 +3670,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B150" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3603,10 +3681,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3614,10 +3692,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B152" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3625,10 +3703,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B153" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3636,10 +3714,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B154" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3647,10 +3725,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3658,10 +3736,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B156" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3669,10 +3747,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3680,10 +3758,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3691,10 +3769,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B159" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3702,10 +3780,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B160" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3713,10 +3791,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B161" t="s">
-        <v>211</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3724,10 +3802,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B162" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3735,10 +3813,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B163" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3746,10 +3824,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B164" t="s">
-        <v>149</v>
+        <v>46</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3757,10 +3835,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B165" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3768,10 +3846,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B166" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3779,10 +3857,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B167" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3790,10 +3868,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B168" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3801,10 +3879,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3812,10 +3890,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3823,10 +3901,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B171" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3834,10 +3912,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B172" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3845,10 +3923,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B173" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3856,10 +3934,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3867,10 +3945,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B175" t="s">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3878,10 +3956,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B176" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3889,10 +3967,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3900,10 +3978,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B178" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3911,10 +3989,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B179" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -3922,10 +4000,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B180" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -3933,10 +4011,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B181" t="s">
-        <v>232</v>
+        <v>68</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -3947,7 +4025,7 @@
         <v>233</v>
       </c>
       <c r="B182" t="s">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -3958,7 +4036,7 @@
         <v>234</v>
       </c>
       <c r="B183" t="s">
-        <v>235</v>
+        <v>50</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -3966,10 +4044,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B184" t="s">
-        <v>237</v>
+        <v>155</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -3977,10 +4055,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B185" t="s">
-        <v>239</v>
+        <v>155</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -3988,10 +4066,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B186" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -3999,10 +4077,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B187" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4010,10 +4088,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B188" t="s">
-        <v>243</v>
+        <v>155</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4021,10 +4099,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B189" t="s">
-        <v>245</v>
+        <v>176</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4032,10 +4110,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B190" t="s">
-        <v>247</v>
+        <v>161</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4043,10 +4121,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B191" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4054,10 +4132,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B192" t="s">
-        <v>211</v>
+        <v>151</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4065,10 +4143,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4076,10 +4154,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B194" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4087,10 +4165,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B195" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4098,10 +4176,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B196" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4109,10 +4187,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B197" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4120,10 +4198,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B198" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4131,10 +4209,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B199" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4142,10 +4220,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B200" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4153,10 +4231,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B201" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4164,10 +4242,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B202" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4175,10 +4253,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B203" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4186,10 +4264,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B204" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4197,10 +4275,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B205" t="s">
-        <v>18</v>
+        <v>157</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4208,10 +4286,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B206" t="s">
-        <v>72</v>
+        <v>259</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4219,10 +4297,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B207" t="s">
-        <v>72</v>
+        <v>238</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4230,10 +4308,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B208" t="s">
-        <v>20</v>
+        <v>262</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4241,10 +4319,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B209" t="s">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4252,10 +4330,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B210" t="s">
-        <v>13</v>
+        <v>266</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4263,10 +4341,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4274,10 +4352,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B212" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4285,10 +4363,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
+        <v>269</v>
+      </c>
+      <c r="B213" t="s">
         <v>270</v>
-      </c>
-      <c r="B213" t="s">
-        <v>4</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4299,7 +4377,7 @@
         <v>271</v>
       </c>
       <c r="B214" t="s">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4307,10 +4385,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B215" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4318,10 +4396,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B216" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4329,10 +4407,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B217" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4340,10 +4418,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B218" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4351,10 +4429,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>165</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4362,10 +4440,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4373,10 +4451,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B221" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4384,10 +4462,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B222" t="s">
-        <v>28</v>
+        <v>118</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4395,10 +4473,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4406,10 +4484,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B224" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4417,10 +4495,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B225" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4428,10 +4506,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B226" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4439,10 +4517,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B227" t="s">
-        <v>138</v>
+        <v>9</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4450,7 +4528,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B228" t="s">
         <v>9</v>
@@ -4461,10 +4539,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B229" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4472,10 +4550,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B230" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4483,10 +4561,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B231" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4494,10 +4572,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B232" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4505,10 +4583,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B233" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4516,10 +4594,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B234" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4527,10 +4605,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B235" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4538,10 +4616,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4549,10 +4627,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B237" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4560,7 +4638,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B238" t="s">
         <v>32</v>
@@ -4571,10 +4649,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B239" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4582,10 +4660,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B240" t="s">
-        <v>149</v>
+        <v>37</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4593,10 +4671,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B241" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4604,10 +4682,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B242" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4615,10 +4693,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B243" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4626,10 +4704,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B244" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4637,10 +4715,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B245" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4648,10 +4726,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B246" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4659,10 +4737,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B247" t="s">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4670,10 +4748,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B248" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4681,10 +4759,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B249" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4692,10 +4770,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B250" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4703,10 +4781,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B251" t="s">
-        <v>310</v>
+        <v>165</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4717,7 +4795,7 @@
         <v>311</v>
       </c>
       <c r="B252" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4728,7 +4806,7 @@
         <v>312</v>
       </c>
       <c r="B253" t="s">
-        <v>247</v>
+        <v>48</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4739,7 +4817,7 @@
         <v>313</v>
       </c>
       <c r="B254" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4750,7 +4828,7 @@
         <v>314</v>
       </c>
       <c r="B255" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4761,7 +4839,7 @@
         <v>315</v>
       </c>
       <c r="B256" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4772,7 +4850,7 @@
         <v>316</v>
       </c>
       <c r="B257" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4783,7 +4861,7 @@
         <v>317</v>
       </c>
       <c r="B258" t="s">
-        <v>235</v>
+        <v>64</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4794,7 +4872,7 @@
         <v>318</v>
       </c>
       <c r="B259" t="s">
-        <v>319</v>
+        <v>52</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4802,10 +4880,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B260" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4813,10 +4891,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B261" t="s">
-        <v>232</v>
+        <v>54</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4824,10 +4902,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B262" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4835,10 +4913,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B263" t="s">
-        <v>237</v>
+        <v>68</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4846,10 +4924,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B264" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4857,10 +4935,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B265" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4868,10 +4946,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B266" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4879,10 +4957,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B267" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4890,10 +4968,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B268" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4901,10 +4979,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B269" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4912,10 +4990,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B270" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -4923,10 +5001,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B271" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -4934,10 +5012,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B272" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -4945,10 +5023,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B273" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -4956,10 +5034,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B274" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -4967,10 +5045,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B275" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -4978,10 +5056,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
+        <v>335</v>
+      </c>
+      <c r="B276" t="s">
         <v>336</v>
-      </c>
-      <c r="B276" t="s">
-        <v>247</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -4992,7 +5070,7 @@
         <v>337</v>
       </c>
       <c r="B277" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5003,7 +5081,7 @@
         <v>338</v>
       </c>
       <c r="B278" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5014,7 +5092,7 @@
         <v>339</v>
       </c>
       <c r="B279" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5025,7 +5103,7 @@
         <v>340</v>
       </c>
       <c r="B280" t="s">
-        <v>341</v>
+        <v>159</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5033,10 +5111,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B281" t="s">
-        <v>343</v>
+        <v>159</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5044,10 +5122,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B282" t="s">
-        <v>345</v>
+        <v>155</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5055,10 +5133,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B283" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5066,10 +5144,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B284" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5077,10 +5155,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B285" t="s">
-        <v>349</v>
+        <v>183</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5088,10 +5166,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B286" t="s">
-        <v>345</v>
+        <v>259</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5099,10 +5177,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B287" t="s">
-        <v>353</v>
+        <v>183</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5110,10 +5188,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B288" t="s">
-        <v>355</v>
+        <v>264</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5121,10 +5199,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B289" t="s">
-        <v>355</v>
+        <v>155</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5132,10 +5210,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B290" t="s">
-        <v>355</v>
+        <v>68</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5143,10 +5221,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B291" t="s">
-        <v>355</v>
+        <v>68</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5154,10 +5232,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B292" t="s">
-        <v>360</v>
+        <v>151</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5165,10 +5243,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B293" t="s">
-        <v>362</v>
+        <v>50</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5176,10 +5254,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B294" t="s">
-        <v>364</v>
+        <v>50</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5187,10 +5265,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B295" t="s">
-        <v>355</v>
+        <v>155</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5198,10 +5276,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B296" t="s">
-        <v>367</v>
+        <v>161</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5209,10 +5287,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B297" t="s">
-        <v>360</v>
+        <v>159</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5220,10 +5298,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B298" t="s">
-        <v>370</v>
+        <v>176</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5231,10 +5309,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B299" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5242,10 +5320,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B300" t="s">
-        <v>372</v>
+        <v>159</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5253,10 +5331,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B301" t="s">
-        <v>375</v>
+        <v>274</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5264,10 +5342,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B302" t="s">
-        <v>377</v>
+        <v>185</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5275,10 +5353,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="B303" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5286,10 +5364,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B304" t="s">
-        <v>380</v>
+        <v>189</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5297,10 +5375,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B305" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5308,10 +5386,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="B306" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5319,10 +5397,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B307" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5330,10 +5408,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B308" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5341,10 +5419,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B309" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5352,10 +5430,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B310" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5363,10 +5441,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B311" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5374,10 +5452,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="B312" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5385,10 +5463,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="B313" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5396,10 +5474,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="B314" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5407,10 +5485,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="B315" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5418,10 +5496,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="B316" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5429,10 +5507,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="B317" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5440,10 +5518,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="B318" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5451,10 +5529,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="B319" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5462,10 +5540,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="B320" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5473,10 +5551,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="B321" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5484,10 +5562,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="B322" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5495,10 +5573,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>412</v>
+        <v>395</v>
       </c>
       <c r="B323" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5506,10 +5584,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B324" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5517,10 +5595,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B325" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5528,10 +5606,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="B326" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5539,10 +5617,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="B327" t="s">
-        <v>375</v>
+        <v>403</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5550,10 +5628,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B328" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5561,10 +5639,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B329" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5572,10 +5650,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="B330" t="s">
-        <v>375</v>
+        <v>408</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5583,10 +5661,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B331" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5594,10 +5672,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B332" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5605,10 +5683,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B333" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5616,10 +5694,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B334" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5627,10 +5705,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="B335" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5638,10 +5716,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B336" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5649,10 +5727,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="B337" t="s">
-        <v>343</v>
+        <v>421</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5660,10 +5738,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B338" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5671,10 +5749,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B339" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5682,10 +5760,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B340" t="s">
-        <v>243</v>
+        <v>427</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5693,10 +5771,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B341" t="s">
-        <v>434</v>
+        <v>403</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5704,10 +5782,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B342" t="s">
-        <v>158</v>
+        <v>430</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5715,10 +5793,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B343" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5726,10 +5804,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B344" t="s">
-        <v>162</v>
+        <v>434</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5737,10 +5815,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B345" t="s">
-        <v>239</v>
+        <v>434</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5748,10 +5826,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B346" t="s">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5759,10 +5837,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B347" t="s">
-        <v>166</v>
+        <v>425</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5770,10 +5848,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B348" t="s">
-        <v>310</v>
+        <v>425</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5781,10 +5859,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B349" t="s">
-        <v>160</v>
+        <v>440</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5792,10 +5870,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B350" t="s">
-        <v>343</v>
+        <v>442</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -5803,10 +5881,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B351" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5814,10 +5892,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B352" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5825,10 +5903,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B353" t="s">
-        <v>343</v>
+        <v>434</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -5836,10 +5914,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B354" t="s">
-        <v>164</v>
+        <v>448</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -5847,10 +5925,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B355" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5858,10 +5936,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B356" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5869,10 +5947,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B357" t="s">
-        <v>353</v>
+        <v>452</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5880,10 +5958,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B358" t="s">
-        <v>345</v>
+        <v>434</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -5891,10 +5969,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B359" t="s">
-        <v>247</v>
+        <v>390</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -5902,10 +5980,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B360" t="s">
-        <v>232</v>
+        <v>375</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -5913,10 +5991,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B361" t="s">
-        <v>232</v>
+        <v>457</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -5924,10 +6002,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B362" t="s">
-        <v>232</v>
+        <v>369</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -5935,10 +6013,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B363" t="s">
-        <v>130</v>
+        <v>460</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -5946,10 +6024,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B364" t="s">
-        <v>166</v>
+        <v>460</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -5957,10 +6035,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B365" t="s">
-        <v>154</v>
+        <v>270</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -5968,10 +6046,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B366" t="s">
-        <v>319</v>
+        <v>460</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -5979,10 +6057,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B367" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -5990,10 +6068,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B368" t="s">
-        <v>132</v>
+        <v>466</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6001,10 +6079,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B369" t="s">
-        <v>13</v>
+        <v>189</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6012,10 +6090,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B370" t="s">
-        <v>138</v>
+        <v>266</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6023,10 +6101,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B371" t="s">
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6034,10 +6112,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B372" t="s">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6045,10 +6123,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B373" t="s">
-        <v>124</v>
+        <v>336</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6056,10 +6134,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B374" t="s">
-        <v>149</v>
+        <v>187</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6067,10 +6145,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B375" t="s">
-        <v>134</v>
+        <v>369</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6078,10 +6156,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
+        <v>474</v>
+      </c>
+      <c r="B376" t="s">
         <v>475</v>
-      </c>
-      <c r="B376" t="s">
-        <v>134</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6092,7 +6170,7 @@
         <v>476</v>
       </c>
       <c r="B377" t="s">
-        <v>9</v>
+        <v>477</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6100,10 +6178,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B378" t="s">
-        <v>24</v>
+        <v>369</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6111,10 +6189,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B379" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6122,10 +6200,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B380" t="s">
-        <v>83</v>
+        <v>477</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6133,10 +6211,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B381" t="s">
-        <v>15</v>
+        <v>457</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6144,10 +6222,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B382" t="s">
-        <v>13</v>
+        <v>379</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6155,10 +6233,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B383" t="s">
-        <v>134</v>
+        <v>371</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6166,10 +6244,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B384" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6177,10 +6255,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B385" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6188,10 +6266,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B386" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6199,10 +6277,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B387" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6210,10 +6288,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B388" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6221,10 +6299,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B389" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6232,10 +6310,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B390" t="s">
-        <v>235</v>
+        <v>181</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6243,10 +6321,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B391" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6254,10 +6332,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B392" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6265,10 +6343,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B393" t="s">
-        <v>243</v>
+        <v>159</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6276,10 +6354,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B394" t="s">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6287,10 +6365,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B395" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6298,10 +6376,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B396" t="s">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6309,10 +6387,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B397" t="s">
-        <v>232</v>
+        <v>4</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6320,10 +6398,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B398" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6331,10 +6409,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B399" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6342,10 +6420,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B400" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6353,10 +6431,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B401" t="s">
-        <v>235</v>
+        <v>161</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6364,10 +6442,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B402" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6375,10 +6453,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B403" t="s">
-        <v>319</v>
+        <v>4</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6386,10 +6464,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B404" t="s">
-        <v>232</v>
+        <v>54</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6397,10 +6475,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B405" t="s">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6408,10 +6486,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B406" t="s">
-        <v>243</v>
+        <v>54</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6419,10 +6497,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B407" t="s">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6430,10 +6508,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B408" t="s">
-        <v>245</v>
+        <v>161</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6441,10 +6519,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B409" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6452,10 +6530,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B410" t="s">
-        <v>431</v>
+        <v>259</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6463,10 +6541,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B411" t="s">
-        <v>431</v>
+        <v>259</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6474,10 +6552,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B412" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6485,10 +6563,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B413" t="s">
-        <v>355</v>
+        <v>238</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6496,10 +6574,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B414" t="s">
-        <v>355</v>
+        <v>262</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6507,10 +6585,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B415" t="s">
-        <v>360</v>
+        <v>262</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -6518,10 +6596,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B416" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -6529,10 +6607,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B417" t="s">
-        <v>431</v>
+        <v>266</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -6540,10 +6618,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B418" t="s">
-        <v>431</v>
+        <v>270</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -6551,10 +6629,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B419" t="s">
-        <v>451</v>
+        <v>272</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -6562,10 +6640,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B420" t="s">
-        <v>364</v>
+        <v>274</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -6573,10 +6651,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B421" t="s">
-        <v>364</v>
+        <v>274</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -6584,10 +6662,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B422" t="s">
-        <v>367</v>
+        <v>259</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -6595,10 +6673,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B423" t="s">
-        <v>367</v>
+        <v>193</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -6606,10 +6684,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B424" t="s">
-        <v>431</v>
+        <v>238</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -6617,10 +6695,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B425" t="s">
-        <v>525</v>
+        <v>50</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -6631,7 +6709,7 @@
         <v>526</v>
       </c>
       <c r="B426" t="s">
-        <v>431</v>
+        <v>262</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -6642,7 +6720,7 @@
         <v>527</v>
       </c>
       <c r="B427" t="s">
-        <v>367</v>
+        <v>262</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -6653,7 +6731,7 @@
         <v>528</v>
       </c>
       <c r="B428" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -6664,7 +6742,7 @@
         <v>529</v>
       </c>
       <c r="B429" t="s">
-        <v>530</v>
+        <v>259</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -6672,10 +6750,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B430" t="s">
-        <v>362</v>
+        <v>259</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -6683,10 +6761,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B431" t="s">
-        <v>362</v>
+        <v>270</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -6694,10 +6772,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B432" t="s">
-        <v>534</v>
+        <v>259</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -6705,12 +6783,287 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
+        <v>533</v>
+      </c>
+      <c r="B433" t="s">
+        <v>272</v>
+      </c>
+      <c r="C433" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>534</v>
+      </c>
+      <c r="B434" t="s">
+        <v>272</v>
+      </c>
+      <c r="C434" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
         <v>535</v>
       </c>
-      <c r="B433" t="s">
-        <v>360</v>
-      </c>
-      <c r="C433" t="s">
+      <c r="B435" t="s">
+        <v>457</v>
+      </c>
+      <c r="C435" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>536</v>
+      </c>
+      <c r="B436" t="s">
+        <v>457</v>
+      </c>
+      <c r="C436" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>537</v>
+      </c>
+      <c r="B437" t="s">
+        <v>191</v>
+      </c>
+      <c r="C437" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>538</v>
+      </c>
+      <c r="B438" t="s">
+        <v>381</v>
+      </c>
+      <c r="C438" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>539</v>
+      </c>
+      <c r="B439" t="s">
+        <v>381</v>
+      </c>
+      <c r="C439" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>540</v>
+      </c>
+      <c r="B440" t="s">
+        <v>386</v>
+      </c>
+      <c r="C440" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>541</v>
+      </c>
+      <c r="B441" t="s">
+        <v>388</v>
+      </c>
+      <c r="C441" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>542</v>
+      </c>
+      <c r="B442" t="s">
+        <v>457</v>
+      </c>
+      <c r="C442" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>543</v>
+      </c>
+      <c r="B443" t="s">
+        <v>457</v>
+      </c>
+      <c r="C443" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>544</v>
+      </c>
+      <c r="B444" t="s">
+        <v>477</v>
+      </c>
+      <c r="C444" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>545</v>
+      </c>
+      <c r="B445" t="s">
+        <v>390</v>
+      </c>
+      <c r="C445" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>546</v>
+      </c>
+      <c r="B446" t="s">
+        <v>390</v>
+      </c>
+      <c r="C446" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>547</v>
+      </c>
+      <c r="B447" t="s">
+        <v>393</v>
+      </c>
+      <c r="C447" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>548</v>
+      </c>
+      <c r="B448" t="s">
+        <v>393</v>
+      </c>
+      <c r="C448" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>549</v>
+      </c>
+      <c r="B449" t="s">
+        <v>457</v>
+      </c>
+      <c r="C449" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>550</v>
+      </c>
+      <c r="B450" t="s">
+        <v>551</v>
+      </c>
+      <c r="C450" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>552</v>
+      </c>
+      <c r="B451" t="s">
+        <v>457</v>
+      </c>
+      <c r="C451" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>553</v>
+      </c>
+      <c r="B452" t="s">
+        <v>393</v>
+      </c>
+      <c r="C452" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>554</v>
+      </c>
+      <c r="B453" t="s">
+        <v>393</v>
+      </c>
+      <c r="C453" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>555</v>
+      </c>
+      <c r="B454" t="s">
+        <v>556</v>
+      </c>
+      <c r="C454" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>557</v>
+      </c>
+      <c r="B455" t="s">
+        <v>388</v>
+      </c>
+      <c r="C455" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>558</v>
+      </c>
+      <c r="B456" t="s">
+        <v>388</v>
+      </c>
+      <c r="C456" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>559</v>
+      </c>
+      <c r="B457" t="s">
+        <v>560</v>
+      </c>
+      <c r="C457" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>561</v>
+      </c>
+      <c r="B458" t="s">
+        <v>386</v>
+      </c>
+      <c r="C458" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid635714"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid663918"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="575">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,87 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>13/03/2025</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>12/03/2025</t>
+  </si>
+  <si>
+    <t>0.960</t>
+  </si>
+  <si>
+    <t>11/03/2025</t>
+  </si>
+  <si>
+    <t>10/03/2025</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>07/03/2025</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>06/03/2025</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>05/03/2025</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>04/03/2025</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>03/03/2025</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>28/02/2025</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>27/02/2025</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>26/02/2025</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>25/02/2025</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
     <t>24/02/2025</t>
   </si>
   <si>
-    <t>0.996</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>21/02/2025</t>
   </si>
   <si>
@@ -173,9 +245,6 @@
     <t>10/01/2025</t>
   </si>
   <si>
-    <t>0.993</t>
-  </si>
-  <si>
     <t>09/01/2025</t>
   </si>
   <si>
@@ -221,9 +290,6 @@
     <t>20/12/2024</t>
   </si>
   <si>
-    <t>0.992</t>
-  </si>
-  <si>
     <t>19/12/2024</t>
   </si>
   <si>
@@ -350,9 +416,6 @@
     <t>05/11/2024</t>
   </si>
   <si>
-    <t>0.994</t>
-  </si>
-  <si>
     <t>04/11/2024</t>
   </si>
   <si>
@@ -500,9 +563,6 @@
     <t>05/09/2024</t>
   </si>
   <si>
-    <t>0.987</t>
-  </si>
-  <si>
     <t>04/09/2024</t>
   </si>
   <si>
@@ -560,9 +620,6 @@
     <t>13/08/2024</t>
   </si>
   <si>
-    <t>0.979</t>
-  </si>
-  <si>
     <t>12/08/2024</t>
   </si>
   <si>
@@ -794,9 +851,6 @@
     <t>02/05/2024</t>
   </si>
   <si>
-    <t>0.974</t>
-  </si>
-  <si>
     <t>30/04/2024</t>
   </si>
   <si>
@@ -809,9 +863,6 @@
     <t>26/04/2024</t>
   </si>
   <si>
-    <t>0.978</t>
-  </si>
-  <si>
     <t>25/04/2024</t>
   </si>
   <si>
@@ -1052,9 +1103,6 @@
     <t>09/01/2024</t>
   </si>
   <si>
-    <t>0.980</t>
-  </si>
-  <si>
     <t>08/01/2024</t>
   </si>
   <si>
@@ -1118,9 +1166,6 @@
     <t>07/12/2023</t>
   </si>
   <si>
-    <t>0.963</t>
-  </si>
-  <si>
     <t>06/12/2023</t>
   </si>
   <si>
@@ -1130,9 +1175,6 @@
     <t>05/12/2023</t>
   </si>
   <si>
-    <t>0.960</t>
-  </si>
-  <si>
     <t>04/12/2023</t>
   </si>
   <si>
@@ -1140,9 +1182,6 @@
   </si>
   <si>
     <t>01/12/2023</t>
-  </si>
-  <si>
-    <t>0.958</t>
   </si>
   <si>
     <t>30/11/2023</t>
@@ -2067,7 +2106,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2075,10 +2114,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2086,10 +2125,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2097,10 +2136,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2108,10 +2147,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2155,7 +2194,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2163,10 +2202,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2174,10 +2213,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2185,10 +2224,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2199,7 +2238,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2207,10 +2246,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2218,10 +2257,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2229,10 +2268,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2240,10 +2279,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2251,10 +2290,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2262,10 +2301,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2273,10 +2312,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2284,10 +2323,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2295,10 +2334,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2306,10 +2345,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2317,10 +2356,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2328,10 +2367,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2339,10 +2378,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2350,10 +2389,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2361,10 +2400,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2372,10 +2411,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2383,10 +2422,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2394,10 +2433,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2405,10 +2444,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2416,10 +2455,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2427,10 +2466,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2438,10 +2477,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2449,10 +2488,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2460,10 +2499,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2471,10 +2510,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2482,10 +2521,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2493,10 +2532,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2504,10 +2543,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2515,10 +2554,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2526,10 +2565,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2537,10 +2576,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2548,10 +2587,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2559,10 +2598,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2570,7 +2609,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
         <v>77</v>
@@ -2581,10 +2620,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2592,10 +2631,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2603,10 +2642,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2614,10 +2653,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2625,10 +2664,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2636,7 +2675,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
         <v>87</v>
@@ -2647,10 +2686,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2658,10 +2697,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2669,10 +2708,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2680,10 +2719,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2691,10 +2730,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2702,10 +2741,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2713,10 +2752,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2724,10 +2763,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2735,10 +2774,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" t="s">
         <v>96</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2746,10 +2785,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2757,10 +2796,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2768,10 +2807,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2779,10 +2818,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2790,10 +2829,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2801,10 +2840,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2812,10 +2851,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2823,10 +2862,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2834,10 +2873,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2845,10 +2884,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2856,10 +2895,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B76" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2867,10 +2906,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2878,10 +2917,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B78" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2889,10 +2928,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2900,10 +2939,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2911,10 +2950,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2922,10 +2961,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B82" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2933,10 +2972,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2944,10 +2983,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2955,10 +2994,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -2966,10 +3005,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -2977,10 +3016,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B87" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -2988,10 +3027,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -2999,10 +3038,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B89" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3010,10 +3049,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B90" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3021,10 +3060,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3032,10 +3071,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3043,10 +3082,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B93" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3054,10 +3093,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3065,10 +3104,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B95" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3076,10 +3115,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3087,10 +3126,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3098,10 +3137,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3109,10 +3148,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B99" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3120,10 +3159,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B100" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3131,10 +3170,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="B101" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3142,10 +3181,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3153,10 +3192,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3164,10 +3203,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B104" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3175,10 +3214,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B105" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3186,10 +3225,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B106" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3197,10 +3236,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B107" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3208,10 +3247,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B108" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3219,10 +3258,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3230,10 +3269,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B110" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3241,10 +3280,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B111" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3252,10 +3291,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B112" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3263,10 +3302,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B113" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3274,10 +3313,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B114" t="s">
-        <v>151</v>
+        <v>70</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3285,10 +3324,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B115" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3296,10 +3335,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B116" t="s">
-        <v>155</v>
+        <v>56</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3307,10 +3346,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>157</v>
+        <v>56</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3318,10 +3357,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B118" t="s">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3329,10 +3368,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B119" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3340,10 +3379,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B120" t="s">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3351,10 +3390,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3362,10 +3401,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B122" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3373,10 +3412,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B123" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3384,10 +3423,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B124" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3395,10 +3434,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B125" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3406,10 +3445,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B126" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3417,10 +3456,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B127" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3428,10 +3467,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B128" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3439,10 +3478,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B129" t="s">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3450,10 +3489,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B130" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3461,10 +3500,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B131" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3472,10 +3511,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B132" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3483,10 +3522,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B133" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3494,10 +3533,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B134" t="s">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3505,10 +3544,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B135" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3516,10 +3555,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B136" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3527,10 +3566,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B137" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3538,7 +3577,7 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B138" t="s">
         <v>185</v>
@@ -3549,10 +3588,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B139" t="s">
-        <v>187</v>
+        <v>20</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3560,10 +3599,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B140" t="s">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3571,10 +3610,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B141" t="s">
-        <v>191</v>
+        <v>20</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3585,7 +3624,7 @@
         <v>192</v>
       </c>
       <c r="B142" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3593,10 +3632,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B143" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3604,10 +3643,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>20</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3615,10 +3654,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
+        <v>195</v>
+      </c>
+      <c r="B145" t="s">
         <v>196</v>
-      </c>
-      <c r="B145" t="s">
-        <v>50</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3629,7 +3668,7 @@
         <v>197</v>
       </c>
       <c r="B146" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3640,7 +3679,7 @@
         <v>198</v>
       </c>
       <c r="B147" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3651,7 +3690,7 @@
         <v>199</v>
       </c>
       <c r="B148" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3662,7 +3701,7 @@
         <v>200</v>
       </c>
       <c r="B149" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3673,7 +3712,7 @@
         <v>201</v>
       </c>
       <c r="B150" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3681,10 +3720,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B151" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3692,10 +3731,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B152" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3703,10 +3742,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B153" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3714,10 +3753,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B154" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3725,10 +3764,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B155" t="s">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3736,10 +3775,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B156" t="s">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3747,10 +3786,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>172</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3758,10 +3797,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B158" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3769,10 +3808,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3780,10 +3819,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3791,10 +3830,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3802,10 +3841,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B162" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3813,10 +3852,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B163" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3824,10 +3863,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B164" t="s">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3835,10 +3874,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3846,10 +3885,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B166" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3857,10 +3896,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B167" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3868,10 +3907,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B168" t="s">
-        <v>165</v>
+        <v>58</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3879,10 +3918,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B169" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3890,10 +3929,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B170" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3901,10 +3940,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3912,10 +3951,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B172" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3923,10 +3962,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B173" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3934,10 +3973,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B174" t="s">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3945,10 +3984,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B175" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3956,10 +3995,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B176" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -3967,10 +4006,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B177" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -3978,10 +4017,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B178" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -3989,10 +4028,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B179" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4000,10 +4039,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B180" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4011,10 +4050,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B181" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4022,10 +4061,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B182" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4033,10 +4072,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B183" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4044,10 +4083,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B184" t="s">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4055,10 +4094,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B185" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4066,10 +4105,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B186" t="s">
-        <v>238</v>
+        <v>77</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4077,10 +4116,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B187" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4088,10 +4127,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B188" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4099,10 +4138,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B189" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4110,10 +4149,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B190" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4121,10 +4160,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="B191" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4132,10 +4171,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B192" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4143,10 +4182,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B193" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4154,10 +4193,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B194" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4165,10 +4204,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B195" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4176,10 +4215,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B196" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4187,10 +4226,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B197" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4198,10 +4237,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B198" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4209,10 +4248,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B199" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4220,10 +4259,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B200" t="s">
-        <v>68</v>
+        <v>178</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4231,10 +4270,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B201" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4242,10 +4281,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B202" t="s">
-        <v>50</v>
+        <v>196</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4253,10 +4292,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B203" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4264,10 +4303,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B204" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4275,10 +4314,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B205" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4286,10 +4325,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B206" t="s">
-        <v>259</v>
+        <v>28</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4297,10 +4336,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B207" t="s">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4308,10 +4347,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B208" t="s">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4319,10 +4358,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B209" t="s">
-        <v>264</v>
+        <v>87</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4330,10 +4369,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B210" t="s">
-        <v>266</v>
+        <v>20</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4341,10 +4380,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B211" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4352,10 +4391,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B212" t="s">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4363,10 +4402,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B213" t="s">
-        <v>270</v>
+        <v>28</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4374,10 +4413,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B214" t="s">
-        <v>272</v>
+        <v>74</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4388,7 +4427,7 @@
         <v>273</v>
       </c>
       <c r="B215" t="s">
-        <v>274</v>
+        <v>74</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4396,10 +4435,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B216" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4407,10 +4446,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B217" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4418,10 +4457,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B218" t="s">
-        <v>52</v>
+        <v>178</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4429,10 +4468,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B219" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4440,10 +4479,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4451,10 +4490,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
+        <v>279</v>
+      </c>
+      <c r="B221" t="s">
         <v>280</v>
-      </c>
-      <c r="B221" t="s">
-        <v>32</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4465,7 +4504,7 @@
         <v>281</v>
       </c>
       <c r="B222" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4476,7 +4515,7 @@
         <v>282</v>
       </c>
       <c r="B223" t="s">
-        <v>116</v>
+        <v>283</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4484,10 +4523,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B224" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4495,10 +4534,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B225" t="s">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4506,10 +4545,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B226" t="s">
-        <v>116</v>
+        <v>287</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4517,10 +4556,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B227" t="s">
-        <v>9</v>
+        <v>289</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4528,10 +4567,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4539,10 +4578,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B229" t="s">
-        <v>101</v>
+        <v>202</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4550,10 +4589,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B230" t="s">
-        <v>37</v>
+        <v>257</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4561,10 +4600,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B231" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4572,10 +4611,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B232" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4583,10 +4622,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4594,10 +4633,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B234" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4605,10 +4644,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B235" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4616,10 +4655,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B236" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4627,10 +4666,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B237" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4638,10 +4677,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B238" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4649,10 +4688,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B239" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4660,10 +4699,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B240" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4671,10 +4710,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B241" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4682,10 +4721,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B242" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4693,10 +4732,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B243" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4704,10 +4743,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B244" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4715,10 +4754,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B245" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4726,10 +4765,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B246" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4737,10 +4776,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B247" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4748,10 +4787,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B248" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4759,10 +4798,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B249" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4770,10 +4809,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B250" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4781,10 +4820,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B251" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4792,10 +4831,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B252" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4803,10 +4842,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B253" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4814,10 +4853,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B254" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4825,10 +4864,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B255" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4836,10 +4875,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B256" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4847,10 +4886,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B257" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4858,10 +4897,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B258" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4869,10 +4908,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B259" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4880,10 +4919,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B260" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4891,10 +4930,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B261" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4902,10 +4941,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B262" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4913,10 +4952,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B263" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4924,10 +4963,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B264" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4935,10 +4974,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B265" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4946,10 +4985,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B266" t="s">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4957,10 +4996,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B267" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -4968,10 +5007,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B268" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -4979,10 +5018,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B269" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -4990,10 +5029,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B270" t="s">
-        <v>161</v>
+        <v>26</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5001,10 +5040,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B271" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5012,10 +5051,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B272" t="s">
-        <v>153</v>
+        <v>24</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5023,10 +5062,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B273" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5034,10 +5073,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B274" t="s">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5045,10 +5084,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B275" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5056,10 +5095,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B276" t="s">
-        <v>336</v>
+        <v>28</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5067,10 +5106,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B277" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5078,10 +5117,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B278" t="s">
-        <v>274</v>
+        <v>196</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5089,10 +5128,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B279" t="s">
-        <v>262</v>
+        <v>196</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5100,10 +5139,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B280" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5111,10 +5150,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B281" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5122,10 +5161,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B282" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5133,10 +5172,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B283" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5144,10 +5183,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B284" t="s">
-        <v>345</v>
+        <v>180</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5155,10 +5194,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B285" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5166,10 +5205,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B286" t="s">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5177,10 +5216,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B287" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5188,10 +5227,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B288" t="s">
-        <v>264</v>
+        <v>174</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5199,10 +5238,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B289" t="s">
-        <v>155</v>
+        <v>353</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5210,10 +5249,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B290" t="s">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5221,10 +5260,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B291" t="s">
-        <v>68</v>
+        <v>291</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5232,10 +5271,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B292" t="s">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5243,10 +5282,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B293" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5254,10 +5293,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B294" t="s">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5265,10 +5304,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B295" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5276,10 +5315,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B296" t="s">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5287,10 +5326,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B297" t="s">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5298,10 +5337,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B298" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5309,10 +5348,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B299" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5320,10 +5359,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B300" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5331,10 +5370,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B301" t="s">
-        <v>274</v>
+        <v>14</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5342,10 +5381,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B302" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5353,10 +5392,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B303" t="s">
-        <v>270</v>
+        <v>28</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5364,10 +5403,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B304" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5375,10 +5414,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B305" t="s">
-        <v>367</v>
+        <v>172</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5386,10 +5425,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B306" t="s">
-        <v>369</v>
+        <v>74</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5397,10 +5436,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B307" t="s">
-        <v>371</v>
+        <v>74</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5411,7 +5450,7 @@
         <v>372</v>
       </c>
       <c r="B308" t="s">
-        <v>373</v>
+        <v>176</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5419,10 +5458,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B309" t="s">
-        <v>375</v>
+        <v>22</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5430,10 +5469,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B310" t="s">
-        <v>375</v>
+        <v>180</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5441,10 +5480,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B311" t="s">
-        <v>371</v>
+        <v>196</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5452,10 +5491,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B312" t="s">
-        <v>379</v>
+        <v>180</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5463,10 +5502,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B313" t="s">
-        <v>381</v>
+        <v>180</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5474,10 +5513,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B314" t="s">
-        <v>381</v>
+        <v>291</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5485,10 +5524,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B315" t="s">
-        <v>381</v>
+        <v>204</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5496,10 +5535,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B316" t="s">
-        <v>381</v>
+        <v>287</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5507,10 +5546,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B317" t="s">
-        <v>386</v>
+        <v>208</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5518,10 +5557,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B318" t="s">
-        <v>388</v>
+        <v>10</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5529,10 +5568,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B319" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5540,10 +5579,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B320" t="s">
-        <v>381</v>
+        <v>7</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5551,10 +5590,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B321" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5562,10 +5601,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B322" t="s">
-        <v>386</v>
+        <v>4</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5573,10 +5612,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B323" t="s">
-        <v>396</v>
+        <v>4</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5584,10 +5623,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B324" t="s">
-        <v>398</v>
+        <v>7</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5595,10 +5634,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B325" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5606,10 +5645,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B326" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5617,10 +5656,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B327" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5628,10 +5667,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B328" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5639,10 +5678,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B329" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5650,10 +5689,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B330" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5661,10 +5700,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B331" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5672,10 +5711,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B332" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5683,10 +5722,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B333" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5694,10 +5733,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B334" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5705,10 +5744,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B335" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5716,10 +5755,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B336" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5727,10 +5766,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B337" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5738,10 +5777,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B338" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5749,10 +5788,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B339" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5760,10 +5799,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B340" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5771,10 +5810,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B341" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5782,10 +5821,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B342" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5793,10 +5832,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B343" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5804,10 +5843,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B344" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5815,10 +5854,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B345" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5826,10 +5865,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B346" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5837,10 +5876,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B347" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5848,10 +5887,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="B348" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5859,10 +5898,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B349" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5870,10 +5909,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B350" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -5881,10 +5920,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B351" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5892,10 +5931,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="B352" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5903,10 +5942,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B353" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -5914,10 +5953,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B354" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -5925,10 +5964,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B355" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5936,10 +5975,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B356" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5947,10 +5986,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B357" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5958,10 +5997,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B358" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -5969,10 +6008,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B359" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -5980,10 +6019,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B360" t="s">
-        <v>375</v>
+        <v>438</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -5991,10 +6030,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B361" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6002,10 +6041,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B362" t="s">
-        <v>369</v>
+        <v>453</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6013,10 +6052,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B363" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6024,10 +6063,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B364" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6035,10 +6074,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B365" t="s">
-        <v>270</v>
+        <v>414</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6046,10 +6085,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B366" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6057,10 +6096,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B367" t="s">
-        <v>185</v>
+        <v>461</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6068,10 +6107,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B368" t="s">
-        <v>466</v>
+        <v>414</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6079,10 +6118,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B369" t="s">
-        <v>189</v>
+        <v>443</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6090,10 +6129,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B370" t="s">
-        <v>266</v>
+        <v>465</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6101,10 +6140,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B371" t="s">
-        <v>187</v>
+        <v>447</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6112,10 +6151,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B372" t="s">
-        <v>193</v>
+        <v>403</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6123,10 +6162,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B373" t="s">
-        <v>336</v>
+        <v>4</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6134,10 +6173,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B374" t="s">
-        <v>187</v>
+        <v>470</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6145,10 +6184,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B375" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6156,10 +6195,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B376" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6167,10 +6206,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B377" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6178,10 +6217,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B378" t="s">
-        <v>369</v>
+        <v>287</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6189,10 +6228,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B379" t="s">
-        <v>191</v>
+        <v>473</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6200,10 +6239,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B380" t="s">
-        <v>477</v>
+        <v>204</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6211,10 +6250,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B381" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6222,10 +6261,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B382" t="s">
-        <v>379</v>
+        <v>208</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6233,10 +6272,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B383" t="s">
-        <v>371</v>
+        <v>283</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6244,10 +6283,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B384" t="s">
-        <v>274</v>
+        <v>206</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6255,10 +6294,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B385" t="s">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6266,10 +6305,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B386" t="s">
-        <v>259</v>
+        <v>353</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6277,10 +6316,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B387" t="s">
-        <v>259</v>
+        <v>206</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6288,10 +6327,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B388" t="s">
-        <v>157</v>
+        <v>384</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6299,10 +6338,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B389" t="s">
-        <v>193</v>
+        <v>488</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6310,10 +6349,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
+        <v>489</v>
+      </c>
+      <c r="B390" t="s">
         <v>490</v>
-      </c>
-      <c r="B390" t="s">
-        <v>181</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6324,7 +6363,7 @@
         <v>491</v>
       </c>
       <c r="B391" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6335,7 +6374,7 @@
         <v>492</v>
       </c>
       <c r="B392" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6346,7 +6385,7 @@
         <v>493</v>
       </c>
       <c r="B393" t="s">
-        <v>159</v>
+        <v>490</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6357,7 +6396,7 @@
         <v>494</v>
       </c>
       <c r="B394" t="s">
-        <v>52</v>
+        <v>470</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6368,7 +6407,7 @@
         <v>495</v>
       </c>
       <c r="B395" t="s">
-        <v>165</v>
+        <v>392</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6379,7 +6418,7 @@
         <v>496</v>
       </c>
       <c r="B396" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6390,7 +6429,7 @@
         <v>497</v>
       </c>
       <c r="B397" t="s">
-        <v>4</v>
+        <v>291</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6401,7 +6440,7 @@
         <v>498</v>
       </c>
       <c r="B398" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6412,7 +6451,7 @@
         <v>499</v>
       </c>
       <c r="B399" t="s">
-        <v>176</v>
+        <v>12</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6423,7 +6462,7 @@
         <v>500</v>
       </c>
       <c r="B400" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6434,7 +6473,7 @@
         <v>501</v>
       </c>
       <c r="B401" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6445,7 +6484,7 @@
         <v>502</v>
       </c>
       <c r="B402" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6456,7 +6495,7 @@
         <v>503</v>
       </c>
       <c r="B403" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6467,7 +6506,7 @@
         <v>504</v>
       </c>
       <c r="B404" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6478,7 +6517,7 @@
         <v>505</v>
       </c>
       <c r="B405" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6489,7 +6528,7 @@
         <v>506</v>
       </c>
       <c r="B406" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6500,7 +6539,7 @@
         <v>507</v>
       </c>
       <c r="B407" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6511,7 +6550,7 @@
         <v>508</v>
       </c>
       <c r="B408" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6522,7 +6561,7 @@
         <v>509</v>
       </c>
       <c r="B409" t="s">
-        <v>264</v>
+        <v>24</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6533,7 +6572,7 @@
         <v>510</v>
       </c>
       <c r="B410" t="s">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6544,7 +6583,7 @@
         <v>511</v>
       </c>
       <c r="B411" t="s">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6555,7 +6594,7 @@
         <v>512</v>
       </c>
       <c r="B412" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6566,7 +6605,7 @@
         <v>513</v>
       </c>
       <c r="B413" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6577,7 +6616,7 @@
         <v>514</v>
       </c>
       <c r="B414" t="s">
-        <v>262</v>
+        <v>22</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6588,7 +6627,7 @@
         <v>515</v>
       </c>
       <c r="B415" t="s">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -6599,7 +6638,7 @@
         <v>516</v>
       </c>
       <c r="B416" t="s">
-        <v>345</v>
+        <v>26</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -6610,7 +6649,7 @@
         <v>517</v>
       </c>
       <c r="B417" t="s">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -6621,7 +6660,7 @@
         <v>518</v>
       </c>
       <c r="B418" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -6632,7 +6671,7 @@
         <v>519</v>
       </c>
       <c r="B419" t="s">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -6643,7 +6682,7 @@
         <v>520</v>
       </c>
       <c r="B420" t="s">
-        <v>274</v>
+        <v>24</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -6654,7 +6693,7 @@
         <v>521</v>
       </c>
       <c r="B421" t="s">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -6665,7 +6704,7 @@
         <v>522</v>
       </c>
       <c r="B422" t="s">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -6676,7 +6715,7 @@
         <v>523</v>
       </c>
       <c r="B423" t="s">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -6687,7 +6726,7 @@
         <v>524</v>
       </c>
       <c r="B424" t="s">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -6698,7 +6737,7 @@
         <v>525</v>
       </c>
       <c r="B425" t="s">
-        <v>50</v>
+        <v>206</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -6709,7 +6748,7 @@
         <v>526</v>
       </c>
       <c r="B426" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -6720,7 +6759,7 @@
         <v>527</v>
       </c>
       <c r="B427" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -6731,7 +6770,7 @@
         <v>528</v>
       </c>
       <c r="B428" t="s">
-        <v>345</v>
+        <v>280</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -6742,7 +6781,7 @@
         <v>529</v>
       </c>
       <c r="B429" t="s">
-        <v>259</v>
+        <v>16</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -6753,7 +6792,7 @@
         <v>530</v>
       </c>
       <c r="B430" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -6764,7 +6803,7 @@
         <v>531</v>
       </c>
       <c r="B431" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -6775,7 +6814,7 @@
         <v>532</v>
       </c>
       <c r="B432" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -6786,7 +6825,7 @@
         <v>533</v>
       </c>
       <c r="B433" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -6797,7 +6836,7 @@
         <v>534</v>
       </c>
       <c r="B434" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -6808,7 +6847,7 @@
         <v>535</v>
       </c>
       <c r="B435" t="s">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -6819,7 +6858,7 @@
         <v>536</v>
       </c>
       <c r="B436" t="s">
-        <v>457</v>
+        <v>212</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -6830,7 +6869,7 @@
         <v>537</v>
       </c>
       <c r="B437" t="s">
-        <v>191</v>
+        <v>257</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -6841,7 +6880,7 @@
         <v>538</v>
       </c>
       <c r="B438" t="s">
-        <v>381</v>
+        <v>74</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -6852,7 +6891,7 @@
         <v>539</v>
       </c>
       <c r="B439" t="s">
-        <v>381</v>
+        <v>280</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -6863,7 +6902,7 @@
         <v>540</v>
       </c>
       <c r="B440" t="s">
-        <v>386</v>
+        <v>280</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -6874,7 +6913,7 @@
         <v>541</v>
       </c>
       <c r="B441" t="s">
-        <v>388</v>
+        <v>16</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -6885,7 +6924,7 @@
         <v>542</v>
       </c>
       <c r="B442" t="s">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -6896,7 +6935,7 @@
         <v>543</v>
       </c>
       <c r="B443" t="s">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -6907,7 +6946,7 @@
         <v>544</v>
       </c>
       <c r="B444" t="s">
-        <v>477</v>
+        <v>287</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -6918,7 +6957,7 @@
         <v>545</v>
       </c>
       <c r="B445" t="s">
-        <v>390</v>
+        <v>12</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -6929,7 +6968,7 @@
         <v>546</v>
       </c>
       <c r="B446" t="s">
-        <v>390</v>
+        <v>289</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -6940,7 +6979,7 @@
         <v>547</v>
       </c>
       <c r="B447" t="s">
-        <v>393</v>
+        <v>289</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -6951,7 +6990,7 @@
         <v>548</v>
       </c>
       <c r="B448" t="s">
-        <v>393</v>
+        <v>470</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -6962,7 +7001,7 @@
         <v>549</v>
       </c>
       <c r="B449" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -6973,7 +7012,7 @@
         <v>550</v>
       </c>
       <c r="B450" t="s">
-        <v>551</v>
+        <v>210</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -6981,10 +7020,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B451" t="s">
-        <v>457</v>
+        <v>394</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -6992,10 +7031,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B452" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7003,10 +7042,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B453" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7014,10 +7053,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B454" t="s">
-        <v>556</v>
+        <v>401</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7025,10 +7064,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B455" t="s">
-        <v>388</v>
+        <v>470</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7036,10 +7075,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B456" t="s">
-        <v>388</v>
+        <v>470</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7047,10 +7086,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B457" t="s">
-        <v>560</v>
+        <v>490</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7058,12 +7097,155 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
+        <v>558</v>
+      </c>
+      <c r="B458" t="s">
+        <v>403</v>
+      </c>
+      <c r="C458" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>559</v>
+      </c>
+      <c r="B459" t="s">
+        <v>403</v>
+      </c>
+      <c r="C459" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>560</v>
+      </c>
+      <c r="B460" t="s">
+        <v>406</v>
+      </c>
+      <c r="C460" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
         <v>561</v>
       </c>
-      <c r="B458" t="s">
-        <v>386</v>
-      </c>
-      <c r="C458" t="s">
+      <c r="B461" t="s">
+        <v>406</v>
+      </c>
+      <c r="C461" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>562</v>
+      </c>
+      <c r="B462" t="s">
+        <v>470</v>
+      </c>
+      <c r="C462" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>563</v>
+      </c>
+      <c r="B463" t="s">
+        <v>564</v>
+      </c>
+      <c r="C463" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>565</v>
+      </c>
+      <c r="B464" t="s">
+        <v>470</v>
+      </c>
+      <c r="C464" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>566</v>
+      </c>
+      <c r="B465" t="s">
+        <v>406</v>
+      </c>
+      <c r="C465" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>567</v>
+      </c>
+      <c r="B466" t="s">
+        <v>406</v>
+      </c>
+      <c r="C466" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>568</v>
+      </c>
+      <c r="B467" t="s">
+        <v>569</v>
+      </c>
+      <c r="C467" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>570</v>
+      </c>
+      <c r="B468" t="s">
+        <v>401</v>
+      </c>
+      <c r="C468" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>571</v>
+      </c>
+      <c r="B469" t="s">
+        <v>401</v>
+      </c>
+      <c r="C469" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>572</v>
+      </c>
+      <c r="B470" t="s">
+        <v>573</v>
+      </c>
+      <c r="C470" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>574</v>
+      </c>
+      <c r="B471" t="s">
+        <v>399</v>
+      </c>
+      <c r="C471" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid663918"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid29444"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid29444"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid164035"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="592">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,102 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>07/04/2025</t>
+  </si>
+  <si>
+    <t>0.901</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>04/04/2025</t>
+  </si>
+  <si>
+    <t>0.923</t>
+  </si>
+  <si>
+    <t>03/04/2025</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>02/04/2025</t>
+  </si>
+  <si>
+    <t>0.954</t>
+  </si>
+  <si>
+    <t>01/04/2025</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>28/03/2025</t>
+  </si>
+  <si>
+    <t>27/03/2025</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>26/03/2025</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>25/03/2025</t>
+  </si>
+  <si>
+    <t>0.971</t>
+  </si>
+  <si>
+    <t>24/03/2025</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>21/03/2025</t>
+  </si>
+  <si>
+    <t>0.959</t>
+  </si>
+  <si>
+    <t>20/03/2025</t>
+  </si>
+  <si>
+    <t>0.964</t>
+  </si>
+  <si>
+    <t>19/03/2025</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>18/03/2025</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>17/03/2025</t>
+  </si>
+  <si>
+    <t>0.963</t>
+  </si>
+  <si>
+    <t>14/03/2025</t>
+  </si>
+  <si>
     <t>13/03/2025</t>
   </si>
   <si>
-    <t>0.958</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>12/03/2025</t>
   </si>
   <si>
@@ -47,9 +134,6 @@
     <t>10/03/2025</t>
   </si>
   <si>
-    <t>0.963</t>
-  </si>
-  <si>
     <t>07/03/2025</t>
   </si>
   <si>
@@ -629,9 +713,6 @@
     <t>08/08/2024</t>
   </si>
   <si>
-    <t>0.968</t>
-  </si>
-  <si>
     <t>07/08/2024</t>
   </si>
   <si>
@@ -641,15 +722,9 @@
     <t>06/08/2024</t>
   </si>
   <si>
-    <t>0.965</t>
-  </si>
-  <si>
     <t>05/08/2024</t>
   </si>
   <si>
-    <t>0.959</t>
-  </si>
-  <si>
     <t>02/08/2024</t>
   </si>
   <si>
@@ -890,9 +965,6 @@
     <t>18/04/2024</t>
   </si>
   <si>
-    <t>0.971</t>
-  </si>
-  <si>
     <t>17/04/2024</t>
   </si>
   <si>
@@ -1169,9 +1241,6 @@
     <t>06/12/2023</t>
   </si>
   <si>
-    <t>0.964</t>
-  </si>
-  <si>
     <t>05/12/2023</t>
   </si>
   <si>
@@ -1193,9 +1262,6 @@
     <t>28/11/2023</t>
   </si>
   <si>
-    <t>0.952</t>
-  </si>
-  <si>
     <t>27/11/2023</t>
   </si>
   <si>
@@ -1235,9 +1301,6 @@
     <t>15/11/2023</t>
   </si>
   <si>
-    <t>0.954</t>
-  </si>
-  <si>
     <t>14/11/2023</t>
   </si>
   <si>
@@ -1274,9 +1337,6 @@
     <t>02/11/2023</t>
   </si>
   <si>
-    <t>0.923</t>
-  </si>
-  <si>
     <t>01/11/2023</t>
   </si>
   <si>
@@ -1358,9 +1418,6 @@
     <t>12/10/2023</t>
   </si>
   <si>
-    <t>0.942</t>
-  </si>
-  <si>
     <t>11/10/2023</t>
   </si>
   <si>
@@ -1436,9 +1493,6 @@
     <t>15/09/2023</t>
   </si>
   <si>
-    <t>0.969</t>
-  </si>
-  <si>
     <t>14/09/2023</t>
   </si>
   <si>
@@ -1479,9 +1533,6 @@
   </si>
   <si>
     <t>28/08/2023</t>
-  </si>
-  <si>
-    <t>0.962</t>
   </si>
   <si>
     <t>25/08/2023</t>
@@ -2106,7 +2157,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2114,10 +2165,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2125,10 +2176,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2136,10 +2187,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2227,7 +2278,7 @@
         <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2235,10 +2286,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2246,10 +2297,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2260,7 +2311,7 @@
         <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2268,10 +2319,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2279,10 +2330,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2290,10 +2341,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2301,10 +2352,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2312,10 +2363,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2323,10 +2374,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2334,7 +2385,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
         <v>46</v>
@@ -2345,10 +2396,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2356,10 +2407,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
         <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2367,10 +2418,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="s">
         <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2378,10 +2429,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
         <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>33</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2403,7 +2454,7 @@
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2411,10 +2462,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
         <v>59</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2436,7 +2487,7 @@
         <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2444,10 +2495,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2455,10 +2506,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2466,10 +2517,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2477,10 +2528,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2488,10 +2539,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2499,10 +2550,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2510,10 +2561,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2521,10 +2572,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2532,10 +2583,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2543,10 +2594,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2554,10 +2605,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2565,10 +2616,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2576,10 +2627,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2587,10 +2638,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2598,10 +2649,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2609,10 +2660,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2620,10 +2671,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2631,10 +2682,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2642,10 +2693,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2653,10 +2704,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2664,10 +2715,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2675,10 +2726,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2686,10 +2737,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2697,10 +2748,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2708,10 +2759,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2719,10 +2770,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2730,10 +2781,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2741,10 +2792,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2752,10 +2803,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2763,10 +2814,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2774,10 +2825,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2785,10 +2836,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2796,10 +2847,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2807,10 +2858,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2818,10 +2869,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B69" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2829,10 +2880,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B70" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2840,10 +2891,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2851,10 +2902,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2862,10 +2913,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2873,10 +2924,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2884,10 +2935,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2895,10 +2946,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2906,10 +2957,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2917,10 +2968,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B78" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2928,10 +2979,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2939,10 +2990,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -2950,10 +3001,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B81" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -2961,10 +3012,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>132</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -2972,10 +3023,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -2983,10 +3034,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -2994,10 +3045,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B85" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3005,10 +3056,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3016,10 +3067,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B87" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3027,10 +3078,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3038,10 +3089,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3049,10 +3100,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="B90" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3060,10 +3111,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3071,10 +3122,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="B92" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3082,10 +3133,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3093,10 +3144,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3104,10 +3155,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B95" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3115,10 +3166,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="B96" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3126,10 +3177,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B97" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3137,10 +3188,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3148,10 +3199,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3159,10 +3210,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B100" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3170,10 +3221,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3181,10 +3232,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B102" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3192,10 +3243,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3203,10 +3254,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B104" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3214,10 +3265,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B105" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3225,10 +3276,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B106" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3236,10 +3287,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B107" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3247,10 +3298,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B108" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3258,10 +3309,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="B109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3269,10 +3320,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B110" t="s">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3280,10 +3331,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B111" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3291,10 +3342,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="B112" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3302,10 +3353,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B113" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3313,10 +3364,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="B114" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3324,10 +3375,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B115" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3335,10 +3386,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="B116" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3346,10 +3397,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B117" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3357,10 +3408,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="B118" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3368,10 +3419,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B119" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3379,10 +3430,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B120" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3390,10 +3441,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B121" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3401,10 +3452,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B122" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3412,10 +3463,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
+        <v>179</v>
+      </c>
+      <c r="B123" t="s">
         <v>167</v>
-      </c>
-      <c r="B123" t="s">
-        <v>24</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3423,10 +3474,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B124" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3434,10 +3485,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B125" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3445,10 +3496,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B126" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3456,10 +3507,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B127" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3467,10 +3518,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B128" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3478,10 +3529,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B129" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3489,10 +3540,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B130" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3500,10 +3551,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B131" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3511,10 +3562,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3522,10 +3573,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B133" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3533,10 +3584,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B134" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3544,10 +3595,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B135" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3555,10 +3606,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B136" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3566,10 +3617,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B137" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3577,10 +3628,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B138" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3588,10 +3639,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B139" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3599,10 +3650,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B140" t="s">
-        <v>77</v>
+        <v>167</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3610,10 +3661,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B141" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3621,10 +3672,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3632,10 +3683,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B143" t="s">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3643,10 +3694,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B144" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3654,10 +3705,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B145" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3665,10 +3716,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B146" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3676,10 +3727,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B147" t="s">
-        <v>178</v>
+        <v>208</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3687,10 +3738,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B148" t="s">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3698,10 +3749,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B149" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3709,10 +3760,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="B150" t="s">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3720,10 +3771,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B151" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3731,10 +3782,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B152" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3742,10 +3793,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B153" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3753,10 +3804,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B154" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3764,10 +3815,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B155" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3775,10 +3826,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B156" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3786,10 +3837,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B157" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3797,10 +3848,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B158" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3808,10 +3859,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B159" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3819,10 +3870,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B160" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3830,10 +3881,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B161" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3841,10 +3892,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B162" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3852,10 +3903,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B163" t="s">
-        <v>87</v>
+        <v>206</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3863,10 +3914,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B164" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3874,10 +3925,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B165" t="s">
-        <v>185</v>
+        <v>46</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3885,10 +3936,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B166" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3896,10 +3947,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B167" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3907,10 +3958,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B168" t="s">
-        <v>58</v>
+        <v>233</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3918,10 +3969,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B169" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3929,10 +3980,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B170" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3940,10 +3991,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B171" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -3951,10 +4002,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B172" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -3962,10 +4013,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B173" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -3973,10 +4024,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B174" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -3984,10 +4035,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B175" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -3995,10 +4046,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B176" t="s">
-        <v>70</v>
+        <v>204</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4006,10 +4057,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B177" t="s">
-        <v>70</v>
+        <v>206</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4017,10 +4068,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B178" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4028,10 +4079,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B179" t="s">
-        <v>185</v>
+        <v>115</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4039,10 +4090,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B180" t="s">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4050,10 +4101,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B181" t="s">
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4061,10 +4112,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B182" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4072,10 +4123,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B183" t="s">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4083,10 +4134,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B184" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4094,10 +4145,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="B185" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4105,10 +4156,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B186" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4116,10 +4167,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B187" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4127,10 +4178,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B188" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4138,10 +4189,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B189" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4149,10 +4200,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B190" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4160,10 +4211,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B191" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4171,10 +4222,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B192" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4182,10 +4233,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B193" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4193,10 +4244,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B194" t="s">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4204,10 +4255,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B195" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4215,10 +4266,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B196" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4226,10 +4277,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B197" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4237,10 +4288,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B198" t="s">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4248,10 +4299,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B199" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4259,10 +4310,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B200" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4270,10 +4321,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B201" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4281,10 +4332,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B202" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4292,10 +4343,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B203" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4303,10 +4354,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B204" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4314,10 +4365,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B205" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4325,10 +4376,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B206" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4336,10 +4387,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B207" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4347,10 +4398,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B208" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4358,10 +4409,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B209" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4369,10 +4420,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B210" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4380,10 +4431,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B211" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4391,10 +4442,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B212" t="s">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4402,10 +4453,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B213" t="s">
-        <v>28</v>
+        <v>204</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4413,10 +4464,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B214" t="s">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4424,10 +4475,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B215" t="s">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4435,10 +4486,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B216" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4446,10 +4497,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B217" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4457,10 +4508,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="B218" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4468,10 +4519,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4479,10 +4530,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B220" t="s">
-        <v>257</v>
+        <v>50</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4490,10 +4541,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B221" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4501,10 +4552,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B222" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4512,10 +4563,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B223" t="s">
-        <v>283</v>
+        <v>100</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4523,10 +4574,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="B224" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4534,10 +4585,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4545,10 +4596,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="B226" t="s">
-        <v>287</v>
+        <v>48</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4556,10 +4607,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B227" t="s">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4567,10 +4618,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B228" t="s">
-        <v>291</v>
+        <v>100</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4578,10 +4629,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B229" t="s">
-        <v>202</v>
+        <v>56</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4589,10 +4640,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B230" t="s">
-        <v>257</v>
+        <v>102</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4600,10 +4651,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B231" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4611,10 +4662,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B232" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4622,10 +4673,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B233" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4633,10 +4684,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B234" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4644,10 +4695,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B235" t="s">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4655,10 +4706,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B236" t="s">
-        <v>137</v>
+        <v>282</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4666,10 +4717,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B237" t="s">
-        <v>123</v>
+        <v>305</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4677,10 +4728,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B238" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4688,10 +4739,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B239" t="s">
-        <v>137</v>
+        <v>308</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4699,10 +4750,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B240" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4710,10 +4761,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B241" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4721,10 +4772,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B242" t="s">
-        <v>123</v>
+        <v>312</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4732,10 +4783,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B243" t="s">
-        <v>61</v>
+        <v>314</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4743,10 +4794,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B244" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4754,10 +4805,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B245" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4765,10 +4816,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B246" t="s">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4776,10 +4827,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="B247" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4787,10 +4838,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B248" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4798,10 +4849,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B249" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4809,10 +4860,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B250" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4820,10 +4871,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B251" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4831,10 +4882,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B252" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4842,10 +4893,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B253" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4853,10 +4904,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B254" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4864,10 +4915,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B255" t="s">
-        <v>44</v>
+        <v>165</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4875,10 +4926,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B256" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4886,10 +4937,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B257" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4897,10 +4948,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B258" t="s">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4908,10 +4959,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B259" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4919,10 +4970,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B260" t="s">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4930,10 +4981,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B261" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4941,10 +4992,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B262" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -4952,10 +5003,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B263" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -4963,10 +5014,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B264" t="s">
-        <v>185</v>
+        <v>52</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -4974,10 +5025,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B265" t="s">
-        <v>185</v>
+        <v>98</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -4985,10 +5036,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B266" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -4996,10 +5047,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B267" t="s">
-        <v>176</v>
+        <v>84</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5007,10 +5058,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B268" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5018,10 +5069,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="B269" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5029,10 +5080,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B270" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5040,10 +5091,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B271" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5051,10 +5102,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B272" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5062,10 +5113,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B273" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5073,10 +5124,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B274" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5084,10 +5135,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B275" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5095,10 +5146,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B276" t="s">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5106,10 +5157,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B277" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5117,10 +5168,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B278" t="s">
-        <v>196</v>
+        <v>48</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5128,10 +5179,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B279" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5139,10 +5190,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B280" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5150,10 +5201,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B281" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5161,10 +5212,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B282" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5172,10 +5223,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B283" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5183,10 +5234,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B284" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5194,10 +5245,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B285" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5205,10 +5256,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B286" t="s">
-        <v>176</v>
+        <v>54</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5216,10 +5267,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B287" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5227,10 +5278,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B288" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5238,10 +5289,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B289" t="s">
-        <v>353</v>
+        <v>100</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5249,10 +5300,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B290" t="s">
-        <v>206</v>
+        <v>105</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5260,10 +5311,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B291" t="s">
-        <v>291</v>
+        <v>213</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5271,10 +5322,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B292" t="s">
-        <v>280</v>
+        <v>56</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5282,10 +5333,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B293" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5293,10 +5344,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B294" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5304,10 +5355,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B295" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5315,10 +5366,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B296" t="s">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5326,10 +5377,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B297" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5337,10 +5388,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B298" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5348,10 +5399,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B299" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5359,10 +5410,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B300" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5370,10 +5421,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B301" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5381,10 +5432,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B302" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5392,10 +5443,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B303" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5403,10 +5454,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B304" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5414,10 +5465,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B305" t="s">
-        <v>172</v>
+        <v>377</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5425,10 +5476,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B306" t="s">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5436,10 +5487,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B307" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5447,10 +5498,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B308" t="s">
-        <v>176</v>
+        <v>305</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5458,10 +5509,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B309" t="s">
-        <v>22</v>
+        <v>208</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5469,10 +5520,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B310" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5480,10 +5531,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B311" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5491,10 +5542,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="B312" t="s">
-        <v>180</v>
+        <v>305</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5502,10 +5553,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B313" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5513,10 +5564,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B314" t="s">
-        <v>291</v>
+        <v>230</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5524,10 +5575,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B315" t="s">
-        <v>204</v>
+        <v>40</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5535,10 +5586,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B316" t="s">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5546,10 +5597,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B317" t="s">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5557,10 +5608,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B318" t="s">
-        <v>10</v>
+        <v>204</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5568,10 +5619,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B319" t="s">
-        <v>384</v>
+        <v>56</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5579,10 +5630,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B320" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5590,10 +5641,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B321" t="s">
-        <v>387</v>
+        <v>200</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5601,10 +5652,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B322" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5612,10 +5663,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B323" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5623,10 +5674,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B324" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5634,10 +5685,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B325" t="s">
-        <v>392</v>
+        <v>50</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5645,10 +5696,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B326" t="s">
-        <v>394</v>
+        <v>208</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5656,10 +5707,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B327" t="s">
-        <v>394</v>
+        <v>224</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5667,10 +5718,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B328" t="s">
-        <v>394</v>
+        <v>208</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5678,10 +5729,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B329" t="s">
-        <v>394</v>
+        <v>208</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5689,10 +5740,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B330" t="s">
-        <v>399</v>
+        <v>20</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5700,10 +5751,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B331" t="s">
-        <v>401</v>
+        <v>18</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5711,10 +5762,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B332" t="s">
-        <v>403</v>
+        <v>312</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5722,10 +5773,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B333" t="s">
-        <v>394</v>
+        <v>16</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5733,10 +5784,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B334" t="s">
-        <v>406</v>
+        <v>32</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5747,7 +5798,7 @@
         <v>407</v>
       </c>
       <c r="B335" t="s">
-        <v>399</v>
+        <v>26</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5758,7 +5809,7 @@
         <v>408</v>
       </c>
       <c r="B336" t="s">
-        <v>409</v>
+        <v>36</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5766,10 +5817,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
+        <v>409</v>
+      </c>
+      <c r="B337" t="s">
         <v>410</v>
-      </c>
-      <c r="B337" t="s">
-        <v>411</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5777,10 +5828,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B338" t="s">
-        <v>411</v>
+        <v>28</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5788,10 +5839,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B339" t="s">
-        <v>414</v>
+        <v>28</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5799,10 +5850,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B340" t="s">
-        <v>416</v>
+        <v>36</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5810,10 +5861,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B341" t="s">
-        <v>409</v>
+        <v>13</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5821,10 +5872,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B342" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5832,10 +5883,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B343" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5843,10 +5894,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B344" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5854,10 +5905,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B345" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5865,10 +5916,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B346" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5876,10 +5927,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B347" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5887,10 +5938,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B348" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5898,10 +5949,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B349" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5909,10 +5960,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B350" t="s">
-        <v>434</v>
+        <v>11</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -5920,10 +5971,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B351" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5931,10 +5982,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B352" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5942,10 +5993,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B353" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -5953,10 +6004,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B354" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -5964,10 +6015,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B355" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -5975,10 +6026,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B356" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -5986,10 +6037,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B357" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -5997,10 +6048,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B358" t="s">
-        <v>447</v>
+        <v>7</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6008,10 +6059,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B359" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6019,10 +6070,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="B360" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6030,10 +6081,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="B361" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6041,10 +6092,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B362" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6052,10 +6103,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B363" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6063,10 +6114,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B364" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6074,10 +6125,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B365" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6085,10 +6136,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B366" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6096,10 +6147,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B367" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6107,10 +6158,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B368" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6118,10 +6169,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B369" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6129,10 +6180,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B370" t="s">
-        <v>465</v>
+        <v>437</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6140,10 +6191,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B371" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6151,10 +6202,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B372" t="s">
-        <v>403</v>
+        <v>465</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6162,10 +6213,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B373" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6173,10 +6224,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B374" t="s">
-        <v>470</v>
+        <v>9</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6184,10 +6235,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B375" t="s">
-        <v>384</v>
+        <v>463</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6195,10 +6246,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B376" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6206,10 +6257,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B377" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6217,10 +6268,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B378" t="s">
-        <v>287</v>
+        <v>472</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6228,10 +6279,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B379" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6239,10 +6290,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B380" t="s">
-        <v>204</v>
+        <v>476</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6250,10 +6301,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B381" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6261,10 +6312,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B382" t="s">
-        <v>208</v>
+        <v>9</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6272,10 +6323,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B383" t="s">
-        <v>283</v>
+        <v>480</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6283,10 +6334,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B384" t="s">
-        <v>206</v>
+        <v>435</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6294,10 +6345,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B385" t="s">
-        <v>212</v>
+        <v>463</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6305,10 +6356,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
+        <v>483</v>
+      </c>
+      <c r="B386" t="s">
         <v>484</v>
-      </c>
-      <c r="B386" t="s">
-        <v>353</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6319,7 +6370,7 @@
         <v>485</v>
       </c>
       <c r="B387" t="s">
-        <v>206</v>
+        <v>9</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6330,7 +6381,7 @@
         <v>486</v>
       </c>
       <c r="B388" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6341,7 +6392,7 @@
         <v>487</v>
       </c>
       <c r="B389" t="s">
-        <v>488</v>
+        <v>28</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6349,10 +6400,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
+        <v>488</v>
+      </c>
+      <c r="B390" t="s">
         <v>489</v>
-      </c>
-      <c r="B390" t="s">
-        <v>490</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6360,10 +6411,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B391" t="s">
-        <v>384</v>
+        <v>26</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6371,10 +6422,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B392" t="s">
-        <v>210</v>
+        <v>22</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6382,10 +6433,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B393" t="s">
-        <v>490</v>
+        <v>22</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6393,10 +6444,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B394" t="s">
-        <v>470</v>
+        <v>312</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6404,10 +6455,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B395" t="s">
-        <v>392</v>
+        <v>22</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6415,10 +6466,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B396" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6426,10 +6477,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
+        <v>496</v>
+      </c>
+      <c r="B397" t="s">
         <v>497</v>
-      </c>
-      <c r="B397" t="s">
-        <v>291</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6440,7 +6491,7 @@
         <v>498</v>
       </c>
       <c r="B398" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6451,7 +6502,7 @@
         <v>499</v>
       </c>
       <c r="B399" t="s">
-        <v>12</v>
+        <v>308</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6462,7 +6513,7 @@
         <v>500</v>
       </c>
       <c r="B400" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6473,7 +6524,7 @@
         <v>501</v>
       </c>
       <c r="B401" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6484,7 +6535,7 @@
         <v>502</v>
       </c>
       <c r="B402" t="s">
-        <v>212</v>
+        <v>377</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6495,7 +6546,7 @@
         <v>503</v>
       </c>
       <c r="B403" t="s">
-        <v>18</v>
+        <v>233</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6506,7 +6557,7 @@
         <v>504</v>
       </c>
       <c r="B404" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6517,7 +6568,7 @@
         <v>505</v>
       </c>
       <c r="B405" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6528,7 +6579,7 @@
         <v>506</v>
       </c>
       <c r="B406" t="s">
-        <v>180</v>
+        <v>507</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6536,10 +6587,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B407" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6547,10 +6598,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B408" t="s">
-        <v>185</v>
+        <v>24</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6558,10 +6609,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B409" t="s">
-        <v>24</v>
+        <v>507</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6569,10 +6620,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B410" t="s">
-        <v>26</v>
+        <v>489</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6580,10 +6631,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B411" t="s">
-        <v>172</v>
+        <v>13</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6591,10 +6642,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B412" t="s">
-        <v>196</v>
+        <v>36</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6602,10 +6653,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B413" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6613,10 +6664,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B414" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6624,10 +6675,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B415" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -6635,10 +6686,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B416" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -6646,10 +6697,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B417" t="s">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -6657,10 +6708,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B418" t="s">
-        <v>20</v>
+        <v>237</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -6668,10 +6719,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B419" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -6679,10 +6730,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B420" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -6690,10 +6741,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B421" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -6701,10 +6752,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B422" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -6712,10 +6763,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B423" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -6723,10 +6774,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B424" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -6734,10 +6785,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B425" t="s">
-        <v>206</v>
+        <v>52</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -6745,10 +6796,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B426" t="s">
-        <v>257</v>
+        <v>54</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -6756,10 +6807,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B427" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -6767,10 +6818,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B428" t="s">
-        <v>280</v>
+        <v>224</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -6778,10 +6829,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B429" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -6789,10 +6840,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B430" t="s">
-        <v>283</v>
+        <v>50</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -6800,10 +6851,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B431" t="s">
-        <v>287</v>
+        <v>100</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -6811,10 +6862,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B432" t="s">
-        <v>289</v>
+        <v>54</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -6822,10 +6873,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B433" t="s">
-        <v>291</v>
+        <v>105</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -6833,10 +6884,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B434" t="s">
-        <v>291</v>
+        <v>48</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -6844,10 +6895,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B435" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -6855,10 +6906,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B436" t="s">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -6866,10 +6917,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B437" t="s">
-        <v>257</v>
+        <v>50</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -6877,10 +6928,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B438" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -6888,10 +6939,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B439" t="s">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -6899,10 +6950,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B440" t="s">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -6910,10 +6961,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B441" t="s">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -6921,10 +6972,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B442" t="s">
-        <v>12</v>
+        <v>282</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -6932,10 +6983,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B443" t="s">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -6943,10 +6994,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B444" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -6954,10 +7005,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B445" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -6965,10 +7016,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B446" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -6976,10 +7027,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B447" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -6987,10 +7038,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B448" t="s">
-        <v>470</v>
+        <v>314</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -6998,10 +7049,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B449" t="s">
-        <v>470</v>
+        <v>20</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7009,10 +7060,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B450" t="s">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7020,10 +7071,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B451" t="s">
-        <v>394</v>
+        <v>40</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7031,10 +7082,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B452" t="s">
-        <v>394</v>
+        <v>237</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7042,10 +7093,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B453" t="s">
-        <v>399</v>
+        <v>282</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7053,10 +7104,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B454" t="s">
-        <v>401</v>
+        <v>102</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7064,10 +7115,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B455" t="s">
-        <v>470</v>
+        <v>305</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7075,10 +7126,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B456" t="s">
-        <v>470</v>
+        <v>305</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7086,10 +7137,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B457" t="s">
-        <v>490</v>
+        <v>44</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7097,10 +7148,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B458" t="s">
-        <v>403</v>
+        <v>40</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7108,10 +7159,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B459" t="s">
-        <v>403</v>
+        <v>40</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7119,10 +7170,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B460" t="s">
-        <v>406</v>
+        <v>312</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7130,10 +7181,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B461" t="s">
-        <v>406</v>
+        <v>40</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7141,10 +7192,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B462" t="s">
-        <v>470</v>
+        <v>314</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7152,10 +7203,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B463" t="s">
-        <v>564</v>
+        <v>314</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7166,7 +7217,7 @@
         <v>565</v>
       </c>
       <c r="B464" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7177,7 +7228,7 @@
         <v>566</v>
       </c>
       <c r="B465" t="s">
-        <v>406</v>
+        <v>489</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7188,7 +7239,7 @@
         <v>567</v>
       </c>
       <c r="B466" t="s">
-        <v>406</v>
+        <v>24</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7199,7 +7250,7 @@
         <v>568</v>
       </c>
       <c r="B467" t="s">
-        <v>569</v>
+        <v>416</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7207,10 +7258,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B468" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7218,10 +7269,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B469" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7229,10 +7280,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B470" t="s">
-        <v>573</v>
+        <v>423</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7240,12 +7291,188 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
+        <v>572</v>
+      </c>
+      <c r="B471" t="s">
+        <v>489</v>
+      </c>
+      <c r="C471" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>573</v>
+      </c>
+      <c r="B472" t="s">
+        <v>489</v>
+      </c>
+      <c r="C472" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
         <v>574</v>
       </c>
-      <c r="B471" t="s">
-        <v>399</v>
-      </c>
-      <c r="C471" t="s">
+      <c r="B473" t="s">
+        <v>507</v>
+      </c>
+      <c r="C473" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>575</v>
+      </c>
+      <c r="B474" t="s">
+        <v>425</v>
+      </c>
+      <c r="C474" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>576</v>
+      </c>
+      <c r="B475" t="s">
+        <v>425</v>
+      </c>
+      <c r="C475" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>577</v>
+      </c>
+      <c r="B476" t="s">
+        <v>11</v>
+      </c>
+      <c r="C476" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>578</v>
+      </c>
+      <c r="B477" t="s">
+        <v>11</v>
+      </c>
+      <c r="C477" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>579</v>
+      </c>
+      <c r="B478" t="s">
+        <v>489</v>
+      </c>
+      <c r="C478" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>580</v>
+      </c>
+      <c r="B479" t="s">
+        <v>581</v>
+      </c>
+      <c r="C479" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>582</v>
+      </c>
+      <c r="B480" t="s">
+        <v>489</v>
+      </c>
+      <c r="C480" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>583</v>
+      </c>
+      <c r="B481" t="s">
+        <v>11</v>
+      </c>
+      <c r="C481" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>584</v>
+      </c>
+      <c r="B482" t="s">
+        <v>11</v>
+      </c>
+      <c r="C482" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>585</v>
+      </c>
+      <c r="B483" t="s">
+        <v>586</v>
+      </c>
+      <c r="C483" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>587</v>
+      </c>
+      <c r="B484" t="s">
+        <v>423</v>
+      </c>
+      <c r="C484" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>588</v>
+      </c>
+      <c r="B485" t="s">
+        <v>423</v>
+      </c>
+      <c r="C485" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>589</v>
+      </c>
+      <c r="B486" t="s">
+        <v>590</v>
+      </c>
+      <c r="C486" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>591</v>
+      </c>
+      <c r="B487" t="s">
+        <v>421</v>
+      </c>
+      <c r="C487" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid164035"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid970056"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="613">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,99 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>30/04/2025</t>
+  </si>
+  <si>
+    <t>0.939</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>29/04/2025</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>28/04/2025</t>
+  </si>
+  <si>
+    <t>25/04/2025</t>
+  </si>
+  <si>
+    <t>0.941</t>
+  </si>
+  <si>
+    <t>24/04/2025</t>
+  </si>
+  <si>
+    <t>0.935</t>
+  </si>
+  <si>
+    <t>23/04/2025</t>
+  </si>
+  <si>
+    <t>0.936</t>
+  </si>
+  <si>
+    <t>22/04/2025</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>21/04/2025</t>
+  </si>
+  <si>
+    <t>0.920</t>
+  </si>
+  <si>
+    <t>17/04/2025</t>
+  </si>
+  <si>
+    <t>16/04/2025</t>
+  </si>
+  <si>
+    <t>0.927</t>
+  </si>
+  <si>
+    <t>15/04/2025</t>
+  </si>
+  <si>
+    <t>0.934</t>
+  </si>
+  <si>
+    <t>14/04/2025</t>
+  </si>
+  <si>
+    <t>0.931</t>
+  </si>
+  <si>
+    <t>11/04/2025</t>
+  </si>
+  <si>
+    <t>10/04/2025</t>
+  </si>
+  <si>
+    <t>0.924</t>
+  </si>
+  <si>
+    <t>09/04/2025</t>
+  </si>
+  <si>
+    <t>0.897</t>
+  </si>
+  <si>
+    <t>08/04/2025</t>
+  </si>
+  <si>
     <t>07/04/2025</t>
   </si>
   <si>
     <t>0.901</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>04/04/2025</t>
   </si>
   <si>
@@ -1292,9 +1376,6 @@
     <t>17/11/2023</t>
   </si>
   <si>
-    <t>0.946</t>
-  </si>
-  <si>
     <t>16/11/2023</t>
   </si>
   <si>
@@ -1307,9 +1388,6 @@
     <t>10/11/2023</t>
   </si>
   <si>
-    <t>0.934</t>
-  </si>
-  <si>
     <t>09/11/2023</t>
   </si>
   <si>
@@ -1322,15 +1400,9 @@
     <t>07/11/2023</t>
   </si>
   <si>
-    <t>0.935</t>
-  </si>
-  <si>
     <t>06/11/2023</t>
   </si>
   <si>
-    <t>0.936</t>
-  </si>
-  <si>
     <t>03/11/2023</t>
   </si>
   <si>
@@ -1373,9 +1445,6 @@
     <t>24/10/2023</t>
   </si>
   <si>
-    <t>0.917</t>
-  </si>
-  <si>
     <t>23/10/2023</t>
   </si>
   <si>
@@ -1391,9 +1460,6 @@
     <t>19/10/2023</t>
   </si>
   <si>
-    <t>0.924</t>
-  </si>
-  <si>
     <t>18/10/2023</t>
   </si>
   <si>
@@ -1467,9 +1533,6 @@
   </si>
   <si>
     <t>25/09/2023</t>
-  </si>
-  <si>
-    <t>0.939</t>
   </si>
   <si>
     <t>22/09/2023</t>
@@ -2157,7 +2220,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2165,10 +2228,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2176,10 +2239,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2187,10 +2250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2223,7 +2286,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2231,10 +2294,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2242,10 +2305,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2253,10 +2316,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2264,10 +2327,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2275,10 +2338,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2286,10 +2349,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2297,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2308,10 +2371,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2319,10 +2382,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2330,10 +2393,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>28</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2344,7 +2407,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2352,10 +2415,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2363,10 +2426,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2454,7 +2517,7 @@
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2462,10 +2525,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2473,10 +2536,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2487,7 +2550,7 @@
         <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2495,10 +2558,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" t="s">
         <v>64</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2506,10 +2569,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2517,10 +2580,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2528,10 +2591,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2539,10 +2602,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2550,10 +2613,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2561,7 +2624,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
         <v>74</v>
@@ -2572,10 +2635,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
         <v>76</v>
-      </c>
-      <c r="B42" t="s">
-        <v>77</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2583,10 +2646,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
         <v>78</v>
-      </c>
-      <c r="B43" t="s">
-        <v>79</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2594,10 +2657,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" t="s">
         <v>80</v>
-      </c>
-      <c r="B44" t="s">
-        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2605,10 +2668,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
         <v>82</v>
-      </c>
-      <c r="B45" t="s">
-        <v>61</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2630,7 +2693,7 @@
         <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2638,10 +2701,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" t="s">
         <v>87</v>
-      </c>
-      <c r="B48" t="s">
-        <v>59</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2663,7 +2726,7 @@
         <v>90</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2671,10 +2734,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2682,10 +2745,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2693,10 +2756,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2704,10 +2767,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2715,10 +2778,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2726,10 +2789,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2737,10 +2800,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2748,10 +2811,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2759,10 +2822,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2770,10 +2833,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2781,10 +2844,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2792,10 +2855,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2803,10 +2866,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2814,10 +2877,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2825,10 +2888,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2836,10 +2899,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2847,10 +2910,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2858,10 +2921,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2869,10 +2932,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2880,10 +2943,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2891,10 +2954,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B71" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2902,10 +2965,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2913,10 +2976,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B73" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2924,10 +2987,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2935,10 +2998,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -2946,10 +3009,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -2957,10 +3020,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -2968,10 +3031,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -2979,10 +3042,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -2990,10 +3053,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B80" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3001,10 +3064,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3012,10 +3075,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3023,10 +3086,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3034,10 +3097,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3045,10 +3108,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B85" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3056,10 +3119,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3067,10 +3130,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3078,10 +3141,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3089,10 +3152,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3100,10 +3163,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B90" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3111,10 +3174,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3122,10 +3185,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B92" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3133,10 +3196,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3144,10 +3207,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B94" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3155,10 +3218,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B95" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3166,10 +3229,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3177,10 +3240,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3188,10 +3251,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B98" t="s">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3199,10 +3262,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>162</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3210,10 +3273,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B100" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3221,10 +3284,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B101" t="s">
-        <v>65</v>
+        <v>165</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3232,10 +3295,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B102" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3243,10 +3306,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="B103" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3254,10 +3317,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B104" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3265,10 +3328,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B105" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3276,10 +3339,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3287,10 +3350,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3298,10 +3361,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B108" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3309,10 +3372,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B109" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3320,10 +3383,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B110" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3331,10 +3394,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3342,10 +3405,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="B112" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3353,10 +3416,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3364,10 +3427,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3375,10 +3438,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B115" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3386,10 +3449,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B116" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3397,10 +3460,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B117" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3408,10 +3471,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B118" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3419,10 +3482,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B119" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3430,10 +3493,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B120" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3441,10 +3504,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B121" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3452,10 +3515,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B122" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3463,10 +3526,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B123" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3474,10 +3537,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B124" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3485,10 +3548,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B125" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3496,10 +3559,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B126" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3507,10 +3570,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B127" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3518,10 +3581,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B128" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3529,10 +3592,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="B129" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3540,10 +3603,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B130" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3551,10 +3614,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="B131" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3562,10 +3625,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B132" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3573,10 +3636,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B133" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3584,10 +3647,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B134" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3595,10 +3658,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B135" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3606,10 +3669,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B136" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3617,10 +3680,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B137" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3628,10 +3691,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B138" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3639,10 +3702,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
+        <v>207</v>
+      </c>
+      <c r="B139" t="s">
         <v>195</v>
-      </c>
-      <c r="B139" t="s">
-        <v>52</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3650,10 +3713,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B140" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3661,10 +3724,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3672,10 +3735,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B142" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3683,10 +3746,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="B143" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3694,10 +3757,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="B144" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3705,10 +3768,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B145" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3716,10 +3779,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B146" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3727,10 +3790,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B147" t="s">
-        <v>208</v>
+        <v>112</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3738,10 +3801,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="B148" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3749,10 +3812,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B149" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3760,10 +3823,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B150" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3771,10 +3834,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="B151" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3782,10 +3845,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B152" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3793,10 +3856,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B153" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3804,10 +3867,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B154" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3815,10 +3878,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B155" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3826,10 +3889,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B156" t="s">
-        <v>105</v>
+        <v>195</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3837,10 +3900,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B157" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3848,10 +3911,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B158" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3859,10 +3922,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B159" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3870,10 +3933,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B160" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3881,10 +3944,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B161" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3892,10 +3955,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B162" t="s">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3903,10 +3966,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B163" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3914,10 +3977,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B164" t="s">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3925,10 +3988,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B165" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3936,10 +3999,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B166" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -3947,10 +4010,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="B167" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -3958,10 +4021,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B168" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -3969,10 +4032,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B169" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -3980,10 +4043,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B170" t="s">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -3991,10 +4054,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>76</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4002,10 +4065,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B172" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4013,10 +4076,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B173" t="s">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4024,10 +4087,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B174" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4035,10 +4098,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B175" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4046,10 +4109,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B176" t="s">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4057,10 +4120,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B177" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4068,10 +4131,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="B178" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4079,10 +4142,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B179" t="s">
-        <v>115</v>
+        <v>234</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4090,10 +4153,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B180" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4101,10 +4164,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B181" t="s">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4112,10 +4175,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B182" t="s">
-        <v>167</v>
+        <v>258</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4123,10 +4186,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B183" t="s">
-        <v>151</v>
+        <v>46</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4134,10 +4197,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B184" t="s">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4145,10 +4208,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B185" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4156,10 +4219,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B186" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4167,10 +4230,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B187" t="s">
-        <v>70</v>
+        <v>265</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4178,10 +4241,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B188" t="s">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4189,10 +4252,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B189" t="s">
-        <v>61</v>
+        <v>228</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4200,10 +4263,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B190" t="s">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4211,10 +4274,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="B191" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4222,10 +4285,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B192" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4233,10 +4296,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B193" t="s">
-        <v>98</v>
+        <v>234</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4244,10 +4307,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B194" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4255,10 +4318,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="B195" t="s">
-        <v>213</v>
+        <v>143</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4266,10 +4329,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B196" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4277,10 +4340,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B197" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4288,10 +4351,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B198" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4299,10 +4362,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B199" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4310,10 +4373,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B200" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4321,10 +4384,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B201" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4332,10 +4395,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B202" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4343,10 +4406,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B203" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4354,10 +4417,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B204" t="s">
-        <v>167</v>
+        <v>89</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4365,10 +4428,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B205" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4376,10 +4439,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B206" t="s">
-        <v>165</v>
+        <v>87</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4387,10 +4450,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B207" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4398,10 +4461,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B208" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4409,10 +4472,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B209" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4420,10 +4483,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B210" t="s">
-        <v>56</v>
+        <v>241</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4431,10 +4494,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B211" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4442,10 +4505,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B212" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4453,10 +4516,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="B213" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4464,10 +4527,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B214" t="s">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4475,10 +4538,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B215" t="s">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4486,10 +4549,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B216" t="s">
-        <v>206</v>
+        <v>82</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4497,10 +4560,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B217" t="s">
-        <v>204</v>
+        <v>80</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4508,10 +4571,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B218" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4519,10 +4582,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="B219" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4530,10 +4593,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B220" t="s">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4541,10 +4604,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B221" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4552,10 +4615,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B222" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4563,10 +4626,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="B223" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4574,10 +4637,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="B224" t="s">
-        <v>100</v>
+        <v>228</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4585,10 +4648,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="B225" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4596,10 +4659,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B226" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4607,10 +4670,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B227" t="s">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4618,10 +4681,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="B228" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4629,10 +4692,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B229" t="s">
-        <v>56</v>
+        <v>232</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4640,10 +4703,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B230" t="s">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4651,10 +4714,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="B231" t="s">
-        <v>102</v>
+        <v>310</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4662,10 +4725,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="B232" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4673,10 +4736,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B233" t="s">
-        <v>50</v>
+        <v>232</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4684,10 +4747,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B234" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4695,10 +4758,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B235" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4706,10 +4769,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B236" t="s">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4717,10 +4780,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B237" t="s">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4728,10 +4791,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B238" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4739,10 +4802,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B239" t="s">
-        <v>308</v>
+        <v>128</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4750,10 +4813,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B240" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4761,10 +4824,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B241" t="s">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4772,10 +4835,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B242" t="s">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4783,10 +4846,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B243" t="s">
-        <v>314</v>
+        <v>228</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4794,10 +4857,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B244" t="s">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4805,10 +4868,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B245" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4816,10 +4879,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B246" t="s">
-        <v>282</v>
+        <v>130</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4827,10 +4890,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B247" t="s">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4838,10 +4901,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B248" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4849,10 +4912,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B249" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4860,10 +4923,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B250" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4871,10 +4934,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="B251" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4882,10 +4945,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="B252" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4893,10 +4956,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B253" t="s">
-        <v>151</v>
+        <v>333</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4904,10 +4967,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="B254" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4915,10 +4978,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B255" t="s">
-        <v>165</v>
+        <v>336</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4926,10 +4989,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="B256" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -4937,10 +5000,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B257" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -4948,10 +5011,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="B258" t="s">
-        <v>151</v>
+        <v>340</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -4959,10 +5022,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="B259" t="s">
-        <v>89</v>
+        <v>342</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -4970,10 +5033,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="B260" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -4981,10 +5044,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="B261" t="s">
-        <v>151</v>
+        <v>258</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -4992,10 +5055,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B262" t="s">
-        <v>59</v>
+        <v>310</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5003,10 +5066,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B263" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5014,10 +5077,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="B264" t="s">
-        <v>52</v>
+        <v>241</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5025,10 +5088,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B265" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5036,10 +5099,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B266" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5047,10 +5110,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B267" t="s">
-        <v>84</v>
+        <v>195</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5058,10 +5121,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B268" t="s">
-        <v>89</v>
+        <v>193</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5069,10 +5132,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B269" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5080,10 +5143,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B270" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5091,10 +5154,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B271" t="s">
-        <v>72</v>
+        <v>193</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5102,10 +5165,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B272" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5113,10 +5176,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="B273" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5124,10 +5187,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B274" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5135,10 +5198,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B275" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5146,10 +5209,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B276" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5157,10 +5220,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B277" t="s">
-        <v>105</v>
+        <v>179</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5168,10 +5231,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B278" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5179,10 +5242,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="B279" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5190,10 +5253,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B280" t="s">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5201,10 +5264,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B281" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5212,10 +5275,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B282" t="s">
-        <v>100</v>
+        <v>193</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5223,10 +5286,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="B283" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5234,10 +5297,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B284" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5245,10 +5308,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="B285" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5256,10 +5319,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B286" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5267,10 +5330,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B287" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5278,10 +5341,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B288" t="s">
-        <v>52</v>
+        <v>176</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5289,10 +5352,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B289" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5300,10 +5363,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B290" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5311,10 +5374,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B291" t="s">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5322,10 +5385,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="B292" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5333,10 +5396,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B293" t="s">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5344,10 +5407,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B294" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5355,10 +5418,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B295" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5366,10 +5429,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B296" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5377,10 +5440,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B297" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5388,10 +5451,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B298" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5399,10 +5462,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B299" t="s">
-        <v>50</v>
+        <v>232</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5410,10 +5473,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B300" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5421,10 +5484,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B301" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5432,10 +5495,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B302" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5443,10 +5506,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B303" t="s">
-        <v>206</v>
+        <v>143</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5454,10 +5517,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B304" t="s">
-        <v>202</v>
+        <v>80</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5465,10 +5528,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="B305" t="s">
-        <v>377</v>
+        <v>128</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5476,10 +5539,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="B306" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5487,10 +5550,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B307" t="s">
-        <v>20</v>
+        <v>241</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5498,10 +5561,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B308" t="s">
-        <v>305</v>
+        <v>84</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5509,10 +5572,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B309" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5520,10 +5583,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B310" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5531,10 +5594,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B311" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5542,10 +5605,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B312" t="s">
-        <v>305</v>
+        <v>232</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5553,10 +5616,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B313" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5564,10 +5627,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="B314" t="s">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5575,10 +5638,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B315" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5586,10 +5649,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B316" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5597,10 +5660,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B317" t="s">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5608,10 +5671,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B318" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5619,10 +5682,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B319" t="s">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5630,10 +5693,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B320" t="s">
-        <v>56</v>
+        <v>230</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5641,10 +5704,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="B321" t="s">
-        <v>200</v>
+        <v>405</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5652,10 +5715,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B322" t="s">
-        <v>102</v>
+        <v>261</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5663,10 +5726,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B323" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5674,10 +5737,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B324" t="s">
-        <v>204</v>
+        <v>333</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5685,10 +5748,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B325" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5696,10 +5759,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B326" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5707,10 +5770,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B327" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5718,10 +5781,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B328" t="s">
-        <v>208</v>
+        <v>333</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5729,10 +5792,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B329" t="s">
-        <v>208</v>
+        <v>72</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5740,10 +5803,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B330" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5751,10 +5814,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B331" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5762,10 +5825,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B332" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5773,10 +5836,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B333" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5784,10 +5847,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B334" t="s">
-        <v>32</v>
+        <v>232</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5795,10 +5858,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B335" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5806,10 +5869,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B336" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5817,10 +5880,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B337" t="s">
-        <v>410</v>
+        <v>228</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5828,10 +5891,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B338" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5839,10 +5902,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="B339" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5850,10 +5913,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="B340" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5861,10 +5924,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B341" t="s">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5872,10 +5935,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="B342" t="s">
-        <v>416</v>
+        <v>236</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5883,10 +5946,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B343" t="s">
-        <v>416</v>
+        <v>252</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5894,10 +5957,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B344" t="s">
-        <v>416</v>
+        <v>236</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5905,10 +5968,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B345" t="s">
-        <v>416</v>
+        <v>236</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5916,10 +5979,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B346" t="s">
-        <v>421</v>
+        <v>48</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5927,10 +5990,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B347" t="s">
-        <v>423</v>
+        <v>46</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -5938,10 +6001,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B348" t="s">
-        <v>425</v>
+        <v>340</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -5949,10 +6012,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B349" t="s">
-        <v>416</v>
+        <v>44</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -5960,10 +6023,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B350" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -5971,10 +6034,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B351" t="s">
-        <v>421</v>
+        <v>54</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -5982,10 +6045,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B352" t="s">
-        <v>430</v>
+        <v>64</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -5993,10 +6056,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B353" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6004,10 +6067,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B354" t="s">
-        <v>432</v>
+        <v>56</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6015,10 +6078,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B355" t="s">
-        <v>435</v>
+        <v>56</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6026,10 +6089,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B356" t="s">
-        <v>437</v>
+        <v>64</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6037,10 +6100,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B357" t="s">
-        <v>430</v>
+        <v>41</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6048,10 +6111,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B358" t="s">
-        <v>7</v>
+        <v>444</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6059,10 +6122,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="B359" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6070,10 +6133,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B360" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6081,7 +6144,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B361" t="s">
         <v>444</v>
@@ -6092,10 +6155,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B362" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6103,10 +6166,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B363" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6114,10 +6177,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B364" t="s">
-        <v>450</v>
+        <v>7</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6125,10 +6188,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B365" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6136,10 +6199,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B366" t="s">
-        <v>454</v>
+        <v>39</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6150,7 +6213,7 @@
         <v>455</v>
       </c>
       <c r="B367" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6158,10 +6221,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B368" t="s">
-        <v>458</v>
+        <v>23</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6169,10 +6232,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B369" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6180,10 +6243,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B370" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6191,10 +6254,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B371" t="s">
-        <v>463</v>
+        <v>12</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6202,10 +6265,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B372" t="s">
-        <v>465</v>
+        <v>14</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6213,10 +6276,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B373" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6224,10 +6287,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B374" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6235,10 +6298,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B375" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6246,10 +6309,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B376" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6257,10 +6320,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B377" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6268,10 +6331,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B378" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6279,10 +6342,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B379" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6290,10 +6353,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B380" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6301,10 +6364,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B381" t="s">
-        <v>435</v>
+        <v>16</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6312,10 +6375,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B382" t="s">
-        <v>9</v>
+        <v>477</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6323,10 +6386,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
+        <v>478</v>
+      </c>
+      <c r="B383" t="s">
         <v>479</v>
-      </c>
-      <c r="B383" t="s">
-        <v>480</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6334,10 +6397,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B384" t="s">
-        <v>435</v>
+        <v>28</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6345,10 +6408,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
+        <v>481</v>
+      </c>
+      <c r="B385" t="s">
         <v>482</v>
-      </c>
-      <c r="B385" t="s">
-        <v>463</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6359,7 +6422,7 @@
         <v>483</v>
       </c>
       <c r="B386" t="s">
-        <v>484</v>
+        <v>14</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6367,10 +6430,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
+        <v>484</v>
+      </c>
+      <c r="B387" t="s">
         <v>485</v>
-      </c>
-      <c r="B387" t="s">
-        <v>9</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6381,7 +6444,7 @@
         <v>486</v>
       </c>
       <c r="B388" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6389,10 +6452,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B389" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6400,10 +6463,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B390" t="s">
-        <v>489</v>
+        <v>37</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6414,7 +6477,7 @@
         <v>490</v>
       </c>
       <c r="B391" t="s">
-        <v>26</v>
+        <v>485</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6425,7 +6488,7 @@
         <v>491</v>
       </c>
       <c r="B392" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6436,7 +6499,7 @@
         <v>492</v>
       </c>
       <c r="B393" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6447,7 +6510,7 @@
         <v>493</v>
       </c>
       <c r="B394" t="s">
-        <v>312</v>
+        <v>494</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6455,10 +6518,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B395" t="s">
-        <v>22</v>
+        <v>496</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6466,10 +6529,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B396" t="s">
-        <v>18</v>
+        <v>498</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6477,10 +6540,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B397" t="s">
-        <v>497</v>
+        <v>12</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6488,10 +6551,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B398" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6499,10 +6562,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B399" t="s">
-        <v>308</v>
+        <v>502</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6510,10 +6573,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B400" t="s">
-        <v>233</v>
+        <v>12</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6521,10 +6584,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B401" t="s">
-        <v>237</v>
+        <v>485</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6532,10 +6595,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B402" t="s">
-        <v>377</v>
+        <v>4</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6543,10 +6606,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B403" t="s">
-        <v>233</v>
+        <v>37</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6554,10 +6617,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B404" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6565,10 +6628,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B405" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6576,10 +6639,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B406" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6587,10 +6650,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B407" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6598,10 +6661,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B408" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6609,10 +6672,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B409" t="s">
-        <v>507</v>
+        <v>50</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6620,10 +6683,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B410" t="s">
-        <v>489</v>
+        <v>340</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6631,10 +6694,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B411" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6642,10 +6705,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B412" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6653,10 +6716,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B413" t="s">
-        <v>20</v>
+        <v>518</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6664,10 +6727,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B414" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6675,10 +6738,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B415" t="s">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -6686,10 +6749,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B416" t="s">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -6697,10 +6760,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B417" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -6708,10 +6771,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B418" t="s">
-        <v>237</v>
+        <v>405</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -6719,10 +6782,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B419" t="s">
-        <v>46</v>
+        <v>261</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -6730,10 +6793,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B420" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -6741,10 +6804,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B421" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -6752,10 +6815,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B422" t="s">
-        <v>208</v>
+        <v>528</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -6763,10 +6826,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B423" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -6774,10 +6837,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="B424" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -6785,10 +6848,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B425" t="s">
-        <v>52</v>
+        <v>528</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -6796,10 +6859,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B426" t="s">
-        <v>54</v>
+        <v>510</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -6807,10 +6870,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B427" t="s">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -6818,10 +6881,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B428" t="s">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -6829,10 +6892,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B429" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -6840,10 +6903,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="B430" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -6851,10 +6914,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B431" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -6862,10 +6925,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="B432" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -6873,10 +6936,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B433" t="s">
-        <v>105</v>
+        <v>234</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -6884,10 +6947,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B434" t="s">
-        <v>48</v>
+        <v>265</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -6895,10 +6958,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B435" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -6906,10 +6969,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="B436" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -6917,10 +6980,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B437" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -6928,10 +6991,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="B438" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -6939,10 +7002,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B439" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -6950,10 +7013,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B440" t="s">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -6961,10 +7024,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="B441" t="s">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -6972,10 +7035,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B442" t="s">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -6983,10 +7046,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B443" t="s">
-        <v>305</v>
+        <v>228</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -6994,10 +7057,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="B444" t="s">
-        <v>305</v>
+        <v>252</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7005,10 +7068,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B445" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7016,10 +7079,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B446" t="s">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7027,10 +7090,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B447" t="s">
-        <v>312</v>
+        <v>128</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7038,10 +7101,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="B448" t="s">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7049,10 +7112,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B449" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7060,10 +7123,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="B450" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7071,10 +7134,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B451" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7082,10 +7145,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B452" t="s">
-        <v>237</v>
+        <v>80</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7093,10 +7156,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B453" t="s">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7104,10 +7167,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="B454" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7115,10 +7178,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B455" t="s">
-        <v>305</v>
+        <v>68</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7126,10 +7189,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="B456" t="s">
-        <v>305</v>
+        <v>68</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7137,10 +7200,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B457" t="s">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7148,10 +7211,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B458" t="s">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7159,10 +7222,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>40</v>
+        <v>333</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7170,10 +7233,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B460" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7181,10 +7244,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B461" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7192,10 +7255,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="B462" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7203,10 +7266,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="B463" t="s">
-        <v>314</v>
+        <v>340</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7214,10 +7277,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B464" t="s">
-        <v>489</v>
+        <v>342</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7225,10 +7288,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B465" t="s">
-        <v>489</v>
+        <v>48</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7236,10 +7299,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B466" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7247,10 +7310,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B467" t="s">
-        <v>416</v>
+        <v>68</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7258,10 +7321,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="B468" t="s">
-        <v>416</v>
+        <v>265</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7269,10 +7332,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B469" t="s">
-        <v>421</v>
+        <v>310</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7280,10 +7343,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="B470" t="s">
-        <v>423</v>
+        <v>130</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7291,10 +7354,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B471" t="s">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7302,10 +7365,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B472" t="s">
-        <v>489</v>
+        <v>333</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7313,10 +7376,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B473" t="s">
-        <v>507</v>
+        <v>72</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7324,10 +7387,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B474" t="s">
-        <v>425</v>
+        <v>68</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7335,10 +7398,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B475" t="s">
-        <v>425</v>
+        <v>68</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7346,10 +7409,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B476" t="s">
-        <v>11</v>
+        <v>340</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7357,10 +7420,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B477" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7368,10 +7431,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B478" t="s">
-        <v>489</v>
+        <v>342</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7379,10 +7442,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B479" t="s">
-        <v>581</v>
+        <v>342</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7390,10 +7453,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B480" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7401,10 +7464,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B481" t="s">
-        <v>11</v>
+        <v>510</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7412,10 +7475,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B482" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7423,10 +7486,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B483" t="s">
-        <v>586</v>
+        <v>444</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7434,10 +7497,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B484" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -7445,10 +7508,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B485" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7456,10 +7519,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B486" t="s">
-        <v>590</v>
+        <v>451</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7467,12 +7530,188 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B487" t="s">
-        <v>421</v>
+        <v>510</v>
       </c>
       <c r="C487" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>594</v>
+      </c>
+      <c r="B488" t="s">
+        <v>510</v>
+      </c>
+      <c r="C488" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>595</v>
+      </c>
+      <c r="B489" t="s">
+        <v>528</v>
+      </c>
+      <c r="C489" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>596</v>
+      </c>
+      <c r="B490" t="s">
+        <v>7</v>
+      </c>
+      <c r="C490" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>597</v>
+      </c>
+      <c r="B491" t="s">
+        <v>7</v>
+      </c>
+      <c r="C491" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>598</v>
+      </c>
+      <c r="B492" t="s">
+        <v>39</v>
+      </c>
+      <c r="C492" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>599</v>
+      </c>
+      <c r="B493" t="s">
+        <v>39</v>
+      </c>
+      <c r="C493" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>600</v>
+      </c>
+      <c r="B494" t="s">
+        <v>510</v>
+      </c>
+      <c r="C494" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>601</v>
+      </c>
+      <c r="B495" t="s">
+        <v>602</v>
+      </c>
+      <c r="C495" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>603</v>
+      </c>
+      <c r="B496" t="s">
+        <v>510</v>
+      </c>
+      <c r="C496" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>604</v>
+      </c>
+      <c r="B497" t="s">
+        <v>39</v>
+      </c>
+      <c r="C497" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>605</v>
+      </c>
+      <c r="B498" t="s">
+        <v>39</v>
+      </c>
+      <c r="C498" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>606</v>
+      </c>
+      <c r="B499" t="s">
+        <v>607</v>
+      </c>
+      <c r="C499" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>608</v>
+      </c>
+      <c r="B500" t="s">
+        <v>451</v>
+      </c>
+      <c r="C500" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>609</v>
+      </c>
+      <c r="B501" t="s">
+        <v>451</v>
+      </c>
+      <c r="C501" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>610</v>
+      </c>
+      <c r="B502" t="s">
+        <v>611</v>
+      </c>
+      <c r="C502" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>612</v>
+      </c>
+      <c r="B503" t="s">
+        <v>449</v>
+      </c>
+      <c r="C503" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid970056"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid704215"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="636">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,123 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>04/06/2025</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>03/06/2025</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>02/06/2025</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>30/05/2025</t>
+  </si>
+  <si>
+    <t>29/05/2025</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>28/05/2025</t>
+  </si>
+  <si>
+    <t>27/05/2025</t>
+  </si>
+  <si>
+    <t>26/05/2025</t>
+  </si>
+  <si>
+    <t>0.961</t>
+  </si>
+  <si>
+    <t>23/05/2025</t>
+  </si>
+  <si>
+    <t>22/05/2025</t>
+  </si>
+  <si>
+    <t>0.966</t>
+  </si>
+  <si>
+    <t>21/05/2025</t>
+  </si>
+  <si>
+    <t>20/05/2025</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>19/05/2025</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>16/05/2025</t>
+  </si>
+  <si>
+    <t>15/05/2025</t>
+  </si>
+  <si>
+    <t>14/05/2025</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>13/05/2025</t>
+  </si>
+  <si>
+    <t>09/05/2025</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>08/05/2025</t>
+  </si>
+  <si>
+    <t>07/05/2025</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>06/05/2025</t>
+  </si>
+  <si>
+    <t>0.952</t>
+  </si>
+  <si>
+    <t>05/05/2025</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>02/05/2025</t>
+  </si>
+  <si>
     <t>30/04/2025</t>
   </si>
   <si>
     <t>0.939</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>29/04/2025</t>
   </si>
   <si>
@@ -140,9 +248,6 @@
     <t>01/04/2025</t>
   </si>
   <si>
-    <t>0.952</t>
-  </si>
-  <si>
     <t>28/03/2025</t>
   </si>
   <si>
@@ -167,9 +272,6 @@
     <t>24/03/2025</t>
   </si>
   <si>
-    <t>0.969</t>
-  </si>
-  <si>
     <t>21/03/2025</t>
   </si>
   <si>
@@ -185,9 +287,6 @@
     <t>19/03/2025</t>
   </si>
   <si>
-    <t>0.958</t>
-  </si>
-  <si>
     <t>18/03/2025</t>
   </si>
   <si>
@@ -221,9 +320,6 @@
     <t>07/03/2025</t>
   </si>
   <si>
-    <t>0.974</t>
-  </si>
-  <si>
     <t>06/03/2025</t>
   </si>
   <si>
@@ -239,9 +335,6 @@
     <t>04/03/2025</t>
   </si>
   <si>
-    <t>0.979</t>
-  </si>
-  <si>
     <t>03/03/2025</t>
   </si>
   <si>
@@ -791,18 +884,12 @@
     <t>12/08/2024</t>
   </si>
   <si>
-    <t>0.975</t>
-  </si>
-  <si>
     <t>08/08/2024</t>
   </si>
   <si>
     <t>07/08/2024</t>
   </si>
   <si>
-    <t>0.973</t>
-  </si>
-  <si>
     <t>06/08/2024</t>
   </si>
   <si>
@@ -812,9 +899,6 @@
     <t>02/08/2024</t>
   </si>
   <si>
-    <t>0.977</t>
-  </si>
-  <si>
     <t>01/08/2024</t>
   </si>
   <si>
@@ -1025,9 +1109,6 @@
     <t>25/04/2024</t>
   </si>
   <si>
-    <t>0.972</t>
-  </si>
-  <si>
     <t>24/04/2024</t>
   </si>
   <si>
@@ -1331,9 +1412,6 @@
     <t>04/12/2023</t>
   </si>
   <si>
-    <t>0.961</t>
-  </si>
-  <si>
     <t>01/12/2023</t>
   </si>
   <si>
@@ -1547,9 +1625,6 @@
     <t>19/09/2023</t>
   </si>
   <si>
-    <t>0.956</t>
-  </si>
-  <si>
     <t>18/09/2023</t>
   </si>
   <si>
@@ -1571,9 +1646,6 @@
     <t>08/09/2023</t>
   </si>
   <si>
-    <t>0.966</t>
-  </si>
-  <si>
     <t>07/09/2023</t>
   </si>
   <si>
@@ -1821,9 +1893,6 @@
   </si>
   <si>
     <t>11/05/2023</t>
-  </si>
-  <si>
-    <t>0.955</t>
   </si>
   <si>
     <t>10/05/2023</t>
@@ -2220,7 +2289,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2228,10 +2297,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2253,7 +2322,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2261,10 +2330,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2272,10 +2341,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2283,10 +2352,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2294,10 +2363,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2305,10 +2374,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2316,10 +2385,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2327,10 +2396,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2338,10 +2407,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2349,10 +2418,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2360,10 +2429,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2371,10 +2440,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2382,10 +2451,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2393,10 +2462,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2404,10 +2473,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2415,10 +2484,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2426,10 +2495,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2437,10 +2506,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2448,10 +2517,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2459,10 +2528,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2470,10 +2539,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2481,10 +2550,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2492,10 +2561,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2503,10 +2572,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2514,10 +2583,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2525,10 +2594,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2536,10 +2605,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2547,10 +2616,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2558,10 +2627,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2569,10 +2638,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2580,10 +2649,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2591,10 +2660,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2602,10 +2671,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2613,10 +2682,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2624,10 +2693,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2635,10 +2704,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2646,10 +2715,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2657,10 +2726,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2668,10 +2737,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2679,10 +2748,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2690,10 +2759,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2701,10 +2770,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2712,10 +2781,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2723,10 +2792,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>91</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2734,10 +2803,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2745,10 +2814,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2756,10 +2825,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2767,10 +2836,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2778,10 +2847,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2789,10 +2858,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2800,10 +2869,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2811,10 +2880,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2822,10 +2891,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2833,10 +2902,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2844,10 +2913,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2855,10 +2924,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2866,10 +2935,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2877,10 +2946,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2888,10 +2957,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2899,10 +2968,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2910,10 +2979,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2921,10 +2990,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -2932,10 +3001,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B69" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -2943,10 +3012,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -2954,10 +3023,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -2965,10 +3034,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B72" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -2976,10 +3045,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -2987,10 +3056,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -2998,10 +3067,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3009,10 +3078,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3020,10 +3089,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3031,10 +3100,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B78" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3042,10 +3111,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3053,10 +3122,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3064,10 +3133,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B81" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3075,10 +3144,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" t="s">
         <v>138</v>
-      </c>
-      <c r="B82" t="s">
-        <v>133</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3089,7 +3158,7 @@
         <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3097,10 +3166,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B84" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3108,10 +3177,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3119,10 +3188,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B86" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3130,10 +3199,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B87" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3141,10 +3210,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B88" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3152,10 +3221,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3163,10 +3232,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B90" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3174,10 +3243,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3185,10 +3254,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3196,10 +3265,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B93" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3207,10 +3276,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B94" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3218,10 +3287,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B95" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3243,7 +3312,7 @@
         <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3251,10 +3320,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B98" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3262,10 +3331,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B99" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3276,7 +3345,7 @@
         <v>163</v>
       </c>
       <c r="B100" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3284,10 +3353,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" t="s">
         <v>164</v>
-      </c>
-      <c r="B101" t="s">
-        <v>165</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3298,7 +3367,7 @@
         <v>166</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3309,7 +3378,7 @@
         <v>167</v>
       </c>
       <c r="B103" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3320,7 +3389,7 @@
         <v>168</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3331,7 +3400,7 @@
         <v>169</v>
       </c>
       <c r="B105" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3342,7 +3411,7 @@
         <v>170</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3353,7 +3422,7 @@
         <v>171</v>
       </c>
       <c r="B107" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3364,7 +3433,7 @@
         <v>172</v>
       </c>
       <c r="B108" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3375,7 +3444,7 @@
         <v>173</v>
       </c>
       <c r="B109" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3383,10 +3452,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>175</v>
+      </c>
+      <c r="B110" t="s">
         <v>174</v>
-      </c>
-      <c r="B110" t="s">
-        <v>87</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3394,10 +3463,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B111" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3408,7 +3477,7 @@
         <v>177</v>
       </c>
       <c r="B112" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3419,7 +3488,7 @@
         <v>178</v>
       </c>
       <c r="B113" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3427,10 +3496,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B114" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3438,10 +3507,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
+        <v>180</v>
+      </c>
+      <c r="B115" t="s">
         <v>181</v>
-      </c>
-      <c r="B115" t="s">
-        <v>114</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3452,7 +3521,7 @@
         <v>182</v>
       </c>
       <c r="B116" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3460,10 +3529,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>184</v>
+      </c>
+      <c r="B117" t="s">
         <v>183</v>
-      </c>
-      <c r="B117" t="s">
-        <v>93</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3471,10 +3540,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B118" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3482,10 +3551,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B119" t="s">
-        <v>107</v>
+        <v>188</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3493,10 +3562,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B120" t="s">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3504,10 +3573,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3515,10 +3584,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B122" t="s">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3526,10 +3595,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B123" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3537,10 +3606,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B124" t="s">
-        <v>112</v>
+        <v>196</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3548,10 +3617,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B125" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3559,10 +3628,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B126" t="s">
-        <v>193</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3570,10 +3639,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B127" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3581,10 +3650,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3592,10 +3661,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3603,10 +3672,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B130" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3614,10 +3683,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B131" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3625,10 +3694,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B132" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3636,10 +3705,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B133" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3647,10 +3716,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B134" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3658,10 +3727,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B135" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3669,10 +3738,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B136" t="s">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3680,10 +3749,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B137" t="s">
-        <v>176</v>
+        <v>120</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3691,10 +3760,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B138" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3702,10 +3771,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B139" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3713,10 +3782,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B140" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3724,10 +3793,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3735,10 +3804,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3746,10 +3815,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B143" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3757,7 +3826,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B144" t="s">
         <v>143</v>
@@ -3768,10 +3837,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3779,10 +3848,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B146" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3790,10 +3859,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B147" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3801,10 +3870,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B148" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3812,10 +3881,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B149" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3823,10 +3892,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B150" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3834,10 +3903,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B151" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3845,10 +3914,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B152" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3856,10 +3925,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B153" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3867,10 +3936,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B154" t="s">
-        <v>193</v>
+        <v>157</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3878,10 +3947,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B155" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3889,10 +3958,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B156" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3900,10 +3969,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B157" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3911,10 +3980,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B158" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3922,10 +3991,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B159" t="s">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3933,10 +4002,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="B160" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -3944,10 +4013,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B161" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -3955,10 +4024,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B162" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -3966,10 +4035,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B163" t="s">
-        <v>236</v>
+        <v>157</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -3977,10 +4046,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B164" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -3988,10 +4057,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B165" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -3999,10 +4068,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B166" t="s">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4010,10 +4079,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B167" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4021,10 +4090,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B168" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4032,10 +4101,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B169" t="s">
-        <v>241</v>
+        <v>157</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4043,10 +4112,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B170" t="s">
-        <v>241</v>
+        <v>143</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4054,10 +4123,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B171" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4065,10 +4134,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B172" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4076,10 +4145,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B173" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4087,10 +4156,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B174" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4098,10 +4167,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B175" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4109,10 +4178,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B176" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4120,10 +4189,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B177" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4131,10 +4200,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B178" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4142,10 +4211,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B179" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4153,10 +4222,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B180" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4164,10 +4233,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B181" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4175,10 +4244,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B182" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4186,10 +4255,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B183" t="s">
-        <v>46</v>
+        <v>261</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4197,10 +4266,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B184" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4208,10 +4277,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B185" t="s">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4219,10 +4288,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B186" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4230,10 +4299,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B187" t="s">
-        <v>265</v>
+        <v>109</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4241,10 +4310,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B188" t="s">
-        <v>241</v>
+        <v>109</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4252,10 +4321,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B189" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4263,10 +4332,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B190" t="s">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4274,10 +4343,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B191" t="s">
-        <v>130</v>
+        <v>272</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4285,10 +4354,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B192" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4296,10 +4365,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B193" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4307,10 +4376,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B194" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4318,10 +4387,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B195" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4329,10 +4398,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B196" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4340,10 +4409,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B197" t="s">
-        <v>241</v>
+        <v>113</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4351,10 +4420,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B198" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4362,10 +4431,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B199" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4373,10 +4442,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B200" t="s">
-        <v>114</v>
+        <v>283</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4384,10 +4453,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B201" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4395,10 +4464,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B202" t="s">
-        <v>91</v>
+        <v>265</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4406,10 +4475,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B203" t="s">
-        <v>98</v>
+        <v>265</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4417,10 +4486,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B204" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4428,10 +4497,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B205" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4439,10 +4508,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B206" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4450,10 +4519,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B207" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4461,10 +4530,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B208" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4472,10 +4541,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B209" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4483,10 +4552,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B210" t="s">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4494,10 +4563,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B211" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4505,10 +4574,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B212" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4516,10 +4585,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B213" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4527,10 +4596,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B214" t="s">
-        <v>76</v>
+        <v>161</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4538,10 +4607,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B215" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4549,10 +4618,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B216" t="s">
-        <v>82</v>
+        <v>265</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4560,10 +4629,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B217" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4571,10 +4640,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B218" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4582,10 +4651,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B219" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4593,10 +4662,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B220" t="s">
-        <v>195</v>
+        <v>272</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4604,10 +4673,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B221" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4615,10 +4684,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B222" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4626,10 +4695,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B223" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4637,10 +4706,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B224" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4648,10 +4717,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B225" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4659,10 +4728,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B226" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4670,10 +4739,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B227" t="s">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4681,10 +4750,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B228" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4692,10 +4761,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B229" t="s">
-        <v>232</v>
+        <v>118</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4703,10 +4772,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B230" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4714,10 +4783,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B231" t="s">
-        <v>310</v>
+        <v>157</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4725,10 +4794,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B232" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4736,10 +4805,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4747,10 +4816,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B234" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4758,10 +4827,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B235" t="s">
-        <v>78</v>
+        <v>164</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4769,10 +4838,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B236" t="s">
-        <v>78</v>
+        <v>272</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4780,10 +4849,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B237" t="s">
-        <v>228</v>
+        <v>107</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4791,10 +4860,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B238" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4802,10 +4871,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B239" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4813,10 +4882,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B240" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4824,10 +4893,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B241" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4835,10 +4904,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B242" t="s">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4846,10 +4915,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B243" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4857,10 +4926,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B244" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4868,10 +4937,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B245" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4879,10 +4948,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B246" t="s">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4890,10 +4959,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B247" t="s">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4901,10 +4970,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B248" t="s">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4912,10 +4981,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B249" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4923,10 +4992,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B250" t="s">
-        <v>234</v>
+        <v>111</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -4934,10 +5003,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B251" t="s">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -4945,10 +5014,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B252" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -4956,10 +5025,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B253" t="s">
-        <v>333</v>
+        <v>263</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -4967,10 +5036,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B254" t="s">
-        <v>70</v>
+        <v>338</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -4978,10 +5047,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B255" t="s">
-        <v>336</v>
+        <v>265</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -4989,10 +5058,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B256" t="s">
-        <v>74</v>
+        <v>263</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5000,10 +5069,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B257" t="s">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5011,10 +5080,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B258" t="s">
-        <v>340</v>
+        <v>109</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5022,10 +5091,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B259" t="s">
-        <v>342</v>
+        <v>109</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5033,10 +5102,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B260" t="s">
-        <v>48</v>
+        <v>259</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5044,10 +5113,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B261" t="s">
-        <v>258</v>
+        <v>115</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5055,10 +5124,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B262" t="s">
-        <v>310</v>
+        <v>159</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5066,10 +5135,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B263" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5077,10 +5146,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B264" t="s">
-        <v>241</v>
+        <v>174</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5088,10 +5157,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B265" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5099,10 +5168,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B266" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5110,10 +5179,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B267" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5121,10 +5190,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B268" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5132,10 +5201,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B269" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5143,10 +5212,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B270" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5154,10 +5223,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B271" t="s">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5165,10 +5234,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B272" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5176,10 +5245,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B273" t="s">
-        <v>89</v>
+        <v>265</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5187,10 +5256,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B274" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5198,10 +5267,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B275" t="s">
-        <v>117</v>
+        <v>338</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5209,10 +5278,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B276" t="s">
-        <v>179</v>
+        <v>361</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5220,10 +5289,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B277" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5231,10 +5300,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B278" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5242,10 +5311,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B279" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5253,10 +5322,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B280" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5264,10 +5333,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B281" t="s">
-        <v>126</v>
+        <v>367</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5275,10 +5344,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B282" t="s">
-        <v>193</v>
+        <v>369</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5286,10 +5355,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B283" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5297,10 +5366,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B284" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5308,10 +5377,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B285" t="s">
-        <v>117</v>
+        <v>338</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5319,10 +5388,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B286" t="s">
-        <v>195</v>
+        <v>111</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5330,10 +5399,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B287" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5341,10 +5410,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B288" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5352,10 +5421,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B289" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5363,10 +5432,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B290" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5374,10 +5443,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B291" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5385,10 +5454,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B292" t="s">
-        <v>143</v>
+        <v>210</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5396,10 +5465,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B293" t="s">
-        <v>133</v>
+        <v>224</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5407,10 +5476,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B294" t="s">
-        <v>76</v>
+        <v>224</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5418,10 +5487,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B295" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5429,10 +5498,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B296" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5440,10 +5509,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B297" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5451,10 +5520,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B298" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5462,10 +5531,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B299" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5473,10 +5542,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B300" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5484,10 +5553,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B301" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5495,10 +5564,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B302" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5506,10 +5575,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B303" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5517,10 +5586,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B304" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5528,10 +5597,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B305" t="s">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5539,10 +5608,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B306" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5550,10 +5619,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B307" t="s">
-        <v>241</v>
+        <v>148</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5561,10 +5630,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B308" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5572,10 +5641,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B309" t="s">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5583,10 +5652,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B310" t="s">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5594,10 +5663,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B311" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5605,10 +5674,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B312" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5616,10 +5685,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B313" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5627,10 +5696,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B314" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5638,10 +5707,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B315" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5649,10 +5718,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B316" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5660,10 +5729,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B317" t="s">
-        <v>230</v>
+        <v>107</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5671,10 +5740,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B318" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5682,10 +5751,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B319" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5693,10 +5762,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B320" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5704,10 +5773,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B321" t="s">
-        <v>405</v>
+        <v>159</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5715,10 +5784,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B322" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5726,10 +5795,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B323" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5737,10 +5806,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B324" t="s">
-        <v>333</v>
+        <v>259</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5748,10 +5817,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B325" t="s">
-        <v>236</v>
+        <v>113</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5759,10 +5828,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B326" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5770,10 +5839,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B327" t="s">
-        <v>232</v>
+        <v>111</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5781,10 +5850,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B328" t="s">
-        <v>333</v>
+        <v>159</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5792,10 +5861,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B329" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5803,10 +5872,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B330" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5814,10 +5883,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B331" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5825,10 +5894,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B332" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5836,10 +5905,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B333" t="s">
-        <v>70</v>
+        <v>283</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5847,10 +5916,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B334" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5858,10 +5927,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B335" t="s">
-        <v>84</v>
+        <v>263</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5869,10 +5938,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B336" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5880,10 +5949,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B337" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5891,10 +5960,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B338" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5902,10 +5971,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B339" t="s">
-        <v>130</v>
+        <v>267</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5913,10 +5982,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B340" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5924,10 +5993,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B341" t="s">
-        <v>78</v>
+        <v>263</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5935,10 +6004,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B342" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -5946,10 +6015,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B343" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -5957,10 +6026,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B344" t="s">
-        <v>236</v>
+        <v>432</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -5968,10 +6037,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B345" t="s">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -5979,10 +6048,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B346" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -5990,10 +6059,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B347" t="s">
-        <v>46</v>
+        <v>361</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6001,10 +6070,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B348" t="s">
-        <v>340</v>
+        <v>267</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6012,10 +6081,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B349" t="s">
-        <v>44</v>
+        <v>267</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6023,10 +6092,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B350" t="s">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6034,10 +6103,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B351" t="s">
-        <v>54</v>
+        <v>361</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6045,10 +6114,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B352" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6056,10 +6125,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B353" t="s">
-        <v>438</v>
+        <v>22</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6067,10 +6136,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B354" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6078,10 +6147,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B355" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6089,10 +6158,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B356" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6100,10 +6169,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B357" t="s">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6111,10 +6180,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B358" t="s">
-        <v>444</v>
+        <v>115</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6122,10 +6191,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B359" t="s">
-        <v>444</v>
+        <v>115</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6133,10 +6202,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B360" t="s">
-        <v>444</v>
+        <v>259</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6144,10 +6213,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B361" t="s">
-        <v>444</v>
+        <v>161</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6155,10 +6224,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B362" t="s">
-        <v>449</v>
+        <v>161</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6166,10 +6235,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B363" t="s">
-        <v>451</v>
+        <v>263</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6180,7 +6249,7 @@
         <v>452</v>
       </c>
       <c r="B364" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6191,7 +6260,7 @@
         <v>453</v>
       </c>
       <c r="B365" t="s">
-        <v>444</v>
+        <v>267</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6202,7 +6271,7 @@
         <v>454</v>
       </c>
       <c r="B366" t="s">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6213,7 +6282,7 @@
         <v>455</v>
       </c>
       <c r="B367" t="s">
-        <v>449</v>
+        <v>267</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6224,7 +6293,7 @@
         <v>456</v>
       </c>
       <c r="B368" t="s">
-        <v>23</v>
+        <v>267</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6235,7 +6304,7 @@
         <v>457</v>
       </c>
       <c r="B369" t="s">
-        <v>458</v>
+        <v>83</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6243,10 +6312,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B370" t="s">
-        <v>458</v>
+        <v>81</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6254,10 +6323,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B371" t="s">
-        <v>12</v>
+        <v>367</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6265,10 +6334,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B372" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6276,10 +6345,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B373" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6287,10 +6356,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B374" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6298,10 +6367,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B375" t="s">
-        <v>465</v>
+        <v>97</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6309,10 +6378,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B376" t="s">
-        <v>465</v>
+        <v>16</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6320,10 +6389,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B377" t="s">
-        <v>468</v>
+        <v>31</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6331,10 +6400,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B378" t="s">
-        <v>470</v>
+        <v>31</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6342,10 +6411,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B379" t="s">
-        <v>472</v>
+        <v>97</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6353,10 +6422,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B380" t="s">
-        <v>474</v>
+        <v>36</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6364,10 +6433,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B381" t="s">
-        <v>16</v>
+        <v>470</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6375,10 +6444,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B382" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6386,10 +6455,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B383" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6397,10 +6466,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B384" t="s">
-        <v>28</v>
+        <v>470</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6408,10 +6477,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B385" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6419,10 +6488,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B386" t="s">
-        <v>14</v>
+        <v>477</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6430,10 +6499,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B387" t="s">
-        <v>485</v>
+        <v>43</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6441,10 +6510,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B388" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6452,10 +6521,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B389" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6463,10 +6532,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B390" t="s">
-        <v>37</v>
+        <v>475</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6474,10 +6543,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B391" t="s">
-        <v>485</v>
+        <v>59</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6485,10 +6554,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B392" t="s">
-        <v>28</v>
+        <v>484</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6496,10 +6565,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B393" t="s">
-        <v>28</v>
+        <v>484</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6507,10 +6576,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B394" t="s">
-        <v>494</v>
+        <v>48</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6518,10 +6587,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B395" t="s">
-        <v>496</v>
+        <v>50</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6529,10 +6598,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="B396" t="s">
-        <v>498</v>
+        <v>59</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6540,10 +6609,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B397" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6551,10 +6620,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B398" t="s">
-        <v>37</v>
+        <v>491</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6562,10 +6631,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="B399" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6573,10 +6642,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="B400" t="s">
-        <v>12</v>
+        <v>494</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6584,10 +6653,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="B401" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6595,10 +6664,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="B402" t="s">
-        <v>4</v>
+        <v>498</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6606,10 +6675,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B403" t="s">
-        <v>37</v>
+        <v>500</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6617,10 +6686,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B404" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6628,10 +6697,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B405" t="s">
-        <v>56</v>
+        <v>503</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6639,10 +6708,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B406" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6650,10 +6719,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B407" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6661,10 +6730,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B408" t="s">
-        <v>50</v>
+        <v>508</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6672,7 +6741,7 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B409" t="s">
         <v>50</v>
@@ -6683,10 +6752,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B410" t="s">
-        <v>340</v>
+        <v>511</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6694,10 +6763,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B411" t="s">
-        <v>50</v>
+        <v>513</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6705,10 +6774,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B412" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6716,10 +6785,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B413" t="s">
-        <v>518</v>
+        <v>73</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6727,10 +6796,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B414" t="s">
-        <v>44</v>
+        <v>511</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6738,10 +6807,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B415" t="s">
-        <v>336</v>
+        <v>64</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -6749,10 +6818,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B416" t="s">
-        <v>261</v>
+        <v>64</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -6760,10 +6829,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B417" t="s">
-        <v>265</v>
+        <v>520</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -6771,10 +6840,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B418" t="s">
-        <v>405</v>
+        <v>522</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -6782,10 +6851,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
+        <v>523</v>
+      </c>
+      <c r="B419" t="s">
         <v>524</v>
-      </c>
-      <c r="B419" t="s">
-        <v>261</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -6796,7 +6865,7 @@
         <v>525</v>
       </c>
       <c r="B420" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -6807,7 +6876,7 @@
         <v>526</v>
       </c>
       <c r="B421" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -6829,7 +6898,7 @@
         <v>529</v>
       </c>
       <c r="B423" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -6840,7 +6909,7 @@
         <v>530</v>
       </c>
       <c r="B424" t="s">
-        <v>52</v>
+        <v>511</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -6851,7 +6920,7 @@
         <v>531</v>
       </c>
       <c r="B425" t="s">
-        <v>528</v>
+        <v>41</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -6862,7 +6931,7 @@
         <v>532</v>
       </c>
       <c r="B426" t="s">
-        <v>510</v>
+        <v>73</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -6873,7 +6942,7 @@
         <v>533</v>
       </c>
       <c r="B427" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -6884,7 +6953,7 @@
         <v>534</v>
       </c>
       <c r="B428" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -6895,7 +6964,7 @@
         <v>535</v>
       </c>
       <c r="B429" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -6906,7 +6975,7 @@
         <v>536</v>
       </c>
       <c r="B430" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -6917,7 +6986,7 @@
         <v>537</v>
       </c>
       <c r="B431" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -6928,7 +6997,7 @@
         <v>538</v>
       </c>
       <c r="B432" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -6939,7 +7008,7 @@
         <v>539</v>
       </c>
       <c r="B433" t="s">
-        <v>234</v>
+        <v>367</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -6950,7 +7019,7 @@
         <v>540</v>
       </c>
       <c r="B434" t="s">
-        <v>265</v>
+        <v>9</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -6961,7 +7030,7 @@
         <v>541</v>
       </c>
       <c r="B435" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -6972,7 +7041,7 @@
         <v>542</v>
       </c>
       <c r="B436" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -6983,7 +7052,7 @@
         <v>543</v>
       </c>
       <c r="B437" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -6994,7 +7063,7 @@
         <v>544</v>
       </c>
       <c r="B438" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7005,7 +7074,7 @@
         <v>545</v>
       </c>
       <c r="B439" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7016,7 +7085,7 @@
         <v>546</v>
       </c>
       <c r="B440" t="s">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7027,7 +7096,7 @@
         <v>547</v>
       </c>
       <c r="B441" t="s">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7038,7 +7107,7 @@
         <v>548</v>
       </c>
       <c r="B442" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7049,7 +7118,7 @@
         <v>549</v>
       </c>
       <c r="B443" t="s">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7060,7 +7129,7 @@
         <v>550</v>
       </c>
       <c r="B444" t="s">
-        <v>252</v>
+        <v>91</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7071,7 +7140,7 @@
         <v>551</v>
       </c>
       <c r="B445" t="s">
-        <v>78</v>
+        <v>552</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7079,10 +7148,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B446" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7090,10 +7159,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B447" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7101,10 +7170,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B448" t="s">
-        <v>82</v>
+        <v>552</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7112,10 +7181,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B449" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7123,10 +7192,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B450" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7134,10 +7203,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B451" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7145,10 +7214,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B452" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7156,10 +7225,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B453" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7167,10 +7236,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B454" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7178,10 +7247,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B455" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7189,10 +7258,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B456" t="s">
-        <v>68</v>
+        <v>265</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7200,10 +7269,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B457" t="s">
-        <v>261</v>
+        <v>28</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7211,10 +7280,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B458" t="s">
-        <v>310</v>
+        <v>4</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7222,10 +7291,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B459" t="s">
-        <v>333</v>
+        <v>104</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7233,10 +7302,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B460" t="s">
-        <v>333</v>
+        <v>4</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7244,10 +7313,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B461" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7255,10 +7324,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B462" t="s">
-        <v>336</v>
+        <v>111</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7266,10 +7335,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B463" t="s">
-        <v>340</v>
+        <v>272</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7277,10 +7346,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B464" t="s">
-        <v>342</v>
+        <v>111</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7288,10 +7357,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B465" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7299,10 +7368,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B466" t="s">
-        <v>48</v>
+        <v>259</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7310,10 +7379,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B467" t="s">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7321,10 +7390,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B468" t="s">
-        <v>265</v>
+        <v>109</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7332,10 +7401,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B469" t="s">
-        <v>310</v>
+        <v>109</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7343,10 +7412,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B470" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7354,10 +7423,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B471" t="s">
-        <v>333</v>
+        <v>113</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7365,10 +7434,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B472" t="s">
-        <v>333</v>
+        <v>164</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7376,10 +7445,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B473" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7387,10 +7456,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B474" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7398,10 +7467,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B475" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7409,10 +7478,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B476" t="s">
-        <v>340</v>
+        <v>109</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7420,10 +7489,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B477" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7431,10 +7500,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B478" t="s">
-        <v>342</v>
+        <v>7</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7442,10 +7511,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B479" t="s">
-        <v>342</v>
+        <v>7</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7453,10 +7522,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B480" t="s">
-        <v>510</v>
+        <v>24</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7464,10 +7533,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B481" t="s">
-        <v>510</v>
+        <v>338</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7475,10 +7544,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B482" t="s">
-        <v>52</v>
+        <v>361</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7486,10 +7555,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B483" t="s">
-        <v>444</v>
+        <v>361</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7497,10 +7566,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B484" t="s">
-        <v>444</v>
+        <v>104</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -7508,10 +7577,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B485" t="s">
-        <v>449</v>
+        <v>12</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7519,10 +7588,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B486" t="s">
-        <v>451</v>
+        <v>367</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7530,10 +7599,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B487" t="s">
-        <v>510</v>
+        <v>369</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -7541,10 +7610,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B488" t="s">
-        <v>510</v>
+        <v>83</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -7552,10 +7621,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B489" t="s">
-        <v>528</v>
+        <v>83</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -7563,7 +7632,7 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B490" t="s">
         <v>7</v>
@@ -7574,10 +7643,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B491" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -7585,10 +7654,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B492" t="s">
-        <v>39</v>
+        <v>338</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -7596,10 +7665,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B493" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -7607,10 +7676,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B494" t="s">
-        <v>510</v>
+        <v>361</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -7618,10 +7687,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B495" t="s">
-        <v>602</v>
+        <v>361</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -7632,7 +7701,7 @@
         <v>603</v>
       </c>
       <c r="B496" t="s">
-        <v>510</v>
+        <v>104</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -7643,7 +7712,7 @@
         <v>604</v>
       </c>
       <c r="B497" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -7654,7 +7723,7 @@
         <v>605</v>
       </c>
       <c r="B498" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -7665,7 +7734,7 @@
         <v>606</v>
       </c>
       <c r="B499" t="s">
-        <v>607</v>
+        <v>367</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -7673,10 +7742,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B500" t="s">
-        <v>451</v>
+        <v>7</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -7684,10 +7753,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B501" t="s">
-        <v>451</v>
+        <v>369</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -7695,10 +7764,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B502" t="s">
-        <v>611</v>
+        <v>369</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -7706,12 +7775,265 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
+        <v>610</v>
+      </c>
+      <c r="B503" t="s">
+        <v>38</v>
+      </c>
+      <c r="C503" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>611</v>
+      </c>
+      <c r="B504" t="s">
+        <v>38</v>
+      </c>
+      <c r="C504" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
         <v>612</v>
       </c>
-      <c r="B503" t="s">
-        <v>449</v>
-      </c>
-      <c r="C503" t="s">
+      <c r="B505" t="s">
+        <v>86</v>
+      </c>
+      <c r="C505" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>613</v>
+      </c>
+      <c r="B506" t="s">
+        <v>470</v>
+      </c>
+      <c r="C506" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>614</v>
+      </c>
+      <c r="B507" t="s">
+        <v>470</v>
+      </c>
+      <c r="C507" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>615</v>
+      </c>
+      <c r="B508" t="s">
+        <v>475</v>
+      </c>
+      <c r="C508" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>616</v>
+      </c>
+      <c r="B509" t="s">
+        <v>477</v>
+      </c>
+      <c r="C509" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>617</v>
+      </c>
+      <c r="B510" t="s">
+        <v>38</v>
+      </c>
+      <c r="C510" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>618</v>
+      </c>
+      <c r="B511" t="s">
+        <v>38</v>
+      </c>
+      <c r="C511" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>619</v>
+      </c>
+      <c r="B512" t="s">
+        <v>552</v>
+      </c>
+      <c r="C512" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>620</v>
+      </c>
+      <c r="B513" t="s">
+        <v>43</v>
+      </c>
+      <c r="C513" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>621</v>
+      </c>
+      <c r="B514" t="s">
+        <v>43</v>
+      </c>
+      <c r="C514" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>622</v>
+      </c>
+      <c r="B515" t="s">
+        <v>75</v>
+      </c>
+      <c r="C515" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>623</v>
+      </c>
+      <c r="B516" t="s">
+        <v>75</v>
+      </c>
+      <c r="C516" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>624</v>
+      </c>
+      <c r="B517" t="s">
+        <v>38</v>
+      </c>
+      <c r="C517" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>625</v>
+      </c>
+      <c r="B518" t="s">
+        <v>34</v>
+      </c>
+      <c r="C518" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>626</v>
+      </c>
+      <c r="B519" t="s">
+        <v>38</v>
+      </c>
+      <c r="C519" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>627</v>
+      </c>
+      <c r="B520" t="s">
+        <v>75</v>
+      </c>
+      <c r="C520" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>628</v>
+      </c>
+      <c r="B521" t="s">
+        <v>75</v>
+      </c>
+      <c r="C521" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>629</v>
+      </c>
+      <c r="B522" t="s">
+        <v>630</v>
+      </c>
+      <c r="C522" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>631</v>
+      </c>
+      <c r="B523" t="s">
+        <v>477</v>
+      </c>
+      <c r="C523" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>632</v>
+      </c>
+      <c r="B524" t="s">
+        <v>477</v>
+      </c>
+      <c r="C524" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>633</v>
+      </c>
+      <c r="B525" t="s">
+        <v>634</v>
+      </c>
+      <c r="C525" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>635</v>
+      </c>
+      <c r="B526" t="s">
+        <v>475</v>
+      </c>
+      <c r="C526" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid704215"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid515469"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="655">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,108 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/07/2025</t>
+  </si>
+  <si>
+    <t>0.995</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>30/06/2025</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>27/06/2025</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>26/06/2025</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>25/06/2025</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>24/06/2025</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>23/06/2025</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>20/06/2025</t>
+  </si>
+  <si>
+    <t>19/06/2025</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>18/06/2025</t>
+  </si>
+  <si>
+    <t>17/06/2025</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>16/06/2025</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>13/06/2025</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>12/06/2025</t>
+  </si>
+  <si>
+    <t>11/06/2025</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>10/06/2025</t>
+  </si>
+  <si>
+    <t>09/06/2025</t>
+  </si>
+  <si>
+    <t>06/06/2025</t>
+  </si>
+  <si>
+    <t>05/06/2025</t>
+  </si>
+  <si>
     <t>04/06/2025</t>
   </si>
   <si>
-    <t>0.979</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>03/06/2025</t>
   </si>
   <si>
-    <t>0.974</t>
-  </si>
-  <si>
     <t>02/06/2025</t>
   </si>
   <si>
@@ -89,9 +176,6 @@
     <t>19/05/2025</t>
   </si>
   <si>
-    <t>0.973</t>
-  </si>
-  <si>
     <t>16/05/2025</t>
   </si>
   <si>
@@ -101,9 +185,6 @@
     <t>14/05/2025</t>
   </si>
   <si>
-    <t>0.977</t>
-  </si>
-  <si>
     <t>13/05/2025</t>
   </si>
   <si>
@@ -329,9 +410,6 @@
     <t>05/03/2025</t>
   </si>
   <si>
-    <t>0.980</t>
-  </si>
-  <si>
     <t>04/03/2025</t>
   </si>
   <si>
@@ -350,9 +428,6 @@
     <t>27/02/2025</t>
   </si>
   <si>
-    <t>0.993</t>
-  </si>
-  <si>
     <t>26/02/2025</t>
   </si>
   <si>
@@ -494,9 +569,6 @@
     <t>14/01/2025</t>
   </si>
   <si>
-    <t>0.991</t>
-  </si>
-  <si>
     <t>13/01/2025</t>
   </si>
   <si>
@@ -806,9 +878,6 @@
     <t>10/09/2024</t>
   </si>
   <si>
-    <t>0.985</t>
-  </si>
-  <si>
     <t>09/09/2024</t>
   </si>
   <si>
@@ -818,9 +887,6 @@
     <t>06/09/2024</t>
   </si>
   <si>
-    <t>0.986</t>
-  </si>
-  <si>
     <t>05/09/2024</t>
   </si>
   <si>
@@ -833,9 +899,6 @@
     <t>02/09/2024</t>
   </si>
   <si>
-    <t>0.995</t>
-  </si>
-  <si>
     <t>30/08/2024</t>
   </si>
   <si>
@@ -1031,9 +1094,6 @@
     <t>31/05/2024</t>
   </si>
   <si>
-    <t>0.981</t>
-  </si>
-  <si>
     <t>30/05/2024</t>
   </si>
   <si>
@@ -1098,9 +1158,6 @@
   </si>
   <si>
     <t>29/04/2024</t>
-  </si>
-  <si>
-    <t>0.982</t>
   </si>
   <si>
     <t>26/04/2024</t>
@@ -2300,7 +2357,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2308,10 +2365,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2319,10 +2376,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2330,10 +2387,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2341,10 +2398,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2352,10 +2409,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2363,10 +2420,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2374,10 +2431,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2385,10 +2442,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2396,10 +2453,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2407,10 +2464,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2418,10 +2475,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2429,10 +2486,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2440,10 +2497,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2451,10 +2508,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2462,10 +2519,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2473,10 +2530,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2484,10 +2541,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2531,7 +2588,7 @@
         <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2539,10 +2596,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2550,10 +2607,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
         <v>45</v>
-      </c>
-      <c r="B28" t="s">
-        <v>46</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2561,10 +2618,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2572,10 +2629,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2583,10 +2640,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2594,10 +2651,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2605,10 +2662,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2616,10 +2673,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2627,10 +2684,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2638,10 +2695,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2649,10 +2706,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2660,10 +2717,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2671,10 +2728,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2682,10 +2739,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2693,10 +2750,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2704,10 +2761,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2715,10 +2772,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2726,10 +2783,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2737,10 +2794,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2748,10 +2805,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2759,10 +2816,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2770,10 +2827,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2781,10 +2838,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2792,10 +2849,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2803,10 +2860,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2814,10 +2871,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B52" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2825,10 +2882,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2836,10 +2893,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2847,10 +2904,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2858,10 +2915,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2869,10 +2926,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2880,10 +2937,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2891,10 +2948,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2902,10 +2959,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2913,10 +2970,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2924,10 +2981,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2935,10 +2992,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -2946,10 +3003,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -2957,10 +3014,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -2968,10 +3025,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -2979,10 +3036,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B67" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -2990,10 +3047,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3001,10 +3058,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3012,7 +3069,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
         <v>113</v>
@@ -3023,10 +3080,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3034,10 +3091,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B72" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3045,10 +3102,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B73" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3056,10 +3113,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3067,10 +3124,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3078,10 +3135,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3089,10 +3146,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3100,10 +3157,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B78" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3111,10 +3168,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3122,10 +3179,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3133,10 +3190,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3144,10 +3201,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3155,10 +3212,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3166,10 +3223,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B84" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3177,10 +3234,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B85" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3188,10 +3245,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B86" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3199,10 +3256,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B87" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3210,10 +3267,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3221,10 +3278,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B89" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3232,10 +3289,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B90" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3243,10 +3300,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3254,10 +3311,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3265,10 +3322,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B93" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3276,10 +3333,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B94" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3287,10 +3344,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3298,10 +3355,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B96" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3309,10 +3366,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B97" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3320,10 +3377,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B98" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3331,10 +3388,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>158</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3342,10 +3399,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B100" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3353,10 +3410,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3364,10 +3421,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3375,10 +3432,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B103" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3386,10 +3443,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" t="s">
         <v>168</v>
-      </c>
-      <c r="B104" t="s">
-        <v>164</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3400,7 +3457,7 @@
         <v>169</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3408,10 +3465,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B106" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3419,10 +3476,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B107" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3430,10 +3487,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3441,10 +3498,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B109" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3452,10 +3509,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B110" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3463,10 +3520,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B111" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3474,10 +3531,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3485,10 +3542,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B113" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3496,10 +3553,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3507,10 +3564,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B115" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3518,10 +3575,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B116" t="s">
-        <v>183</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3532,7 +3589,7 @@
         <v>184</v>
       </c>
       <c r="B117" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3540,10 +3597,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B118" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3565,7 +3622,7 @@
         <v>189</v>
       </c>
       <c r="B120" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3576,7 +3633,7 @@
         <v>190</v>
       </c>
       <c r="B121" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3584,10 +3641,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B122" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3595,10 +3652,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B123" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3606,10 +3663,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B124" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3617,10 +3674,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B125" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3628,10 +3685,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B126" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3639,10 +3696,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B127" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3650,10 +3707,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B128" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3661,10 +3718,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B129" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3672,10 +3729,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B130" t="s">
-        <v>145</v>
+        <v>198</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3683,10 +3740,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B131" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3694,10 +3751,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B132" t="s">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3705,10 +3762,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B133" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3716,10 +3773,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B134" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3727,10 +3784,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B135" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3738,10 +3795,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B136" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3749,10 +3806,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B137" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3760,10 +3817,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
+        <v>211</v>
+      </c>
+      <c r="B138" t="s">
         <v>212</v>
-      </c>
-      <c r="B138" t="s">
-        <v>145</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3774,7 +3831,7 @@
         <v>213</v>
       </c>
       <c r="B139" t="s">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3785,7 +3842,7 @@
         <v>214</v>
       </c>
       <c r="B140" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3793,10 +3850,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B141" t="s">
-        <v>138</v>
+        <v>217</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3804,10 +3861,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B142" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3815,10 +3872,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B143" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3826,10 +3883,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3837,10 +3894,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B145" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3848,10 +3905,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B146" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3859,10 +3916,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B147" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3870,10 +3927,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B148" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3881,10 +3938,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B149" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3892,10 +3949,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B150" t="s">
-        <v>226</v>
+        <v>163</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3903,10 +3960,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B151" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3914,10 +3971,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B152" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3925,10 +3982,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B153" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3936,10 +3993,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B154" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3947,10 +4004,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B155" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -3958,10 +4015,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B156" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -3969,10 +4026,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B157" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3980,10 +4037,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B158" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3991,10 +4048,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B159" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4002,10 +4059,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B160" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4013,10 +4070,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B161" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4024,10 +4081,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B162" t="s">
-        <v>226</v>
+        <v>165</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4035,10 +4092,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B163" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4046,10 +4103,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B164" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4057,10 +4114,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B165" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4068,10 +4125,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B166" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4079,10 +4136,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B167" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4090,10 +4147,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B168" t="s">
-        <v>174</v>
+        <v>248</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4101,10 +4158,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B169" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4112,10 +4169,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B170" t="s">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4123,10 +4180,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B171" t="s">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4134,10 +4191,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B172" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4145,10 +4202,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B173" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4156,10 +4213,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B174" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4167,10 +4224,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B175" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4178,10 +4235,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B176" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4189,10 +4246,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B177" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4200,10 +4257,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B178" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4211,10 +4268,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B179" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4222,10 +4279,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B180" t="s">
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4233,10 +4290,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B181" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4244,10 +4301,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B182" t="s">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4255,10 +4312,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B183" t="s">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4266,10 +4323,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B184" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4277,10 +4334,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B185" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4288,10 +4345,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B186" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4302,7 +4359,7 @@
         <v>268</v>
       </c>
       <c r="B187" t="s">
-        <v>109</v>
+        <v>198</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4313,7 +4370,7 @@
         <v>269</v>
       </c>
       <c r="B188" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4324,7 +4381,7 @@
         <v>270</v>
       </c>
       <c r="B189" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4335,7 +4392,7 @@
         <v>271</v>
       </c>
       <c r="B190" t="s">
-        <v>272</v>
+        <v>168</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4343,10 +4400,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B191" t="s">
-        <v>272</v>
+        <v>168</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4354,10 +4411,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B192" t="s">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4365,10 +4422,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B193" t="s">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4376,10 +4433,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B194" t="s">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4387,10 +4444,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B195" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4398,10 +4455,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B196" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4409,10 +4466,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B197" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4420,10 +4477,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B198" t="s">
-        <v>107</v>
+        <v>250</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4431,10 +4488,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B199" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4442,10 +4499,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B200" t="s">
-        <v>283</v>
+        <v>138</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4453,10 +4510,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B201" t="s">
-        <v>115</v>
+        <v>283</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4464,10 +4521,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
+        <v>284</v>
+      </c>
+      <c r="B202" t="s">
         <v>285</v>
-      </c>
-      <c r="B202" t="s">
-        <v>265</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4478,7 +4535,7 @@
         <v>286</v>
       </c>
       <c r="B203" t="s">
-        <v>265</v>
+        <v>13</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4489,7 +4546,7 @@
         <v>287</v>
       </c>
       <c r="B204" t="s">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4497,10 +4554,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B205" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4508,10 +4565,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B206" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4519,10 +4576,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B207" t="s">
-        <v>24</v>
+        <v>135</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4530,10 +4587,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B208" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4541,10 +4598,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B209" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4552,10 +4609,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B210" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4563,10 +4620,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B211" t="s">
-        <v>272</v>
+        <v>4</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4574,10 +4631,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B212" t="s">
-        <v>259</v>
+        <v>4</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4585,10 +4642,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B213" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4596,10 +4653,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B214" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4607,10 +4664,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B215" t="s">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4618,10 +4675,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B216" t="s">
-        <v>265</v>
+        <v>138</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4629,10 +4686,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B217" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4640,10 +4697,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B218" t="s">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4651,10 +4708,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B219" t="s">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4662,10 +4719,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B220" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4673,10 +4730,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B221" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4684,10 +4741,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B222" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4695,10 +4752,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B223" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4706,10 +4763,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B224" t="s">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4717,10 +4774,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B225" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4728,10 +4785,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B226" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4739,10 +4796,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B227" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4750,10 +4807,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B228" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4761,10 +4818,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B229" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4772,10 +4829,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B230" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4783,10 +4840,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B231" t="s">
-        <v>157</v>
+        <v>283</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4794,10 +4851,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B232" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4805,10 +4862,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B233" t="s">
-        <v>272</v>
+        <v>185</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4816,10 +4873,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B234" t="s">
-        <v>272</v>
+        <v>13</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4827,10 +4884,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B235" t="s">
-        <v>164</v>
+        <v>288</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4838,10 +4895,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B236" t="s">
-        <v>272</v>
+        <v>9</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4849,10 +4906,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B237" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4860,10 +4917,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B238" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4871,10 +4928,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B239" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4882,10 +4939,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B240" t="s">
-        <v>111</v>
+        <v>250</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4893,10 +4950,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B241" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4904,10 +4961,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B242" t="s">
-        <v>226</v>
+        <v>170</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4915,10 +4972,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B243" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4926,10 +4983,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B244" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4937,10 +4994,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B245" t="s">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -4948,10 +5005,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B246" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4959,10 +5016,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B247" t="s">
-        <v>259</v>
+        <v>145</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4970,10 +5027,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B248" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4981,10 +5038,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B249" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -4992,10 +5049,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B250" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5003,10 +5060,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B251" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5014,10 +5071,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B252" t="s">
-        <v>263</v>
+        <v>4</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5025,10 +5082,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B253" t="s">
-        <v>263</v>
+        <v>4</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5036,10 +5093,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B254" t="s">
-        <v>338</v>
+        <v>188</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5047,10 +5104,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B255" t="s">
-        <v>265</v>
+        <v>4</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5058,10 +5115,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B256" t="s">
-        <v>263</v>
+        <v>133</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5069,10 +5126,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B257" t="s">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5080,10 +5137,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B258" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5091,10 +5148,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B259" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5102,10 +5159,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B260" t="s">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5113,10 +5170,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B261" t="s">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5124,10 +5181,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B262" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5135,10 +5192,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B263" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5146,10 +5203,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B264" t="s">
-        <v>174</v>
+        <v>248</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5157,10 +5214,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B265" t="s">
-        <v>107</v>
+        <v>248</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5168,10 +5225,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B266" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5179,10 +5236,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B267" t="s">
-        <v>159</v>
+        <v>9</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5190,10 +5247,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B268" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5201,10 +5258,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B269" t="s">
-        <v>161</v>
+        <v>7</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5212,10 +5269,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B270" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5223,10 +5280,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B271" t="s">
-        <v>283</v>
+        <v>13</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5234,10 +5291,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B272" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5245,10 +5302,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B273" t="s">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5256,10 +5313,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B274" t="s">
-        <v>7</v>
+        <v>288</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5267,10 +5324,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B275" t="s">
-        <v>338</v>
+        <v>13</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5278,10 +5335,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B276" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5292,7 +5349,7 @@
         <v>362</v>
       </c>
       <c r="B277" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5303,7 +5360,7 @@
         <v>363</v>
       </c>
       <c r="B278" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5314,7 +5371,7 @@
         <v>364</v>
       </c>
       <c r="B279" t="s">
-        <v>4</v>
+        <v>283</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5325,7 +5382,7 @@
         <v>365</v>
       </c>
       <c r="B280" t="s">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5336,7 +5393,7 @@
         <v>366</v>
       </c>
       <c r="B281" t="s">
-        <v>367</v>
+        <v>9</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5344,10 +5401,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B282" t="s">
-        <v>369</v>
+        <v>9</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5355,10 +5412,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B283" t="s">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5366,10 +5423,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B284" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5377,10 +5434,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B285" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5388,10 +5445,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B286" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5399,10 +5456,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B287" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5410,10 +5467,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B288" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5421,10 +5478,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B289" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5432,10 +5489,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B290" t="s">
-        <v>226</v>
+        <v>304</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5443,10 +5500,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B291" t="s">
-        <v>224</v>
+        <v>135</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5454,10 +5511,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B292" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5465,10 +5522,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B293" t="s">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5476,10 +5533,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B294" t="s">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5487,10 +5544,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B295" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5498,10 +5555,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B296" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5509,10 +5566,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B297" t="s">
-        <v>210</v>
+        <v>41</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5520,10 +5577,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B298" t="s">
-        <v>148</v>
+        <v>23</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5531,10 +5588,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B299" t="s">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5542,10 +5599,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B300" t="s">
-        <v>210</v>
+        <v>386</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5553,10 +5610,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
+        <v>387</v>
+      </c>
+      <c r="B301" t="s">
         <v>388</v>
-      </c>
-      <c r="B301" t="s">
-        <v>118</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5567,7 +5624,7 @@
         <v>389</v>
       </c>
       <c r="B302" t="s">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5578,7 +5635,7 @@
         <v>390</v>
       </c>
       <c r="B303" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5589,7 +5646,7 @@
         <v>391</v>
       </c>
       <c r="B304" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5600,7 +5657,7 @@
         <v>392</v>
       </c>
       <c r="B305" t="s">
-        <v>224</v>
+        <v>7</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5611,7 +5668,7 @@
         <v>393</v>
       </c>
       <c r="B306" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5622,7 +5679,7 @@
         <v>394</v>
       </c>
       <c r="B307" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5633,7 +5690,7 @@
         <v>395</v>
       </c>
       <c r="B308" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5644,7 +5701,7 @@
         <v>396</v>
       </c>
       <c r="B309" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5655,7 +5712,7 @@
         <v>397</v>
       </c>
       <c r="B310" t="s">
-        <v>131</v>
+        <v>248</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5666,7 +5723,7 @@
         <v>398</v>
       </c>
       <c r="B311" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5677,7 +5734,7 @@
         <v>399</v>
       </c>
       <c r="B312" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5688,7 +5745,7 @@
         <v>400</v>
       </c>
       <c r="B313" t="s">
-        <v>157</v>
+        <v>248</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5699,7 +5756,7 @@
         <v>401</v>
       </c>
       <c r="B314" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5710,7 +5767,7 @@
         <v>402</v>
       </c>
       <c r="B315" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5721,7 +5778,7 @@
         <v>403</v>
       </c>
       <c r="B316" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5732,7 +5789,7 @@
         <v>404</v>
       </c>
       <c r="B317" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5743,7 +5800,7 @@
         <v>405</v>
       </c>
       <c r="B318" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5754,7 +5811,7 @@
         <v>406</v>
       </c>
       <c r="B319" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5765,7 +5822,7 @@
         <v>407</v>
       </c>
       <c r="B320" t="s">
-        <v>272</v>
+        <v>143</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5776,7 +5833,7 @@
         <v>408</v>
       </c>
       <c r="B321" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5787,7 +5844,7 @@
         <v>409</v>
       </c>
       <c r="B322" t="s">
-        <v>263</v>
+        <v>7</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5798,7 +5855,7 @@
         <v>410</v>
       </c>
       <c r="B323" t="s">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5809,7 +5866,7 @@
         <v>411</v>
       </c>
       <c r="B324" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5820,7 +5877,7 @@
         <v>412</v>
       </c>
       <c r="B325" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5831,7 +5888,7 @@
         <v>413</v>
       </c>
       <c r="B326" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5842,7 +5899,7 @@
         <v>414</v>
       </c>
       <c r="B327" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5853,7 +5910,7 @@
         <v>415</v>
       </c>
       <c r="B328" t="s">
-        <v>159</v>
+        <v>250</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5864,7 +5921,7 @@
         <v>416</v>
       </c>
       <c r="B329" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5875,7 +5932,7 @@
         <v>417</v>
       </c>
       <c r="B330" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5886,7 +5943,7 @@
         <v>418</v>
       </c>
       <c r="B331" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5897,7 +5954,7 @@
         <v>419</v>
       </c>
       <c r="B332" t="s">
-        <v>283</v>
+        <v>182</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5908,7 +5965,7 @@
         <v>420</v>
       </c>
       <c r="B333" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5919,7 +5976,7 @@
         <v>421</v>
       </c>
       <c r="B334" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5930,7 +5987,7 @@
         <v>422</v>
       </c>
       <c r="B335" t="s">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5941,7 +5998,7 @@
         <v>423</v>
       </c>
       <c r="B336" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5952,7 +6009,7 @@
         <v>424</v>
       </c>
       <c r="B337" t="s">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5963,7 +6020,7 @@
         <v>425</v>
       </c>
       <c r="B338" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -5974,7 +6031,7 @@
         <v>426</v>
       </c>
       <c r="B339" t="s">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -5985,7 +6042,7 @@
         <v>427</v>
       </c>
       <c r="B340" t="s">
-        <v>261</v>
+        <v>9</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5996,7 +6053,7 @@
         <v>428</v>
       </c>
       <c r="B341" t="s">
-        <v>263</v>
+        <v>13</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6007,7 +6064,7 @@
         <v>429</v>
       </c>
       <c r="B342" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6018,7 +6075,7 @@
         <v>430</v>
       </c>
       <c r="B343" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6029,7 +6086,7 @@
         <v>431</v>
       </c>
       <c r="B344" t="s">
-        <v>432</v>
+        <v>138</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6037,10 +6094,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B345" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6048,10 +6105,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B346" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6059,10 +6116,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B347" t="s">
-        <v>361</v>
+        <v>9</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6070,10 +6127,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B348" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6081,10 +6138,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B349" t="s">
-        <v>267</v>
+        <v>4</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6092,10 +6149,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B350" t="s">
-        <v>263</v>
+        <v>140</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6103,10 +6160,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B351" t="s">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6114,10 +6171,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B352" t="s">
-        <v>104</v>
+        <v>304</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6125,10 +6182,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B353" t="s">
-        <v>22</v>
+        <v>304</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6136,10 +6193,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B354" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6147,10 +6204,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B355" t="s">
-        <v>22</v>
+        <v>185</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6158,10 +6215,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B356" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6169,10 +6226,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B357" t="s">
-        <v>263</v>
+        <v>135</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6180,10 +6237,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B358" t="s">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6191,10 +6248,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B359" t="s">
-        <v>115</v>
+        <v>285</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6202,10 +6259,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B360" t="s">
-        <v>259</v>
+        <v>13</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6213,10 +6270,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B361" t="s">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6224,10 +6281,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B362" t="s">
-        <v>161</v>
+        <v>285</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6235,10 +6292,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
+        <v>450</v>
+      </c>
+      <c r="B363" t="s">
         <v>451</v>
-      </c>
-      <c r="B363" t="s">
-        <v>263</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6249,7 +6306,7 @@
         <v>452</v>
       </c>
       <c r="B364" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6260,7 +6317,7 @@
         <v>453</v>
       </c>
       <c r="B365" t="s">
-        <v>267</v>
+        <v>110</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6271,7 +6328,7 @@
         <v>454</v>
       </c>
       <c r="B366" t="s">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6282,7 +6339,7 @@
         <v>455</v>
       </c>
       <c r="B367" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6293,7 +6350,7 @@
         <v>456</v>
       </c>
       <c r="B368" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6304,7 +6361,7 @@
         <v>457</v>
       </c>
       <c r="B369" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6315,7 +6372,7 @@
         <v>458</v>
       </c>
       <c r="B370" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6326,7 +6383,7 @@
         <v>459</v>
       </c>
       <c r="B371" t="s">
-        <v>367</v>
+        <v>15</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6337,7 +6394,7 @@
         <v>460</v>
       </c>
       <c r="B372" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6348,7 +6405,7 @@
         <v>461</v>
       </c>
       <c r="B373" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6359,7 +6416,7 @@
         <v>462</v>
       </c>
       <c r="B374" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6370,7 +6427,7 @@
         <v>463</v>
       </c>
       <c r="B375" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6381,7 +6438,7 @@
         <v>464</v>
       </c>
       <c r="B376" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6392,7 +6449,7 @@
         <v>465</v>
       </c>
       <c r="B377" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6403,7 +6460,7 @@
         <v>466</v>
       </c>
       <c r="B378" t="s">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6414,7 +6471,7 @@
         <v>467</v>
       </c>
       <c r="B379" t="s">
-        <v>97</v>
+        <v>283</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6425,7 +6482,7 @@
         <v>468</v>
       </c>
       <c r="B380" t="s">
-        <v>36</v>
+        <v>185</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6436,7 +6493,7 @@
         <v>469</v>
       </c>
       <c r="B381" t="s">
-        <v>470</v>
+        <v>185</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6444,10 +6501,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B382" t="s">
-        <v>470</v>
+        <v>13</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6455,10 +6512,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B383" t="s">
-        <v>470</v>
+        <v>135</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6466,10 +6523,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B384" t="s">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6477,10 +6534,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B385" t="s">
-        <v>475</v>
+        <v>304</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6488,10 +6545,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B386" t="s">
-        <v>477</v>
+        <v>11</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6499,10 +6556,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B387" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6510,10 +6567,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B388" t="s">
-        <v>470</v>
+        <v>110</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6521,10 +6578,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B389" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6532,10 +6589,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B390" t="s">
-        <v>475</v>
+        <v>386</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6543,10 +6600,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B391" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6554,10 +6611,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B392" t="s">
-        <v>484</v>
+        <v>120</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6565,10 +6622,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B393" t="s">
-        <v>484</v>
+        <v>115</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6576,10 +6633,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B394" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6587,10 +6644,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B395" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6598,10 +6655,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B396" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6609,10 +6666,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B397" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6620,10 +6677,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B398" t="s">
-        <v>491</v>
+        <v>124</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6631,10 +6688,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B399" t="s">
-        <v>491</v>
+        <v>63</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6642,10 +6699,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B400" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6653,10 +6710,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B401" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6664,10 +6721,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B402" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6675,10 +6732,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B403" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6686,10 +6743,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="B404" t="s">
-        <v>52</v>
+        <v>494</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6697,10 +6754,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B405" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6708,10 +6765,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B406" t="s">
-        <v>505</v>
+        <v>70</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6719,10 +6776,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B407" t="s">
-        <v>64</v>
+        <v>489</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6730,10 +6787,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B408" t="s">
-        <v>508</v>
+        <v>102</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6741,10 +6798,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="B409" t="s">
-        <v>50</v>
+        <v>494</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6752,10 +6809,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B410" t="s">
-        <v>511</v>
+        <v>86</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6763,10 +6820,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B411" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6774,10 +6831,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="B412" t="s">
-        <v>73</v>
+        <v>503</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6785,10 +6842,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="B413" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6796,10 +6853,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B414" t="s">
-        <v>511</v>
+        <v>77</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6807,10 +6864,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="B415" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -6818,10 +6875,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="B416" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -6829,10 +6886,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="B417" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -6840,10 +6897,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="B418" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -6851,10 +6908,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B419" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -6862,10 +6919,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B420" t="s">
-        <v>48</v>
+        <v>515</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -6873,10 +6930,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="B421" t="s">
-        <v>73</v>
+        <v>517</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -6884,10 +6941,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B422" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -6895,10 +6952,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B423" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -6906,10 +6963,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B424" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -6917,10 +6974,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B425" t="s">
-        <v>41</v>
+        <v>524</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -6928,10 +6985,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="B426" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -6939,10 +6996,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="B427" t="s">
-        <v>43</v>
+        <v>527</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -6950,10 +7007,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B428" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -6961,10 +7018,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B429" t="s">
-        <v>38</v>
+        <v>530</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -6972,10 +7029,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B430" t="s">
-        <v>88</v>
+        <v>532</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -6983,10 +7040,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B431" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -6994,10 +7051,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B432" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7005,10 +7062,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B433" t="s">
-        <v>367</v>
+        <v>530</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7016,10 +7073,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B434" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7027,10 +7084,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B435" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7038,10 +7095,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B436" t="s">
-        <v>19</v>
+        <v>539</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7049,10 +7106,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B437" t="s">
-        <v>79</v>
+        <v>541</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7060,10 +7117,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B438" t="s">
-        <v>12</v>
+        <v>543</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7071,10 +7128,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B439" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7082,10 +7139,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B440" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7093,10 +7150,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
+        <v>546</v>
+      </c>
+      <c r="B441" t="s">
         <v>547</v>
-      </c>
-      <c r="B441" t="s">
-        <v>432</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7107,7 +7164,7 @@
         <v>548</v>
       </c>
       <c r="B442" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7118,7 +7175,7 @@
         <v>549</v>
       </c>
       <c r="B443" t="s">
-        <v>88</v>
+        <v>530</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7129,7 +7186,7 @@
         <v>550</v>
       </c>
       <c r="B444" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7140,7 +7197,7 @@
         <v>551</v>
       </c>
       <c r="B445" t="s">
-        <v>552</v>
+        <v>100</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7148,10 +7205,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B446" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7159,10 +7216,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B447" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7170,10 +7227,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B448" t="s">
-        <v>552</v>
+        <v>65</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7181,10 +7238,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B449" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7192,10 +7249,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B450" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7203,10 +7260,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B451" t="s">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7214,10 +7271,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B452" t="s">
-        <v>83</v>
+        <v>386</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7225,10 +7282,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B453" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7236,10 +7293,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B454" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7247,10 +7304,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B455" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7258,10 +7315,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B456" t="s">
-        <v>265</v>
+        <v>106</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7269,10 +7326,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B457" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7280,10 +7337,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B458" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7291,10 +7348,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B459" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7302,10 +7359,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B460" t="s">
-        <v>4</v>
+        <v>451</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7313,10 +7370,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B461" t="s">
-        <v>267</v>
+        <v>20</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7324,10 +7381,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B462" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7335,10 +7392,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B463" t="s">
-        <v>272</v>
+        <v>118</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7346,10 +7403,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
+        <v>570</v>
+      </c>
+      <c r="B464" t="s">
         <v>571</v>
-      </c>
-      <c r="B464" t="s">
-        <v>111</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7360,7 +7417,7 @@
         <v>572</v>
       </c>
       <c r="B465" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7371,7 +7428,7 @@
         <v>573</v>
       </c>
       <c r="B466" t="s">
-        <v>259</v>
+        <v>113</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7382,7 +7439,7 @@
         <v>574</v>
       </c>
       <c r="B467" t="s">
-        <v>283</v>
+        <v>571</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7393,7 +7450,7 @@
         <v>575</v>
       </c>
       <c r="B468" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7404,7 +7461,7 @@
         <v>576</v>
       </c>
       <c r="B469" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7415,7 +7472,7 @@
         <v>577</v>
       </c>
       <c r="B470" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7426,7 +7483,7 @@
         <v>578</v>
       </c>
       <c r="B471" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7437,7 +7494,7 @@
         <v>579</v>
       </c>
       <c r="B472" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7448,7 +7505,7 @@
         <v>580</v>
       </c>
       <c r="B473" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7459,7 +7516,7 @@
         <v>581</v>
       </c>
       <c r="B474" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7470,7 +7527,7 @@
         <v>582</v>
       </c>
       <c r="B475" t="s">
-        <v>111</v>
+        <v>288</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7481,7 +7538,7 @@
         <v>583</v>
       </c>
       <c r="B476" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7492,7 +7549,7 @@
         <v>584</v>
       </c>
       <c r="B477" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7503,7 +7560,7 @@
         <v>585</v>
       </c>
       <c r="B478" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7514,7 +7571,7 @@
         <v>586</v>
       </c>
       <c r="B479" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7525,7 +7582,7 @@
         <v>587</v>
       </c>
       <c r="B480" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7536,7 +7593,7 @@
         <v>588</v>
       </c>
       <c r="B481" t="s">
-        <v>338</v>
+        <v>7</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7547,7 +7604,7 @@
         <v>589</v>
       </c>
       <c r="B482" t="s">
-        <v>361</v>
+        <v>4</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7558,7 +7615,7 @@
         <v>590</v>
       </c>
       <c r="B483" t="s">
-        <v>361</v>
+        <v>7</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7569,7 +7626,7 @@
         <v>591</v>
       </c>
       <c r="B484" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -7580,7 +7637,7 @@
         <v>592</v>
       </c>
       <c r="B485" t="s">
-        <v>12</v>
+        <v>283</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7591,7 +7648,7 @@
         <v>593</v>
       </c>
       <c r="B486" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7602,7 +7659,7 @@
         <v>594</v>
       </c>
       <c r="B487" t="s">
-        <v>369</v>
+        <v>135</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -7613,7 +7670,7 @@
         <v>595</v>
       </c>
       <c r="B488" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -7624,7 +7681,7 @@
         <v>596</v>
       </c>
       <c r="B489" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -7635,7 +7692,7 @@
         <v>597</v>
       </c>
       <c r="B490" t="s">
-        <v>7</v>
+        <v>138</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -7646,7 +7703,7 @@
         <v>598</v>
       </c>
       <c r="B491" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -7657,7 +7714,7 @@
         <v>599</v>
       </c>
       <c r="B492" t="s">
-        <v>338</v>
+        <v>133</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -7668,7 +7725,7 @@
         <v>600</v>
       </c>
       <c r="B493" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -7679,7 +7736,7 @@
         <v>601</v>
       </c>
       <c r="B494" t="s">
-        <v>361</v>
+        <v>7</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -7690,7 +7747,7 @@
         <v>602</v>
       </c>
       <c r="B495" t="s">
-        <v>361</v>
+        <v>135</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -7701,7 +7758,7 @@
         <v>603</v>
       </c>
       <c r="B496" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -7712,7 +7769,7 @@
         <v>604</v>
       </c>
       <c r="B497" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -7723,7 +7780,7 @@
         <v>605</v>
       </c>
       <c r="B498" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -7734,7 +7791,7 @@
         <v>606</v>
       </c>
       <c r="B499" t="s">
-        <v>367</v>
+        <v>20</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -7745,7 +7802,7 @@
         <v>607</v>
       </c>
       <c r="B500" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -7756,7 +7813,7 @@
         <v>608</v>
       </c>
       <c r="B501" t="s">
-        <v>369</v>
+        <v>30</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -7767,7 +7824,7 @@
         <v>609</v>
       </c>
       <c r="B502" t="s">
-        <v>369</v>
+        <v>30</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -7778,7 +7835,7 @@
         <v>610</v>
       </c>
       <c r="B503" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -7789,7 +7846,7 @@
         <v>611</v>
       </c>
       <c r="B504" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -7800,7 +7857,7 @@
         <v>612</v>
       </c>
       <c r="B505" t="s">
-        <v>86</v>
+        <v>386</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -7811,7 +7868,7 @@
         <v>613</v>
       </c>
       <c r="B506" t="s">
-        <v>470</v>
+        <v>388</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -7822,7 +7879,7 @@
         <v>614</v>
       </c>
       <c r="B507" t="s">
-        <v>470</v>
+        <v>110</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -7833,7 +7890,7 @@
         <v>615</v>
       </c>
       <c r="B508" t="s">
-        <v>475</v>
+        <v>110</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -7844,7 +7901,7 @@
         <v>616</v>
       </c>
       <c r="B509" t="s">
-        <v>477</v>
+        <v>17</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -7855,7 +7912,7 @@
         <v>617</v>
       </c>
       <c r="B510" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -7866,7 +7923,7 @@
         <v>618</v>
       </c>
       <c r="B511" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -7877,7 +7934,7 @@
         <v>619</v>
       </c>
       <c r="B512" t="s">
-        <v>552</v>
+        <v>185</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -7888,7 +7945,7 @@
         <v>620</v>
       </c>
       <c r="B513" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -7899,7 +7956,7 @@
         <v>621</v>
       </c>
       <c r="B514" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -7910,7 +7967,7 @@
         <v>622</v>
       </c>
       <c r="B515" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -7921,7 +7978,7 @@
         <v>623</v>
       </c>
       <c r="B516" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -7932,7 +7989,7 @@
         <v>624</v>
       </c>
       <c r="B517" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -7943,7 +8000,7 @@
         <v>625</v>
       </c>
       <c r="B518" t="s">
-        <v>34</v>
+        <v>386</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -7954,7 +8011,7 @@
         <v>626</v>
       </c>
       <c r="B519" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -7965,7 +8022,7 @@
         <v>627</v>
       </c>
       <c r="B520" t="s">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -7976,7 +8033,7 @@
         <v>628</v>
       </c>
       <c r="B521" t="s">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -7987,7 +8044,7 @@
         <v>629</v>
       </c>
       <c r="B522" t="s">
-        <v>630</v>
+        <v>65</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -7995,10 +8052,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B523" t="s">
-        <v>477</v>
+        <v>65</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8006,10 +8063,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B524" t="s">
-        <v>477</v>
+        <v>113</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8017,10 +8074,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B525" t="s">
-        <v>634</v>
+        <v>489</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8028,12 +8085,221 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
+        <v>633</v>
+      </c>
+      <c r="B526" t="s">
+        <v>489</v>
+      </c>
+      <c r="C526" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>634</v>
+      </c>
+      <c r="B527" t="s">
+        <v>494</v>
+      </c>
+      <c r="C527" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
         <v>635</v>
       </c>
-      <c r="B526" t="s">
-        <v>475</v>
-      </c>
-      <c r="C526" t="s">
+      <c r="B528" t="s">
+        <v>496</v>
+      </c>
+      <c r="C528" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>636</v>
+      </c>
+      <c r="B529" t="s">
+        <v>65</v>
+      </c>
+      <c r="C529" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>637</v>
+      </c>
+      <c r="B530" t="s">
+        <v>65</v>
+      </c>
+      <c r="C530" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>638</v>
+      </c>
+      <c r="B531" t="s">
+        <v>571</v>
+      </c>
+      <c r="C531" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>639</v>
+      </c>
+      <c r="B532" t="s">
+        <v>70</v>
+      </c>
+      <c r="C532" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>640</v>
+      </c>
+      <c r="B533" t="s">
+        <v>70</v>
+      </c>
+      <c r="C533" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>641</v>
+      </c>
+      <c r="B534" t="s">
+        <v>102</v>
+      </c>
+      <c r="C534" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>642</v>
+      </c>
+      <c r="B535" t="s">
+        <v>102</v>
+      </c>
+      <c r="C535" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>643</v>
+      </c>
+      <c r="B536" t="s">
+        <v>65</v>
+      </c>
+      <c r="C536" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>644</v>
+      </c>
+      <c r="B537" t="s">
+        <v>61</v>
+      </c>
+      <c r="C537" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>645</v>
+      </c>
+      <c r="B538" t="s">
+        <v>65</v>
+      </c>
+      <c r="C538" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>646</v>
+      </c>
+      <c r="B539" t="s">
+        <v>102</v>
+      </c>
+      <c r="C539" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>647</v>
+      </c>
+      <c r="B540" t="s">
+        <v>102</v>
+      </c>
+      <c r="C540" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>648</v>
+      </c>
+      <c r="B541" t="s">
+        <v>649</v>
+      </c>
+      <c r="C541" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>650</v>
+      </c>
+      <c r="B542" t="s">
+        <v>496</v>
+      </c>
+      <c r="C542" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>651</v>
+      </c>
+      <c r="B543" t="s">
+        <v>496</v>
+      </c>
+      <c r="C543" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>652</v>
+      </c>
+      <c r="B544" t="s">
+        <v>653</v>
+      </c>
+      <c r="C544" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>654</v>
+      </c>
+      <c r="B545" t="s">
+        <v>494</v>
+      </c>
+      <c r="C545" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid515469"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid965588"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="677">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,117 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>31/07/2025</t>
+  </si>
+  <si>
+    <t>1.006</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>30/07/2025</t>
+  </si>
+  <si>
+    <t>1.002</t>
+  </si>
+  <si>
+    <t>29/07/2025</t>
+  </si>
+  <si>
+    <t>1.005</t>
+  </si>
+  <si>
+    <t>28/07/2025</t>
+  </si>
+  <si>
+    <t>1.004</t>
+  </si>
+  <si>
+    <t>25/07/2025</t>
+  </si>
+  <si>
+    <t>1.001</t>
+  </si>
+  <si>
+    <t>24/07/2025</t>
+  </si>
+  <si>
+    <t>23/07/2025</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>22/07/2025</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>21/07/2025</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>18/07/2025</t>
+  </si>
+  <si>
+    <t>17/07/2025</t>
+  </si>
+  <si>
+    <t>0.995</t>
+  </si>
+  <si>
+    <t>16/07/2025</t>
+  </si>
+  <si>
+    <t>0.997</t>
+  </si>
+  <si>
+    <t>15/07/2025</t>
+  </si>
+  <si>
+    <t>14/07/2025</t>
+  </si>
+  <si>
+    <t>11/07/2025</t>
+  </si>
+  <si>
+    <t>10/07/2025</t>
+  </si>
+  <si>
+    <t>09/07/2025</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>08/07/2025</t>
+  </si>
+  <si>
+    <t>07/07/2025</t>
+  </si>
+  <si>
+    <t>04/07/2025</t>
+  </si>
+  <si>
+    <t>03/07/2025</t>
+  </si>
+  <si>
+    <t>02/07/2025</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
     <t>01/07/2025</t>
   </si>
   <si>
-    <t>0.995</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>30/06/2025</t>
   </si>
   <si>
-    <t>0.993</t>
-  </si>
-  <si>
     <t>27/06/2025</t>
   </si>
   <si>
@@ -431,9 +527,6 @@
     <t>26/02/2025</t>
   </si>
   <si>
-    <t>0.996</t>
-  </si>
-  <si>
     <t>25/02/2025</t>
   </si>
   <si>
@@ -446,9 +539,6 @@
     <t>21/02/2025</t>
   </si>
   <si>
-    <t>1.006</t>
-  </si>
-  <si>
     <t>20/02/2025</t>
   </si>
   <si>
@@ -521,9 +611,6 @@
     <t>03/02/2025</t>
   </si>
   <si>
-    <t>1.002</t>
-  </si>
-  <si>
     <t>31/01/2025</t>
   </si>
   <si>
@@ -536,9 +623,6 @@
     <t>27/01/2025</t>
   </si>
   <si>
-    <t>1.005</t>
-  </si>
-  <si>
     <t>24/01/2025</t>
   </si>
   <si>
@@ -563,9 +647,6 @@
     <t>15/01/2025</t>
   </si>
   <si>
-    <t>1.000</t>
-  </si>
-  <si>
     <t>14/01/2025</t>
   </si>
   <si>
@@ -581,9 +662,6 @@
     <t>09/01/2025</t>
   </si>
   <si>
-    <t>0.997</t>
-  </si>
-  <si>
     <t>08/01/2025</t>
   </si>
   <si>
@@ -611,9 +689,6 @@
     <t>26/12/2024</t>
   </si>
   <si>
-    <t>0.998</t>
-  </si>
-  <si>
     <t>24/12/2024</t>
   </si>
   <si>
@@ -719,9 +794,6 @@
     <t>18/11/2024</t>
   </si>
   <si>
-    <t>1.004</t>
-  </si>
-  <si>
     <t>15/11/2024</t>
   </si>
   <si>
@@ -761,13 +833,7 @@
     <t>29/10/2024</t>
   </si>
   <si>
-    <t>0.999</t>
-  </si>
-  <si>
     <t>28/10/2024</t>
-  </si>
-  <si>
-    <t>1.001</t>
   </si>
   <si>
     <t>25/10/2024</t>
@@ -2379,7 +2445,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2387,10 +2453,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2398,10 +2464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2423,7 +2489,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2456,7 +2522,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2464,10 +2530,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2475,10 +2541,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2486,10 +2552,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2497,10 +2563,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2508,10 +2574,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2519,10 +2585,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2530,10 +2596,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2541,10 +2607,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2552,10 +2618,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
         <v>37</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2563,10 +2629,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2574,10 +2640,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2585,7 +2651,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
@@ -2596,10 +2662,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
         <v>43</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2621,7 +2687,7 @@
         <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2629,10 +2695,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2640,10 +2706,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
         <v>49</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2651,10 +2717,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2662,10 +2728,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
         <v>52</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2673,10 +2739,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2684,10 +2750,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2695,10 +2761,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2706,10 +2772,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2717,10 +2783,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2728,10 +2794,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2739,10 +2805,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2750,10 +2816,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2761,10 +2827,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2772,10 +2838,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2783,10 +2849,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2830,7 +2896,7 @@
         <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2838,10 +2904,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2849,10 +2915,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2860,10 +2926,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2871,10 +2937,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2882,10 +2948,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2893,10 +2959,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2904,10 +2970,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2915,10 +2981,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2926,10 +2992,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2937,10 +3003,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -2948,10 +3014,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -2959,10 +3025,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -2970,10 +3036,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -2981,10 +3047,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -2992,10 +3058,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3003,10 +3069,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3014,10 +3080,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3025,10 +3091,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3036,10 +3102,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3047,10 +3113,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3058,10 +3124,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3069,10 +3135,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3080,10 +3146,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3091,10 +3157,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3102,10 +3168,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3113,10 +3179,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3124,10 +3190,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3135,10 +3201,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3146,10 +3212,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3157,10 +3223,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3168,10 +3234,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3179,10 +3245,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3190,10 +3256,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3201,10 +3267,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3212,10 +3278,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3223,10 +3289,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" t="s">
         <v>132</v>
-      </c>
-      <c r="B84" t="s">
-        <v>133</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3234,10 +3300,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>133</v>
+      </c>
+      <c r="B85" t="s">
         <v>134</v>
-      </c>
-      <c r="B85" t="s">
-        <v>135</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3245,10 +3311,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3256,10 +3322,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3267,10 +3333,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3278,10 +3344,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3289,10 +3355,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>141</v>
+      </c>
+      <c r="B90" t="s">
         <v>142</v>
-      </c>
-      <c r="B90" t="s">
-        <v>143</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3300,10 +3366,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B91" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3311,10 +3377,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B92" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3322,10 +3388,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3333,10 +3399,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3344,10 +3410,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3355,10 +3421,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B96" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3366,10 +3432,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B97" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3377,10 +3443,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B98" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3388,10 +3454,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3399,10 +3465,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B100" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3410,10 +3476,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3421,10 +3487,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B102" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3432,10 +3498,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B103" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3443,10 +3509,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3454,10 +3520,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B105" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3465,10 +3531,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B106" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3476,10 +3542,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B107" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3487,10 +3553,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B108" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3498,10 +3564,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B109" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3509,10 +3575,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B110" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3520,10 +3586,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B111" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3531,10 +3597,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B112" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3542,10 +3608,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B113" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3553,10 +3619,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B114" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3564,10 +3630,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B115" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3575,10 +3641,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>181</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3586,10 +3652,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B117" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3597,10 +3663,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3608,10 +3674,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B119" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3619,7 +3685,7 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B120" t="s">
         <v>188</v>
@@ -3630,10 +3696,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B121" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3641,10 +3707,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>190</v>
+      </c>
+      <c r="B122" t="s">
         <v>191</v>
-      </c>
-      <c r="B122" t="s">
-        <v>143</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3655,7 +3721,7 @@
         <v>192</v>
       </c>
       <c r="B123" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3663,10 +3729,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B124" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3674,10 +3740,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B125" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3685,7 +3751,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -3696,10 +3762,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B127" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3707,10 +3773,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B128" t="s">
-        <v>198</v>
+        <v>4</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3718,10 +3784,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B129" t="s">
-        <v>198</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3729,10 +3795,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B130" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3740,10 +3806,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B131" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3751,10 +3817,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B132" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3762,10 +3828,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B133" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3773,10 +3839,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B134" t="s">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3784,10 +3850,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B135" t="s">
-        <v>207</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3798,7 +3864,7 @@
         <v>208</v>
       </c>
       <c r="B136" t="s">
-        <v>207</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3809,7 +3875,7 @@
         <v>209</v>
       </c>
       <c r="B137" t="s">
-        <v>210</v>
+        <v>20</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3817,10 +3883,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B138" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3828,10 +3894,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B139" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3839,10 +3905,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B140" t="s">
-        <v>215</v>
+        <v>37</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3850,10 +3916,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B141" t="s">
-        <v>217</v>
+        <v>25</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3861,10 +3927,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B142" t="s">
-        <v>210</v>
+        <v>25</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3872,10 +3938,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B143" t="s">
-        <v>220</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3883,10 +3949,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B144" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3894,10 +3960,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B145" t="s">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3905,10 +3971,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B146" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3916,10 +3982,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B147" t="s">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3927,10 +3993,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B148" t="s">
-        <v>170</v>
+        <v>37</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3938,10 +4004,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B149" t="s">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3949,10 +4015,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B150" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3960,10 +4026,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B151" t="s">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3971,10 +4037,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B152" t="s">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3982,10 +4048,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B153" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3993,10 +4059,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B154" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4004,10 +4070,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B155" t="s">
-        <v>234</v>
+        <v>184</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4015,10 +4081,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B156" t="s">
-        <v>145</v>
+        <v>230</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4026,10 +4092,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B157" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4037,10 +4103,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B158" t="s">
-        <v>149</v>
+        <v>232</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4048,10 +4114,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B159" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4059,10 +4125,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4070,10 +4136,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>232</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4081,10 +4147,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B162" t="s">
-        <v>165</v>
+        <v>240</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4092,10 +4158,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
+        <v>241</v>
+      </c>
+      <c r="B163" t="s">
         <v>242</v>
-      </c>
-      <c r="B163" t="s">
-        <v>168</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4106,7 +4172,7 @@
         <v>243</v>
       </c>
       <c r="B164" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4117,7 +4183,7 @@
         <v>244</v>
       </c>
       <c r="B165" t="s">
-        <v>140</v>
+        <v>245</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4125,10 +4191,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4136,10 +4202,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4147,10 +4213,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B168" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4161,7 +4227,7 @@
         <v>249</v>
       </c>
       <c r="B169" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4169,10 +4235,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B170" t="s">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4180,10 +4246,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B171" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4191,10 +4257,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B172" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4202,10 +4268,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B173" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4213,10 +4279,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B174" t="s">
-        <v>234</v>
+        <v>4</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4224,10 +4290,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
+        <v>255</v>
+      </c>
+      <c r="B175" t="s">
         <v>256</v>
-      </c>
-      <c r="B175" t="s">
-        <v>234</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4238,7 +4304,7 @@
         <v>257</v>
       </c>
       <c r="B176" t="s">
-        <v>234</v>
+        <v>20</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4249,7 +4315,7 @@
         <v>258</v>
       </c>
       <c r="B177" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4260,7 +4326,7 @@
         <v>259</v>
       </c>
       <c r="B178" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4271,7 +4337,7 @@
         <v>260</v>
       </c>
       <c r="B179" t="s">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4282,7 +4348,7 @@
         <v>261</v>
       </c>
       <c r="B180" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4293,7 +4359,7 @@
         <v>262</v>
       </c>
       <c r="B181" t="s">
-        <v>250</v>
+        <v>179</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4304,7 +4370,7 @@
         <v>263</v>
       </c>
       <c r="B182" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4315,7 +4381,7 @@
         <v>264</v>
       </c>
       <c r="B183" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4326,7 +4392,7 @@
         <v>265</v>
       </c>
       <c r="B184" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4337,7 +4403,7 @@
         <v>266</v>
       </c>
       <c r="B185" t="s">
-        <v>248</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4348,7 +4414,7 @@
         <v>267</v>
       </c>
       <c r="B186" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4359,7 +4425,7 @@
         <v>268</v>
       </c>
       <c r="B187" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4370,7 +4436,7 @@
         <v>269</v>
       </c>
       <c r="B188" t="s">
-        <v>182</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4381,7 +4447,7 @@
         <v>270</v>
       </c>
       <c r="B189" t="s">
-        <v>168</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4392,7 +4458,7 @@
         <v>271</v>
       </c>
       <c r="B190" t="s">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4403,7 +4469,7 @@
         <v>272</v>
       </c>
       <c r="B191" t="s">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4414,7 +4480,7 @@
         <v>273</v>
       </c>
       <c r="B192" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4425,7 +4491,7 @@
         <v>274</v>
       </c>
       <c r="B193" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4436,7 +4502,7 @@
         <v>275</v>
       </c>
       <c r="B194" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4447,7 +4513,7 @@
         <v>276</v>
       </c>
       <c r="B195" t="s">
-        <v>182</v>
+        <v>20</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4458,7 +4524,7 @@
         <v>277</v>
       </c>
       <c r="B196" t="s">
-        <v>248</v>
+        <v>11</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4469,7 +4535,7 @@
         <v>278</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4480,7 +4546,7 @@
         <v>279</v>
       </c>
       <c r="B198" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4491,7 +4557,7 @@
         <v>280</v>
       </c>
       <c r="B199" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4502,7 +4568,7 @@
         <v>281</v>
       </c>
       <c r="B200" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4513,7 +4579,7 @@
         <v>282</v>
       </c>
       <c r="B201" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4521,10 +4587,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B202" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4532,7 +4598,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B203" t="s">
         <v>13</v>
@@ -4543,10 +4609,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B204" t="s">
-        <v>288</v>
+        <v>20</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4554,10 +4620,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B205" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4565,10 +4631,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B206" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4576,10 +4642,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B207" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4587,10 +4653,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4598,10 +4664,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B209" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4609,10 +4675,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B210" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4620,10 +4686,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B211" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4631,10 +4697,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B212" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4642,10 +4708,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B213" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4653,10 +4719,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B214" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4664,10 +4730,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B215" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4675,10 +4741,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B216" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4686,10 +4752,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B217" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4697,10 +4763,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B218" t="s">
-        <v>133</v>
+        <v>31</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4708,10 +4774,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B219" t="s">
-        <v>304</v>
+        <v>37</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4719,10 +4785,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B220" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4730,10 +4796,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B221" t="s">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4741,10 +4807,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B222" t="s">
-        <v>288</v>
+        <v>18</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4752,10 +4818,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B223" t="s">
-        <v>23</v>
+        <v>305</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4763,10 +4829,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B224" t="s">
-        <v>51</v>
+        <v>307</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4774,10 +4840,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B225" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4785,10 +4851,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B226" t="s">
-        <v>20</v>
+        <v>310</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4796,10 +4862,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B227" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4807,10 +4873,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B228" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4818,10 +4884,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B229" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4829,10 +4895,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B230" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4840,10 +4906,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B231" t="s">
-        <v>283</v>
+        <v>23</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4851,10 +4917,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B232" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4862,10 +4928,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B233" t="s">
-        <v>185</v>
+        <v>23</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4873,10 +4939,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B234" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4884,10 +4950,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B235" t="s">
-        <v>288</v>
+        <v>165</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4895,10 +4961,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B236" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4906,10 +4972,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B237" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4917,10 +4983,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B238" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4928,10 +4994,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B239" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4939,10 +5005,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B240" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -4950,10 +5016,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
+        <v>325</v>
+      </c>
+      <c r="B241" t="s">
         <v>326</v>
-      </c>
-      <c r="B241" t="s">
-        <v>234</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -4964,7 +5030,7 @@
         <v>327</v>
       </c>
       <c r="B242" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -4975,7 +5041,7 @@
         <v>328</v>
       </c>
       <c r="B243" t="s">
-        <v>154</v>
+        <v>310</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4986,7 +5052,7 @@
         <v>329</v>
       </c>
       <c r="B244" t="s">
-        <v>147</v>
+        <v>310</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -4997,7 +5063,7 @@
         <v>330</v>
       </c>
       <c r="B245" t="s">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5008,7 +5074,7 @@
         <v>331</v>
       </c>
       <c r="B246" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5019,7 +5085,7 @@
         <v>332</v>
       </c>
       <c r="B247" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5030,7 +5096,7 @@
         <v>333</v>
       </c>
       <c r="B248" t="s">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5041,7 +5107,7 @@
         <v>334</v>
       </c>
       <c r="B249" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5052,7 +5118,7 @@
         <v>335</v>
       </c>
       <c r="B250" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5063,7 +5129,7 @@
         <v>336</v>
       </c>
       <c r="B251" t="s">
-        <v>182</v>
+        <v>59</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5074,7 +5140,7 @@
         <v>337</v>
       </c>
       <c r="B252" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5085,7 +5151,7 @@
         <v>338</v>
       </c>
       <c r="B253" t="s">
-        <v>4</v>
+        <v>305</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5096,7 +5162,7 @@
         <v>339</v>
       </c>
       <c r="B254" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5107,7 +5173,7 @@
         <v>340</v>
       </c>
       <c r="B255" t="s">
-        <v>4</v>
+        <v>212</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5118,7 +5184,7 @@
         <v>341</v>
       </c>
       <c r="B256" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5129,7 +5195,7 @@
         <v>342</v>
       </c>
       <c r="B257" t="s">
-        <v>133</v>
+        <v>310</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5140,7 +5206,7 @@
         <v>343</v>
       </c>
       <c r="B258" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5151,7 +5217,7 @@
         <v>344</v>
       </c>
       <c r="B259" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5162,7 +5228,7 @@
         <v>345</v>
       </c>
       <c r="B260" t="s">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5173,7 +5239,7 @@
         <v>346</v>
       </c>
       <c r="B261" t="s">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5184,7 +5250,7 @@
         <v>347</v>
       </c>
       <c r="B262" t="s">
-        <v>250</v>
+        <v>13</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5195,7 +5261,7 @@
         <v>348</v>
       </c>
       <c r="B263" t="s">
-        <v>188</v>
+        <v>11</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5206,7 +5272,7 @@
         <v>349</v>
       </c>
       <c r="B264" t="s">
-        <v>248</v>
+        <v>199</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5217,7 +5283,7 @@
         <v>350</v>
       </c>
       <c r="B265" t="s">
-        <v>248</v>
+        <v>184</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5228,7 +5294,7 @@
         <v>351</v>
       </c>
       <c r="B266" t="s">
-        <v>283</v>
+        <v>177</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5239,7 +5305,7 @@
         <v>352</v>
       </c>
       <c r="B267" t="s">
-        <v>9</v>
+        <v>184</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5250,7 +5316,7 @@
         <v>353</v>
       </c>
       <c r="B268" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5261,7 +5327,7 @@
         <v>354</v>
       </c>
       <c r="B269" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5272,7 +5338,7 @@
         <v>355</v>
       </c>
       <c r="B270" t="s">
-        <v>185</v>
+        <v>4</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5283,7 +5349,7 @@
         <v>356</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5294,7 +5360,7 @@
         <v>357</v>
       </c>
       <c r="B272" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5305,7 +5371,7 @@
         <v>358</v>
       </c>
       <c r="B273" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5316,7 +5382,7 @@
         <v>359</v>
       </c>
       <c r="B274" t="s">
-        <v>288</v>
+        <v>23</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5327,7 +5393,7 @@
         <v>360</v>
       </c>
       <c r="B275" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5338,7 +5404,7 @@
         <v>361</v>
       </c>
       <c r="B276" t="s">
-        <v>304</v>
+        <v>25</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5349,7 +5415,7 @@
         <v>362</v>
       </c>
       <c r="B277" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5360,7 +5426,7 @@
         <v>363</v>
       </c>
       <c r="B278" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5371,7 +5437,7 @@
         <v>364</v>
       </c>
       <c r="B279" t="s">
-        <v>283</v>
+        <v>165</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5382,7 +5448,7 @@
         <v>365</v>
       </c>
       <c r="B280" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5393,7 +5459,7 @@
         <v>366</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5404,7 +5470,7 @@
         <v>367</v>
       </c>
       <c r="B282" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5415,7 +5481,7 @@
         <v>368</v>
       </c>
       <c r="B283" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5426,7 +5492,7 @@
         <v>369</v>
       </c>
       <c r="B284" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5437,7 +5503,7 @@
         <v>370</v>
       </c>
       <c r="B285" t="s">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5448,7 +5514,7 @@
         <v>371</v>
       </c>
       <c r="B286" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5459,7 +5525,7 @@
         <v>372</v>
       </c>
       <c r="B287" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5470,7 +5536,7 @@
         <v>373</v>
       </c>
       <c r="B288" t="s">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5481,7 +5547,7 @@
         <v>374</v>
       </c>
       <c r="B289" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5492,7 +5558,7 @@
         <v>375</v>
       </c>
       <c r="B290" t="s">
-        <v>304</v>
+        <v>171</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5503,7 +5569,7 @@
         <v>376</v>
       </c>
       <c r="B291" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5514,7 +5580,7 @@
         <v>377</v>
       </c>
       <c r="B292" t="s">
-        <v>288</v>
+        <v>212</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5525,7 +5591,7 @@
         <v>378</v>
       </c>
       <c r="B293" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5536,7 +5602,7 @@
         <v>379</v>
       </c>
       <c r="B294" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5547,7 +5613,7 @@
         <v>380</v>
       </c>
       <c r="B295" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5558,7 +5624,7 @@
         <v>381</v>
       </c>
       <c r="B296" t="s">
-        <v>129</v>
+        <v>310</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5569,7 +5635,7 @@
         <v>382</v>
       </c>
       <c r="B297" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5580,7 +5646,7 @@
         <v>383</v>
       </c>
       <c r="B298" t="s">
-        <v>23</v>
+        <v>326</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5591,7 +5657,7 @@
         <v>384</v>
       </c>
       <c r="B299" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5602,7 +5668,7 @@
         <v>385</v>
       </c>
       <c r="B300" t="s">
-        <v>386</v>
+        <v>167</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5610,10 +5676,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B301" t="s">
-        <v>388</v>
+        <v>305</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5621,10 +5687,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B302" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5632,10 +5698,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B303" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5643,10 +5709,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B304" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5654,10 +5720,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B305" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5665,10 +5731,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B306" t="s">
-        <v>4</v>
+        <v>165</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5676,10 +5742,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B307" t="s">
-        <v>138</v>
+        <v>305</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5687,10 +5753,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B308" t="s">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5698,10 +5764,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B309" t="s">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5709,10 +5775,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B310" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5720,10 +5786,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B311" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5731,10 +5797,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B312" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5742,10 +5808,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B313" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5753,10 +5819,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B314" t="s">
-        <v>145</v>
+        <v>310</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5764,10 +5830,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B315" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5775,10 +5841,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B316" t="s">
-        <v>234</v>
+        <v>57</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5786,10 +5852,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B317" t="s">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5797,10 +5863,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B318" t="s">
-        <v>234</v>
+        <v>161</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5808,10 +5874,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B319" t="s">
-        <v>234</v>
+        <v>73</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5819,10 +5885,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B320" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5830,10 +5896,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B321" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5841,10 +5907,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B322" t="s">
-        <v>7</v>
+        <v>408</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5852,10 +5918,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
+        <v>409</v>
+      </c>
+      <c r="B323" t="s">
         <v>410</v>
-      </c>
-      <c r="B323" t="s">
-        <v>182</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5866,7 +5932,7 @@
         <v>411</v>
       </c>
       <c r="B324" t="s">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5877,7 +5943,7 @@
         <v>412</v>
       </c>
       <c r="B325" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5888,7 +5954,7 @@
         <v>413</v>
       </c>
       <c r="B326" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5899,7 +5965,7 @@
         <v>414</v>
       </c>
       <c r="B327" t="s">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5910,7 +5976,7 @@
         <v>415</v>
       </c>
       <c r="B328" t="s">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5921,7 +5987,7 @@
         <v>416</v>
       </c>
       <c r="B329" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5932,7 +5998,7 @@
         <v>417</v>
       </c>
       <c r="B330" t="s">
-        <v>231</v>
+        <v>7</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5943,7 +6009,7 @@
         <v>418</v>
       </c>
       <c r="B331" t="s">
-        <v>182</v>
+        <v>13</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -5954,7 +6020,7 @@
         <v>419</v>
       </c>
       <c r="B332" t="s">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -5965,7 +6031,7 @@
         <v>420</v>
       </c>
       <c r="B333" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -5976,7 +6042,7 @@
         <v>421</v>
       </c>
       <c r="B334" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -5987,7 +6053,7 @@
         <v>422</v>
       </c>
       <c r="B335" t="s">
-        <v>188</v>
+        <v>31</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -5998,7 +6064,7 @@
         <v>423</v>
       </c>
       <c r="B336" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6009,7 +6075,7 @@
         <v>424</v>
       </c>
       <c r="B337" t="s">
-        <v>4</v>
+        <v>175</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6020,7 +6086,7 @@
         <v>425</v>
       </c>
       <c r="B338" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6031,7 +6097,7 @@
         <v>426</v>
       </c>
       <c r="B339" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6042,7 +6108,7 @@
         <v>427</v>
       </c>
       <c r="B340" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6053,7 +6119,7 @@
         <v>428</v>
       </c>
       <c r="B341" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6064,7 +6130,7 @@
         <v>429</v>
       </c>
       <c r="B342" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6075,7 +6141,7 @@
         <v>430</v>
       </c>
       <c r="B343" t="s">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6086,7 +6152,7 @@
         <v>431</v>
       </c>
       <c r="B344" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6097,7 +6163,7 @@
         <v>432</v>
       </c>
       <c r="B345" t="s">
-        <v>198</v>
+        <v>20</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6108,7 +6174,7 @@
         <v>433</v>
       </c>
       <c r="B346" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6119,7 +6185,7 @@
         <v>434</v>
       </c>
       <c r="B347" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6130,7 +6196,7 @@
         <v>435</v>
       </c>
       <c r="B348" t="s">
-        <v>188</v>
+        <v>9</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6141,7 +6207,7 @@
         <v>436</v>
       </c>
       <c r="B349" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6152,7 +6218,7 @@
         <v>437</v>
       </c>
       <c r="B350" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6163,7 +6229,7 @@
         <v>438</v>
       </c>
       <c r="B351" t="s">
-        <v>304</v>
+        <v>186</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6174,7 +6240,7 @@
         <v>439</v>
       </c>
       <c r="B352" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6185,7 +6251,7 @@
         <v>440</v>
       </c>
       <c r="B353" t="s">
-        <v>304</v>
+        <v>20</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6196,7 +6262,7 @@
         <v>441</v>
       </c>
       <c r="B354" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6207,7 +6273,7 @@
         <v>442</v>
       </c>
       <c r="B355" t="s">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6218,7 +6284,7 @@
         <v>443</v>
       </c>
       <c r="B356" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6229,7 +6295,7 @@
         <v>444</v>
       </c>
       <c r="B357" t="s">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6240,7 +6306,7 @@
         <v>445</v>
       </c>
       <c r="B358" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6251,7 +6317,7 @@
         <v>446</v>
       </c>
       <c r="B359" t="s">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6262,7 +6328,7 @@
         <v>447</v>
       </c>
       <c r="B360" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6273,7 +6339,7 @@
         <v>448</v>
       </c>
       <c r="B361" t="s">
-        <v>288</v>
+        <v>23</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6284,7 +6350,7 @@
         <v>449</v>
       </c>
       <c r="B362" t="s">
-        <v>285</v>
+        <v>41</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6295,7 +6361,7 @@
         <v>450</v>
       </c>
       <c r="B363" t="s">
-        <v>451</v>
+        <v>45</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6303,10 +6369,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B364" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6314,10 +6380,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B365" t="s">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6325,10 +6391,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B366" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6336,10 +6402,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B367" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6347,10 +6413,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B368" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6358,10 +6424,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B369" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6369,10 +6435,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B370" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6380,10 +6446,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B371" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6391,10 +6457,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B372" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6402,10 +6468,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B373" t="s">
-        <v>17</v>
+        <v>326</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6413,10 +6479,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B374" t="s">
-        <v>51</v>
+        <v>326</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6424,10 +6490,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B375" t="s">
-        <v>129</v>
+        <v>326</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6435,10 +6501,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B376" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6446,10 +6512,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B377" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6457,10 +6523,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B378" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6468,10 +6534,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B379" t="s">
-        <v>283</v>
+        <v>167</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6479,10 +6545,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B380" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6490,10 +6556,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B381" t="s">
-        <v>185</v>
+        <v>307</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6501,10 +6567,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B382" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6512,10 +6578,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B383" t="s">
-        <v>135</v>
+        <v>310</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6523,10 +6589,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B384" t="s">
-        <v>11</v>
+        <v>307</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6534,10 +6600,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
+        <v>472</v>
+      </c>
+      <c r="B385" t="s">
         <v>473</v>
-      </c>
-      <c r="B385" t="s">
-        <v>304</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6548,7 +6614,7 @@
         <v>474</v>
       </c>
       <c r="B386" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6559,7 +6625,7 @@
         <v>475</v>
       </c>
       <c r="B387" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6570,7 +6636,7 @@
         <v>476</v>
       </c>
       <c r="B388" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6581,7 +6647,7 @@
         <v>477</v>
       </c>
       <c r="B389" t="s">
-        <v>108</v>
+        <v>43</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6592,7 +6658,7 @@
         <v>478</v>
       </c>
       <c r="B390" t="s">
-        <v>386</v>
+        <v>43</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6603,7 +6669,7 @@
         <v>479</v>
       </c>
       <c r="B391" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6614,7 +6680,7 @@
         <v>480</v>
       </c>
       <c r="B392" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6625,7 +6691,7 @@
         <v>481</v>
       </c>
       <c r="B393" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6636,7 +6702,7 @@
         <v>482</v>
       </c>
       <c r="B394" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6647,7 +6713,7 @@
         <v>483</v>
       </c>
       <c r="B395" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6658,7 +6724,7 @@
         <v>484</v>
       </c>
       <c r="B396" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6669,7 +6735,7 @@
         <v>485</v>
       </c>
       <c r="B397" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6680,7 +6746,7 @@
         <v>486</v>
       </c>
       <c r="B398" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6691,7 +6757,7 @@
         <v>487</v>
       </c>
       <c r="B399" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6702,7 +6768,7 @@
         <v>488</v>
       </c>
       <c r="B400" t="s">
-        <v>489</v>
+        <v>171</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6710,10 +6776,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B401" t="s">
-        <v>489</v>
+        <v>305</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6721,10 +6787,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B402" t="s">
-        <v>489</v>
+        <v>212</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6732,10 +6798,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B403" t="s">
-        <v>489</v>
+        <v>212</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6743,10 +6809,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B404" t="s">
-        <v>494</v>
+        <v>45</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6754,10 +6820,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B405" t="s">
-        <v>496</v>
+        <v>167</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6765,10 +6831,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B406" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6776,10 +6842,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B407" t="s">
-        <v>489</v>
+        <v>326</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6787,10 +6853,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B408" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6798,10 +6864,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B409" t="s">
-        <v>494</v>
+        <v>43</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6809,10 +6875,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B410" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6820,10 +6886,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B411" t="s">
-        <v>503</v>
+        <v>140</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6831,10 +6897,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B412" t="s">
-        <v>503</v>
+        <v>408</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6842,10 +6908,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B413" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6853,10 +6919,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B414" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6864,10 +6930,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B415" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -6875,10 +6941,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B416" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -6886,10 +6952,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B417" t="s">
-        <v>510</v>
+        <v>77</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -6897,10 +6963,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B418" t="s">
-        <v>510</v>
+        <v>90</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -6908,10 +6974,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B419" t="s">
-        <v>513</v>
+        <v>90</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -6919,10 +6985,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B420" t="s">
-        <v>515</v>
+        <v>156</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -6930,10 +6996,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B421" t="s">
-        <v>517</v>
+        <v>95</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -6941,10 +7007,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="B422" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -6952,10 +7018,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="B423" t="s">
-        <v>79</v>
+        <v>511</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -6963,10 +7029,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="B424" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -6974,10 +7040,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B425" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -6985,10 +7051,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="B426" t="s">
-        <v>91</v>
+        <v>516</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -6996,10 +7062,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B427" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7007,10 +7073,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B428" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7018,10 +7084,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B429" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7029,10 +7095,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B430" t="s">
-        <v>532</v>
+        <v>134</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7040,10 +7106,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B431" t="s">
-        <v>100</v>
+        <v>516</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7051,10 +7117,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="B432" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7062,10 +7128,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B433" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7073,10 +7139,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="B434" t="s">
-        <v>91</v>
+        <v>525</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7084,10 +7150,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B435" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7095,10 +7161,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B436" t="s">
-        <v>539</v>
+        <v>109</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7106,10 +7172,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="B437" t="s">
-        <v>541</v>
+        <v>118</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7117,10 +7183,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="B438" t="s">
-        <v>543</v>
+        <v>130</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7128,10 +7194,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="B439" t="s">
-        <v>75</v>
+        <v>532</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7139,10 +7205,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B440" t="s">
-        <v>100</v>
+        <v>532</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7150,10 +7216,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B441" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7161,10 +7227,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="B442" t="s">
-        <v>75</v>
+        <v>537</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7172,10 +7238,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="B443" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7183,10 +7249,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B444" t="s">
-        <v>68</v>
+        <v>541</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7194,10 +7260,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B445" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7205,10 +7271,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B446" t="s">
-        <v>70</v>
+        <v>544</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7216,10 +7282,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B447" t="s">
-        <v>58</v>
+        <v>546</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7227,10 +7293,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="B448" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7238,10 +7304,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B449" t="s">
-        <v>115</v>
+        <v>549</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7249,10 +7315,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B450" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7260,10 +7326,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B451" t="s">
-        <v>38</v>
+        <v>552</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7271,10 +7337,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B452" t="s">
-        <v>386</v>
+        <v>554</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7282,10 +7348,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="B453" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7293,10 +7359,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B454" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7304,10 +7370,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B455" t="s">
-        <v>48</v>
+        <v>552</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7315,10 +7381,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B456" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7326,10 +7392,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B457" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7337,10 +7403,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B458" t="s">
-        <v>20</v>
+        <v>561</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7348,10 +7414,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B459" t="s">
-        <v>27</v>
+        <v>563</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7359,10 +7425,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B460" t="s">
-        <v>451</v>
+        <v>565</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7370,10 +7436,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B461" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7381,10 +7447,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B462" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7392,10 +7458,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
+        <v>568</v>
+      </c>
+      <c r="B463" t="s">
         <v>569</v>
-      </c>
-      <c r="B463" t="s">
-        <v>118</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7406,7 +7472,7 @@
         <v>570</v>
       </c>
       <c r="B464" t="s">
-        <v>571</v>
+        <v>107</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7414,10 +7480,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B465" t="s">
-        <v>115</v>
+        <v>552</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7425,10 +7491,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B466" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7436,10 +7502,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B467" t="s">
-        <v>571</v>
+        <v>132</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7447,10 +7513,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B468" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7458,10 +7524,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B469" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7469,10 +7535,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B470" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7480,10 +7546,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B471" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7491,10 +7557,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B472" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7502,10 +7568,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B473" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7513,10 +7579,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B474" t="s">
-        <v>17</v>
+        <v>408</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7524,10 +7590,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B475" t="s">
-        <v>288</v>
+        <v>70</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7535,10 +7601,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B476" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7546,10 +7612,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B477" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7557,10 +7623,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B478" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7568,10 +7634,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B479" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7579,10 +7645,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B480" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7590,10 +7656,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B481" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7601,10 +7667,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B482" t="s">
-        <v>4</v>
+        <v>473</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7612,10 +7678,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B483" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7623,10 +7689,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B484" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -7634,10 +7700,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B485" t="s">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7645,10 +7711,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
+        <v>592</v>
+      </c>
+      <c r="B486" t="s">
         <v>593</v>
-      </c>
-      <c r="B486" t="s">
-        <v>304</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7659,7 +7725,7 @@
         <v>594</v>
       </c>
       <c r="B487" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -7670,7 +7736,7 @@
         <v>595</v>
       </c>
       <c r="B488" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -7681,7 +7747,7 @@
         <v>596</v>
       </c>
       <c r="B489" t="s">
-        <v>9</v>
+        <v>593</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -7692,7 +7758,7 @@
         <v>597</v>
       </c>
       <c r="B490" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -7703,7 +7769,7 @@
         <v>598</v>
       </c>
       <c r="B491" t="s">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -7714,7 +7780,7 @@
         <v>599</v>
       </c>
       <c r="B492" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -7725,7 +7791,7 @@
         <v>600</v>
       </c>
       <c r="B493" t="s">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -7736,7 +7802,7 @@
         <v>601</v>
       </c>
       <c r="B494" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -7747,7 +7813,7 @@
         <v>602</v>
       </c>
       <c r="B495" t="s">
-        <v>135</v>
+        <v>49</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -7758,7 +7824,7 @@
         <v>603</v>
       </c>
       <c r="B496" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -7769,7 +7835,7 @@
         <v>604</v>
       </c>
       <c r="B497" t="s">
-        <v>17</v>
+        <v>310</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -7780,7 +7846,7 @@
         <v>605</v>
       </c>
       <c r="B498" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -7791,7 +7857,7 @@
         <v>606</v>
       </c>
       <c r="B499" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -7802,7 +7868,7 @@
         <v>607</v>
       </c>
       <c r="B500" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -7813,7 +7879,7 @@
         <v>608</v>
       </c>
       <c r="B501" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -7824,7 +7890,7 @@
         <v>609</v>
       </c>
       <c r="B502" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -7835,7 +7901,7 @@
         <v>610</v>
       </c>
       <c r="B503" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -7846,7 +7912,7 @@
         <v>611</v>
       </c>
       <c r="B504" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -7857,7 +7923,7 @@
         <v>612</v>
       </c>
       <c r="B505" t="s">
-        <v>386</v>
+        <v>37</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -7868,7 +7934,7 @@
         <v>613</v>
       </c>
       <c r="B506" t="s">
-        <v>388</v>
+        <v>18</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -7879,7 +7945,7 @@
         <v>614</v>
       </c>
       <c r="B507" t="s">
-        <v>110</v>
+        <v>305</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -7890,7 +7956,7 @@
         <v>615</v>
       </c>
       <c r="B508" t="s">
-        <v>110</v>
+        <v>326</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -7901,7 +7967,7 @@
         <v>616</v>
       </c>
       <c r="B509" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -7912,7 +7978,7 @@
         <v>617</v>
       </c>
       <c r="B510" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -7923,7 +7989,7 @@
         <v>618</v>
       </c>
       <c r="B511" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -7934,7 +8000,7 @@
         <v>619</v>
       </c>
       <c r="B512" t="s">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -7945,7 +8011,7 @@
         <v>620</v>
       </c>
       <c r="B513" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -7956,7 +8022,7 @@
         <v>621</v>
       </c>
       <c r="B514" t="s">
-        <v>30</v>
+        <v>165</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -7967,7 +8033,7 @@
         <v>622</v>
       </c>
       <c r="B515" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -7978,7 +8044,7 @@
         <v>623</v>
       </c>
       <c r="B516" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -7989,7 +8055,7 @@
         <v>624</v>
       </c>
       <c r="B517" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8000,7 +8066,7 @@
         <v>625</v>
       </c>
       <c r="B518" t="s">
-        <v>386</v>
+        <v>161</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8011,7 +8077,7 @@
         <v>626</v>
       </c>
       <c r="B519" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8022,7 +8088,7 @@
         <v>627</v>
       </c>
       <c r="B520" t="s">
-        <v>388</v>
+        <v>49</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8033,7 +8099,7 @@
         <v>628</v>
       </c>
       <c r="B521" t="s">
-        <v>388</v>
+        <v>52</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8044,7 +8110,7 @@
         <v>629</v>
       </c>
       <c r="B522" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8055,7 +8121,7 @@
         <v>630</v>
       </c>
       <c r="B523" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8066,7 +8132,7 @@
         <v>631</v>
       </c>
       <c r="B524" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8077,7 +8143,7 @@
         <v>632</v>
       </c>
       <c r="B525" t="s">
-        <v>489</v>
+        <v>47</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8088,7 +8154,7 @@
         <v>633</v>
       </c>
       <c r="B526" t="s">
-        <v>489</v>
+        <v>73</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8099,7 +8165,7 @@
         <v>634</v>
       </c>
       <c r="B527" t="s">
-        <v>494</v>
+        <v>408</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8110,7 +8176,7 @@
         <v>635</v>
       </c>
       <c r="B528" t="s">
-        <v>496</v>
+        <v>410</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8121,7 +8187,7 @@
         <v>636</v>
       </c>
       <c r="B529" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8132,7 +8198,7 @@
         <v>637</v>
       </c>
       <c r="B530" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8143,7 +8209,7 @@
         <v>638</v>
       </c>
       <c r="B531" t="s">
-        <v>571</v>
+        <v>49</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8154,7 +8220,7 @@
         <v>639</v>
       </c>
       <c r="B532" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8165,7 +8231,7 @@
         <v>640</v>
       </c>
       <c r="B533" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8176,7 +8242,7 @@
         <v>641</v>
       </c>
       <c r="B534" t="s">
-        <v>102</v>
+        <v>212</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8187,7 +8253,7 @@
         <v>642</v>
       </c>
       <c r="B535" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8198,7 +8264,7 @@
         <v>643</v>
       </c>
       <c r="B536" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8209,7 +8275,7 @@
         <v>644</v>
       </c>
       <c r="B537" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8220,7 +8286,7 @@
         <v>645</v>
       </c>
       <c r="B538" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8231,7 +8297,7 @@
         <v>646</v>
       </c>
       <c r="B539" t="s">
-        <v>102</v>
+        <v>49</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8242,7 +8308,7 @@
         <v>647</v>
       </c>
       <c r="B540" t="s">
-        <v>102</v>
+        <v>408</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8253,7 +8319,7 @@
         <v>648</v>
       </c>
       <c r="B541" t="s">
-        <v>649</v>
+        <v>49</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8261,10 +8327,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B542" t="s">
-        <v>496</v>
+        <v>410</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8272,10 +8338,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B543" t="s">
-        <v>496</v>
+        <v>410</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8283,10 +8349,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B544" t="s">
-        <v>653</v>
+        <v>97</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8294,12 +8360,254 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
+        <v>652</v>
+      </c>
+      <c r="B545" t="s">
+        <v>97</v>
+      </c>
+      <c r="C545" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>653</v>
+      </c>
+      <c r="B546" t="s">
+        <v>145</v>
+      </c>
+      <c r="C546" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
         <v>654</v>
       </c>
-      <c r="B545" t="s">
-        <v>494</v>
-      </c>
-      <c r="C545" t="s">
+      <c r="B547" t="s">
+        <v>511</v>
+      </c>
+      <c r="C547" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>655</v>
+      </c>
+      <c r="B548" t="s">
+        <v>511</v>
+      </c>
+      <c r="C548" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>656</v>
+      </c>
+      <c r="B549" t="s">
+        <v>516</v>
+      </c>
+      <c r="C549" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>657</v>
+      </c>
+      <c r="B550" t="s">
+        <v>518</v>
+      </c>
+      <c r="C550" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>658</v>
+      </c>
+      <c r="B551" t="s">
+        <v>97</v>
+      </c>
+      <c r="C551" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>659</v>
+      </c>
+      <c r="B552" t="s">
+        <v>97</v>
+      </c>
+      <c r="C552" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>660</v>
+      </c>
+      <c r="B553" t="s">
+        <v>593</v>
+      </c>
+      <c r="C553" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>661</v>
+      </c>
+      <c r="B554" t="s">
+        <v>102</v>
+      </c>
+      <c r="C554" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>662</v>
+      </c>
+      <c r="B555" t="s">
+        <v>102</v>
+      </c>
+      <c r="C555" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>663</v>
+      </c>
+      <c r="B556" t="s">
+        <v>134</v>
+      </c>
+      <c r="C556" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>664</v>
+      </c>
+      <c r="B557" t="s">
+        <v>134</v>
+      </c>
+      <c r="C557" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>665</v>
+      </c>
+      <c r="B558" t="s">
+        <v>97</v>
+      </c>
+      <c r="C558" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>666</v>
+      </c>
+      <c r="B559" t="s">
+        <v>93</v>
+      </c>
+      <c r="C559" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>667</v>
+      </c>
+      <c r="B560" t="s">
+        <v>97</v>
+      </c>
+      <c r="C560" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>668</v>
+      </c>
+      <c r="B561" t="s">
+        <v>134</v>
+      </c>
+      <c r="C561" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>669</v>
+      </c>
+      <c r="B562" t="s">
+        <v>134</v>
+      </c>
+      <c r="C562" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>670</v>
+      </c>
+      <c r="B563" t="s">
+        <v>671</v>
+      </c>
+      <c r="C563" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>672</v>
+      </c>
+      <c r="B564" t="s">
+        <v>518</v>
+      </c>
+      <c r="C564" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>673</v>
+      </c>
+      <c r="B565" t="s">
+        <v>518</v>
+      </c>
+      <c r="C565" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>674</v>
+      </c>
+      <c r="B566" t="s">
+        <v>675</v>
+      </c>
+      <c r="C566" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>676</v>
+      </c>
+      <c r="B567" t="s">
+        <v>516</v>
+      </c>
+      <c r="C567" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid965588"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid46495"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="699">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,48 +26,138 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>1.004</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>28/08/2025</t>
+  </si>
+  <si>
+    <t>27/08/2025</t>
+  </si>
+  <si>
+    <t>1.002</t>
+  </si>
+  <si>
+    <t>26/08/2025</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>25/08/2025</t>
+  </si>
+  <si>
+    <t>1.001</t>
+  </si>
+  <si>
+    <t>22/08/2025</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>21/08/2025</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>20/08/2025</t>
+  </si>
+  <si>
+    <t>19/08/2025</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>18/08/2025</t>
+  </si>
+  <si>
+    <t>1.005</t>
+  </si>
+  <si>
+    <t>15/08/2025</t>
+  </si>
+  <si>
+    <t>1.006</t>
+  </si>
+  <si>
+    <t>14/08/2025</t>
+  </si>
+  <si>
+    <t>13/08/2025</t>
+  </si>
+  <si>
+    <t>1.007</t>
+  </si>
+  <si>
+    <t>12/08/2025</t>
+  </si>
+  <si>
+    <t>11/08/2025</t>
+  </si>
+  <si>
+    <t>08/08/2025</t>
+  </si>
+  <si>
+    <t>07/08/2025</t>
+  </si>
+  <si>
+    <t>1.003</t>
+  </si>
+  <si>
+    <t>06/08/2025</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>05/08/2025</t>
+  </si>
+  <si>
+    <t>04/08/2025</t>
+  </si>
+  <si>
+    <t>0.997</t>
+  </si>
+  <si>
+    <t>01/08/2025</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
     <t>31/07/2025</t>
   </si>
   <si>
-    <t>1.006</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>30/07/2025</t>
   </si>
   <si>
-    <t>1.002</t>
-  </si>
-  <si>
     <t>29/07/2025</t>
   </si>
   <si>
-    <t>1.005</t>
-  </si>
-  <si>
     <t>28/07/2025</t>
   </si>
   <si>
-    <t>1.004</t>
-  </si>
-  <si>
     <t>25/07/2025</t>
   </si>
   <si>
-    <t>1.001</t>
-  </si>
-  <si>
     <t>24/07/2025</t>
   </si>
   <si>
     <t>23/07/2025</t>
   </si>
   <si>
-    <t>0.998</t>
-  </si>
-  <si>
     <t>22/07/2025</t>
   </si>
   <si>
@@ -77,9 +167,6 @@
     <t>21/07/2025</t>
   </si>
   <si>
-    <t>1.000</t>
-  </si>
-  <si>
     <t>18/07/2025</t>
   </si>
   <si>
@@ -92,9 +179,6 @@
     <t>16/07/2025</t>
   </si>
   <si>
-    <t>0.997</t>
-  </si>
-  <si>
     <t>15/07/2025</t>
   </si>
   <si>
@@ -110,9 +194,6 @@
     <t>09/07/2025</t>
   </si>
   <si>
-    <t>0.999</t>
-  </si>
-  <si>
     <t>08/07/2025</t>
   </si>
   <si>
@@ -140,9 +221,6 @@
     <t>27/06/2025</t>
   </si>
   <si>
-    <t>0.991</t>
-  </si>
-  <si>
     <t>26/06/2025</t>
   </si>
   <si>
@@ -512,9 +590,6 @@
     <t>03/03/2025</t>
   </si>
   <si>
-    <t>0.994</t>
-  </si>
-  <si>
     <t>28/02/2025</t>
   </si>
   <si>
@@ -530,9 +605,6 @@
     <t>25/02/2025</t>
   </si>
   <si>
-    <t>0.992</t>
-  </si>
-  <si>
     <t>24/02/2025</t>
   </si>
   <si>
@@ -542,9 +614,6 @@
     <t>20/02/2025</t>
   </si>
   <si>
-    <t>1.007</t>
-  </si>
-  <si>
     <t>19/02/2025</t>
   </si>
   <si>
@@ -783,9 +852,6 @@
   </si>
   <si>
     <t>20/11/2024</t>
-  </si>
-  <si>
-    <t>1.003</t>
   </si>
   <si>
     <t>19/11/2024</t>
@@ -2401,7 +2467,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2409,10 +2475,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2420,10 +2486,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2431,10 +2497,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2442,7 +2508,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -2453,10 +2519,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2464,10 +2530,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2475,10 +2541,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2486,10 +2552,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2497,10 +2563,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2508,10 +2574,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2519,10 +2585,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2530,10 +2596,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2544,7 +2610,7 @@
         <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2555,7 +2621,7 @@
         <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2566,7 +2632,7 @@
         <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2574,10 +2640,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2588,7 +2654,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2596,10 +2662,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2607,10 +2673,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2618,10 +2684,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2629,10 +2695,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2640,10 +2706,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2651,10 +2717,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2662,10 +2728,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2676,7 +2742,7 @@
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2684,10 +2750,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2695,10 +2761,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2706,10 +2772,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2717,10 +2783,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2728,10 +2794,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2739,10 +2805,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2750,10 +2816,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2761,10 +2827,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2772,10 +2838,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2783,10 +2849,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2794,10 +2860,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2805,10 +2871,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2816,10 +2882,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2827,10 +2893,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2838,10 +2904,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2849,10 +2915,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2860,10 +2926,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2871,10 +2937,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2882,10 +2948,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2893,10 +2959,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2904,10 +2970,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2915,10 +2981,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2926,10 +2992,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2937,10 +3003,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2948,10 +3014,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2959,10 +3025,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2970,10 +3036,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2981,10 +3047,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2992,7 +3058,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
         <v>83</v>
@@ -3003,10 +3069,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3014,10 +3080,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3025,10 +3091,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3036,10 +3102,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3047,10 +3113,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3058,10 +3124,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3069,10 +3135,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3080,10 +3146,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3091,10 +3157,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3102,10 +3168,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3113,10 +3179,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3124,10 +3190,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3135,10 +3201,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3146,10 +3212,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3157,10 +3223,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3168,10 +3234,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3179,10 +3245,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3190,10 +3256,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3201,10 +3267,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3212,10 +3278,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3223,10 +3289,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3234,10 +3300,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3245,10 +3311,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3256,10 +3322,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3267,10 +3333,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3278,10 +3344,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3289,10 +3355,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3300,10 +3366,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3311,10 +3377,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3322,10 +3388,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3333,10 +3399,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B88" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3344,10 +3410,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B89" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3355,10 +3421,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3366,10 +3432,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3377,10 +3443,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B92" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3388,10 +3454,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B93" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3399,10 +3465,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B94" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3410,10 +3476,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B95" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3421,10 +3487,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3432,10 +3498,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B97" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3443,10 +3509,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B98" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3454,10 +3520,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3465,10 +3531,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B100" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3476,10 +3542,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B101" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3487,10 +3553,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3498,10 +3564,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3509,10 +3575,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B104" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3520,10 +3586,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3531,10 +3597,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3542,10 +3608,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3553,10 +3619,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3564,10 +3630,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3575,10 +3641,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B110" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3586,10 +3652,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3597,10 +3663,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B112" t="s">
-        <v>4</v>
+        <v>168</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3608,10 +3674,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>96</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3619,10 +3685,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B114" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3630,10 +3696,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B115" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3641,10 +3707,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B116" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3652,10 +3718,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B117" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3663,10 +3729,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B118" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3674,10 +3740,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B119" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3685,10 +3751,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B120" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3696,10 +3762,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3707,10 +3773,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B122" t="s">
-        <v>191</v>
+        <v>116</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3718,10 +3784,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B123" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3729,10 +3795,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B124" t="s">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3740,10 +3806,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B125" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3751,10 +3817,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3762,10 +3828,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B127" t="s">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3773,10 +3839,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B128" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3784,10 +3850,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>192</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3795,10 +3861,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B130" t="s">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3806,10 +3872,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B131" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3817,10 +3883,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B132" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3828,10 +3894,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B133" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3839,10 +3905,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3850,10 +3916,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3861,10 +3927,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>200</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3872,10 +3938,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3883,10 +3949,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B138" t="s">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3894,10 +3960,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B139" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3905,10 +3971,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B140" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3916,10 +3982,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B141" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3927,10 +3993,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B142" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3938,10 +4004,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3949,10 +4015,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B144" t="s">
-        <v>4</v>
+        <v>214</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3960,10 +4026,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3971,10 +4037,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B146" t="s">
-        <v>25</v>
+        <v>218</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3982,10 +4048,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B147" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3993,10 +4059,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B148" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4004,10 +4070,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>221</v>
+      </c>
+      <c r="B149" t="s">
         <v>222</v>
-      </c>
-      <c r="B149" t="s">
-        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4018,7 +4084,7 @@
         <v>223</v>
       </c>
       <c r="B150" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4029,7 +4095,7 @@
         <v>224</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4040,7 +4106,7 @@
         <v>225</v>
       </c>
       <c r="B152" t="s">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4051,7 +4117,7 @@
         <v>226</v>
       </c>
       <c r="B153" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4062,7 +4128,7 @@
         <v>227</v>
       </c>
       <c r="B154" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4073,7 +4139,7 @@
         <v>228</v>
       </c>
       <c r="B155" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4084,7 +4150,7 @@
         <v>229</v>
       </c>
       <c r="B156" t="s">
-        <v>230</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4092,10 +4158,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B157" t="s">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4103,10 +4169,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B158" t="s">
-        <v>232</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4114,10 +4180,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B159" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4125,10 +4191,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B160" t="s">
-        <v>237</v>
+        <v>39</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4136,10 +4202,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B161" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4147,10 +4213,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B162" t="s">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4158,10 +4224,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B163" t="s">
-        <v>242</v>
+        <v>37</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4169,10 +4235,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B164" t="s">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4180,10 +4246,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B165" t="s">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4191,10 +4257,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B166" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4202,10 +4268,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B167" t="s">
-        <v>181</v>
+        <v>37</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4213,10 +4279,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B168" t="s">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4224,10 +4290,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B169" t="s">
-        <v>199</v>
+        <v>48</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4235,10 +4301,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B170" t="s">
-        <v>199</v>
+        <v>64</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4246,10 +4312,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B171" t="s">
-        <v>199</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4257,10 +4323,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B172" t="s">
-        <v>193</v>
+        <v>34</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4268,10 +4334,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B173" t="s">
-        <v>195</v>
+        <v>34</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4279,10 +4345,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4290,10 +4356,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B175" t="s">
-        <v>256</v>
+        <v>17</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4301,10 +4367,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B176" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4312,10 +4378,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4323,10 +4389,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B178" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4334,10 +4400,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B179" t="s">
-        <v>199</v>
+        <v>255</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4345,10 +4411,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B180" t="s">
-        <v>179</v>
+        <v>255</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4356,10 +4422,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B181" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4367,10 +4433,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B182" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4378,10 +4444,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B183" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4389,10 +4455,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B184" t="s">
-        <v>195</v>
+        <v>263</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4400,10 +4466,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>265</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4411,10 +4477,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B186" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4422,10 +4488,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
+        <v>267</v>
+      </c>
+      <c r="B187" t="s">
         <v>268</v>
-      </c>
-      <c r="B187" t="s">
-        <v>171</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4436,7 +4502,7 @@
         <v>269</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4447,7 +4513,7 @@
         <v>270</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4458,7 +4524,7 @@
         <v>271</v>
       </c>
       <c r="B190" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4469,7 +4535,7 @@
         <v>272</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4480,7 +4546,7 @@
         <v>273</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4491,7 +4557,7 @@
         <v>274</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>222</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4502,7 +4568,7 @@
         <v>275</v>
       </c>
       <c r="B194" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4513,7 +4579,7 @@
         <v>276</v>
       </c>
       <c r="B195" t="s">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4524,7 +4590,7 @@
         <v>277</v>
       </c>
       <c r="B196" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4535,7 +4601,7 @@
         <v>278</v>
       </c>
       <c r="B197" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4557,7 +4623,7 @@
         <v>280</v>
       </c>
       <c r="B199" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4568,7 +4634,7 @@
         <v>281</v>
       </c>
       <c r="B200" t="s">
-        <v>177</v>
+        <v>27</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4579,7 +4645,7 @@
         <v>282</v>
       </c>
       <c r="B201" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4590,7 +4656,7 @@
         <v>283</v>
       </c>
       <c r="B202" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4601,7 +4667,7 @@
         <v>284</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>202</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4612,7 +4678,7 @@
         <v>285</v>
       </c>
       <c r="B204" t="s">
-        <v>20</v>
+        <v>216</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4623,7 +4689,7 @@
         <v>286</v>
       </c>
       <c r="B205" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4634,7 +4700,7 @@
         <v>287</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>218</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4645,7 +4711,7 @@
         <v>288</v>
       </c>
       <c r="B207" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4656,7 +4722,7 @@
         <v>289</v>
       </c>
       <c r="B208" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4667,7 +4733,7 @@
         <v>290</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4678,7 +4744,7 @@
         <v>291</v>
       </c>
       <c r="B210" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4689,7 +4755,7 @@
         <v>292</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4700,7 +4766,7 @@
         <v>293</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4711,7 +4777,7 @@
         <v>294</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4722,7 +4788,7 @@
         <v>295</v>
       </c>
       <c r="B214" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4733,7 +4799,7 @@
         <v>296</v>
       </c>
       <c r="B215" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4744,7 +4810,7 @@
         <v>297</v>
       </c>
       <c r="B216" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4755,7 +4821,7 @@
         <v>298</v>
       </c>
       <c r="B217" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4766,7 +4832,7 @@
         <v>299</v>
       </c>
       <c r="B218" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4777,7 +4843,7 @@
         <v>300</v>
       </c>
       <c r="B219" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4788,7 +4854,7 @@
         <v>301</v>
       </c>
       <c r="B220" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4799,7 +4865,7 @@
         <v>302</v>
       </c>
       <c r="B221" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4810,7 +4876,7 @@
         <v>303</v>
       </c>
       <c r="B222" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4821,7 +4887,7 @@
         <v>304</v>
       </c>
       <c r="B223" t="s">
-        <v>305</v>
+        <v>32</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4829,10 +4895,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B224" t="s">
-        <v>307</v>
+        <v>32</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4840,10 +4906,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B225" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4851,10 +4917,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B226" t="s">
-        <v>310</v>
+        <v>11</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4862,10 +4928,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B227" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4873,10 +4939,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B228" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4884,10 +4950,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B229" t="s">
-        <v>167</v>
+        <v>20</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4895,10 +4961,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B230" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4906,10 +4972,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B231" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4917,10 +4983,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B232" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4928,10 +4994,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B233" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4939,10 +5005,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B234" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4950,10 +5016,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B235" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4961,10 +5027,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B236" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4972,10 +5038,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B237" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4983,10 +5049,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B238" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4994,10 +5060,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B239" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5005,10 +5071,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B240" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5016,10 +5082,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B241" t="s">
-        <v>326</v>
+        <v>64</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5027,10 +5093,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B242" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5038,10 +5104,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B243" t="s">
-        <v>310</v>
+        <v>34</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5049,10 +5115,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B244" t="s">
-        <v>310</v>
+        <v>48</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5060,10 +5126,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B245" t="s">
-        <v>55</v>
+        <v>327</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5071,10 +5137,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B246" t="s">
-        <v>83</v>
+        <v>329</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5082,10 +5148,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B247" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5093,10 +5159,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B248" t="s">
-        <v>52</v>
+        <v>332</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5104,10 +5170,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B249" t="s">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5115,10 +5181,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B250" t="s">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5126,10 +5192,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B251" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5137,10 +5203,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B252" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5148,10 +5214,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B253" t="s">
-        <v>305</v>
+        <v>52</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5159,10 +5225,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B254" t="s">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5170,10 +5236,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B255" t="s">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5181,10 +5247,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B256" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5192,10 +5258,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B257" t="s">
-        <v>310</v>
+        <v>15</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5203,10 +5269,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B258" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5214,10 +5280,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B259" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5225,10 +5291,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B260" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5236,10 +5302,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B261" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5247,10 +5313,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B262" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5258,10 +5324,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
+        <v>347</v>
+      </c>
+      <c r="B263" t="s">
         <v>348</v>
-      </c>
-      <c r="B263" t="s">
-        <v>11</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5272,7 +5338,7 @@
         <v>349</v>
       </c>
       <c r="B264" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5283,7 +5349,7 @@
         <v>350</v>
       </c>
       <c r="B265" t="s">
-        <v>184</v>
+        <v>332</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5294,7 +5360,7 @@
         <v>351</v>
       </c>
       <c r="B266" t="s">
-        <v>177</v>
+        <v>332</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5305,7 +5371,7 @@
         <v>352</v>
       </c>
       <c r="B267" t="s">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5316,7 +5382,7 @@
         <v>353</v>
       </c>
       <c r="B268" t="s">
-        <v>175</v>
+        <v>109</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5327,7 +5393,7 @@
         <v>354</v>
       </c>
       <c r="B269" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5338,7 +5404,7 @@
         <v>355</v>
       </c>
       <c r="B270" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5349,7 +5415,7 @@
         <v>356</v>
       </c>
       <c r="B271" t="s">
-        <v>7</v>
+        <v>164</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5360,7 +5426,7 @@
         <v>357</v>
       </c>
       <c r="B272" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5371,7 +5437,7 @@
         <v>358</v>
       </c>
       <c r="B273" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5382,7 +5448,7 @@
         <v>359</v>
       </c>
       <c r="B274" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5393,7 +5459,7 @@
         <v>360</v>
       </c>
       <c r="B275" t="s">
-        <v>23</v>
+        <v>327</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5404,7 +5470,7 @@
         <v>361</v>
       </c>
       <c r="B276" t="s">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5415,7 +5481,7 @@
         <v>362</v>
       </c>
       <c r="B277" t="s">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5426,7 +5492,7 @@
         <v>363</v>
       </c>
       <c r="B278" t="s">
-        <v>165</v>
+        <v>71</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5437,7 +5503,7 @@
         <v>364</v>
       </c>
       <c r="B279" t="s">
-        <v>165</v>
+        <v>332</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5448,7 +5514,7 @@
         <v>365</v>
       </c>
       <c r="B280" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5459,7 +5525,7 @@
         <v>366</v>
       </c>
       <c r="B281" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5470,7 +5536,7 @@
         <v>367</v>
       </c>
       <c r="B282" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5481,7 +5547,7 @@
         <v>368</v>
       </c>
       <c r="B283" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5503,7 +5569,7 @@
         <v>370</v>
       </c>
       <c r="B285" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5514,7 +5580,7 @@
         <v>371</v>
       </c>
       <c r="B286" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5525,7 +5591,7 @@
         <v>372</v>
       </c>
       <c r="B287" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5536,7 +5602,7 @@
         <v>373</v>
       </c>
       <c r="B288" t="s">
-        <v>305</v>
+        <v>200</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5547,7 +5613,7 @@
         <v>374</v>
       </c>
       <c r="B289" t="s">
-        <v>41</v>
+        <v>207</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5558,7 +5624,7 @@
         <v>375</v>
       </c>
       <c r="B290" t="s">
-        <v>171</v>
+        <v>27</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5569,7 +5635,7 @@
         <v>376</v>
       </c>
       <c r="B291" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5580,7 +5646,7 @@
         <v>377</v>
       </c>
       <c r="B292" t="s">
-        <v>212</v>
+        <v>24</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5591,7 +5657,7 @@
         <v>378</v>
       </c>
       <c r="B293" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5602,7 +5668,7 @@
         <v>379</v>
       </c>
       <c r="B294" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5613,7 +5679,7 @@
         <v>380</v>
       </c>
       <c r="B295" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5624,7 +5690,7 @@
         <v>381</v>
       </c>
       <c r="B296" t="s">
-        <v>310</v>
+        <v>52</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5635,7 +5701,7 @@
         <v>382</v>
       </c>
       <c r="B297" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5646,7 +5712,7 @@
         <v>383</v>
       </c>
       <c r="B298" t="s">
-        <v>326</v>
+        <v>37</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5657,7 +5723,7 @@
         <v>384</v>
       </c>
       <c r="B299" t="s">
-        <v>167</v>
+        <v>52</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5668,7 +5734,7 @@
         <v>385</v>
       </c>
       <c r="B300" t="s">
-        <v>167</v>
+        <v>15</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5679,7 +5745,7 @@
         <v>386</v>
       </c>
       <c r="B301" t="s">
-        <v>305</v>
+        <v>15</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5690,7 +5756,7 @@
         <v>387</v>
       </c>
       <c r="B302" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5701,7 +5767,7 @@
         <v>388</v>
       </c>
       <c r="B303" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5712,7 +5778,7 @@
         <v>389</v>
       </c>
       <c r="B304" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5723,7 +5789,7 @@
         <v>390</v>
       </c>
       <c r="B305" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5734,7 +5800,7 @@
         <v>391</v>
       </c>
       <c r="B306" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5745,7 +5811,7 @@
         <v>392</v>
       </c>
       <c r="B307" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5756,7 +5822,7 @@
         <v>393</v>
       </c>
       <c r="B308" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5767,7 +5833,7 @@
         <v>394</v>
       </c>
       <c r="B309" t="s">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5778,7 +5844,7 @@
         <v>395</v>
       </c>
       <c r="B310" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5789,7 +5855,7 @@
         <v>396</v>
       </c>
       <c r="B311" t="s">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5800,7 +5866,7 @@
         <v>397</v>
       </c>
       <c r="B312" t="s">
-        <v>326</v>
+        <v>17</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5811,7 +5877,7 @@
         <v>398</v>
       </c>
       <c r="B313" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5822,7 +5888,7 @@
         <v>399</v>
       </c>
       <c r="B314" t="s">
-        <v>310</v>
+        <v>235</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5833,7 +5899,7 @@
         <v>400</v>
       </c>
       <c r="B315" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5844,7 +5910,7 @@
         <v>401</v>
       </c>
       <c r="B316" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5855,7 +5921,7 @@
         <v>402</v>
       </c>
       <c r="B317" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5866,7 +5932,7 @@
         <v>403</v>
       </c>
       <c r="B318" t="s">
-        <v>161</v>
+        <v>332</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5877,7 +5943,7 @@
         <v>404</v>
       </c>
       <c r="B319" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5888,7 +5954,7 @@
         <v>405</v>
       </c>
       <c r="B320" t="s">
-        <v>55</v>
+        <v>348</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5899,7 +5965,7 @@
         <v>406</v>
       </c>
       <c r="B321" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5910,7 +5976,7 @@
         <v>407</v>
       </c>
       <c r="B322" t="s">
-        <v>408</v>
+        <v>192</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5918,10 +5984,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B323" t="s">
-        <v>410</v>
+        <v>327</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5929,10 +5995,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B324" t="s">
-        <v>142</v>
+        <v>17</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5940,10 +6006,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B325" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5951,10 +6017,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B326" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5962,10 +6028,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B327" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5973,10 +6039,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B328" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5984,10 +6050,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B329" t="s">
-        <v>18</v>
+        <v>327</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5995,10 +6061,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B330" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6006,10 +6072,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B331" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6017,10 +6083,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B332" t="s">
-        <v>31</v>
+        <v>235</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6028,10 +6094,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B333" t="s">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6039,10 +6105,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B334" t="s">
-        <v>31</v>
+        <v>348</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6050,10 +6116,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B335" t="s">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6061,10 +6127,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B336" t="s">
-        <v>175</v>
+        <v>332</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6072,10 +6138,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B337" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6083,10 +6149,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B338" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6094,10 +6160,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B339" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6105,10 +6171,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B340" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6116,10 +6182,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B341" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6127,10 +6193,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B342" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6138,10 +6204,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B343" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6149,10 +6215,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B344" t="s">
-        <v>37</v>
+        <v>430</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6160,10 +6226,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
+        <v>431</v>
+      </c>
+      <c r="B345" t="s">
         <v>432</v>
-      </c>
-      <c r="B345" t="s">
-        <v>20</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6174,7 +6240,7 @@
         <v>433</v>
       </c>
       <c r="B346" t="s">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6185,7 +6251,7 @@
         <v>434</v>
       </c>
       <c r="B347" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6196,7 +6262,7 @@
         <v>435</v>
       </c>
       <c r="B348" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6207,7 +6273,7 @@
         <v>436</v>
       </c>
       <c r="B349" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6218,7 +6284,7 @@
         <v>437</v>
       </c>
       <c r="B350" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6229,7 +6295,7 @@
         <v>438</v>
       </c>
       <c r="B351" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6240,7 +6306,7 @@
         <v>439</v>
       </c>
       <c r="B352" t="s">
-        <v>256</v>
+        <v>9</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6251,7 +6317,7 @@
         <v>440</v>
       </c>
       <c r="B353" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6273,7 +6339,7 @@
         <v>442</v>
       </c>
       <c r="B355" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6284,7 +6350,7 @@
         <v>443</v>
       </c>
       <c r="B356" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6295,7 +6361,7 @@
         <v>444</v>
       </c>
       <c r="B357" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6306,7 +6372,7 @@
         <v>445</v>
       </c>
       <c r="B358" t="s">
-        <v>165</v>
+        <v>27</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6317,7 +6383,7 @@
         <v>446</v>
       </c>
       <c r="B359" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6328,7 +6394,7 @@
         <v>447</v>
       </c>
       <c r="B360" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6339,7 +6405,7 @@
         <v>448</v>
       </c>
       <c r="B361" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6350,7 +6416,7 @@
         <v>449</v>
       </c>
       <c r="B362" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6361,7 +6427,7 @@
         <v>450</v>
       </c>
       <c r="B363" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6372,7 +6438,7 @@
         <v>451</v>
       </c>
       <c r="B364" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6383,7 +6449,7 @@
         <v>452</v>
       </c>
       <c r="B365" t="s">
-        <v>305</v>
+        <v>37</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6394,7 +6460,7 @@
         <v>453</v>
       </c>
       <c r="B366" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6405,7 +6471,7 @@
         <v>454</v>
       </c>
       <c r="B367" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6416,7 +6482,7 @@
         <v>455</v>
       </c>
       <c r="B368" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6427,7 +6493,7 @@
         <v>456</v>
       </c>
       <c r="B369" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6438,7 +6504,7 @@
         <v>457</v>
       </c>
       <c r="B370" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6449,7 +6515,7 @@
         <v>458</v>
       </c>
       <c r="B371" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6460,7 +6526,7 @@
         <v>459</v>
       </c>
       <c r="B372" t="s">
-        <v>171</v>
+        <v>13</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6471,7 +6537,7 @@
         <v>460</v>
       </c>
       <c r="B373" t="s">
-        <v>326</v>
+        <v>209</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6482,7 +6548,7 @@
         <v>461</v>
       </c>
       <c r="B374" t="s">
-        <v>326</v>
+        <v>32</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6493,7 +6559,7 @@
         <v>462</v>
       </c>
       <c r="B375" t="s">
-        <v>326</v>
+        <v>11</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6504,7 +6570,7 @@
         <v>463</v>
       </c>
       <c r="B376" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6515,7 +6581,7 @@
         <v>464</v>
       </c>
       <c r="B377" t="s">
-        <v>212</v>
+        <v>9</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6526,7 +6592,7 @@
         <v>465</v>
       </c>
       <c r="B378" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6537,7 +6603,7 @@
         <v>466</v>
       </c>
       <c r="B379" t="s">
-        <v>167</v>
+        <v>37</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6548,7 +6614,7 @@
         <v>467</v>
       </c>
       <c r="B380" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6559,7 +6625,7 @@
         <v>468</v>
       </c>
       <c r="B381" t="s">
-        <v>307</v>
+        <v>52</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6570,7 +6636,7 @@
         <v>469</v>
       </c>
       <c r="B382" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6581,7 +6647,7 @@
         <v>470</v>
       </c>
       <c r="B383" t="s">
-        <v>310</v>
+        <v>52</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6592,7 +6658,7 @@
         <v>471</v>
       </c>
       <c r="B384" t="s">
-        <v>307</v>
+        <v>39</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6603,7 +6669,7 @@
         <v>472</v>
       </c>
       <c r="B385" t="s">
-        <v>473</v>
+        <v>71</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6611,10 +6677,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B386" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6622,10 +6688,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B387" t="s">
-        <v>142</v>
+        <v>327</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6633,10 +6699,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B388" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6644,10 +6710,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B389" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6655,10 +6721,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B390" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6666,10 +6732,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B391" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6677,10 +6743,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B392" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6688,10 +6754,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B393" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6699,10 +6765,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B394" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6710,10 +6776,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B395" t="s">
-        <v>49</v>
+        <v>348</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6721,10 +6787,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B396" t="s">
-        <v>83</v>
+        <v>348</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6732,10 +6798,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B397" t="s">
-        <v>161</v>
+        <v>348</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6743,10 +6809,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B398" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6754,10 +6820,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B399" t="s">
-        <v>171</v>
+        <v>235</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6765,10 +6831,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B400" t="s">
-        <v>171</v>
+        <v>39</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6776,10 +6842,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B401" t="s">
-        <v>305</v>
+        <v>192</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6787,10 +6853,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B402" t="s">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6798,10 +6864,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B403" t="s">
-        <v>212</v>
+        <v>329</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6809,10 +6875,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B404" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6820,10 +6886,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B405" t="s">
-        <v>167</v>
+        <v>332</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6831,10 +6897,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B406" t="s">
-        <v>43</v>
+        <v>329</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6842,10 +6908,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
+        <v>494</v>
+      </c>
+      <c r="B407" t="s">
         <v>495</v>
-      </c>
-      <c r="B407" t="s">
-        <v>326</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6856,7 +6922,7 @@
         <v>496</v>
       </c>
       <c r="B408" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6867,7 +6933,7 @@
         <v>497</v>
       </c>
       <c r="B409" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6878,7 +6944,7 @@
         <v>498</v>
       </c>
       <c r="B410" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6889,7 +6955,7 @@
         <v>499</v>
       </c>
       <c r="B411" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6900,7 +6966,7 @@
         <v>500</v>
       </c>
       <c r="B412" t="s">
-        <v>408</v>
+        <v>69</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6911,7 +6977,7 @@
         <v>501</v>
       </c>
       <c r="B413" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6922,7 +6988,7 @@
         <v>502</v>
       </c>
       <c r="B414" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6933,7 +6999,7 @@
         <v>503</v>
       </c>
       <c r="B415" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -6944,7 +7010,7 @@
         <v>504</v>
       </c>
       <c r="B416" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -6955,7 +7021,7 @@
         <v>505</v>
       </c>
       <c r="B417" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -6966,7 +7032,7 @@
         <v>506</v>
       </c>
       <c r="B418" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -6977,7 +7043,7 @@
         <v>507</v>
       </c>
       <c r="B419" t="s">
-        <v>90</v>
+        <v>187</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -6988,7 +7054,7 @@
         <v>508</v>
       </c>
       <c r="B420" t="s">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -6999,7 +7065,7 @@
         <v>509</v>
       </c>
       <c r="B421" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7010,7 +7076,7 @@
         <v>510</v>
       </c>
       <c r="B422" t="s">
-        <v>511</v>
+        <v>17</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7018,10 +7084,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B423" t="s">
-        <v>511</v>
+        <v>327</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7029,10 +7095,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B424" t="s">
-        <v>511</v>
+        <v>235</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7040,10 +7106,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B425" t="s">
-        <v>511</v>
+        <v>235</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7051,10 +7117,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B426" t="s">
-        <v>516</v>
+        <v>71</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7062,10 +7128,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B427" t="s">
-        <v>518</v>
+        <v>192</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7073,10 +7139,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B428" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7084,10 +7150,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B429" t="s">
-        <v>511</v>
+        <v>348</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7095,10 +7161,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B430" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7106,10 +7172,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B431" t="s">
-        <v>516</v>
+        <v>69</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7117,10 +7183,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B432" t="s">
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7128,10 +7194,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B433" t="s">
-        <v>525</v>
+        <v>166</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7139,10 +7205,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B434" t="s">
-        <v>525</v>
+        <v>430</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7150,10 +7216,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B435" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7161,10 +7227,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B436" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7172,10 +7238,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B437" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7183,10 +7249,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B438" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7194,10 +7260,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B439" t="s">
-        <v>532</v>
+        <v>103</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7205,10 +7271,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B440" t="s">
-        <v>532</v>
+        <v>116</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7216,10 +7282,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B441" t="s">
-        <v>535</v>
+        <v>116</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7227,10 +7293,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B442" t="s">
-        <v>537</v>
+        <v>182</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7238,10 +7304,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B443" t="s">
-        <v>539</v>
+        <v>121</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7249,10 +7315,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B444" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7260,10 +7326,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B445" t="s">
-        <v>111</v>
+        <v>533</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7271,10 +7337,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B446" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7282,10 +7348,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B447" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7293,10 +7359,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="B448" t="s">
-        <v>123</v>
+        <v>538</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7304,10 +7370,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B449" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7315,10 +7381,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B450" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7326,10 +7392,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B451" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7337,10 +7403,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="B452" t="s">
-        <v>554</v>
+        <v>160</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7348,10 +7414,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B453" t="s">
-        <v>132</v>
+        <v>538</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7359,10 +7425,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="B454" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7370,10 +7436,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="B455" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7381,10 +7447,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B456" t="s">
-        <v>123</v>
+        <v>547</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7392,10 +7458,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B457" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7403,10 +7469,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="B458" t="s">
-        <v>561</v>
+        <v>135</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7414,10 +7480,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="B459" t="s">
-        <v>563</v>
+        <v>144</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7425,10 +7491,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="B460" t="s">
-        <v>565</v>
+        <v>156</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7436,10 +7502,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="B461" t="s">
-        <v>107</v>
+        <v>554</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7447,10 +7513,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="B462" t="s">
-        <v>132</v>
+        <v>554</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7458,10 +7524,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="B463" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7469,10 +7535,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="B464" t="s">
-        <v>107</v>
+        <v>559</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7480,10 +7546,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B465" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7491,10 +7557,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B466" t="s">
-        <v>100</v>
+        <v>563</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7502,10 +7568,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B467" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7513,10 +7579,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="B468" t="s">
-        <v>102</v>
+        <v>566</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7524,10 +7590,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B469" t="s">
-        <v>90</v>
+        <v>568</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7535,10 +7601,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B470" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7546,10 +7612,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="B471" t="s">
-        <v>147</v>
+        <v>571</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7557,10 +7623,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B472" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7568,10 +7634,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B473" t="s">
-        <v>70</v>
+        <v>574</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7579,10 +7645,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B474" t="s">
-        <v>408</v>
+        <v>576</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7590,10 +7656,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B475" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7601,10 +7667,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B476" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7612,10 +7678,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B477" t="s">
-        <v>80</v>
+        <v>574</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7623,10 +7689,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B478" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7634,10 +7700,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B479" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7645,10 +7711,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B480" t="s">
-        <v>52</v>
+        <v>583</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7656,10 +7722,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B481" t="s">
-        <v>59</v>
+        <v>585</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7667,10 +7733,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B482" t="s">
-        <v>473</v>
+        <v>587</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7678,10 +7744,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B483" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7689,10 +7755,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B484" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -7700,10 +7766,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
+        <v>590</v>
+      </c>
+      <c r="B485" t="s">
         <v>591</v>
-      </c>
-      <c r="B485" t="s">
-        <v>150</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7714,7 +7780,7 @@
         <v>592</v>
       </c>
       <c r="B486" t="s">
-        <v>593</v>
+        <v>133</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7722,10 +7788,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B487" t="s">
-        <v>147</v>
+        <v>574</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -7733,10 +7799,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B488" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -7744,10 +7810,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B489" t="s">
-        <v>593</v>
+        <v>158</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -7755,10 +7821,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B490" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -7766,10 +7832,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B491" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -7777,10 +7843,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B492" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -7788,10 +7854,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B493" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -7799,10 +7865,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B494" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -7810,10 +7876,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B495" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -7821,10 +7887,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B496" t="s">
-        <v>49</v>
+        <v>430</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -7832,10 +7898,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B497" t="s">
-        <v>310</v>
+        <v>96</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -7843,10 +7909,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B498" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -7854,10 +7920,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B499" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -7865,10 +7931,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B500" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -7876,10 +7942,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B501" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -7887,10 +7953,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B502" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -7898,10 +7964,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B503" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -7909,10 +7975,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B504" t="s">
-        <v>23</v>
+        <v>495</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -7920,10 +7986,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B505" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -7931,10 +7997,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B506" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -7942,10 +8008,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B507" t="s">
-        <v>305</v>
+        <v>176</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -7953,10 +8019,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
+        <v>614</v>
+      </c>
+      <c r="B508" t="s">
         <v>615</v>
-      </c>
-      <c r="B508" t="s">
-        <v>326</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -7967,7 +8033,7 @@
         <v>616</v>
       </c>
       <c r="B509" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -7978,7 +8044,7 @@
         <v>617</v>
       </c>
       <c r="B510" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -7989,7 +8055,7 @@
         <v>618</v>
       </c>
       <c r="B511" t="s">
-        <v>41</v>
+        <v>615</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8000,7 +8066,7 @@
         <v>619</v>
       </c>
       <c r="B512" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8011,7 +8077,7 @@
         <v>620</v>
       </c>
       <c r="B513" t="s">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8022,7 +8088,7 @@
         <v>621</v>
       </c>
       <c r="B514" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8033,7 +8099,7 @@
         <v>622</v>
       </c>
       <c r="B515" t="s">
-        <v>25</v>
+        <v>168</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8044,7 +8110,7 @@
         <v>623</v>
       </c>
       <c r="B516" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8055,7 +8121,7 @@
         <v>624</v>
       </c>
       <c r="B517" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8066,7 +8132,7 @@
         <v>625</v>
       </c>
       <c r="B518" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8077,7 +8143,7 @@
         <v>626</v>
       </c>
       <c r="B519" t="s">
-        <v>49</v>
+        <v>332</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8088,7 +8154,7 @@
         <v>627</v>
       </c>
       <c r="B520" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8099,7 +8165,7 @@
         <v>628</v>
       </c>
       <c r="B521" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8110,7 +8176,7 @@
         <v>629</v>
       </c>
       <c r="B522" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8121,7 +8187,7 @@
         <v>630</v>
       </c>
       <c r="B523" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8132,7 +8198,7 @@
         <v>631</v>
       </c>
       <c r="B524" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8143,7 +8209,7 @@
         <v>632</v>
       </c>
       <c r="B525" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8154,7 +8220,7 @@
         <v>633</v>
       </c>
       <c r="B526" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8165,7 +8231,7 @@
         <v>634</v>
       </c>
       <c r="B527" t="s">
-        <v>408</v>
+        <v>64</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8176,7 +8242,7 @@
         <v>635</v>
       </c>
       <c r="B528" t="s">
-        <v>410</v>
+        <v>48</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8187,7 +8253,7 @@
         <v>636</v>
       </c>
       <c r="B529" t="s">
-        <v>142</v>
+        <v>327</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8198,7 +8264,7 @@
         <v>637</v>
       </c>
       <c r="B530" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8209,7 +8275,7 @@
         <v>638</v>
       </c>
       <c r="B531" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8220,7 +8286,7 @@
         <v>639</v>
       </c>
       <c r="B532" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8231,7 +8297,7 @@
         <v>640</v>
       </c>
       <c r="B533" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8242,7 +8308,7 @@
         <v>641</v>
       </c>
       <c r="B534" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8253,7 +8319,7 @@
         <v>642</v>
       </c>
       <c r="B535" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8264,7 +8330,7 @@
         <v>643</v>
       </c>
       <c r="B536" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8275,7 +8341,7 @@
         <v>644</v>
       </c>
       <c r="B537" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8286,7 +8352,7 @@
         <v>645</v>
       </c>
       <c r="B538" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8297,7 +8363,7 @@
         <v>646</v>
       </c>
       <c r="B539" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8308,7 +8374,7 @@
         <v>647</v>
       </c>
       <c r="B540" t="s">
-        <v>408</v>
+        <v>187</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8319,7 +8385,7 @@
         <v>648</v>
       </c>
       <c r="B541" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8330,7 +8396,7 @@
         <v>649</v>
       </c>
       <c r="B542" t="s">
-        <v>410</v>
+        <v>75</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8341,7 +8407,7 @@
         <v>650</v>
       </c>
       <c r="B543" t="s">
-        <v>410</v>
+        <v>78</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8352,7 +8418,7 @@
         <v>651</v>
       </c>
       <c r="B544" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8363,7 +8429,7 @@
         <v>652</v>
       </c>
       <c r="B545" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8374,7 +8440,7 @@
         <v>653</v>
       </c>
       <c r="B546" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -8385,7 +8451,7 @@
         <v>654</v>
       </c>
       <c r="B547" t="s">
-        <v>511</v>
+        <v>73</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -8396,7 +8462,7 @@
         <v>655</v>
       </c>
       <c r="B548" t="s">
-        <v>511</v>
+        <v>99</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -8407,7 +8473,7 @@
         <v>656</v>
       </c>
       <c r="B549" t="s">
-        <v>516</v>
+        <v>430</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -8418,7 +8484,7 @@
         <v>657</v>
       </c>
       <c r="B550" t="s">
-        <v>518</v>
+        <v>432</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -8429,7 +8495,7 @@
         <v>658</v>
       </c>
       <c r="B551" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -8440,7 +8506,7 @@
         <v>659</v>
       </c>
       <c r="B552" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -8451,7 +8517,7 @@
         <v>660</v>
       </c>
       <c r="B553" t="s">
-        <v>593</v>
+        <v>75</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -8462,7 +8528,7 @@
         <v>661</v>
       </c>
       <c r="B554" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -8473,7 +8539,7 @@
         <v>662</v>
       </c>
       <c r="B555" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -8484,7 +8550,7 @@
         <v>663</v>
       </c>
       <c r="B556" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -8495,7 +8561,7 @@
         <v>664</v>
       </c>
       <c r="B557" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -8506,7 +8572,7 @@
         <v>665</v>
       </c>
       <c r="B558" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -8517,7 +8583,7 @@
         <v>666</v>
       </c>
       <c r="B559" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -8528,7 +8594,7 @@
         <v>667</v>
       </c>
       <c r="B560" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -8539,7 +8605,7 @@
         <v>668</v>
       </c>
       <c r="B561" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -8550,7 +8616,7 @@
         <v>669</v>
       </c>
       <c r="B562" t="s">
-        <v>134</v>
+        <v>430</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -8561,7 +8627,7 @@
         <v>670</v>
       </c>
       <c r="B563" t="s">
-        <v>671</v>
+        <v>75</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -8569,10 +8635,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B564" t="s">
-        <v>518</v>
+        <v>432</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -8580,10 +8646,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B565" t="s">
-        <v>518</v>
+        <v>432</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -8591,10 +8657,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B566" t="s">
-        <v>675</v>
+        <v>123</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -8602,12 +8668,254 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
+        <v>674</v>
+      </c>
+      <c r="B567" t="s">
+        <v>123</v>
+      </c>
+      <c r="C567" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>675</v>
+      </c>
+      <c r="B568" t="s">
+        <v>171</v>
+      </c>
+      <c r="C568" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
         <v>676</v>
       </c>
-      <c r="B567" t="s">
-        <v>516</v>
-      </c>
-      <c r="C567" t="s">
+      <c r="B569" t="s">
+        <v>533</v>
+      </c>
+      <c r="C569" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>677</v>
+      </c>
+      <c r="B570" t="s">
+        <v>533</v>
+      </c>
+      <c r="C570" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>678</v>
+      </c>
+      <c r="B571" t="s">
+        <v>538</v>
+      </c>
+      <c r="C571" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>679</v>
+      </c>
+      <c r="B572" t="s">
+        <v>540</v>
+      </c>
+      <c r="C572" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>680</v>
+      </c>
+      <c r="B573" t="s">
+        <v>123</v>
+      </c>
+      <c r="C573" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>681</v>
+      </c>
+      <c r="B574" t="s">
+        <v>123</v>
+      </c>
+      <c r="C574" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>682</v>
+      </c>
+      <c r="B575" t="s">
+        <v>615</v>
+      </c>
+      <c r="C575" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>683</v>
+      </c>
+      <c r="B576" t="s">
+        <v>128</v>
+      </c>
+      <c r="C576" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>684</v>
+      </c>
+      <c r="B577" t="s">
+        <v>128</v>
+      </c>
+      <c r="C577" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>685</v>
+      </c>
+      <c r="B578" t="s">
+        <v>160</v>
+      </c>
+      <c r="C578" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>686</v>
+      </c>
+      <c r="B579" t="s">
+        <v>160</v>
+      </c>
+      <c r="C579" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>687</v>
+      </c>
+      <c r="B580" t="s">
+        <v>123</v>
+      </c>
+      <c r="C580" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>688</v>
+      </c>
+      <c r="B581" t="s">
+        <v>119</v>
+      </c>
+      <c r="C581" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>689</v>
+      </c>
+      <c r="B582" t="s">
+        <v>123</v>
+      </c>
+      <c r="C582" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>690</v>
+      </c>
+      <c r="B583" t="s">
+        <v>160</v>
+      </c>
+      <c r="C583" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>691</v>
+      </c>
+      <c r="B584" t="s">
+        <v>160</v>
+      </c>
+      <c r="C584" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>692</v>
+      </c>
+      <c r="B585" t="s">
+        <v>693</v>
+      </c>
+      <c r="C585" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>694</v>
+      </c>
+      <c r="B586" t="s">
+        <v>540</v>
+      </c>
+      <c r="C586" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>695</v>
+      </c>
+      <c r="B587" t="s">
+        <v>540</v>
+      </c>
+      <c r="C587" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>696</v>
+      </c>
+      <c r="B588" t="s">
+        <v>697</v>
+      </c>
+      <c r="C588" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>698</v>
+      </c>
+      <c r="B589" t="s">
+        <v>538</v>
+      </c>
+      <c r="C589" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid46495"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid969803"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="732">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,159 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>16/10/2025</t>
+  </si>
+  <si>
+    <t>1.016</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>15/10/2025</t>
+  </si>
+  <si>
+    <t>14/10/2025</t>
+  </si>
+  <si>
+    <t>1.005</t>
+  </si>
+  <si>
+    <t>13/10/2025</t>
+  </si>
+  <si>
+    <t>1.017</t>
+  </si>
+  <si>
+    <t>10/10/2025</t>
+  </si>
+  <si>
+    <t>09/10/2025</t>
+  </si>
+  <si>
+    <t>08/10/2025</t>
+  </si>
+  <si>
+    <t>07/10/2025</t>
+  </si>
+  <si>
+    <t>1.018</t>
+  </si>
+  <si>
+    <t>06/10/2025</t>
+  </si>
+  <si>
+    <t>03/10/2025</t>
+  </si>
+  <si>
+    <t>02/10/2025</t>
+  </si>
+  <si>
+    <t>1.014</t>
+  </si>
+  <si>
+    <t>01/10/2025</t>
+  </si>
+  <si>
+    <t>1.010</t>
+  </si>
+  <si>
+    <t>30/09/2025</t>
+  </si>
+  <si>
+    <t>1.011</t>
+  </si>
+  <si>
+    <t>29/09/2025</t>
+  </si>
+  <si>
+    <t>1.012</t>
+  </si>
+  <si>
+    <t>26/09/2025</t>
+  </si>
+  <si>
+    <t>1.008</t>
+  </si>
+  <si>
+    <t>25/09/2025</t>
+  </si>
+  <si>
+    <t>24/09/2025</t>
+  </si>
+  <si>
+    <t>23/09/2025</t>
+  </si>
+  <si>
+    <t>22/09/2025</t>
+  </si>
+  <si>
+    <t>1.015</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>1.013</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>12/09/2025</t>
+  </si>
+  <si>
+    <t>11/09/2025</t>
+  </si>
+  <si>
+    <t>10/09/2025</t>
+  </si>
+  <si>
+    <t>09/09/2025</t>
+  </si>
+  <si>
+    <t>08/09/2025</t>
+  </si>
+  <si>
+    <t>1.007</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>1.002</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
     <t>01/09/2025</t>
   </si>
   <si>
     <t>1.004</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>29/08/2025</t>
   </si>
   <si>
@@ -44,15 +188,9 @@
     <t>27/08/2025</t>
   </si>
   <si>
-    <t>1.002</t>
-  </si>
-  <si>
     <t>26/08/2025</t>
   </si>
   <si>
-    <t>1.000</t>
-  </si>
-  <si>
     <t>25/08/2025</t>
   </si>
   <si>
@@ -83,9 +221,6 @@
     <t>18/08/2025</t>
   </si>
   <si>
-    <t>1.005</t>
-  </si>
-  <si>
     <t>15/08/2025</t>
   </si>
   <si>
@@ -98,9 +233,6 @@
     <t>13/08/2025</t>
   </si>
   <si>
-    <t>1.007</t>
-  </si>
-  <si>
     <t>12/08/2025</t>
   </si>
   <si>
@@ -119,9 +251,6 @@
     <t>06/08/2025</t>
   </si>
   <si>
-    <t>0.998</t>
-  </si>
-  <si>
     <t>05/08/2025</t>
   </si>
   <si>
@@ -617,57 +746,33 @@
     <t>19/02/2025</t>
   </si>
   <si>
-    <t>1.010</t>
-  </si>
-  <si>
     <t>18/02/2025</t>
   </si>
   <si>
-    <t>1.017</t>
-  </si>
-  <si>
     <t>17/02/2025</t>
   </si>
   <si>
-    <t>1.016</t>
-  </si>
-  <si>
     <t>14/02/2025</t>
   </si>
   <si>
     <t>13/02/2025</t>
   </si>
   <si>
-    <t>1.012</t>
-  </si>
-  <si>
     <t>12/02/2025</t>
   </si>
   <si>
-    <t>1.008</t>
-  </si>
-  <si>
     <t>11/02/2025</t>
   </si>
   <si>
-    <t>1.011</t>
-  </si>
-  <si>
     <t>10/02/2025</t>
   </si>
   <si>
     <t>07/02/2025</t>
   </si>
   <si>
-    <t>1.015</t>
-  </si>
-  <si>
     <t>06/02/2025</t>
   </si>
   <si>
-    <t>1.013</t>
-  </si>
-  <si>
     <t>05/02/2025</t>
   </si>
   <si>
@@ -683,9 +788,6 @@
     <t>31/01/2025</t>
   </si>
   <si>
-    <t>1.014</t>
-  </si>
-  <si>
     <t>28/01/2025</t>
   </si>
   <si>
@@ -774,9 +876,6 @@
   </si>
   <si>
     <t>17/12/2024</t>
-  </si>
-  <si>
-    <t>1.018</t>
   </si>
   <si>
     <t>16/12/2024</t>
@@ -2478,7 +2577,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2486,10 +2585,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2497,10 +2596,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2511,7 +2610,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2519,10 +2618,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2530,10 +2629,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2541,10 +2640,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2552,10 +2651,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2563,10 +2662,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2574,10 +2673,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2585,10 +2684,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2596,10 +2695,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2607,10 +2706,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2618,10 +2717,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2629,10 +2728,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2640,10 +2739,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2651,10 +2750,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2662,10 +2761,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2673,10 +2772,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2684,10 +2783,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2695,10 +2794,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2706,10 +2805,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2717,10 +2816,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2728,10 +2827,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2739,10 +2838,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2750,10 +2849,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2761,10 +2860,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2772,10 +2871,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2783,10 +2882,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2794,10 +2893,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2805,10 +2904,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
         <v>51</v>
-      </c>
-      <c r="B34" t="s">
-        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2816,10 +2915,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
         <v>53</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2830,7 +2929,7 @@
         <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2841,7 +2940,7 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2852,7 +2951,7 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2863,7 +2962,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2874,7 +2973,7 @@
         <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2882,10 +2981,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2893,10 +2992,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2904,10 +3003,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2915,10 +3014,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2926,10 +3025,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2937,10 +3036,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2948,10 +3047,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2959,10 +3058,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2970,10 +3069,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2981,10 +3080,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2992,10 +3091,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3003,10 +3102,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3014,10 +3113,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3025,10 +3124,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3039,7 +3138,7 @@
         <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3047,10 +3146,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3058,10 +3157,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3072,7 +3171,7 @@
         <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3080,10 +3179,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3091,10 +3190,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3102,10 +3201,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3113,10 +3212,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3124,10 +3223,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3135,10 +3234,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3146,10 +3245,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3157,10 +3256,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3168,10 +3267,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>94</v>
+      </c>
+      <c r="B67" t="s">
         <v>95</v>
-      </c>
-      <c r="B67" t="s">
-        <v>96</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3179,10 +3278,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3190,10 +3289,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3201,10 +3300,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3212,10 +3311,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3223,10 +3322,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3234,10 +3333,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3245,10 +3344,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3256,10 +3355,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3267,10 +3366,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3278,10 +3377,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3289,10 +3388,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3300,10 +3399,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3311,10 +3410,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3322,10 +3421,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3333,10 +3432,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3344,10 +3443,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3355,10 +3454,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3366,10 +3465,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3377,10 +3476,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3388,10 +3487,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3399,10 +3498,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B88" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3410,10 +3509,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3421,10 +3520,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3432,10 +3531,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3443,10 +3542,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3454,10 +3553,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3465,10 +3564,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B94" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3476,10 +3575,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B95" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3487,10 +3586,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B96" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3498,10 +3597,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B97" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3509,10 +3608,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3520,10 +3619,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3531,7 +3630,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B100" t="s">
         <v>139</v>
@@ -3542,10 +3641,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3553,10 +3652,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3564,10 +3663,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B103" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3575,10 +3674,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3586,10 +3685,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3597,10 +3696,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B106" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3608,10 +3707,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B107" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3619,10 +3718,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B108" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3630,10 +3729,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B109" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3641,10 +3740,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B110" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3652,10 +3751,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B111" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3663,10 +3762,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B112" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3674,10 +3773,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="B113" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3685,10 +3784,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B114" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3696,10 +3795,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B115" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3707,10 +3806,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3718,10 +3817,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="B117" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3729,10 +3828,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B118" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3740,10 +3839,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="B119" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3751,10 +3850,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B120" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3762,10 +3861,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B121" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3773,10 +3872,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3784,10 +3883,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B123" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3795,10 +3894,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B124" t="s">
-        <v>75</v>
+        <v>174</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3806,10 +3905,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B125" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3817,10 +3916,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B126" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3828,10 +3927,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B127" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3839,10 +3938,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3850,10 +3949,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B129" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3861,10 +3960,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B130" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3872,10 +3971,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B131" t="s">
-        <v>48</v>
+        <v>187</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3883,10 +3982,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B132" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3894,10 +3993,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B133" t="s">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3905,10 +4004,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B134" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3916,10 +4015,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3927,10 +4026,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B136" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3938,10 +4037,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B137" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3949,10 +4048,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B138" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3960,10 +4059,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B139" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3971,10 +4070,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B140" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3982,10 +4081,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B141" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3993,10 +4092,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B142" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4004,10 +4103,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B143" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4015,10 +4114,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B144" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4026,10 +4125,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B145" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4037,10 +4136,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B146" t="s">
-        <v>218</v>
+        <v>139</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4048,10 +4147,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B147" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4059,10 +4158,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4070,10 +4169,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B149" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4081,10 +4180,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4092,10 +4191,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B151" t="s">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4103,10 +4202,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B152" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4114,10 +4213,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B153" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4125,10 +4224,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B154" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4136,10 +4235,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B155" t="s">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4147,10 +4246,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4158,10 +4257,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4169,10 +4268,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4180,10 +4279,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4191,10 +4290,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4202,10 +4301,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B161" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4213,10 +4312,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B162" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4224,10 +4323,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B163" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4235,10 +4334,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B164" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4246,10 +4345,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B165" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4257,10 +4356,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B166" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4268,10 +4367,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B167" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4279,10 +4378,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B168" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4290,10 +4389,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B169" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4301,10 +4400,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B170" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4312,10 +4411,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4323,10 +4422,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B172" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4334,10 +4433,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B173" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4345,10 +4444,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B174" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4356,10 +4455,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B175" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4367,10 +4466,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B176" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4378,10 +4477,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B177" t="s">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4389,10 +4488,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B178" t="s">
-        <v>253</v>
+        <v>35</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4400,10 +4499,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B179" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4411,10 +4510,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B180" t="s">
-        <v>255</v>
+        <v>44</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4422,10 +4521,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B181" t="s">
-        <v>258</v>
+        <v>47</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4433,10 +4532,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B182" t="s">
-        <v>260</v>
+        <v>19</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4444,10 +4543,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B183" t="s">
-        <v>255</v>
+        <v>69</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4455,10 +4554,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B184" t="s">
-        <v>263</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4466,10 +4565,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B185" t="s">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4477,10 +4576,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B186" t="s">
-        <v>258</v>
+        <v>21</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4488,10 +4587,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B187" t="s">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4499,10 +4598,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B188" t="s">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4510,10 +4609,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B189" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4521,10 +4620,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B190" t="s">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4532,10 +4631,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B191" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4543,10 +4642,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B192" t="s">
-        <v>222</v>
+        <v>49</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4554,10 +4653,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B193" t="s">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4565,10 +4664,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B194" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4576,10 +4675,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B195" t="s">
-        <v>218</v>
+        <v>107</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4587,10 +4686,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B196" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4598,10 +4697,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B197" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4609,10 +4708,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B198" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4620,10 +4719,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B199" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4631,10 +4730,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B200" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4642,10 +4741,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B201" t="s">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4653,10 +4752,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B202" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4664,10 +4763,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B203" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4675,10 +4774,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B204" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4686,10 +4785,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B205" t="s">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4697,10 +4796,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B206" t="s">
-        <v>218</v>
+        <v>51</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4708,10 +4807,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4719,10 +4818,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B208" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4730,10 +4829,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B209" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4741,10 +4840,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4752,10 +4851,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4763,10 +4862,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B212" t="s">
-        <v>20</v>
+        <v>288</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4774,10 +4873,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>288</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4785,10 +4884,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>291</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4796,10 +4895,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B215" t="s">
-        <v>34</v>
+        <v>293</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4807,10 +4906,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4818,10 +4917,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B217" t="s">
-        <v>11</v>
+        <v>296</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4829,10 +4928,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B218" t="s">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4840,10 +4939,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B219" t="s">
-        <v>4</v>
+        <v>291</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4851,10 +4950,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
+        <v>300</v>
+      </c>
+      <c r="B220" t="s">
         <v>301</v>
-      </c>
-      <c r="B220" t="s">
-        <v>4</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4865,7 +4964,7 @@
         <v>302</v>
       </c>
       <c r="B221" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4876,7 +4975,7 @@
         <v>303</v>
       </c>
       <c r="B222" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4898,7 +4997,7 @@
         <v>305</v>
       </c>
       <c r="B224" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4909,7 +5008,7 @@
         <v>306</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4920,7 +5019,7 @@
         <v>307</v>
       </c>
       <c r="B226" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4931,7 +5030,7 @@
         <v>308</v>
       </c>
       <c r="B227" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4942,7 +5041,7 @@
         <v>309</v>
       </c>
       <c r="B228" t="s">
-        <v>34</v>
+        <v>253</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4953,7 +5052,7 @@
         <v>310</v>
       </c>
       <c r="B229" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4964,7 +5063,7 @@
         <v>311</v>
       </c>
       <c r="B230" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4975,7 +5074,7 @@
         <v>312</v>
       </c>
       <c r="B231" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4986,7 +5085,7 @@
         <v>313</v>
       </c>
       <c r="B232" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4997,7 +5096,7 @@
         <v>314</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5008,7 +5107,7 @@
         <v>315</v>
       </c>
       <c r="B234" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5019,7 +5118,7 @@
         <v>316</v>
       </c>
       <c r="B235" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5030,7 +5129,7 @@
         <v>317</v>
       </c>
       <c r="B236" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5041,7 +5140,7 @@
         <v>318</v>
       </c>
       <c r="B237" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5052,7 +5151,7 @@
         <v>319</v>
       </c>
       <c r="B238" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5063,7 +5162,7 @@
         <v>320</v>
       </c>
       <c r="B239" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5074,7 +5173,7 @@
         <v>321</v>
       </c>
       <c r="B240" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5085,7 +5184,7 @@
         <v>322</v>
       </c>
       <c r="B241" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5096,7 +5195,7 @@
         <v>323</v>
       </c>
       <c r="B242" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5107,7 +5206,7 @@
         <v>324</v>
       </c>
       <c r="B243" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5118,7 +5217,7 @@
         <v>325</v>
       </c>
       <c r="B244" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5129,7 +5228,7 @@
         <v>326</v>
       </c>
       <c r="B245" t="s">
-        <v>327</v>
+        <v>66</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5137,10 +5236,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B246" t="s">
-        <v>329</v>
+        <v>59</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5148,10 +5247,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B247" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5159,10 +5258,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B248" t="s">
-        <v>332</v>
+        <v>51</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5170,10 +5269,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B249" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5181,10 +5280,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B250" t="s">
-        <v>192</v>
+        <v>49</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5192,10 +5291,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B251" t="s">
-        <v>192</v>
+        <v>53</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5203,10 +5302,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B252" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5214,10 +5313,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B253" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5225,10 +5324,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B254" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5236,10 +5335,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B255" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5247,10 +5346,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B256" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5258,10 +5357,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B257" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5269,10 +5368,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B258" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5280,10 +5379,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5291,10 +5390,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B260" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5302,10 +5401,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B261" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5313,10 +5412,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5324,10 +5423,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B263" t="s">
-        <v>348</v>
+        <v>51</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5335,10 +5434,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B264" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5346,10 +5445,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B265" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5357,10 +5456,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B266" t="s">
-        <v>332</v>
+        <v>47</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5368,10 +5467,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B267" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5379,10 +5478,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B268" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5390,10 +5489,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B269" t="s">
-        <v>166</v>
+        <v>49</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5401,10 +5500,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B270" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5412,10 +5511,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B271" t="s">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5423,10 +5522,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B272" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5434,10 +5533,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B273" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5445,10 +5544,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B274" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5456,10 +5555,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B275" t="s">
-        <v>327</v>
+        <v>59</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5467,10 +5566,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B276" t="s">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5478,10 +5577,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B277" t="s">
-        <v>235</v>
+        <v>91</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5489,10 +5588,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B278" t="s">
-        <v>71</v>
+        <v>360</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5500,10 +5599,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B279" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5511,10 +5610,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B280" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5522,10 +5621,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B281" t="s">
-        <v>34</v>
+        <v>365</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5533,10 +5632,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B282" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5544,10 +5643,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B283" t="s">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5555,10 +5654,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B284" t="s">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5566,10 +5665,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B285" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5577,10 +5676,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B286" t="s">
-        <v>222</v>
+        <v>95</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5588,10 +5687,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B287" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5599,10 +5698,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B288" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5610,10 +5709,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B289" t="s">
-        <v>207</v>
+        <v>95</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5621,10 +5720,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B290" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5632,10 +5731,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B291" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5643,10 +5742,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B292" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5654,10 +5753,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B293" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5665,10 +5764,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B294" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5676,10 +5775,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B295" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5687,10 +5786,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
+        <v>380</v>
+      </c>
+      <c r="B296" t="s">
         <v>381</v>
-      </c>
-      <c r="B296" t="s">
-        <v>52</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5701,7 +5800,7 @@
         <v>382</v>
       </c>
       <c r="B297" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5712,7 +5811,7 @@
         <v>383</v>
       </c>
       <c r="B298" t="s">
-        <v>37</v>
+        <v>365</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5723,7 +5822,7 @@
         <v>384</v>
       </c>
       <c r="B299" t="s">
-        <v>52</v>
+        <v>365</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5734,7 +5833,7 @@
         <v>385</v>
       </c>
       <c r="B300" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5745,7 +5844,7 @@
         <v>386</v>
       </c>
       <c r="B301" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5756,7 +5855,7 @@
         <v>387</v>
       </c>
       <c r="B302" t="s">
-        <v>48</v>
+        <v>209</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5767,7 +5866,7 @@
         <v>388</v>
       </c>
       <c r="B303" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5778,7 +5877,7 @@
         <v>389</v>
       </c>
       <c r="B304" t="s">
-        <v>37</v>
+        <v>207</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5789,7 +5888,7 @@
         <v>390</v>
       </c>
       <c r="B305" t="s">
-        <v>13</v>
+        <v>214</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5800,7 +5899,7 @@
         <v>391</v>
       </c>
       <c r="B306" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5811,7 +5910,7 @@
         <v>392</v>
       </c>
       <c r="B307" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5822,7 +5921,7 @@
         <v>393</v>
       </c>
       <c r="B308" t="s">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5833,7 +5932,7 @@
         <v>394</v>
       </c>
       <c r="B309" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5844,7 +5943,7 @@
         <v>395</v>
       </c>
       <c r="B310" t="s">
-        <v>327</v>
+        <v>269</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5855,7 +5954,7 @@
         <v>396</v>
       </c>
       <c r="B311" t="s">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5866,7 +5965,7 @@
         <v>397</v>
       </c>
       <c r="B312" t="s">
-        <v>17</v>
+        <v>365</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5877,7 +5976,7 @@
         <v>398</v>
       </c>
       <c r="B313" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5888,7 +5987,7 @@
         <v>399</v>
       </c>
       <c r="B314" t="s">
-        <v>235</v>
+        <v>51</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5899,7 +5998,7 @@
         <v>400</v>
       </c>
       <c r="B315" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5910,7 +6009,7 @@
         <v>401</v>
       </c>
       <c r="B316" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5921,7 +6020,7 @@
         <v>402</v>
       </c>
       <c r="B317" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5932,7 +6031,7 @@
         <v>403</v>
       </c>
       <c r="B318" t="s">
-        <v>332</v>
+        <v>53</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5943,7 +6042,7 @@
         <v>404</v>
       </c>
       <c r="B319" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5954,7 +6053,7 @@
         <v>405</v>
       </c>
       <c r="B320" t="s">
-        <v>348</v>
+        <v>25</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5965,7 +6064,7 @@
         <v>406</v>
       </c>
       <c r="B321" t="s">
-        <v>192</v>
+        <v>21</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5976,7 +6075,7 @@
         <v>407</v>
       </c>
       <c r="B322" t="s">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5987,7 +6086,7 @@
         <v>408</v>
       </c>
       <c r="B323" t="s">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5998,7 +6097,7 @@
         <v>409</v>
       </c>
       <c r="B324" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6009,7 +6108,7 @@
         <v>410</v>
       </c>
       <c r="B325" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6020,7 +6119,7 @@
         <v>411</v>
       </c>
       <c r="B326" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6031,7 +6130,7 @@
         <v>412</v>
       </c>
       <c r="B327" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6042,7 +6141,7 @@
         <v>413</v>
       </c>
       <c r="B328" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6053,7 +6152,7 @@
         <v>414</v>
       </c>
       <c r="B329" t="s">
-        <v>327</v>
+        <v>95</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6064,7 +6163,7 @@
         <v>415</v>
       </c>
       <c r="B330" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6075,7 +6174,7 @@
         <v>416</v>
       </c>
       <c r="B331" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6086,7 +6185,7 @@
         <v>417</v>
       </c>
       <c r="B332" t="s">
-        <v>235</v>
+        <v>95</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6097,7 +6196,7 @@
         <v>418</v>
       </c>
       <c r="B333" t="s">
-        <v>235</v>
+        <v>61</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6108,7 +6207,7 @@
         <v>419</v>
       </c>
       <c r="B334" t="s">
-        <v>348</v>
+        <v>61</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6119,7 +6218,7 @@
         <v>420</v>
       </c>
       <c r="B335" t="s">
-        <v>192</v>
+        <v>91</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6130,7 +6229,7 @@
         <v>421</v>
       </c>
       <c r="B336" t="s">
-        <v>332</v>
+        <v>107</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6141,7 +6240,7 @@
         <v>422</v>
       </c>
       <c r="B337" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6152,7 +6251,7 @@
         <v>423</v>
       </c>
       <c r="B338" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6163,7 +6262,7 @@
         <v>424</v>
       </c>
       <c r="B339" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6174,7 +6273,7 @@
         <v>425</v>
       </c>
       <c r="B340" t="s">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6185,7 +6284,7 @@
         <v>426</v>
       </c>
       <c r="B341" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6196,7 +6295,7 @@
         <v>427</v>
       </c>
       <c r="B342" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6207,7 +6306,7 @@
         <v>428</v>
       </c>
       <c r="B343" t="s">
-        <v>75</v>
+        <v>360</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6218,7 +6317,7 @@
         <v>429</v>
       </c>
       <c r="B344" t="s">
-        <v>430</v>
+        <v>82</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6226,10 +6325,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B345" t="s">
-        <v>432</v>
+        <v>63</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6237,10 +6336,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B346" t="s">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6248,10 +6347,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B347" t="s">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6259,10 +6358,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B348" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6270,10 +6369,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B349" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6281,10 +6380,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B350" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6292,10 +6391,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B351" t="s">
-        <v>48</v>
+        <v>365</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6303,10 +6402,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B352" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6314,10 +6413,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B353" t="s">
-        <v>13</v>
+        <v>381</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6325,10 +6424,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B354" t="s">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6336,10 +6435,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B355" t="s">
-        <v>4</v>
+        <v>235</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6347,10 +6446,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B356" t="s">
-        <v>20</v>
+        <v>360</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6358,10 +6457,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B357" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6369,10 +6468,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B358" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6380,10 +6479,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B359" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6391,10 +6490,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B360" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6402,10 +6501,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B361" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6413,10 +6512,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B362" t="s">
-        <v>4</v>
+        <v>360</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6424,10 +6523,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B363" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6435,10 +6534,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B364" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6446,10 +6545,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B365" t="s">
-        <v>37</v>
+        <v>269</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6457,10 +6556,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B366" t="s">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6468,10 +6567,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B367" t="s">
-        <v>11</v>
+        <v>381</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6479,10 +6578,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B368" t="s">
-        <v>20</v>
+        <v>235</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6490,10 +6589,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B369" t="s">
-        <v>9</v>
+        <v>365</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6501,10 +6600,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B370" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6512,10 +6611,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B371" t="s">
-        <v>22</v>
+        <v>126</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6523,10 +6622,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6534,10 +6633,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B373" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6545,10 +6644,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B374" t="s">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6556,10 +6655,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B375" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6567,10 +6666,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B376" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6578,10 +6677,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B377" t="s">
-        <v>9</v>
+        <v>463</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6589,10 +6688,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
+        <v>464</v>
+      </c>
+      <c r="B378" t="s">
         <v>465</v>
-      </c>
-      <c r="B378" t="s">
-        <v>34</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6603,7 +6702,7 @@
         <v>466</v>
       </c>
       <c r="B379" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6614,7 +6713,7 @@
         <v>467</v>
       </c>
       <c r="B380" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6625,7 +6724,7 @@
         <v>468</v>
       </c>
       <c r="B381" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6636,7 +6735,7 @@
         <v>469</v>
       </c>
       <c r="B382" t="s">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6647,7 +6746,7 @@
         <v>470</v>
       </c>
       <c r="B383" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6658,7 +6757,7 @@
         <v>471</v>
       </c>
       <c r="B384" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6669,7 +6768,7 @@
         <v>472</v>
       </c>
       <c r="B385" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6680,7 +6779,7 @@
         <v>473</v>
       </c>
       <c r="B386" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6691,7 +6790,7 @@
         <v>474</v>
       </c>
       <c r="B387" t="s">
-        <v>327</v>
+        <v>66</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6702,7 +6801,7 @@
         <v>475</v>
       </c>
       <c r="B388" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6713,7 +6812,7 @@
         <v>476</v>
       </c>
       <c r="B389" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6724,7 +6823,7 @@
         <v>477</v>
       </c>
       <c r="B390" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6735,7 +6834,7 @@
         <v>478</v>
       </c>
       <c r="B391" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6746,7 +6845,7 @@
         <v>479</v>
       </c>
       <c r="B392" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6757,7 +6856,7 @@
         <v>480</v>
       </c>
       <c r="B393" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6768,7 +6867,7 @@
         <v>481</v>
       </c>
       <c r="B394" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6779,7 +6878,7 @@
         <v>482</v>
       </c>
       <c r="B395" t="s">
-        <v>348</v>
+        <v>53</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6790,7 +6889,7 @@
         <v>483</v>
       </c>
       <c r="B396" t="s">
-        <v>348</v>
+        <v>53</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6801,7 +6900,7 @@
         <v>484</v>
       </c>
       <c r="B397" t="s">
-        <v>348</v>
+        <v>69</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6812,7 +6911,7 @@
         <v>485</v>
       </c>
       <c r="B398" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6823,7 +6922,7 @@
         <v>486</v>
       </c>
       <c r="B399" t="s">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6834,7 +6933,7 @@
         <v>487</v>
       </c>
       <c r="B400" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6845,7 +6944,7 @@
         <v>488</v>
       </c>
       <c r="B401" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6856,7 +6955,7 @@
         <v>489</v>
       </c>
       <c r="B402" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6867,7 +6966,7 @@
         <v>490</v>
       </c>
       <c r="B403" t="s">
-        <v>329</v>
+        <v>8</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6878,7 +6977,7 @@
         <v>491</v>
       </c>
       <c r="B404" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6889,7 +6988,7 @@
         <v>492</v>
       </c>
       <c r="B405" t="s">
-        <v>332</v>
+        <v>59</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6900,7 +6999,7 @@
         <v>493</v>
       </c>
       <c r="B406" t="s">
-        <v>329</v>
+        <v>27</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6911,7 +7010,7 @@
         <v>494</v>
       </c>
       <c r="B407" t="s">
-        <v>495</v>
+        <v>76</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6919,10 +7018,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B408" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6930,10 +7029,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B409" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6941,10 +7040,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B410" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6952,10 +7051,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B411" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6963,10 +7062,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B412" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6974,10 +7073,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B413" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6985,10 +7084,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B414" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6996,10 +7095,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B415" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7007,10 +7106,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B416" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7018,10 +7117,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B417" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7029,10 +7128,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B418" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7040,10 +7139,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B419" t="s">
-        <v>187</v>
+        <v>112</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7051,10 +7150,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B420" t="s">
-        <v>71</v>
+        <v>360</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7062,10 +7161,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B421" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7073,10 +7172,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B422" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7084,10 +7183,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B423" t="s">
-        <v>327</v>
+        <v>107</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7095,10 +7194,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B424" t="s">
-        <v>235</v>
+        <v>82</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7106,10 +7205,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B425" t="s">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7117,10 +7216,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B426" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7128,10 +7227,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B427" t="s">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7139,10 +7238,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B428" t="s">
-        <v>69</v>
+        <v>381</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7150,10 +7249,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B429" t="s">
-        <v>348</v>
+        <v>381</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7161,10 +7260,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B430" t="s">
-        <v>69</v>
+        <v>381</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7172,10 +7271,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B431" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7183,10 +7282,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B432" t="s">
-        <v>168</v>
+        <v>269</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7194,10 +7293,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B433" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7205,10 +7304,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B434" t="s">
-        <v>430</v>
+        <v>235</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7216,10 +7315,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B435" t="s">
-        <v>164</v>
+        <v>112</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7227,10 +7326,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B436" t="s">
-        <v>178</v>
+        <v>362</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7238,10 +7337,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B437" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7249,10 +7348,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B438" t="s">
-        <v>182</v>
+        <v>365</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7260,10 +7359,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B439" t="s">
-        <v>103</v>
+        <v>362</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7271,10 +7370,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
+        <v>527</v>
+      </c>
+      <c r="B440" t="s">
         <v>528</v>
-      </c>
-      <c r="B440" t="s">
-        <v>116</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7285,7 +7384,7 @@
         <v>529</v>
       </c>
       <c r="B441" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7296,7 +7395,7 @@
         <v>530</v>
       </c>
       <c r="B442" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7307,7 +7406,7 @@
         <v>531</v>
       </c>
       <c r="B443" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7318,7 +7417,7 @@
         <v>532</v>
       </c>
       <c r="B444" t="s">
-        <v>533</v>
+        <v>112</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7326,10 +7425,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B445" t="s">
-        <v>533</v>
+        <v>112</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7337,10 +7436,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B446" t="s">
-        <v>533</v>
+        <v>114</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7348,10 +7447,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B447" t="s">
-        <v>533</v>
+        <v>131</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7359,10 +7458,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B448" t="s">
-        <v>538</v>
+        <v>116</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7370,10 +7469,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B449" t="s">
-        <v>540</v>
+        <v>152</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7381,10 +7480,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B450" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7392,10 +7491,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B451" t="s">
-        <v>533</v>
+        <v>152</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7403,10 +7502,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="B452" t="s">
-        <v>160</v>
+        <v>230</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7414,10 +7513,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B453" t="s">
-        <v>538</v>
+        <v>114</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7425,10 +7524,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B454" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7436,10 +7535,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B455" t="s">
-        <v>547</v>
+        <v>63</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7447,10 +7546,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B456" t="s">
-        <v>547</v>
+        <v>360</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7458,10 +7557,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B457" t="s">
-        <v>133</v>
+        <v>269</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7469,10 +7568,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B458" t="s">
-        <v>135</v>
+        <v>269</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7480,10 +7579,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B459" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7491,10 +7590,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B460" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7502,10 +7601,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B461" t="s">
-        <v>554</v>
+        <v>112</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7513,10 +7612,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B462" t="s">
-        <v>554</v>
+        <v>381</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7524,10 +7623,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B463" t="s">
-        <v>557</v>
+        <v>112</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7535,10 +7634,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B464" t="s">
-        <v>559</v>
+        <v>112</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7546,10 +7645,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="B465" t="s">
-        <v>561</v>
+        <v>211</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7557,10 +7656,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B466" t="s">
-        <v>563</v>
+        <v>209</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7568,10 +7667,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="B467" t="s">
-        <v>137</v>
+        <v>463</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7579,10 +7678,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="B468" t="s">
-        <v>566</v>
+        <v>207</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7590,10 +7689,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B469" t="s">
-        <v>568</v>
+        <v>221</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7601,10 +7700,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B470" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7612,10 +7711,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="B471" t="s">
-        <v>571</v>
+        <v>225</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7623,10 +7722,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B472" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7634,10 +7733,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B473" t="s">
-        <v>574</v>
+        <v>159</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7645,10 +7744,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="B474" t="s">
-        <v>576</v>
+        <v>159</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7656,10 +7755,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="B475" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7667,10 +7766,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B476" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7678,10 +7777,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="B477" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7689,10 +7788,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="B478" t="s">
-        <v>149</v>
+        <v>566</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7700,10 +7799,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="B479" t="s">
-        <v>149</v>
+        <v>566</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7711,10 +7810,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="B480" t="s">
-        <v>583</v>
+        <v>566</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7722,10 +7821,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B481" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7733,10 +7832,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="B482" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7744,10 +7843,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B483" t="s">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7755,10 +7854,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="B484" t="s">
-        <v>158</v>
+        <v>566</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -7766,10 +7865,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B485" t="s">
-        <v>591</v>
+        <v>203</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7777,10 +7876,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="B486" t="s">
-        <v>133</v>
+        <v>571</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7788,10 +7887,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="B487" t="s">
-        <v>574</v>
+        <v>187</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -7799,10 +7898,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="B488" t="s">
-        <v>126</v>
+        <v>580</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -7810,10 +7909,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="B489" t="s">
-        <v>158</v>
+        <v>580</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -7821,10 +7920,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="B490" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -7832,10 +7931,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="B491" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -7843,10 +7942,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="B492" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -7854,10 +7953,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B493" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -7865,10 +7964,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="B494" t="s">
-        <v>96</v>
+        <v>587</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -7876,10 +7975,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="B495" t="s">
-        <v>96</v>
+        <v>587</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -7887,10 +7986,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="B496" t="s">
-        <v>430</v>
+        <v>590</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -7898,10 +7997,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B497" t="s">
-        <v>96</v>
+        <v>592</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -7909,10 +8008,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="B498" t="s">
-        <v>166</v>
+        <v>594</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -7920,10 +8019,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B499" t="s">
-        <v>106</v>
+        <v>596</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -7931,10 +8030,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="B500" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -7942,10 +8041,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="B501" t="s">
-        <v>99</v>
+        <v>599</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -7953,10 +8052,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B502" t="s">
-        <v>78</v>
+        <v>601</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -7964,10 +8063,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B503" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -7975,10 +8074,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B504" t="s">
-        <v>495</v>
+        <v>604</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -7986,10 +8085,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B505" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -7997,10 +8096,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B506" t="s">
-        <v>173</v>
+        <v>607</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8008,10 +8107,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B507" t="s">
-        <v>176</v>
+        <v>609</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8019,10 +8118,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B508" t="s">
-        <v>615</v>
+        <v>201</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8030,10 +8129,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B509" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8041,10 +8140,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B510" t="s">
-        <v>171</v>
+        <v>607</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8052,10 +8151,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B511" t="s">
-        <v>615</v>
+        <v>192</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8063,10 +8162,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B512" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8074,10 +8173,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B513" t="s">
-        <v>121</v>
+        <v>616</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8085,10 +8184,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B514" t="s">
-        <v>182</v>
+        <v>618</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8096,10 +8195,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B515" t="s">
-        <v>168</v>
+        <v>620</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8107,10 +8206,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B516" t="s">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8118,10 +8217,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B517" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8129,10 +8228,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B518" t="s">
-        <v>75</v>
+        <v>624</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8140,10 +8239,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B519" t="s">
-        <v>332</v>
+        <v>176</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8151,10 +8250,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B520" t="s">
-        <v>85</v>
+        <v>607</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8162,10 +8261,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B521" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8173,10 +8272,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B522" t="s">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8184,10 +8283,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B523" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8195,10 +8294,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B524" t="s">
-        <v>69</v>
+        <v>159</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8206,10 +8305,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B525" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8217,10 +8316,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B526" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8228,10 +8327,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B527" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8239,10 +8338,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B528" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8250,10 +8349,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B529" t="s">
-        <v>327</v>
+        <v>463</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8261,10 +8360,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B530" t="s">
-        <v>348</v>
+        <v>139</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8272,10 +8371,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B531" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8283,10 +8382,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B532" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8294,10 +8393,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B533" t="s">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8305,10 +8404,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B534" t="s">
-        <v>48</v>
+        <v>142</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8316,10 +8415,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B535" t="s">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8327,10 +8426,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B536" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8338,10 +8437,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B537" t="s">
-        <v>37</v>
+        <v>528</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8349,10 +8448,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B538" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8360,10 +8459,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B539" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8371,10 +8470,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B540" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8382,10 +8481,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
+        <v>647</v>
+      </c>
+      <c r="B541" t="s">
         <v>648</v>
-      </c>
-      <c r="B541" t="s">
-        <v>75</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8396,7 +8495,7 @@
         <v>649</v>
       </c>
       <c r="B542" t="s">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8407,7 +8506,7 @@
         <v>650</v>
       </c>
       <c r="B543" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8418,7 +8517,7 @@
         <v>651</v>
       </c>
       <c r="B544" t="s">
-        <v>83</v>
+        <v>648</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8429,7 +8528,7 @@
         <v>652</v>
       </c>
       <c r="B545" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8440,7 +8539,7 @@
         <v>653</v>
       </c>
       <c r="B546" t="s">
-        <v>88</v>
+        <v>164</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -8451,7 +8550,7 @@
         <v>654</v>
       </c>
       <c r="B547" t="s">
-        <v>73</v>
+        <v>225</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -8462,7 +8561,7 @@
         <v>655</v>
       </c>
       <c r="B548" t="s">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -8473,7 +8572,7 @@
         <v>656</v>
       </c>
       <c r="B549" t="s">
-        <v>430</v>
+        <v>118</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -8484,7 +8583,7 @@
         <v>657</v>
       </c>
       <c r="B550" t="s">
-        <v>432</v>
+        <v>118</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -8495,7 +8594,7 @@
         <v>658</v>
       </c>
       <c r="B551" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -8506,7 +8605,7 @@
         <v>659</v>
       </c>
       <c r="B552" t="s">
-        <v>168</v>
+        <v>365</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -8517,7 +8616,7 @@
         <v>660</v>
       </c>
       <c r="B553" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -8528,7 +8627,7 @@
         <v>661</v>
       </c>
       <c r="B554" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -8539,7 +8638,7 @@
         <v>662</v>
       </c>
       <c r="B555" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -8550,7 +8649,7 @@
         <v>663</v>
       </c>
       <c r="B556" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -8561,7 +8660,7 @@
         <v>664</v>
       </c>
       <c r="B557" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -8572,7 +8671,7 @@
         <v>665</v>
       </c>
       <c r="B558" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -8583,7 +8682,7 @@
         <v>666</v>
       </c>
       <c r="B559" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -8594,7 +8693,7 @@
         <v>667</v>
       </c>
       <c r="B560" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -8605,7 +8704,7 @@
         <v>668</v>
       </c>
       <c r="B561" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -8616,7 +8715,7 @@
         <v>669</v>
       </c>
       <c r="B562" t="s">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -8627,7 +8726,7 @@
         <v>670</v>
       </c>
       <c r="B563" t="s">
-        <v>75</v>
+        <v>381</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -8638,7 +8737,7 @@
         <v>671</v>
       </c>
       <c r="B564" t="s">
-        <v>432</v>
+        <v>235</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -8649,7 +8748,7 @@
         <v>672</v>
       </c>
       <c r="B565" t="s">
-        <v>432</v>
+        <v>235</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -8660,7 +8759,7 @@
         <v>673</v>
       </c>
       <c r="B566" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -8671,7 +8770,7 @@
         <v>674</v>
       </c>
       <c r="B567" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -8682,7 +8781,7 @@
         <v>675</v>
       </c>
       <c r="B568" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -8693,7 +8792,7 @@
         <v>676</v>
       </c>
       <c r="B569" t="s">
-        <v>533</v>
+        <v>61</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -8704,7 +8803,7 @@
         <v>677</v>
       </c>
       <c r="B570" t="s">
-        <v>533</v>
+        <v>80</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -8715,7 +8814,7 @@
         <v>678</v>
       </c>
       <c r="B571" t="s">
-        <v>538</v>
+        <v>107</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -8726,7 +8825,7 @@
         <v>679</v>
       </c>
       <c r="B572" t="s">
-        <v>540</v>
+        <v>235</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -8737,7 +8836,7 @@
         <v>680</v>
       </c>
       <c r="B573" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -8748,7 +8847,7 @@
         <v>681</v>
       </c>
       <c r="B574" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -8759,7 +8858,7 @@
         <v>682</v>
       </c>
       <c r="B575" t="s">
-        <v>615</v>
+        <v>118</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -8770,7 +8869,7 @@
         <v>683</v>
       </c>
       <c r="B576" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -8781,7 +8880,7 @@
         <v>684</v>
       </c>
       <c r="B577" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -8792,7 +8891,7 @@
         <v>685</v>
       </c>
       <c r="B578" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -8803,7 +8902,7 @@
         <v>686</v>
       </c>
       <c r="B579" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -8814,7 +8913,7 @@
         <v>687</v>
       </c>
       <c r="B580" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -8825,7 +8924,7 @@
         <v>688</v>
       </c>
       <c r="B581" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -8836,7 +8935,7 @@
         <v>689</v>
       </c>
       <c r="B582" t="s">
-        <v>123</v>
+        <v>463</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -8847,7 +8946,7 @@
         <v>690</v>
       </c>
       <c r="B583" t="s">
-        <v>160</v>
+        <v>465</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -8858,7 +8957,7 @@
         <v>691</v>
       </c>
       <c r="B584" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -8869,7 +8968,7 @@
         <v>692</v>
       </c>
       <c r="B585" t="s">
-        <v>693</v>
+        <v>211</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -8877,10 +8976,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B586" t="s">
-        <v>540</v>
+        <v>118</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -8888,10 +8987,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B587" t="s">
-        <v>540</v>
+        <v>128</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -8899,10 +8998,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B588" t="s">
-        <v>697</v>
+        <v>126</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -8910,12 +9009,375 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
+        <v>696</v>
+      </c>
+      <c r="B589" t="s">
+        <v>269</v>
+      </c>
+      <c r="C589" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>697</v>
+      </c>
+      <c r="B590" t="s">
+        <v>131</v>
+      </c>
+      <c r="C590" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
         <v>698</v>
       </c>
-      <c r="B589" t="s">
-        <v>538</v>
-      </c>
-      <c r="C589" t="s">
+      <c r="B591" t="s">
+        <v>131</v>
+      </c>
+      <c r="C591" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>699</v>
+      </c>
+      <c r="B592" t="s">
+        <v>116</v>
+      </c>
+      <c r="C592" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>700</v>
+      </c>
+      <c r="B593" t="s">
+        <v>118</v>
+      </c>
+      <c r="C593" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>701</v>
+      </c>
+      <c r="B594" t="s">
+        <v>118</v>
+      </c>
+      <c r="C594" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>702</v>
+      </c>
+      <c r="B595" t="s">
+        <v>463</v>
+      </c>
+      <c r="C595" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>703</v>
+      </c>
+      <c r="B596" t="s">
+        <v>118</v>
+      </c>
+      <c r="C596" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>704</v>
+      </c>
+      <c r="B597" t="s">
+        <v>465</v>
+      </c>
+      <c r="C597" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>705</v>
+      </c>
+      <c r="B598" t="s">
+        <v>465</v>
+      </c>
+      <c r="C598" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>706</v>
+      </c>
+      <c r="B599" t="s">
+        <v>166</v>
+      </c>
+      <c r="C599" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>707</v>
+      </c>
+      <c r="B600" t="s">
+        <v>166</v>
+      </c>
+      <c r="C600" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>708</v>
+      </c>
+      <c r="B601" t="s">
+        <v>214</v>
+      </c>
+      <c r="C601" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>709</v>
+      </c>
+      <c r="B602" t="s">
+        <v>566</v>
+      </c>
+      <c r="C602" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>710</v>
+      </c>
+      <c r="B603" t="s">
+        <v>566</v>
+      </c>
+      <c r="C603" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>711</v>
+      </c>
+      <c r="B604" t="s">
+        <v>571</v>
+      </c>
+      <c r="C604" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>712</v>
+      </c>
+      <c r="B605" t="s">
+        <v>573</v>
+      </c>
+      <c r="C605" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>713</v>
+      </c>
+      <c r="B606" t="s">
+        <v>166</v>
+      </c>
+      <c r="C606" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>714</v>
+      </c>
+      <c r="B607" t="s">
+        <v>166</v>
+      </c>
+      <c r="C607" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>715</v>
+      </c>
+      <c r="B608" t="s">
+        <v>648</v>
+      </c>
+      <c r="C608" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>716</v>
+      </c>
+      <c r="B609" t="s">
+        <v>171</v>
+      </c>
+      <c r="C609" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>717</v>
+      </c>
+      <c r="B610" t="s">
+        <v>171</v>
+      </c>
+      <c r="C610" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>718</v>
+      </c>
+      <c r="B611" t="s">
+        <v>203</v>
+      </c>
+      <c r="C611" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>719</v>
+      </c>
+      <c r="B612" t="s">
+        <v>203</v>
+      </c>
+      <c r="C612" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>720</v>
+      </c>
+      <c r="B613" t="s">
+        <v>166</v>
+      </c>
+      <c r="C613" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>721</v>
+      </c>
+      <c r="B614" t="s">
+        <v>162</v>
+      </c>
+      <c r="C614" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>722</v>
+      </c>
+      <c r="B615" t="s">
+        <v>166</v>
+      </c>
+      <c r="C615" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>723</v>
+      </c>
+      <c r="B616" t="s">
+        <v>203</v>
+      </c>
+      <c r="C616" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>724</v>
+      </c>
+      <c r="B617" t="s">
+        <v>203</v>
+      </c>
+      <c r="C617" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>725</v>
+      </c>
+      <c r="B618" t="s">
+        <v>726</v>
+      </c>
+      <c r="C618" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>727</v>
+      </c>
+      <c r="B619" t="s">
+        <v>573</v>
+      </c>
+      <c r="C619" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>728</v>
+      </c>
+      <c r="B620" t="s">
+        <v>573</v>
+      </c>
+      <c r="C620" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>729</v>
+      </c>
+      <c r="B621" t="s">
+        <v>730</v>
+      </c>
+      <c r="C621" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>731</v>
+      </c>
+      <c r="B622" t="s">
+        <v>571</v>
+      </c>
+      <c r="C622" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid969803"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid476276"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="746">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,24 +26,78 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>04/11/2025</t>
+  </si>
+  <si>
+    <t>1.016</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>03/11/2025</t>
+  </si>
+  <si>
+    <t>1.022</t>
+  </si>
+  <si>
+    <t>31/10/2025</t>
+  </si>
+  <si>
+    <t>1.023</t>
+  </si>
+  <si>
+    <t>30/10/2025</t>
+  </si>
+  <si>
+    <t>29/10/2025</t>
+  </si>
+  <si>
+    <t>1.027</t>
+  </si>
+  <si>
+    <t>28/10/2025</t>
+  </si>
+  <si>
+    <t>1.025</t>
+  </si>
+  <si>
+    <t>27/10/2025</t>
+  </si>
+  <si>
+    <t>24/10/2025</t>
+  </si>
+  <si>
+    <t>23/10/2025</t>
+  </si>
+  <si>
+    <t>1.009</t>
+  </si>
+  <si>
+    <t>22/10/2025</t>
+  </si>
+  <si>
+    <t>1.011</t>
+  </si>
+  <si>
+    <t>21/10/2025</t>
+  </si>
+  <si>
+    <t>17/10/2025</t>
+  </si>
+  <si>
+    <t>1.005</t>
+  </si>
+  <si>
     <t>16/10/2025</t>
   </si>
   <si>
-    <t>1.016</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>15/10/2025</t>
   </si>
   <si>
     <t>14/10/2025</t>
   </si>
   <si>
-    <t>1.005</t>
-  </si>
-  <si>
     <t>13/10/2025</t>
   </si>
   <si>
@@ -86,9 +140,6 @@
     <t>30/09/2025</t>
   </si>
   <si>
-    <t>1.011</t>
-  </si>
-  <si>
     <t>29/09/2025</t>
   </si>
   <si>
@@ -776,9 +827,6 @@
     <t>05/02/2025</t>
   </si>
   <si>
-    <t>1.009</t>
-  </si>
-  <si>
     <t>04/02/2025</t>
   </si>
   <si>
@@ -890,9 +938,6 @@
     <t>12/12/2024</t>
   </si>
   <si>
-    <t>1.022</t>
-  </si>
-  <si>
     <t>11/12/2024</t>
   </si>
   <si>
@@ -909,9 +954,6 @@
   </si>
   <si>
     <t>06/12/2024</t>
-  </si>
-  <si>
-    <t>1.023</t>
   </si>
   <si>
     <t>05/12/2024</t>
@@ -2566,7 +2608,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -2574,10 +2616,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -2585,10 +2627,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2599,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2607,10 +2649,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2618,10 +2660,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2629,10 +2671,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2640,10 +2682,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2651,10 +2693,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2662,10 +2704,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2673,10 +2715,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2684,10 +2726,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2695,10 +2737,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2709,7 +2751,7 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2717,10 +2759,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2731,7 +2773,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2742,7 +2784,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2753,7 +2795,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2761,10 +2803,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
         <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2775,7 +2817,7 @@
         <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2783,10 +2825,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2794,10 +2836,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
         <v>37</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2808,7 +2850,7 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2816,10 +2858,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2827,10 +2869,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2838,10 +2880,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2849,10 +2891,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2860,10 +2902,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2871,10 +2913,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2882,10 +2924,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2893,10 +2935,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2904,10 +2946,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2915,10 +2957,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2929,7 +2971,7 @@
         <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2940,7 +2982,7 @@
         <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2951,7 +2993,7 @@
         <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2962,7 +3004,7 @@
         <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2973,7 +3015,7 @@
         <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2981,10 +3023,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2992,10 +3034,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3003,10 +3045,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3014,10 +3056,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3025,10 +3067,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3036,10 +3078,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s">
         <v>68</v>
-      </c>
-      <c r="B46" t="s">
-        <v>69</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3047,10 +3089,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" t="s">
         <v>70</v>
-      </c>
-      <c r="B47" t="s">
-        <v>69</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3061,7 +3103,7 @@
         <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3072,7 +3114,7 @@
         <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3083,7 +3125,7 @@
         <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3094,7 +3136,7 @@
         <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3116,7 +3158,7 @@
         <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3124,10 +3166,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3135,7 +3177,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
@@ -3146,10 +3188,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3157,10 +3199,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3168,10 +3210,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3179,10 +3221,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3190,10 +3232,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3201,10 +3243,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3212,10 +3254,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3223,10 +3265,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3234,10 +3276,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3245,10 +3287,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3256,10 +3298,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3267,10 +3309,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3278,10 +3320,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3289,10 +3331,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3300,10 +3342,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3311,10 +3353,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3322,10 +3364,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3333,10 +3375,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3344,10 +3386,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3355,10 +3397,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3366,10 +3408,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3377,10 +3419,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3388,10 +3430,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3399,10 +3441,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3410,10 +3452,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3421,10 +3463,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3432,10 +3474,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3443,10 +3485,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3454,10 +3496,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3465,10 +3507,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
-        <v>118</v>
+        <v>83</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3479,7 +3521,7 @@
         <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3490,7 +3532,7 @@
         <v>120</v>
       </c>
       <c r="B87" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3498,10 +3540,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B88" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3509,10 +3551,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B89" t="s">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3520,10 +3562,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B90" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3531,10 +3573,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3542,10 +3584,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B92" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3553,10 +3595,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3564,10 +3606,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B94" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3575,10 +3617,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3586,10 +3628,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3597,10 +3639,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" t="s">
         <v>135</v>
-      </c>
-      <c r="B97" t="s">
-        <v>128</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3611,7 +3653,7 @@
         <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3622,7 +3664,7 @@
         <v>137</v>
       </c>
       <c r="B99" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3630,10 +3672,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>139</v>
+      </c>
+      <c r="B100" t="s">
         <v>138</v>
-      </c>
-      <c r="B100" t="s">
-        <v>139</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3644,7 +3686,7 @@
         <v>140</v>
       </c>
       <c r="B101" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3652,10 +3694,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B102" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3663,10 +3705,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3674,10 +3716,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3685,10 +3727,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B105" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3696,10 +3738,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B106" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3707,10 +3749,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B107" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3718,10 +3760,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B108" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3729,10 +3771,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B109" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3743,7 +3785,7 @@
         <v>153</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3754,7 +3796,7 @@
         <v>154</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3765,7 +3807,7 @@
         <v>155</v>
       </c>
       <c r="B112" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3773,10 +3815,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>157</v>
+      </c>
+      <c r="B113" t="s">
         <v>156</v>
-      </c>
-      <c r="B113" t="s">
-        <v>128</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3784,10 +3826,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B114" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3795,7 +3837,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B115" t="s">
         <v>159</v>
@@ -3806,10 +3848,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B116" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3817,10 +3859,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B117" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3828,10 +3870,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
+        <v>164</v>
+      </c>
+      <c r="B118" t="s">
         <v>163</v>
-      </c>
-      <c r="B118" t="s">
-        <v>164</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3853,7 +3895,7 @@
         <v>167</v>
       </c>
       <c r="B120" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3875,7 +3917,7 @@
         <v>170</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3883,10 +3925,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B123" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3894,10 +3936,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B124" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3905,10 +3947,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B125" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3916,10 +3958,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B126" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3927,10 +3969,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B127" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3938,10 +3980,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B128" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3949,10 +3991,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B129" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3960,10 +4002,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B130" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3971,10 +4013,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B131" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3982,10 +4024,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B132" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3993,10 +4035,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B133" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4004,10 +4046,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B134" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4015,10 +4057,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B135" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4026,10 +4068,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B136" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4037,10 +4079,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B137" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4048,10 +4090,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B138" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4059,10 +4101,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B139" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4070,10 +4112,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B140" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4081,10 +4123,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B141" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4092,10 +4134,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B142" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4103,10 +4145,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B143" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4114,10 +4156,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B144" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4125,10 +4167,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B145" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4136,10 +4178,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B146" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4147,10 +4189,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4158,10 +4200,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B148" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4169,10 +4211,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B149" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4180,10 +4222,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B150" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4191,10 +4233,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B151" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4202,10 +4244,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B152" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4213,10 +4255,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B153" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4224,10 +4266,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B154" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4235,10 +4277,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B155" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4246,10 +4288,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B156" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4257,10 +4299,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
+        <v>227</v>
+      </c>
+      <c r="B157" t="s">
         <v>228</v>
-      </c>
-      <c r="B157" t="s">
-        <v>118</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4271,7 +4313,7 @@
         <v>229</v>
       </c>
       <c r="B158" t="s">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4279,10 +4321,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>230</v>
+      </c>
+      <c r="B159" t="s">
         <v>231</v>
-      </c>
-      <c r="B159" t="s">
-        <v>116</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4293,7 +4335,7 @@
         <v>232</v>
       </c>
       <c r="B160" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4301,10 +4343,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B161" t="s">
-        <v>61</v>
+        <v>176</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4312,10 +4354,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B162" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4323,10 +4365,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B163" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4334,10 +4376,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B164" t="s">
-        <v>91</v>
+        <v>231</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4345,10 +4387,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B165" t="s">
-        <v>63</v>
+        <v>176</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4356,10 +4398,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B166" t="s">
-        <v>91</v>
+        <v>242</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4367,10 +4409,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B167" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4378,10 +4420,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B168" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4389,10 +4431,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B169" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4400,10 +4442,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>247</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4411,10 +4453,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>133</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4422,10 +4464,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B172" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4433,10 +4475,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B173" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4444,10 +4486,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B174" t="s">
-        <v>27</v>
+        <v>252</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4455,10 +4497,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B175" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4466,10 +4508,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B176" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4477,10 +4519,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B177" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4488,10 +4530,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B178" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4499,10 +4541,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B179" t="s">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4510,10 +4552,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B180" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4521,10 +4563,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B181" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4532,10 +4574,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B182" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4543,10 +4585,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B183" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4554,10 +4596,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4565,10 +4607,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B185" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4576,10 +4618,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B186" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4587,10 +4629,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B187" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4598,10 +4640,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B188" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4609,10 +4651,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4620,10 +4662,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B190" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4631,10 +4673,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B191" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4642,10 +4684,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B192" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4653,10 +4695,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B193" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4664,10 +4706,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B194" t="s">
-        <v>269</v>
+        <v>37</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4675,10 +4717,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B195" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4686,10 +4728,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B196" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4697,10 +4739,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B197" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4708,10 +4750,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4719,10 +4761,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B199" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4730,10 +4772,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B200" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4741,10 +4783,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B201" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4752,10 +4794,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B202" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4763,10 +4805,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B203" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4774,10 +4816,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B204" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4785,10 +4827,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B205" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4796,10 +4838,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B206" t="s">
-        <v>51</v>
+        <v>285</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4807,10 +4849,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B207" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4818,10 +4860,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B208" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4829,10 +4871,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B209" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4840,10 +4882,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B210" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4851,10 +4893,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B211" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4862,10 +4904,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B212" t="s">
-        <v>288</v>
+        <v>97</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4873,10 +4915,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B213" t="s">
-        <v>288</v>
+        <v>97</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4884,10 +4926,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B214" t="s">
-        <v>291</v>
+        <v>108</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4895,10 +4937,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B215" t="s">
-        <v>293</v>
+        <v>124</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4906,10 +4948,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B216" t="s">
-        <v>288</v>
+        <v>64</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4917,10 +4959,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B217" t="s">
-        <v>296</v>
+        <v>68</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4931,7 +4973,7 @@
         <v>297</v>
       </c>
       <c r="B218" t="s">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4939,10 +4981,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B219" t="s">
-        <v>291</v>
+        <v>68</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4950,10 +4992,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B220" t="s">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4961,10 +5003,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4972,10 +5014,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B222" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4983,10 +5025,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4994,10 +5036,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B224" t="s">
-        <v>19</v>
+        <v>304</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5005,10 +5047,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B225" t="s">
-        <v>19</v>
+        <v>304</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5016,10 +5058,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B226" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5027,10 +5069,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
+        <v>307</v>
+      </c>
+      <c r="B227" t="s">
         <v>308</v>
-      </c>
-      <c r="B227" t="s">
-        <v>35</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5041,7 +5083,7 @@
         <v>309</v>
       </c>
       <c r="B228" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5052,7 +5094,7 @@
         <v>310</v>
       </c>
       <c r="B229" t="s">
-        <v>69</v>
+        <v>311</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5060,10 +5102,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B230" t="s">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5071,10 +5113,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B231" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5082,10 +5124,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B232" t="s">
-        <v>53</v>
+        <v>315</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5093,10 +5135,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B233" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5104,10 +5146,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B234" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5115,10 +5157,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B235" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5126,10 +5168,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5137,10 +5179,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B237" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5148,10 +5190,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B238" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5159,10 +5201,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B239" t="s">
-        <v>253</v>
+        <v>52</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5170,10 +5212,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B240" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5181,10 +5223,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B241" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5192,10 +5234,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B242" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5203,10 +5245,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B243" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5214,10 +5256,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B244" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5225,10 +5267,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B245" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5236,10 +5278,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B246" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5247,10 +5289,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B247" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5258,10 +5300,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B248" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5269,10 +5311,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B249" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5280,10 +5322,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B250" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5291,10 +5333,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B251" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5302,10 +5344,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B252" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5313,10 +5355,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B253" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5324,10 +5366,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B254" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5335,10 +5377,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B255" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5346,10 +5388,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B256" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5357,10 +5399,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B257" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5368,10 +5410,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B258" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5379,10 +5421,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B259" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5390,10 +5432,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B260" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5401,10 +5443,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B261" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5412,7 +5454,7 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B262" t="s">
         <v>66</v>
@@ -5423,10 +5465,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B263" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5434,10 +5476,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B264" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5445,10 +5487,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B265" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5456,10 +5498,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B266" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5467,10 +5509,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B267" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5478,10 +5520,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B268" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5489,10 +5531,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B269" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5500,10 +5542,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B270" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5511,10 +5553,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B271" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5522,10 +5564,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B272" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5533,10 +5575,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B273" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5544,10 +5586,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B274" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5555,10 +5597,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B275" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5566,10 +5608,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B276" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5577,10 +5619,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B277" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5588,10 +5630,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B278" t="s">
-        <v>360</v>
+        <v>64</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5599,10 +5641,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B279" t="s">
-        <v>362</v>
+        <v>64</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5613,7 +5655,7 @@
         <v>363</v>
       </c>
       <c r="B280" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5624,7 +5666,7 @@
         <v>364</v>
       </c>
       <c r="B281" t="s">
-        <v>365</v>
+        <v>66</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5632,10 +5674,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B282" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5643,10 +5685,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B283" t="s">
-        <v>235</v>
+        <v>66</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5654,10 +5696,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B284" t="s">
-        <v>235</v>
+        <v>66</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5665,10 +5707,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B285" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5676,10 +5718,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B286" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5687,10 +5729,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B287" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5698,10 +5740,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B288" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5709,10 +5751,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B289" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5720,10 +5762,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
+        <v>373</v>
+      </c>
+      <c r="B290" t="s">
         <v>374</v>
-      </c>
-      <c r="B290" t="s">
-        <v>61</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5734,7 +5776,7 @@
         <v>375</v>
       </c>
       <c r="B291" t="s">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5742,10 +5784,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B292" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5753,10 +5795,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B293" t="s">
-        <v>91</v>
+        <v>379</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5764,10 +5806,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B294" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5775,10 +5817,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B295" t="s">
-        <v>61</v>
+        <v>252</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5786,10 +5828,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B296" t="s">
-        <v>381</v>
+        <v>252</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5797,10 +5839,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B297" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5808,10 +5850,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B298" t="s">
-        <v>365</v>
+        <v>112</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5819,10 +5861,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B299" t="s">
-        <v>365</v>
+        <v>112</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5830,10 +5872,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B300" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5841,10 +5883,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B301" t="s">
-        <v>152</v>
+        <v>112</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5852,10 +5894,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B302" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5863,10 +5905,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B303" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5874,10 +5916,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B304" t="s">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5885,10 +5927,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B305" t="s">
-        <v>214</v>
+        <v>108</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5896,10 +5938,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B306" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5907,10 +5949,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B307" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5918,10 +5960,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B308" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5929,10 +5971,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B309" t="s">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5940,10 +5982,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B310" t="s">
-        <v>269</v>
+        <v>379</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5951,10 +5993,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B311" t="s">
-        <v>114</v>
+        <v>379</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5962,10 +6004,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B312" t="s">
-        <v>365</v>
+        <v>141</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5973,10 +6015,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B313" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5984,10 +6026,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B314" t="s">
-        <v>51</v>
+        <v>226</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5995,10 +6037,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B315" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6006,10 +6048,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B316" t="s">
-        <v>95</v>
+        <v>224</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6017,10 +6059,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B317" t="s">
-        <v>59</v>
+        <v>231</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6028,10 +6070,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B318" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6039,10 +6081,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B319" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6050,10 +6092,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B320" t="s">
-        <v>25</v>
+        <v>374</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6061,10 +6103,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B321" t="s">
-        <v>21</v>
+        <v>285</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6072,10 +6114,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B322" t="s">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6083,10 +6125,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B323" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6094,10 +6136,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B324" t="s">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6105,10 +6147,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B325" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6116,10 +6158,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B326" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6127,10 +6169,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B327" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6138,10 +6180,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B328" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6149,10 +6191,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B329" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6160,10 +6202,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B330" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6171,10 +6213,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B331" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6182,10 +6224,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B332" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6193,10 +6235,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B333" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6204,10 +6246,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B334" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6215,10 +6257,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B335" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6226,10 +6268,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B336" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6237,10 +6279,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B337" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6248,10 +6290,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B338" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6259,10 +6301,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B339" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6270,10 +6312,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B340" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6281,10 +6323,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B341" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6292,10 +6334,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B342" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6303,10 +6345,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B343" t="s">
-        <v>360</v>
+        <v>97</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6314,10 +6356,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B344" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6325,10 +6367,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B345" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6336,10 +6378,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B346" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6347,10 +6389,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B347" t="s">
-        <v>269</v>
+        <v>108</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6358,10 +6400,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B348" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6369,10 +6411,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B349" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6380,10 +6422,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B350" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6391,10 +6433,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B351" t="s">
-        <v>365</v>
+        <v>76</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6402,10 +6444,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B352" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6413,10 +6455,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B353" t="s">
-        <v>381</v>
+        <v>83</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6424,10 +6466,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B354" t="s">
-        <v>235</v>
+        <v>83</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6435,10 +6477,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B355" t="s">
-        <v>235</v>
+        <v>374</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6446,10 +6488,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B356" t="s">
-        <v>360</v>
+        <v>99</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6457,10 +6499,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B357" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6468,10 +6510,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B358" t="s">
-        <v>82</v>
+        <v>124</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6479,10 +6521,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B359" t="s">
-        <v>82</v>
+        <v>285</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6490,10 +6532,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B360" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6501,10 +6543,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B361" t="s">
-        <v>61</v>
+        <v>131</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6512,10 +6554,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B362" t="s">
-        <v>360</v>
+        <v>143</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6523,10 +6565,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B363" t="s">
-        <v>82</v>
+        <v>379</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6534,10 +6576,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B364" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6545,10 +6587,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B365" t="s">
-        <v>269</v>
+        <v>395</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6556,10 +6598,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B366" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6567,10 +6609,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B367" t="s">
-        <v>381</v>
+        <v>252</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6578,10 +6620,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B368" t="s">
-        <v>235</v>
+        <v>374</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6589,10 +6631,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B369" t="s">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6600,10 +6642,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B370" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6611,10 +6653,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B371" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6622,10 +6664,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B372" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6633,10 +6675,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B373" t="s">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6644,10 +6686,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B374" t="s">
-        <v>142</v>
+        <v>374</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6655,10 +6697,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B375" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6666,10 +6708,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B376" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6677,10 +6719,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B377" t="s">
-        <v>463</v>
+        <v>285</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6688,10 +6730,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B378" t="s">
-        <v>465</v>
+        <v>285</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6702,7 +6744,7 @@
         <v>466</v>
       </c>
       <c r="B379" t="s">
-        <v>211</v>
+        <v>395</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6713,7 +6755,7 @@
         <v>467</v>
       </c>
       <c r="B380" t="s">
-        <v>152</v>
+        <v>252</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6724,7 +6766,7 @@
         <v>468</v>
       </c>
       <c r="B381" t="s">
-        <v>126</v>
+        <v>379</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6735,7 +6777,7 @@
         <v>469</v>
       </c>
       <c r="B382" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6746,7 +6788,7 @@
         <v>470</v>
       </c>
       <c r="B383" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6757,7 +6799,7 @@
         <v>471</v>
       </c>
       <c r="B384" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6768,7 +6810,7 @@
         <v>472</v>
       </c>
       <c r="B385" t="s">
-        <v>47</v>
+        <v>247</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6779,7 +6821,7 @@
         <v>473</v>
       </c>
       <c r="B386" t="s">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6790,7 +6832,7 @@
         <v>474</v>
       </c>
       <c r="B387" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6801,7 +6843,7 @@
         <v>475</v>
       </c>
       <c r="B388" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6812,7 +6854,7 @@
         <v>476</v>
       </c>
       <c r="B389" t="s">
-        <v>66</v>
+        <v>477</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6820,10 +6862,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B390" t="s">
-        <v>66</v>
+        <v>479</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6831,10 +6873,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B391" t="s">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6842,10 +6884,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B392" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6853,10 +6895,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B393" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6864,10 +6906,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B394" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6875,10 +6917,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B395" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6886,10 +6928,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B396" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6897,10 +6939,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B397" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6908,10 +6950,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B398" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6919,10 +6961,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B399" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6930,10 +6972,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B400" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6941,10 +6983,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B401" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6952,10 +6994,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B402" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6963,10 +7005,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B403" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6974,10 +7016,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B404" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6985,10 +7027,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B405" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6996,10 +7038,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B406" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7007,10 +7049,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B407" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7018,10 +7060,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B408" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7029,10 +7071,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B409" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7040,10 +7082,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B410" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7051,10 +7093,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B411" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7062,10 +7104,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B412" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7073,10 +7115,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B413" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7084,10 +7126,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B414" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7095,10 +7137,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B415" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7106,10 +7148,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B416" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7117,10 +7159,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B417" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7128,10 +7170,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B418" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7139,10 +7181,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B419" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7150,10 +7192,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B420" t="s">
-        <v>360</v>
+        <v>66</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7161,10 +7203,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B421" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7172,10 +7214,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B422" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7183,10 +7225,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B423" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7194,10 +7236,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B424" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7205,10 +7247,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B425" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7216,10 +7258,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B426" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7227,10 +7269,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B427" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7238,10 +7280,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B428" t="s">
-        <v>381</v>
+        <v>112</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7249,10 +7291,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B429" t="s">
-        <v>381</v>
+        <v>99</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7260,10 +7302,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B430" t="s">
-        <v>381</v>
+        <v>131</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7271,10 +7313,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B431" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7282,10 +7324,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B432" t="s">
-        <v>269</v>
+        <v>374</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7293,10 +7335,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B433" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7304,10 +7346,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B434" t="s">
-        <v>235</v>
+        <v>68</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7315,10 +7357,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B435" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7326,10 +7368,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B436" t="s">
-        <v>362</v>
+        <v>99</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7337,10 +7379,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B437" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7348,10 +7390,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B438" t="s">
-        <v>365</v>
+        <v>112</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7359,10 +7401,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B439" t="s">
-        <v>362</v>
+        <v>80</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7370,10 +7412,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B440" t="s">
-        <v>528</v>
+        <v>395</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7381,10 +7423,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B441" t="s">
-        <v>121</v>
+        <v>395</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7392,10 +7434,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B442" t="s">
-        <v>211</v>
+        <v>395</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7403,7 +7445,7 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B443" t="s">
         <v>131</v>
@@ -7414,10 +7456,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B444" t="s">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7425,10 +7467,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B445" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7436,10 +7478,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B446" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7447,10 +7489,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B447" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7458,10 +7500,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B448" t="s">
-        <v>116</v>
+        <v>376</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7469,10 +7511,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B449" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7480,10 +7522,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B450" t="s">
-        <v>118</v>
+        <v>379</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7491,10 +7533,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B451" t="s">
-        <v>152</v>
+        <v>376</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7502,10 +7544,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B452" t="s">
-        <v>230</v>
+        <v>542</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7513,10 +7555,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B453" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7524,10 +7566,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B454" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7535,10 +7577,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B455" t="s">
-        <v>63</v>
+        <v>148</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7546,10 +7588,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B456" t="s">
-        <v>360</v>
+        <v>129</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7557,10 +7599,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B457" t="s">
-        <v>269</v>
+        <v>129</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7568,10 +7610,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B458" t="s">
-        <v>269</v>
+        <v>131</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7579,10 +7621,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B459" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7590,10 +7632,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B460" t="s">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7601,10 +7643,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B461" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7612,10 +7654,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B462" t="s">
-        <v>381</v>
+        <v>135</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7623,10 +7665,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B463" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7634,10 +7676,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B464" t="s">
-        <v>112</v>
+        <v>247</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7645,10 +7687,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B465" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7656,10 +7698,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B466" t="s">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7667,10 +7709,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B467" t="s">
-        <v>463</v>
+        <v>80</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7678,10 +7720,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B468" t="s">
-        <v>207</v>
+        <v>374</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7689,10 +7731,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B469" t="s">
-        <v>221</v>
+        <v>285</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7700,10 +7742,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B470" t="s">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7711,10 +7753,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B471" t="s">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7722,10 +7764,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B472" t="s">
-        <v>146</v>
+        <v>252</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7733,10 +7775,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B473" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7744,10 +7786,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B474" t="s">
-        <v>159</v>
+        <v>395</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7755,10 +7797,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B475" t="s">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7766,10 +7808,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B476" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7777,10 +7819,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B477" t="s">
-        <v>566</v>
+        <v>228</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7788,10 +7830,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B478" t="s">
-        <v>566</v>
+        <v>226</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7799,10 +7841,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B479" t="s">
-        <v>566</v>
+        <v>477</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7810,10 +7852,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B480" t="s">
-        <v>566</v>
+        <v>224</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7821,10 +7863,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B481" t="s">
-        <v>571</v>
+        <v>238</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7835,7 +7877,7 @@
         <v>572</v>
       </c>
       <c r="B482" t="s">
-        <v>573</v>
+        <v>233</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7843,10 +7885,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B483" t="s">
-        <v>171</v>
+        <v>242</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7854,10 +7896,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B484" t="s">
-        <v>566</v>
+        <v>163</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -7865,10 +7907,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B485" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7876,10 +7918,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B486" t="s">
-        <v>571</v>
+        <v>176</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7887,10 +7929,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B487" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -7898,10 +7940,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B488" t="s">
-        <v>580</v>
+        <v>181</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -7909,7 +7951,7 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B489" t="s">
         <v>580</v>
@@ -7920,10 +7962,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B490" t="s">
-        <v>176</v>
+        <v>580</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -7931,10 +7973,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B491" t="s">
-        <v>178</v>
+        <v>580</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -7942,10 +7984,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B492" t="s">
-        <v>187</v>
+        <v>580</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -7953,10 +7995,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
+        <v>584</v>
+      </c>
+      <c r="B493" t="s">
         <v>585</v>
-      </c>
-      <c r="B493" t="s">
-        <v>199</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -7978,7 +8020,7 @@
         <v>588</v>
       </c>
       <c r="B495" t="s">
-        <v>587</v>
+        <v>188</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -7989,7 +8031,7 @@
         <v>589</v>
       </c>
       <c r="B496" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -7997,10 +8039,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B497" t="s">
-        <v>592</v>
+        <v>220</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8008,10 +8050,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B498" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8019,10 +8061,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B499" t="s">
-        <v>596</v>
+        <v>204</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8030,10 +8072,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B500" t="s">
-        <v>180</v>
+        <v>594</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8041,10 +8083,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B501" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8052,10 +8094,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B502" t="s">
-        <v>601</v>
+        <v>193</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8063,10 +8105,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B503" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8074,10 +8116,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B504" t="s">
-        <v>604</v>
+        <v>204</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8085,10 +8127,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B505" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8096,10 +8138,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B506" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8107,10 +8149,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B507" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8118,10 +8160,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="B508" t="s">
-        <v>201</v>
+        <v>604</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8129,10 +8171,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B509" t="s">
-        <v>201</v>
+        <v>606</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8140,10 +8182,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B510" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8151,10 +8193,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B511" t="s">
-        <v>192</v>
+        <v>610</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8162,10 +8204,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B512" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8173,10 +8215,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B513" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8184,10 +8226,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B514" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8195,10 +8237,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B515" t="s">
-        <v>620</v>
+        <v>209</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8206,10 +8248,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B516" t="s">
-        <v>176</v>
+        <v>618</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8217,10 +8259,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B517" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8228,10 +8270,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B518" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8239,10 +8281,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B519" t="s">
-        <v>176</v>
+        <v>623</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8250,10 +8292,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B520" t="s">
-        <v>607</v>
+        <v>218</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8261,10 +8303,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B521" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8272,10 +8314,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B522" t="s">
-        <v>201</v>
+        <v>621</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8283,10 +8325,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B523" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8294,10 +8336,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B524" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8305,10 +8347,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B525" t="s">
-        <v>166</v>
+        <v>630</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8316,10 +8358,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
+        <v>631</v>
+      </c>
+      <c r="B526" t="s">
         <v>632</v>
-      </c>
-      <c r="B526" t="s">
-        <v>216</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8330,7 +8372,7 @@
         <v>633</v>
       </c>
       <c r="B527" t="s">
-        <v>139</v>
+        <v>634</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8338,10 +8380,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B528" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8349,10 +8391,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B529" t="s">
-        <v>463</v>
+        <v>218</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8360,10 +8402,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B530" t="s">
-        <v>139</v>
+        <v>638</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8371,10 +8413,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B531" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8382,10 +8424,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B532" t="s">
-        <v>149</v>
+        <v>621</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8393,10 +8435,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B533" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8404,10 +8446,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B534" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8415,10 +8457,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B535" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8426,10 +8468,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B536" t="s">
-        <v>128</v>
+        <v>176</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8437,10 +8479,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B537" t="s">
-        <v>528</v>
+        <v>183</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8448,10 +8490,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B538" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8459,10 +8501,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B539" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8470,10 +8512,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B540" t="s">
-        <v>219</v>
+        <v>156</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8481,10 +8523,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B541" t="s">
-        <v>648</v>
+        <v>477</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8492,10 +8534,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B542" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8503,10 +8545,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B543" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8514,10 +8556,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B544" t="s">
-        <v>648</v>
+        <v>166</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8525,10 +8567,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B545" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8536,10 +8578,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B546" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -8547,10 +8589,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B547" t="s">
-        <v>225</v>
+        <v>138</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -8558,10 +8600,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B548" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -8569,10 +8611,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B549" t="s">
-        <v>118</v>
+        <v>542</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -8580,10 +8622,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B550" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -8591,10 +8633,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B551" t="s">
-        <v>118</v>
+        <v>233</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -8602,10 +8644,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B552" t="s">
-        <v>365</v>
+        <v>236</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -8613,10 +8655,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B553" t="s">
-        <v>128</v>
+        <v>662</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -8624,10 +8666,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B554" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -8635,10 +8677,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B555" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -8646,10 +8688,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B556" t="s">
-        <v>124</v>
+        <v>662</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -8657,10 +8699,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B557" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -8668,10 +8710,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B558" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -8679,10 +8721,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B559" t="s">
-        <v>95</v>
+        <v>242</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -8690,10 +8732,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B560" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -8701,10 +8743,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B561" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -8712,10 +8754,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B562" t="s">
-        <v>360</v>
+        <v>135</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -8723,10 +8765,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B563" t="s">
-        <v>381</v>
+        <v>135</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -8734,10 +8776,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B564" t="s">
-        <v>235</v>
+        <v>379</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -8745,10 +8787,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B565" t="s">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -8756,10 +8798,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B566" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -8767,10 +8809,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B567" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -8778,10 +8820,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B568" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -8789,10 +8831,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B569" t="s">
-        <v>61</v>
+        <v>129</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -8800,10 +8842,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B570" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -8811,10 +8853,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B571" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -8822,10 +8864,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B572" t="s">
-        <v>235</v>
+        <v>124</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -8833,10 +8875,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B573" t="s">
-        <v>230</v>
+        <v>108</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -8844,10 +8886,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B574" t="s">
-        <v>118</v>
+        <v>374</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -8855,10 +8897,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B575" t="s">
-        <v>118</v>
+        <v>395</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -8866,10 +8908,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B576" t="s">
-        <v>121</v>
+        <v>252</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -8877,10 +8919,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B577" t="s">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -8888,10 +8930,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B578" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -8899,10 +8941,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B579" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -8910,10 +8952,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B580" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -8921,10 +8963,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B581" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -8932,10 +8974,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B582" t="s">
-        <v>463</v>
+        <v>97</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -8943,10 +8985,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B583" t="s">
-        <v>465</v>
+        <v>124</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -8954,10 +8996,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B584" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -8965,10 +9007,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B585" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -8976,10 +9018,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B586" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -8987,10 +9029,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B587" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -8998,10 +9040,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B588" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9009,10 +9051,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B589" t="s">
-        <v>269</v>
+        <v>143</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9020,10 +9062,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B590" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9031,10 +9073,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B591" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9042,10 +9084,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B592" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9053,10 +9095,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B593" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9064,10 +9106,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B594" t="s">
-        <v>118</v>
+        <v>477</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9075,10 +9117,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B595" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9086,10 +9128,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B596" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9097,10 +9139,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B597" t="s">
-        <v>465</v>
+        <v>228</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9108,10 +9150,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B598" t="s">
-        <v>465</v>
+        <v>135</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9119,10 +9161,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B599" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9130,10 +9172,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B600" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9141,10 +9183,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B601" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9152,10 +9194,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B602" t="s">
-        <v>566</v>
+        <v>148</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9163,10 +9205,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B603" t="s">
-        <v>566</v>
+        <v>148</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9174,10 +9216,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B604" t="s">
-        <v>571</v>
+        <v>133</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9185,10 +9227,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B605" t="s">
-        <v>573</v>
+        <v>135</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9196,10 +9238,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B606" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9207,10 +9249,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B607" t="s">
-        <v>166</v>
+        <v>477</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9218,10 +9260,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B608" t="s">
-        <v>648</v>
+        <v>135</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9229,10 +9271,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B609" t="s">
-        <v>171</v>
+        <v>479</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9240,10 +9282,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B610" t="s">
-        <v>171</v>
+        <v>479</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9251,10 +9293,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B611" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -9262,10 +9304,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B612" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -9273,10 +9315,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B613" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -9284,10 +9326,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B614" t="s">
-        <v>162</v>
+        <v>580</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -9295,10 +9337,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B615" t="s">
-        <v>166</v>
+        <v>580</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -9306,10 +9348,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B616" t="s">
-        <v>203</v>
+        <v>585</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -9317,10 +9359,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B617" t="s">
-        <v>203</v>
+        <v>587</v>
       </c>
       <c r="C617" t="s">
         <v>5</v>
@@ -9328,10 +9370,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B618" t="s">
-        <v>726</v>
+        <v>183</v>
       </c>
       <c r="C618" t="s">
         <v>5</v>
@@ -9339,10 +9381,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B619" t="s">
-        <v>573</v>
+        <v>183</v>
       </c>
       <c r="C619" t="s">
         <v>5</v>
@@ -9350,10 +9392,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B620" t="s">
-        <v>573</v>
+        <v>662</v>
       </c>
       <c r="C620" t="s">
         <v>5</v>
@@ -9361,10 +9403,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B621" t="s">
-        <v>730</v>
+        <v>188</v>
       </c>
       <c r="C621" t="s">
         <v>5</v>
@@ -9375,9 +9417,141 @@
         <v>731</v>
       </c>
       <c r="B622" t="s">
-        <v>571</v>
+        <v>188</v>
       </c>
       <c r="C622" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>732</v>
+      </c>
+      <c r="B623" t="s">
+        <v>220</v>
+      </c>
+      <c r="C623" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>733</v>
+      </c>
+      <c r="B624" t="s">
+        <v>220</v>
+      </c>
+      <c r="C624" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>734</v>
+      </c>
+      <c r="B625" t="s">
+        <v>183</v>
+      </c>
+      <c r="C625" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>735</v>
+      </c>
+      <c r="B626" t="s">
+        <v>179</v>
+      </c>
+      <c r="C626" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>736</v>
+      </c>
+      <c r="B627" t="s">
+        <v>183</v>
+      </c>
+      <c r="C627" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>737</v>
+      </c>
+      <c r="B628" t="s">
+        <v>220</v>
+      </c>
+      <c r="C628" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>738</v>
+      </c>
+      <c r="B629" t="s">
+        <v>220</v>
+      </c>
+      <c r="C629" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>739</v>
+      </c>
+      <c r="B630" t="s">
+        <v>740</v>
+      </c>
+      <c r="C630" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>741</v>
+      </c>
+      <c r="B631" t="s">
+        <v>587</v>
+      </c>
+      <c r="C631" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>742</v>
+      </c>
+      <c r="B632" t="s">
+        <v>587</v>
+      </c>
+      <c r="C632" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>743</v>
+      </c>
+      <c r="B633" t="s">
+        <v>744</v>
+      </c>
+      <c r="C633" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>745</v>
+      </c>
+      <c r="B634" t="s">
+        <v>585</v>
+      </c>
+      <c r="C634" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
+++ b/data/GreatLink/GreatLink US Income and Growth Fund (Dis).xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid476276"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid315280"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="767">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,120 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>03/12/2025</t>
+  </si>
+  <si>
+    <t>1.008</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>02/12/2025</t>
+  </si>
+  <si>
+    <t>1.012</t>
+  </si>
+  <si>
+    <t>01/12/2025</t>
+  </si>
+  <si>
+    <t>1.011</t>
+  </si>
+  <si>
+    <t>28/11/2025</t>
+  </si>
+  <si>
+    <t>27/11/2025</t>
+  </si>
+  <si>
+    <t>1.006</t>
+  </si>
+  <si>
+    <t>26/11/2025</t>
+  </si>
+  <si>
+    <t>25/11/2025</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>24/11/2025</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>21/11/2025</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>20/11/2025</t>
+  </si>
+  <si>
+    <t>1.003</t>
+  </si>
+  <si>
+    <t>19/11/2025</t>
+  </si>
+  <si>
+    <t>0.995</t>
+  </si>
+  <si>
+    <t>18/11/2025</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>17/11/2025</t>
+  </si>
+  <si>
+    <t>1.005</t>
+  </si>
+  <si>
+    <t>14/11/2025</t>
+  </si>
+  <si>
+    <t>13/11/2025</t>
+  </si>
+  <si>
+    <t>1.015</t>
+  </si>
+  <si>
+    <t>12/11/2025</t>
+  </si>
+  <si>
+    <t>1.021</t>
+  </si>
+  <si>
+    <t>11/11/2025</t>
+  </si>
+  <si>
+    <t>1.019</t>
+  </si>
+  <si>
+    <t>10/11/2025</t>
+  </si>
+  <si>
+    <t>07/11/2025</t>
+  </si>
+  <si>
+    <t>06/11/2025</t>
+  </si>
+  <si>
+    <t>05/11/2025</t>
+  </si>
+  <si>
     <t>04/11/2025</t>
   </si>
   <si>
     <t>1.016</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>03/11/2025</t>
   </si>
   <si>
@@ -77,18 +182,12 @@
     <t>22/10/2025</t>
   </si>
   <si>
-    <t>1.011</t>
-  </si>
-  <si>
     <t>21/10/2025</t>
   </si>
   <si>
     <t>17/10/2025</t>
   </si>
   <si>
-    <t>1.005</t>
-  </si>
-  <si>
     <t>16/10/2025</t>
   </si>
   <si>
@@ -143,15 +242,9 @@
     <t>29/09/2025</t>
   </si>
   <si>
-    <t>1.012</t>
-  </si>
-  <si>
     <t>26/09/2025</t>
   </si>
   <si>
-    <t>1.008</t>
-  </si>
-  <si>
     <t>25/09/2025</t>
   </si>
   <si>
@@ -164,9 +257,6 @@
     <t>22/09/2025</t>
   </si>
   <si>
-    <t>1.015</t>
-  </si>
-  <si>
     <t>19/09/2025</t>
   </si>
   <si>
@@ -221,9 +311,6 @@
     <t>02/09/2025</t>
   </si>
   <si>
-    <t>0.998</t>
-  </si>
-  <si>
     <t>01/09/2025</t>
   </si>
   <si>
@@ -275,9 +362,6 @@
     <t>15/08/2025</t>
   </si>
   <si>
-    <t>1.006</t>
-  </si>
-  <si>
     <t>14/08/2025</t>
   </si>
   <si>
@@ -296,9 +380,6 @@
     <t>07/08/2025</t>
   </si>
   <si>
-    <t>1.003</t>
-  </si>
-  <si>
     <t>06/08/2025</t>
   </si>
   <si>
@@ -341,9 +422,6 @@
     <t>22/07/2025</t>
   </si>
   <si>
-    <t>0.996</t>
-  </si>
-  <si>
     <t>21/07/2025</t>
   </si>
   <si>
@@ -353,9 +431,6 @@
     <t>17/07/2025</t>
   </si>
   <si>
-    <t>0.995</t>
-  </si>
-  <si>
     <t>16/07/2025</t>
   </si>
   <si>
@@ -389,9 +464,6 @@
     <t>02/07/2025</t>
   </si>
   <si>
-    <t>0.993</t>
-  </si>
-  <si>
     <t>01/07/2025</t>
   </si>
   <si>
@@ -410,9 +482,6 @@
     <t>25/06/2025</t>
   </si>
   <si>
-    <t>0.985</t>
-  </si>
-  <si>
     <t>24/06/2025</t>
   </si>
   <si>
@@ -941,9 +1010,6 @@
     <t>11/12/2024</t>
   </si>
   <si>
-    <t>1.021</t>
-  </si>
-  <si>
     <t>10/12/2024</t>
   </si>
   <si>
@@ -960,9 +1026,6 @@
   </si>
   <si>
     <t>04/12/2024</t>
-  </si>
-  <si>
-    <t>1.019</t>
   </si>
   <si>
     <t>03/12/2024</t>
@@ -2652,7 +2715,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2660,10 +2723,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2674,7 +2737,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2682,10 +2745,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2693,10 +2756,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2704,10 +2767,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2715,10 +2778,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2726,10 +2789,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2737,10 +2800,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2748,10 +2811,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2759,10 +2822,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2770,10 +2833,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2781,10 +2844,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2792,10 +2855,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2803,10 +2866,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2814,10 +2877,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2825,10 +2888,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2836,10 +2899,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2847,10 +2910,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2858,10 +2921,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2869,10 +2932,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2880,10 +2943,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2891,10 +2954,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2902,10 +2965,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2913,10 +2976,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2924,10 +2987,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2935,10 +2998,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2946,10 +3009,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2957,10 +3020,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2968,10 +3031,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2979,10 +3042,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2990,10 +3053,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3001,10 +3064,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3012,10 +3075,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3023,10 +3086,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3034,10 +3097,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3045,10 +3108,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3056,10 +3119,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3067,10 +3130,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3078,10 +3141,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3089,10 +3152,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3100,10 +3163,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3111,10 +3174,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3122,10 +3185,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3133,10 +3196,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3144,10 +3207,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3155,10 +3218,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3166,10 +3229,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3180,7 +3243,7 @@
         <v>81</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3188,10 +3251,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3202,7 +3265,7 @@
         <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3213,7 +3276,7 @@
         <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3221,10 +3284,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3232,10 +3295,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3243,10 +3306,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3254,10 +3317,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3265,10 +3328,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>90</v>
+      </c>
+      <c r="B63" t="s">
         <v>91</v>
-      </c>
-      <c r="B63" t="s">
-        <v>76</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3279,7 +3342,7 @@
         <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3287,10 +3350,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" t="s">
         <v>94</v>
-      </c>
-      <c r="B65" t="s">
-        <v>68</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3301,7 +3364,7 @@
         <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3309,10 +3372,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3334,7 +3397,7 @@
         <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3345,7 +3408,7 @@
         <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3356,7 +3419,7 @@
         <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3367,7 +3430,7 @@
         <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3378,7 +3441,7 @@
         <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3386,10 +3449,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3397,10 +3460,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B75" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3408,10 +3471,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3419,10 +3482,10 @@
     </row>
     <row r="77">
       <